--- a/inst/extdata/national_accounts.xlsx
+++ b/inst/extdata/national_accounts.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV204"/>
+  <dimension ref="A1:BJ205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,27 +377,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>gdph</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>jgdp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>c</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ch</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gdph</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>jc</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>jgdp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -605,6 +605,76 @@
           <t>gftfbusx</t>
         </is>
       </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>gftfpe</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>gftfpp</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>gftfpv</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>gfsubp</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>gfsubg</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>gfsube</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>gfsubk</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>gfegc</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>gfege</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>gfegv</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>yptue</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>yptup</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>yptuc</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>yptolm</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -614,19 +684,19 @@
         <v>1051.2</v>
       </c>
       <c r="C2">
+        <v>4936.6</v>
+      </c>
+      <c r="D2">
+        <v>21.286</v>
+      </c>
+      <c r="E2">
         <v>631.7000000000001</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>3065.1</v>
       </c>
-      <c r="E2">
-        <v>4936.6</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>20.61</v>
-      </c>
-      <c r="G2">
-        <v>21.286</v>
       </c>
       <c r="H2">
         <v>18.701</v>
@@ -754,19 +824,19 @@
         <v>1067.4</v>
       </c>
       <c r="C3">
+        <v>4943.6</v>
+      </c>
+      <c r="D3">
+        <v>21.593</v>
+      </c>
+      <c r="E3">
         <v>641.6</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>3079</v>
       </c>
-      <c r="E3">
-        <v>4943.6</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>20.838</v>
-      </c>
-      <c r="G3">
-        <v>21.593</v>
       </c>
       <c r="H3">
         <v>18.948</v>
@@ -894,19 +964,19 @@
         <v>1086.1</v>
       </c>
       <c r="C4">
+        <v>4989.2</v>
+      </c>
+      <c r="D4">
+        <v>21.77</v>
+      </c>
+      <c r="E4">
         <v>653.5</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>3106</v>
       </c>
-      <c r="E4">
-        <v>4989.2</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>21.041</v>
-      </c>
-      <c r="G4">
-        <v>21.77</v>
       </c>
       <c r="H4">
         <v>19.271</v>
@@ -1034,19 +1104,19 @@
         <v>1088.6</v>
       </c>
       <c r="C5">
+        <v>4935.7</v>
+      </c>
+      <c r="D5">
+        <v>22.055</v>
+      </c>
+      <c r="E5">
         <v>660.2000000000001</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>3097.5</v>
       </c>
-      <c r="E5">
-        <v>4935.7</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>21.314</v>
-      </c>
-      <c r="G5">
-        <v>22.055</v>
       </c>
       <c r="H5">
         <v>19.516</v>
@@ -1174,19 +1244,19 @@
         <v>1135.2</v>
       </c>
       <c r="C6">
+        <v>5069.7</v>
+      </c>
+      <c r="D6">
+        <v>22.389</v>
+      </c>
+      <c r="E6">
         <v>679.2000000000001</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>3157</v>
       </c>
-      <c r="E6">
-        <v>5069.7</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>21.516</v>
-      </c>
-      <c r="G6">
-        <v>22.389</v>
       </c>
       <c r="H6">
         <v>20.134</v>
@@ -1314,19 +1384,19 @@
         <v>1156.3</v>
       </c>
       <c r="C7">
+        <v>5097.2</v>
+      </c>
+      <c r="D7">
+        <v>22.689</v>
+      </c>
+      <c r="E7">
         <v>693.2000000000001</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>3186</v>
       </c>
-      <c r="E7">
-        <v>5097.2</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>21.761</v>
-      </c>
-      <c r="G7">
-        <v>22.689</v>
       </c>
       <c r="H7">
         <v>20.51</v>
@@ -1454,19 +1524,19 @@
         <v>1177.7</v>
       </c>
       <c r="C8">
+        <v>5139.1</v>
+      </c>
+      <c r="D8">
+        <v>22.917</v>
+      </c>
+      <c r="E8">
         <v>705.6</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>3211.4</v>
       </c>
-      <c r="E8">
-        <v>5139.1</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>21.975</v>
-      </c>
-      <c r="G8">
-        <v>22.917</v>
       </c>
       <c r="H8">
         <v>20.807</v>
@@ -1594,19 +1664,19 @@
         <v>1190.3</v>
       </c>
       <c r="C9">
+        <v>5151.2</v>
+      </c>
+      <c r="D9">
+        <v>23.107</v>
+      </c>
+      <c r="E9">
         <v>721.7000000000001</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>3264.7</v>
       </c>
-      <c r="E9">
-        <v>5151.2</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>22.111</v>
-      </c>
-      <c r="G9">
-        <v>23.107</v>
       </c>
       <c r="H9">
         <v>21.23</v>
@@ -1734,19 +1804,19 @@
         <v>1230.6</v>
       </c>
       <c r="C10">
+        <v>5246</v>
+      </c>
+      <c r="D10">
+        <v>23.478</v>
+      </c>
+      <c r="E10">
         <v>738.9</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>3307.8</v>
       </c>
-      <c r="E10">
-        <v>5246</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>22.344</v>
-      </c>
-      <c r="G10">
-        <v>23.478</v>
       </c>
       <c r="H10">
         <v>22.104</v>
@@ -1874,19 +1944,19 @@
         <v>1266.4</v>
       </c>
       <c r="C11">
+        <v>5365</v>
+      </c>
+      <c r="D11">
+        <v>23.621</v>
+      </c>
+      <c r="E11">
         <v>757.4</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>3370.7</v>
       </c>
-      <c r="E11">
-        <v>5365</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>22.473</v>
-      </c>
-      <c r="G11">
-        <v>23.621</v>
       </c>
       <c r="H11">
         <v>22.327</v>
@@ -2014,19 +2084,19 @@
         <v>1290.6</v>
       </c>
       <c r="C12">
+        <v>5415.7</v>
+      </c>
+      <c r="D12">
+        <v>23.835</v>
+      </c>
+      <c r="E12">
         <v>775.8</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>3422.7</v>
       </c>
-      <c r="E12">
-        <v>5415.7</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>22.671</v>
-      </c>
-      <c r="G12">
-        <v>23.835</v>
       </c>
       <c r="H12">
         <v>22.51</v>
@@ -2154,19 +2224,19 @@
         <v>1328.9</v>
       </c>
       <c r="C13">
+        <v>5506.4</v>
+      </c>
+      <c r="D13">
+        <v>24.105</v>
+      </c>
+      <c r="E13">
         <v>800.5</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>3503</v>
       </c>
-      <c r="E13">
-        <v>5506.4</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>22.855</v>
-      </c>
-      <c r="G13">
-        <v>24.105</v>
       </c>
       <c r="H13">
         <v>22.999</v>
@@ -2294,19 +2364,19 @@
         <v>1377.5</v>
       </c>
       <c r="C14">
+        <v>5642.7</v>
+      </c>
+      <c r="D14">
+        <v>24.412</v>
+      </c>
+      <c r="E14">
         <v>825</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>3567</v>
       </c>
-      <c r="E14">
-        <v>5642.7</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>23.131</v>
-      </c>
-      <c r="G14">
-        <v>24.412</v>
       </c>
       <c r="H14">
         <v>23.37</v>
@@ -2434,19 +2504,19 @@
         <v>1413.9</v>
       </c>
       <c r="C15">
+        <v>5704.1</v>
+      </c>
+      <c r="D15">
+        <v>24.816</v>
+      </c>
+      <c r="E15">
         <v>840.5</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>3565.3</v>
       </c>
-      <c r="E15">
-        <v>5704.1</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>23.576</v>
-      </c>
-      <c r="G15">
-        <v>24.816</v>
       </c>
       <c r="H15">
         <v>23.777</v>
@@ -2574,19 +2644,19 @@
         <v>1433.8</v>
       </c>
       <c r="C16">
+        <v>5674.1</v>
+      </c>
+      <c r="D16">
+        <v>25.29</v>
+      </c>
+      <c r="E16">
         <v>858.9</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>3577.9</v>
       </c>
-      <c r="E16">
-        <v>5674.1</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>24.005</v>
-      </c>
-      <c r="G16">
-        <v>25.29</v>
       </c>
       <c r="H16">
         <v>24.269</v>
@@ -2714,19 +2784,19 @@
         <v>1476.3</v>
       </c>
       <c r="C17">
+        <v>5728</v>
+      </c>
+      <c r="D17">
+        <v>25.728</v>
+      </c>
+      <c r="E17">
         <v>873.9</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>3567.2</v>
       </c>
-      <c r="E17">
-        <v>5728</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>24.496</v>
-      </c>
-      <c r="G17">
-        <v>25.728</v>
       </c>
       <c r="H17">
         <v>24.788</v>
@@ -2854,19 +2924,19 @@
         <v>1491.2</v>
       </c>
       <c r="C18">
+        <v>5678.7</v>
+      </c>
+      <c r="D18">
+        <v>26.249</v>
+      </c>
+      <c r="E18">
         <v>891.9</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>3535.3</v>
       </c>
-      <c r="E18">
-        <v>5678.7</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>25.225</v>
-      </c>
-      <c r="G18">
-        <v>26.249</v>
       </c>
       <c r="H18">
         <v>25.042</v>
@@ -2994,19 +3064,19 @@
         <v>1530.1</v>
       </c>
       <c r="C19">
+        <v>5692.2</v>
+      </c>
+      <c r="D19">
+        <v>26.832</v>
+      </c>
+      <c r="E19">
         <v>920.4</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>3548</v>
       </c>
-      <c r="E19">
-        <v>5692.2</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
         <v>25.939</v>
-      </c>
-      <c r="G19">
-        <v>26.832</v>
       </c>
       <c r="H19">
         <v>25.494</v>
@@ -3134,19 +3204,19 @@
         <v>1560</v>
       </c>
       <c r="C20">
+        <v>5638.4</v>
+      </c>
+      <c r="D20">
+        <v>27.659</v>
+      </c>
+      <c r="E20">
         <v>949.3</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>3563.3</v>
       </c>
-      <c r="E20">
-        <v>5638.4</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
         <v>26.639</v>
-      </c>
-      <c r="G20">
-        <v>27.659</v>
       </c>
       <c r="H20">
         <v>26.239</v>
@@ -3274,19 +3344,19 @@
         <v>1599.7</v>
       </c>
       <c r="C21">
+        <v>5616.5</v>
+      </c>
+      <c r="D21">
+        <v>28.498</v>
+      </c>
+      <c r="E21">
         <v>959.1</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>3511.2</v>
       </c>
-      <c r="E21">
-        <v>5616.5</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
         <v>27.316</v>
-      </c>
-      <c r="G21">
-        <v>28.498</v>
       </c>
       <c r="H21">
         <v>27.11</v>
@@ -3414,19 +3484,19 @@
         <v>1616.1</v>
       </c>
       <c r="C22">
+        <v>5548.2</v>
+      </c>
+      <c r="D22">
+        <v>29.142</v>
+      </c>
+      <c r="E22">
         <v>985.2000000000001</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>3540.6</v>
       </c>
-      <c r="E22">
-        <v>5548.2</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
         <v>27.83</v>
-      </c>
-      <c r="G22">
-        <v>29.142</v>
       </c>
       <c r="H22">
         <v>27.603</v>
@@ -3554,19 +3624,19 @@
         <v>1651.9</v>
       </c>
       <c r="C23">
+        <v>5587.8</v>
+      </c>
+      <c r="D23">
+        <v>29.565</v>
+      </c>
+      <c r="E23">
         <v>1013.6</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>3598.9</v>
       </c>
-      <c r="E23">
-        <v>5587.8</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
         <v>28.172</v>
-      </c>
-      <c r="G23">
-        <v>29.565</v>
       </c>
       <c r="H23">
         <v>28.003</v>
@@ -3694,19 +3764,19 @@
         <v>1709.8</v>
       </c>
       <c r="C24">
+        <v>5683.4</v>
+      </c>
+      <c r="D24">
+        <v>30.087</v>
+      </c>
+      <c r="E24">
         <v>1047.2</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>3650</v>
       </c>
-      <c r="E24">
-        <v>5683.4</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
         <v>28.699</v>
-      </c>
-      <c r="G24">
-        <v>30.087</v>
       </c>
       <c r="H24">
         <v>28.38</v>
@@ -3834,19 +3904,19 @@
         <v>1761.8</v>
       </c>
       <c r="C25">
+        <v>5760</v>
+      </c>
+      <c r="D25">
+        <v>30.59</v>
+      </c>
+      <c r="E25">
         <v>1076.2</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>3689.3</v>
       </c>
-      <c r="E25">
-        <v>5760</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
         <v>29.18</v>
-      </c>
-      <c r="G25">
-        <v>30.59</v>
       </c>
       <c r="H25">
         <v>29.032</v>
@@ -3974,19 +4044,19 @@
         <v>1820.5</v>
       </c>
       <c r="C26">
+        <v>5889.5</v>
+      </c>
+      <c r="D26">
+        <v>30.925</v>
+      </c>
+      <c r="E26">
         <v>1109.9</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>3763</v>
       </c>
-      <c r="E26">
-        <v>5889.5</v>
-      </c>
-      <c r="F26">
+      <c r="G26">
         <v>29.502</v>
-      </c>
-      <c r="G26">
-        <v>30.925</v>
       </c>
       <c r="H26">
         <v>29.456</v>
@@ -4114,19 +4184,19 @@
         <v>1852.3</v>
       </c>
       <c r="C27">
+        <v>5932.7</v>
+      </c>
+      <c r="D27">
+        <v>31.233</v>
+      </c>
+      <c r="E27">
         <v>1129.5</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>3797.7</v>
       </c>
-      <c r="E27">
-        <v>5932.7</v>
-      </c>
-      <c r="F27">
+      <c r="G27">
         <v>29.749</v>
-      </c>
-      <c r="G27">
-        <v>31.233</v>
       </c>
       <c r="H27">
         <v>29.703</v>
@@ -4254,19 +4324,19 @@
         <v>1886.6</v>
       </c>
       <c r="C28">
+        <v>5965.3</v>
+      </c>
+      <c r="D28">
+        <v>31.632</v>
+      </c>
+      <c r="E28">
         <v>1158.8</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>3837.7</v>
       </c>
-      <c r="E28">
-        <v>5965.3</v>
-      </c>
-      <c r="F28">
+      <c r="G28">
         <v>30.2</v>
-      </c>
-      <c r="G28">
-        <v>31.632</v>
       </c>
       <c r="H28">
         <v>30.043</v>
@@ -4394,19 +4464,19 @@
         <v>1934.3</v>
       </c>
       <c r="C29">
+        <v>6008.5</v>
+      </c>
+      <c r="D29">
+        <v>32.169</v>
+      </c>
+      <c r="E29">
         <v>1192.4</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>3887.4</v>
       </c>
-      <c r="E29">
-        <v>6008.5</v>
-      </c>
-      <c r="F29">
+      <c r="G29">
         <v>30.678</v>
-      </c>
-      <c r="G29">
-        <v>32.169</v>
       </c>
       <c r="H29">
         <v>30.846</v>
@@ -4534,19 +4604,19 @@
         <v>1988.6</v>
       </c>
       <c r="C30">
+        <v>6079.5</v>
+      </c>
+      <c r="D30">
+        <v>32.689</v>
+      </c>
+      <c r="E30">
         <v>1228.2</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>3933.3</v>
       </c>
-      <c r="E30">
-        <v>6079.5</v>
-      </c>
-      <c r="F30">
+      <c r="G30">
         <v>31.231</v>
-      </c>
-      <c r="G30">
-        <v>32.689</v>
       </c>
       <c r="H30">
         <v>31.283</v>
@@ -4674,19 +4744,19 @@
         <v>2055.9</v>
       </c>
       <c r="C31">
+        <v>6197.7</v>
+      </c>
+      <c r="D31">
+        <v>33.205</v>
+      </c>
+      <c r="E31">
         <v>1256</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>3954.6</v>
       </c>
-      <c r="E31">
-        <v>6197.7</v>
-      </c>
-      <c r="F31">
+      <c r="G31">
         <v>31.766</v>
-      </c>
-      <c r="G31">
-        <v>33.205</v>
       </c>
       <c r="H31">
         <v>31.639</v>
@@ -4814,19 +4884,19 @@
         <v>2118.5</v>
       </c>
       <c r="C32">
+        <v>6309.5</v>
+      </c>
+      <c r="D32">
+        <v>33.662</v>
+      </c>
+      <c r="E32">
         <v>1286.9</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>3992</v>
       </c>
-      <c r="E32">
-        <v>6309.5</v>
-      </c>
-      <c r="F32">
+      <c r="G32">
         <v>32.243</v>
-      </c>
-      <c r="G32">
-        <v>33.662</v>
       </c>
       <c r="H32">
         <v>31.795</v>
@@ -4954,19 +5024,19 @@
         <v>2164.3</v>
       </c>
       <c r="C33">
+        <v>6309.7</v>
+      </c>
+      <c r="D33">
+        <v>34.225</v>
+      </c>
+      <c r="E33">
         <v>1324.8</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>4052</v>
       </c>
-      <c r="E33">
-        <v>6309.7</v>
-      </c>
-      <c r="F33">
+      <c r="G33">
         <v>32.702</v>
-      </c>
-      <c r="G33">
-        <v>34.225</v>
       </c>
       <c r="H33">
         <v>32.716</v>
@@ -5094,19 +5164,19 @@
         <v>2202.8</v>
       </c>
       <c r="C34">
+        <v>6329.8</v>
+      </c>
+      <c r="D34">
+        <v>34.786</v>
+      </c>
+      <c r="E34">
         <v>1354.1</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>4074.8</v>
       </c>
-      <c r="E34">
-        <v>6329.8</v>
-      </c>
-      <c r="F34">
+      <c r="G34">
         <v>33.238</v>
-      </c>
-      <c r="G34">
-        <v>34.786</v>
       </c>
       <c r="H34">
         <v>33.09</v>
@@ -5234,19 +5304,19 @@
         <v>2331.6</v>
       </c>
       <c r="C35">
+        <v>6574.4</v>
+      </c>
+      <c r="D35">
+        <v>35.48</v>
+      </c>
+      <c r="E35">
         <v>1411.4</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>4161.9</v>
       </c>
-      <c r="E35">
-        <v>6574.4</v>
-      </c>
-      <c r="F35">
+      <c r="G35">
         <v>33.921</v>
-      </c>
-      <c r="G35">
-        <v>35.48</v>
       </c>
       <c r="H35">
         <v>33.74</v>
@@ -5374,19 +5444,19 @@
         <v>2395.1</v>
       </c>
       <c r="C36">
+        <v>6640.5</v>
+      </c>
+      <c r="D36">
+        <v>36.106</v>
+      </c>
+      <c r="E36">
         <v>1442.2</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>4179.4</v>
       </c>
-      <c r="E36">
-        <v>6640.5</v>
-      </c>
-      <c r="F36">
+      <c r="G36">
         <v>34.517</v>
-      </c>
-      <c r="G36">
-        <v>36.106</v>
       </c>
       <c r="H36">
         <v>34.304</v>
@@ -5514,19 +5584,19 @@
         <v>2476.9</v>
       </c>
       <c r="C37">
+        <v>6729.8</v>
+      </c>
+      <c r="D37">
+        <v>36.819</v>
+      </c>
+      <c r="E37">
         <v>1481.4</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>4213.1</v>
       </c>
-      <c r="E37">
-        <v>6729.8</v>
-      </c>
-      <c r="F37">
+      <c r="G37">
         <v>35.169</v>
-      </c>
-      <c r="G37">
-        <v>36.819</v>
       </c>
       <c r="H37">
         <v>34.896</v>
@@ -5654,19 +5724,19 @@
         <v>2526.6</v>
       </c>
       <c r="C38">
+        <v>6741.9</v>
+      </c>
+      <c r="D38">
+        <v>37.507</v>
+      </c>
+      <c r="E38">
         <v>1517.1</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>4234.9</v>
       </c>
-      <c r="E38">
-        <v>6741.9</v>
-      </c>
-      <c r="F38">
+      <c r="G38">
         <v>35.831</v>
-      </c>
-      <c r="G38">
-        <v>37.507</v>
       </c>
       <c r="H38">
         <v>35.539</v>
@@ -5794,19 +5864,19 @@
         <v>2591.2</v>
       </c>
       <c r="C39">
+        <v>6749.1</v>
+      </c>
+      <c r="D39">
+        <v>38.413</v>
+      </c>
+      <c r="E39">
         <v>1557.6</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>4232.2</v>
       </c>
-      <c r="E39">
-        <v>6749.1</v>
-      </c>
-      <c r="F39">
+      <c r="G39">
         <v>36.81</v>
-      </c>
-      <c r="G39">
-        <v>38.413</v>
       </c>
       <c r="H39">
         <v>36.076</v>
@@ -5934,19 +6004,19 @@
         <v>2667.6</v>
       </c>
       <c r="C40">
+        <v>6799.2</v>
+      </c>
+      <c r="D40">
+        <v>39.215</v>
+      </c>
+      <c r="E40">
         <v>1611.9</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>4273.3</v>
       </c>
-      <c r="E40">
-        <v>6799.2</v>
-      </c>
-      <c r="F40">
+      <c r="G40">
         <v>37.724</v>
-      </c>
-      <c r="G40">
-        <v>39.215</v>
       </c>
       <c r="H40">
         <v>36.918</v>
@@ -6074,19 +6144,19 @@
         <v>2723.9</v>
       </c>
       <c r="C41">
+        <v>6816.2</v>
+      </c>
+      <c r="D41">
+        <v>39.93</v>
+      </c>
+      <c r="E41">
         <v>1655</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>4284</v>
       </c>
-      <c r="E41">
-        <v>6816.2</v>
-      </c>
-      <c r="F41">
+      <c r="G41">
         <v>38.637</v>
-      </c>
-      <c r="G41">
-        <v>39.93</v>
       </c>
       <c r="H41">
         <v>37.731</v>
@@ -6214,19 +6284,19 @@
         <v>2789.8</v>
       </c>
       <c r="C42">
+        <v>6837.6</v>
+      </c>
+      <c r="D42">
+        <v>40.804</v>
+      </c>
+      <c r="E42">
         <v>1702.3</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>4277.9</v>
       </c>
-      <c r="E42">
-        <v>6837.6</v>
-      </c>
-      <c r="F42">
+      <c r="G42">
         <v>39.797</v>
-      </c>
-      <c r="G42">
-        <v>40.804</v>
       </c>
       <c r="H42">
         <v>38.477</v>
@@ -6354,19 +6424,19 @@
         <v>2797.4</v>
       </c>
       <c r="C43">
+        <v>6696.8</v>
+      </c>
+      <c r="D43">
+        <v>41.771</v>
+      </c>
+      <c r="E43">
         <v>1704.7</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>4181.5</v>
       </c>
-      <c r="E43">
-        <v>6696.8</v>
-      </c>
-      <c r="F43">
+      <c r="G43">
         <v>40.771</v>
-      </c>
-      <c r="G43">
-        <v>41.771</v>
       </c>
       <c r="H43">
         <v>39.964</v>
@@ -6494,19 +6564,19 @@
         <v>2856.5</v>
       </c>
       <c r="C44">
+        <v>6688.8</v>
+      </c>
+      <c r="D44">
+        <v>42.703</v>
+      </c>
+      <c r="E44">
         <v>1763.8</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>4227.4</v>
       </c>
-      <c r="E44">
-        <v>6688.8</v>
-      </c>
-      <c r="F44">
+      <c r="G44">
         <v>41.724</v>
-      </c>
-      <c r="G44">
-        <v>42.703</v>
       </c>
       <c r="H44">
         <v>40.369</v>
@@ -6634,19 +6704,19 @@
         <v>2985.6</v>
       </c>
       <c r="C45">
+        <v>6813.5</v>
+      </c>
+      <c r="D45">
+        <v>43.835</v>
+      </c>
+      <c r="E45">
         <v>1831.9</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>4284.5</v>
       </c>
-      <c r="E45">
-        <v>6813.5</v>
-      </c>
-      <c r="F45">
+      <c r="G45">
         <v>42.757</v>
-      </c>
-      <c r="G45">
-        <v>43.835</v>
       </c>
       <c r="H45">
         <v>41.584</v>
@@ -6774,19 +6844,19 @@
         <v>3124.2</v>
       </c>
       <c r="C46">
+        <v>6947</v>
+      </c>
+      <c r="D46">
+        <v>44.997</v>
+      </c>
+      <c r="E46">
         <v>1885.7</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>4298.8</v>
       </c>
-      <c r="E46">
-        <v>6947</v>
-      </c>
-      <c r="F46">
+      <c r="G46">
         <v>43.866</v>
-      </c>
-      <c r="G46">
-        <v>44.997</v>
       </c>
       <c r="H46">
         <v>42.415</v>
@@ -6914,19 +6984,19 @@
         <v>3162.5</v>
       </c>
       <c r="C47">
+        <v>6895.6</v>
+      </c>
+      <c r="D47">
+        <v>45.842</v>
+      </c>
+      <c r="E47">
         <v>1917.5</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <v>4299.2</v>
       </c>
-      <c r="E47">
-        <v>6895.6</v>
-      </c>
-      <c r="F47">
+      <c r="G47">
         <v>44.601</v>
-      </c>
-      <c r="G47">
-        <v>45.842</v>
       </c>
       <c r="H47">
         <v>43.402</v>
@@ -7054,19 +7124,19 @@
         <v>3260.6</v>
       </c>
       <c r="C48">
+        <v>6978.1</v>
+      </c>
+      <c r="D48">
+        <v>46.733</v>
+      </c>
+      <c r="E48">
         <v>1958.1</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <v>4319</v>
       </c>
-      <c r="E48">
-        <v>6978.1</v>
-      </c>
-      <c r="F48">
+      <c r="G48">
         <v>45.336</v>
-      </c>
-      <c r="G48">
-        <v>46.733</v>
       </c>
       <c r="H48">
         <v>44.354</v>
@@ -7194,19 +7264,19 @@
         <v>3280.8</v>
       </c>
       <c r="C49">
+        <v>6902.1</v>
+      </c>
+      <c r="D49">
+        <v>47.505</v>
+      </c>
+      <c r="E49">
         <v>1974.4</v>
       </c>
-      <c r="D49">
+      <c r="F49">
         <v>4289.5</v>
       </c>
-      <c r="E49">
-        <v>6902.1</v>
-      </c>
-      <c r="F49">
+      <c r="G49">
         <v>46.031</v>
-      </c>
-      <c r="G49">
-        <v>47.505</v>
       </c>
       <c r="H49">
         <v>45.203</v>
@@ -7334,19 +7404,19 @@
         <v>3274.3</v>
       </c>
       <c r="C50">
+        <v>6794.9</v>
+      </c>
+      <c r="D50">
+        <v>48.186</v>
+      </c>
+      <c r="E50">
         <v>2014.2</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <v>4321.1</v>
       </c>
-      <c r="E50">
-        <v>6794.9</v>
-      </c>
-      <c r="F50">
+      <c r="G50">
         <v>46.616</v>
-      </c>
-      <c r="G50">
-        <v>48.186</v>
       </c>
       <c r="H50">
         <v>45.925</v>
@@ -7474,19 +7544,19 @@
         <v>3332</v>
       </c>
       <c r="C51">
+        <v>6825.9</v>
+      </c>
+      <c r="D51">
+        <v>48.826</v>
+      </c>
+      <c r="E51">
         <v>2039.6</v>
       </c>
-      <c r="D51">
+      <c r="F51">
         <v>4334.3</v>
       </c>
-      <c r="E51">
-        <v>6825.9</v>
-      </c>
-      <c r="F51">
+      <c r="G51">
         <v>47.064</v>
-      </c>
-      <c r="G51">
-        <v>48.826</v>
       </c>
       <c r="H51">
         <v>46.835</v>
@@ -7614,19 +7684,19 @@
         <v>3366.3</v>
       </c>
       <c r="C52">
+        <v>6799.8</v>
+      </c>
+      <c r="D52">
+        <v>49.504</v>
+      </c>
+      <c r="E52">
         <v>2085.7</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <v>4363.3</v>
       </c>
-      <c r="E52">
-        <v>6799.8</v>
-      </c>
-      <c r="F52">
+      <c r="G52">
         <v>47.808</v>
-      </c>
-      <c r="G52">
-        <v>49.504</v>
       </c>
       <c r="H52">
         <v>47.228</v>
@@ -7754,19 +7824,19 @@
         <v>3402.6</v>
       </c>
       <c r="C53">
+        <v>6802.5</v>
+      </c>
+      <c r="D53">
+        <v>50.005</v>
+      </c>
+      <c r="E53">
         <v>2145.6</v>
       </c>
-      <c r="D53">
+      <c r="F53">
         <v>4439.7</v>
       </c>
-      <c r="E53">
-        <v>6802.5</v>
-      </c>
-      <c r="F53">
+      <c r="G53">
         <v>48.335</v>
-      </c>
-      <c r="G53">
-        <v>50.005</v>
       </c>
       <c r="H53">
         <v>47.785</v>
@@ -7894,19 +7964,19 @@
         <v>3473.4</v>
       </c>
       <c r="C54">
+        <v>6892.1</v>
+      </c>
+      <c r="D54">
+        <v>50.404</v>
+      </c>
+      <c r="E54">
         <v>2184.6</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <v>4483.6</v>
       </c>
-      <c r="E54">
-        <v>6892.1</v>
-      </c>
-      <c r="F54">
+      <c r="G54">
         <v>48.735</v>
-      </c>
-      <c r="G54">
-        <v>50.404</v>
       </c>
       <c r="H54">
         <v>47.875</v>
@@ -8034,19 +8104,19 @@
         <v>3578.8</v>
       </c>
       <c r="C55">
+        <v>7049</v>
+      </c>
+      <c r="D55">
+        <v>50.778</v>
+      </c>
+      <c r="E55">
         <v>2249.4</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <v>4574.9</v>
       </c>
-      <c r="E55">
-        <v>7049</v>
-      </c>
-      <c r="F55">
+      <c r="G55">
         <v>49.18</v>
-      </c>
-      <c r="G55">
-        <v>50.778</v>
       </c>
       <c r="H55">
         <v>48.245</v>
@@ -8174,19 +8244,19 @@
         <v>3689.2</v>
       </c>
       <c r="C56">
+        <v>7189.9</v>
+      </c>
+      <c r="D56">
+        <v>51.318</v>
+      </c>
+      <c r="E56">
         <v>2319.9</v>
       </c>
-      <c r="D56">
+      <c r="F56">
         <v>4657</v>
       </c>
-      <c r="E56">
-        <v>7189.9</v>
-      </c>
-      <c r="F56">
+      <c r="G56">
         <v>49.827</v>
-      </c>
-      <c r="G56">
-        <v>51.318</v>
       </c>
       <c r="H56">
         <v>48.78</v>
@@ -8314,19 +8384,19 @@
         <v>3794.7</v>
       </c>
       <c r="C57">
+        <v>7339.9</v>
+      </c>
+      <c r="D57">
+        <v>51.702</v>
+      </c>
+      <c r="E57">
         <v>2372.5</v>
       </c>
-      <c r="D57">
+      <c r="F57">
         <v>4731.2</v>
       </c>
-      <c r="E57">
-        <v>7339.9</v>
-      </c>
-      <c r="F57">
+      <c r="G57">
         <v>50.156</v>
-      </c>
-      <c r="G57">
-        <v>51.702</v>
       </c>
       <c r="H57">
         <v>49.098</v>
@@ -8454,19 +8524,19 @@
         <v>3908.1</v>
       </c>
       <c r="C58">
+        <v>7483.4</v>
+      </c>
+      <c r="D58">
+        <v>52.212</v>
+      </c>
+      <c r="E58">
         <v>2418.2</v>
       </c>
-      <c r="D58">
+      <c r="F58">
         <v>4770.5</v>
       </c>
-      <c r="E58">
-        <v>7483.4</v>
-      </c>
-      <c r="F58">
+      <c r="G58">
         <v>50.698</v>
-      </c>
-      <c r="G58">
-        <v>52.212</v>
       </c>
       <c r="H58">
         <v>49.735</v>
@@ -8594,19 +8664,19 @@
         <v>4009.6</v>
       </c>
       <c r="C59">
+        <v>7612.7</v>
+      </c>
+      <c r="D59">
+        <v>52.681</v>
+      </c>
+      <c r="E59">
         <v>2475.9</v>
       </c>
-      <c r="D59">
+      <c r="F59">
         <v>4837.3</v>
       </c>
-      <c r="E59">
-        <v>7612.7</v>
-      </c>
-      <c r="F59">
+      <c r="G59">
         <v>51.189</v>
-      </c>
-      <c r="G59">
-        <v>52.681</v>
       </c>
       <c r="H59">
         <v>50.23</v>
@@ -8734,19 +8804,19 @@
         <v>4084.3</v>
       </c>
       <c r="C60">
+        <v>7686.1</v>
+      </c>
+      <c r="D60">
+        <v>53.157</v>
+      </c>
+      <c r="E60">
         <v>2513.5</v>
       </c>
-      <c r="D60">
+      <c r="F60">
         <v>4873.2</v>
       </c>
-      <c r="E60">
-        <v>7686.1</v>
-      </c>
-      <c r="F60">
+      <c r="G60">
         <v>51.584</v>
-      </c>
-      <c r="G60">
-        <v>53.157</v>
       </c>
       <c r="H60">
         <v>50.977</v>
@@ -8874,19 +8944,19 @@
         <v>4148.6</v>
       </c>
       <c r="C61">
+        <v>7749.2</v>
+      </c>
+      <c r="D61">
+        <v>53.528</v>
+      </c>
+      <c r="E61">
         <v>2561.8</v>
       </c>
-      <c r="D61">
+      <c r="F61">
         <v>4936.3</v>
       </c>
-      <c r="E61">
-        <v>7749.2</v>
-      </c>
-      <c r="F61">
+      <c r="G61">
         <v>51.902</v>
-      </c>
-      <c r="G61">
-        <v>53.528</v>
       </c>
       <c r="H61">
         <v>51.605</v>
@@ -9014,19 +9084,19 @@
         <v>4230.2</v>
       </c>
       <c r="C62">
+        <v>7824.2</v>
+      </c>
+      <c r="D62">
+        <v>54.076</v>
+      </c>
+      <c r="E62">
         <v>2636</v>
       </c>
-      <c r="D62">
+      <c r="F62">
         <v>5020.2</v>
       </c>
-      <c r="E62">
-        <v>7824.2</v>
-      </c>
-      <c r="F62">
+      <c r="G62">
         <v>52.514</v>
-      </c>
-      <c r="G62">
-        <v>54.076</v>
       </c>
       <c r="H62">
         <v>51.399</v>
@@ -9154,19 +9224,19 @@
         <v>4294.9</v>
       </c>
       <c r="C63">
+        <v>7893.1</v>
+      </c>
+      <c r="D63">
+        <v>54.396</v>
+      </c>
+      <c r="E63">
         <v>2681.8</v>
       </c>
-      <c r="D63">
+      <c r="F63">
         <v>5066.3</v>
       </c>
-      <c r="E63">
-        <v>7893.1</v>
-      </c>
-      <c r="F63">
+      <c r="G63">
         <v>52.94</v>
-      </c>
-      <c r="G63">
-        <v>54.396</v>
       </c>
       <c r="H63">
         <v>51.52</v>
@@ -9294,19 +9364,19 @@
         <v>4386.8</v>
       </c>
       <c r="C64">
+        <v>8013.7</v>
+      </c>
+      <c r="D64">
+        <v>54.757</v>
+      </c>
+      <c r="E64">
         <v>2754.1</v>
       </c>
-      <c r="D64">
+      <c r="F64">
         <v>5162.5</v>
       </c>
-      <c r="E64">
-        <v>8013.7</v>
-      </c>
-      <c r="F64">
+      <c r="G64">
         <v>53.355</v>
-      </c>
-      <c r="G64">
-        <v>54.757</v>
       </c>
       <c r="H64">
         <v>51.795</v>
@@ -9434,19 +9504,19 @@
         <v>4444.1</v>
       </c>
       <c r="C65">
+        <v>8073.2</v>
+      </c>
+      <c r="D65">
+        <v>55.042</v>
+      </c>
+      <c r="E65">
         <v>2779.4</v>
       </c>
-      <c r="D65">
+      <c r="F65">
         <v>5173.6</v>
       </c>
-      <c r="E65">
-        <v>8073.2</v>
-      </c>
-      <c r="F65">
+      <c r="G65">
         <v>53.727</v>
-      </c>
-      <c r="G65">
-        <v>55.042</v>
       </c>
       <c r="H65">
         <v>52.135</v>
@@ -9574,19 +9644,19 @@
         <v>4507.9</v>
       </c>
       <c r="C66">
+        <v>8148.6</v>
+      </c>
+      <c r="D66">
+        <v>55.313</v>
+      </c>
+      <c r="E66">
         <v>2823.6</v>
       </c>
-      <c r="D66">
+      <c r="F66">
         <v>5218.9</v>
       </c>
-      <c r="E66">
-        <v>8148.6</v>
-      </c>
-      <c r="F66">
+      <c r="G66">
         <v>54.108</v>
-      </c>
-      <c r="G66">
-        <v>55.313</v>
       </c>
       <c r="H66">
         <v>52.003</v>
@@ -9714,19 +9784,19 @@
         <v>4545.3</v>
       </c>
       <c r="C67">
+        <v>8185.3</v>
+      </c>
+      <c r="D67">
+        <v>55.507</v>
+      </c>
+      <c r="E67">
         <v>2851.5</v>
       </c>
-      <c r="D67">
+      <c r="F67">
         <v>5275.7</v>
       </c>
-      <c r="E67">
-        <v>8185.3</v>
-      </c>
-      <c r="F67">
+      <c r="G67">
         <v>54.051</v>
-      </c>
-      <c r="G67">
-        <v>55.507</v>
       </c>
       <c r="H67">
         <v>51.873</v>
@@ -9854,19 +9924,19 @@
         <v>4607.7</v>
       </c>
       <c r="C68">
+        <v>8263.6</v>
+      </c>
+      <c r="D68">
+        <v>55.771</v>
+      </c>
+      <c r="E68">
         <v>2917.2</v>
       </c>
-      <c r="D68">
+      <c r="F68">
         <v>5369</v>
       </c>
-      <c r="E68">
-        <v>8263.6</v>
-      </c>
-      <c r="F68">
+      <c r="G68">
         <v>54.336</v>
-      </c>
-      <c r="G68">
-        <v>55.771</v>
       </c>
       <c r="H68">
         <v>51.947</v>
@@ -9994,19 +10064,19 @@
         <v>4657.6</v>
       </c>
       <c r="C69">
+        <v>8308</v>
+      </c>
+      <c r="D69">
+        <v>56.102</v>
+      </c>
+      <c r="E69">
         <v>2952.8</v>
       </c>
-      <c r="D69">
+      <c r="F69">
         <v>5402</v>
       </c>
-      <c r="E69">
-        <v>8308</v>
-      </c>
-      <c r="F69">
+      <c r="G69">
         <v>54.665</v>
-      </c>
-      <c r="G69">
-        <v>56.102</v>
       </c>
       <c r="H69">
         <v>52.006</v>
@@ -10134,19 +10204,19 @@
         <v>4722.2</v>
       </c>
       <c r="C70">
+        <v>8369.9</v>
+      </c>
+      <c r="D70">
+        <v>56.427</v>
+      </c>
+      <c r="E70">
         <v>2983.5</v>
       </c>
-      <c r="D70">
+      <c r="F70">
         <v>5407.4</v>
       </c>
-      <c r="E70">
-        <v>8369.9</v>
-      </c>
-      <c r="F70">
+      <c r="G70">
         <v>55.179</v>
-      </c>
-      <c r="G70">
-        <v>56.427</v>
       </c>
       <c r="H70">
         <v>51.917</v>
@@ -10274,19 +10344,19 @@
         <v>4806.2</v>
       </c>
       <c r="C71">
+        <v>8460.200000000001</v>
+      </c>
+      <c r="D71">
+        <v>56.81</v>
+      </c>
+      <c r="E71">
         <v>3053.3</v>
       </c>
-      <c r="D71">
+      <c r="F71">
         <v>5481.2</v>
       </c>
-      <c r="E71">
-        <v>8460.200000000001</v>
-      </c>
-      <c r="F71">
+      <c r="G71">
         <v>55.711</v>
-      </c>
-      <c r="G71">
-        <v>56.81</v>
       </c>
       <c r="H71">
         <v>52.164</v>
@@ -10414,19 +10484,19 @@
         <v>4884.6</v>
       </c>
       <c r="C72">
+        <v>8533.6</v>
+      </c>
+      <c r="D72">
+        <v>57.248</v>
+      </c>
+      <c r="E72">
         <v>3117.4</v>
       </c>
-      <c r="D72">
+      <c r="F72">
         <v>5543.7</v>
       </c>
-      <c r="E72">
-        <v>8533.6</v>
-      </c>
-      <c r="F72">
+      <c r="G72">
         <v>56.239</v>
-      </c>
-      <c r="G72">
-        <v>57.248</v>
       </c>
       <c r="H72">
         <v>52.541</v>
@@ -10554,19 +10624,19 @@
         <v>5008</v>
       </c>
       <c r="C73">
+        <v>8680.200000000001</v>
+      </c>
+      <c r="D73">
+        <v>57.678</v>
+      </c>
+      <c r="E73">
         <v>3150.9</v>
       </c>
-      <c r="D73">
+      <c r="F73">
         <v>5555.5</v>
       </c>
-      <c r="E73">
-        <v>8680.200000000001</v>
-      </c>
-      <c r="F73">
+      <c r="G73">
         <v>56.725</v>
-      </c>
-      <c r="G73">
-        <v>57.678</v>
       </c>
       <c r="H73">
         <v>52.651</v>
@@ -10694,19 +10764,19 @@
         <v>5073.4</v>
       </c>
       <c r="C74">
+        <v>8725</v>
+      </c>
+      <c r="D74">
+        <v>58.124</v>
+      </c>
+      <c r="E74">
         <v>3231.9</v>
       </c>
-      <c r="D74">
+      <c r="F74">
         <v>5653.6</v>
       </c>
-      <c r="E74">
-        <v>8725</v>
-      </c>
-      <c r="F74">
+      <c r="G74">
         <v>57.173</v>
-      </c>
-      <c r="G74">
-        <v>58.124</v>
       </c>
       <c r="H74">
         <v>53.369</v>
@@ -10834,19 +10904,19 @@
         <v>5190</v>
       </c>
       <c r="C75">
+        <v>8839.6</v>
+      </c>
+      <c r="D75">
+        <v>58.704</v>
+      </c>
+      <c r="E75">
         <v>3291.7</v>
       </c>
-      <c r="D75">
+      <c r="F75">
         <v>5695.3</v>
       </c>
-      <c r="E75">
-        <v>8839.6</v>
-      </c>
-      <c r="F75">
+      <c r="G75">
         <v>57.805</v>
-      </c>
-      <c r="G75">
-        <v>58.704</v>
       </c>
       <c r="H75">
         <v>53.893</v>
@@ -10974,19 +11044,19 @@
         <v>5282.8</v>
       </c>
       <c r="C76">
+        <v>8891.4</v>
+      </c>
+      <c r="D76">
+        <v>59.423</v>
+      </c>
+      <c r="E76">
         <v>3361.9</v>
       </c>
-      <c r="D76">
+      <c r="F76">
         <v>5745.9</v>
       </c>
-      <c r="E76">
-        <v>8891.4</v>
-      </c>
-      <c r="F76">
+      <c r="G76">
         <v>58.517</v>
-      </c>
-      <c r="G76">
-        <v>59.423</v>
       </c>
       <c r="H76">
         <v>54.201</v>
@@ -11114,19 +11184,19 @@
         <v>5399.5</v>
       </c>
       <c r="C77">
+        <v>9009.9</v>
+      </c>
+      <c r="D77">
+        <v>59.97</v>
+      </c>
+      <c r="E77">
         <v>3434.5</v>
       </c>
-      <c r="D77">
+      <c r="F77">
         <v>5811.3</v>
       </c>
-      <c r="E77">
-        <v>9009.9</v>
-      </c>
-      <c r="F77">
+      <c r="G77">
         <v>59.108</v>
-      </c>
-      <c r="G77">
-        <v>59.97</v>
       </c>
       <c r="H77">
         <v>54.638</v>
@@ -11254,19 +11324,19 @@
         <v>5511.3</v>
       </c>
       <c r="C78">
+        <v>9101.5</v>
+      </c>
+      <c r="D78">
+        <v>60.547</v>
+      </c>
+      <c r="E78">
         <v>3490.2</v>
       </c>
-      <c r="D78">
+      <c r="F78">
         <v>5838.2</v>
       </c>
-      <c r="E78">
-        <v>9101.5</v>
-      </c>
-      <c r="F78">
+      <c r="G78">
         <v>59.787</v>
-      </c>
-      <c r="G78">
-        <v>60.547</v>
       </c>
       <c r="H78">
         <v>55.043</v>
@@ -11394,19 +11464,19 @@
         <v>5612.5</v>
       </c>
       <c r="C79">
+        <v>9171</v>
+      </c>
+      <c r="D79">
+        <v>61.202</v>
+      </c>
+      <c r="E79">
         <v>3553.8</v>
       </c>
-      <c r="D79">
+      <c r="F79">
         <v>5865.5</v>
       </c>
-      <c r="E79">
-        <v>9171</v>
-      </c>
-      <c r="F79">
+      <c r="G79">
         <v>60.593</v>
-      </c>
-      <c r="G79">
-        <v>61.202</v>
       </c>
       <c r="H79">
         <v>55.447</v>
@@ -11534,19 +11604,19 @@
         <v>5695.4</v>
       </c>
       <c r="C80">
+        <v>9238.9</v>
+      </c>
+      <c r="D80">
+        <v>61.656</v>
+      </c>
+      <c r="E80">
         <v>3609.4</v>
       </c>
-      <c r="D80">
+      <c r="F80">
         <v>5922.3</v>
       </c>
-      <c r="E80">
-        <v>9238.9</v>
-      </c>
-      <c r="F80">
+      <c r="G80">
         <v>60.95</v>
-      </c>
-      <c r="G80">
-        <v>61.656</v>
       </c>
       <c r="H80">
         <v>55.723</v>
@@ -11674,19 +11744,19 @@
         <v>5747.2</v>
       </c>
       <c r="C81">
+        <v>9257.1</v>
+      </c>
+      <c r="D81">
+        <v>62.077</v>
+      </c>
+      <c r="E81">
         <v>3653.7</v>
       </c>
-      <c r="D81">
+      <c r="F81">
         <v>5948</v>
       </c>
-      <c r="E81">
-        <v>9257.1</v>
-      </c>
-      <c r="F81">
+      <c r="G81">
         <v>61.43</v>
-      </c>
-      <c r="G81">
-        <v>62.077</v>
       </c>
       <c r="H81">
         <v>55.923</v>
@@ -11814,19 +11884,19 @@
         <v>5872.7</v>
       </c>
       <c r="C82">
+        <v>9358.299999999999</v>
+      </c>
+      <c r="D82">
+        <v>62.753</v>
+      </c>
+      <c r="E82">
         <v>3737.9</v>
       </c>
-      <c r="D82">
+      <c r="F82">
         <v>5998.1</v>
       </c>
-      <c r="E82">
-        <v>9358.299999999999</v>
-      </c>
-      <c r="F82">
+      <c r="G82">
         <v>62.32</v>
-      </c>
-      <c r="G82">
-        <v>62.753</v>
       </c>
       <c r="H82">
         <v>56.315</v>
@@ -11954,19 +12024,19 @@
         <v>5960</v>
       </c>
       <c r="C83">
+        <v>9392.299999999999</v>
+      </c>
+      <c r="D83">
+        <v>63.455</v>
+      </c>
+      <c r="E83">
         <v>3783.4</v>
       </c>
-      <c r="D83">
+      <c r="F83">
         <v>6016.3</v>
       </c>
-      <c r="E83">
-        <v>9392.299999999999</v>
-      </c>
-      <c r="F83">
+      <c r="G83">
         <v>62.886</v>
-      </c>
-      <c r="G83">
-        <v>63.455</v>
       </c>
       <c r="H83">
         <v>57.282</v>
@@ -12094,19 +12164,19 @@
         <v>6015.1</v>
       </c>
       <c r="C84">
+        <v>9398.5</v>
+      </c>
+      <c r="D84">
+        <v>64.00400000000001</v>
+      </c>
+      <c r="E84">
         <v>3846.7</v>
       </c>
-      <c r="D84">
+      <c r="F84">
         <v>6040.2</v>
       </c>
-      <c r="E84">
-        <v>9398.5</v>
-      </c>
-      <c r="F84">
+      <c r="G84">
         <v>63.685</v>
-      </c>
-      <c r="G84">
-        <v>64.00400000000001</v>
       </c>
       <c r="H84">
         <v>57.36</v>
@@ -12234,19 +12304,19 @@
         <v>6004.7</v>
       </c>
       <c r="C85">
+        <v>9312.9</v>
+      </c>
+      <c r="D85">
+        <v>64.493</v>
+      </c>
+      <c r="E85">
         <v>3867.9</v>
       </c>
-      <c r="D85">
+      <c r="F85">
         <v>5994.2</v>
       </c>
-      <c r="E85">
-        <v>9312.9</v>
-      </c>
-      <c r="F85">
+      <c r="G85">
         <v>64.527</v>
-      </c>
-      <c r="G85">
-        <v>64.493</v>
       </c>
       <c r="H85">
         <v>58.043</v>
@@ -12374,19 +12444,19 @@
         <v>6035.2</v>
       </c>
       <c r="C86">
+        <v>9269.4</v>
+      </c>
+      <c r="D86">
+        <v>65.12000000000001</v>
+      </c>
+      <c r="E86">
         <v>3873.6</v>
       </c>
-      <c r="D86">
+      <c r="F86">
         <v>5971.7</v>
       </c>
-      <c r="E86">
-        <v>9269.4</v>
-      </c>
-      <c r="F86">
+      <c r="G86">
         <v>64.866</v>
-      </c>
-      <c r="G86">
-        <v>65.12000000000001</v>
       </c>
       <c r="H86">
         <v>58.563</v>
@@ -12514,19 +12584,19 @@
         <v>6126.9</v>
       </c>
       <c r="C87">
+        <v>9341.6</v>
+      </c>
+      <c r="D87">
+        <v>65.589</v>
+      </c>
+      <c r="E87">
         <v>3926.9</v>
       </c>
-      <c r="D87">
+      <c r="F87">
         <v>6021.2</v>
       </c>
-      <c r="E87">
-        <v>9341.6</v>
-      </c>
-      <c r="F87">
+      <c r="G87">
         <v>65.221</v>
-      </c>
-      <c r="G87">
-        <v>65.589</v>
       </c>
       <c r="H87">
         <v>58.852</v>
@@ -12654,19 +12724,19 @@
         <v>6205.9</v>
       </c>
       <c r="C88">
+        <v>9388.799999999999</v>
+      </c>
+      <c r="D88">
+        <v>66.092</v>
+      </c>
+      <c r="E88">
         <v>3973.3</v>
       </c>
-      <c r="D88">
+      <c r="F88">
         <v>6051.2</v>
       </c>
-      <c r="E88">
-        <v>9388.799999999999</v>
-      </c>
-      <c r="F88">
+      <c r="G88">
         <v>65.664</v>
-      </c>
-      <c r="G88">
-        <v>66.092</v>
       </c>
       <c r="H88">
         <v>59.608</v>
@@ -12794,19 +12864,19 @@
         <v>6264.5</v>
       </c>
       <c r="C89">
+        <v>9421.6</v>
+      </c>
+      <c r="D89">
+        <v>66.476</v>
+      </c>
+      <c r="E89">
         <v>4000</v>
       </c>
-      <c r="D89">
+      <c r="F89">
         <v>6048.2</v>
       </c>
-      <c r="E89">
-        <v>9421.6</v>
-      </c>
-      <c r="F89">
+      <c r="G89">
         <v>66.14</v>
-      </c>
-      <c r="G89">
-        <v>66.476</v>
       </c>
       <c r="H89">
         <v>60.211</v>
@@ -12934,19 +13004,19 @@
         <v>6363.1</v>
       </c>
       <c r="C90">
+        <v>9534.299999999999</v>
+      </c>
+      <c r="D90">
+        <v>66.743</v>
+      </c>
+      <c r="E90">
         <v>4100.4</v>
       </c>
-      <c r="D90">
+      <c r="F90">
         <v>6161.4</v>
       </c>
-      <c r="E90">
-        <v>9534.299999999999</v>
-      </c>
-      <c r="F90">
+      <c r="G90">
         <v>66.55500000000001</v>
-      </c>
-      <c r="G90">
-        <v>66.743</v>
       </c>
       <c r="H90">
         <v>60.299</v>
@@ -13074,19 +13144,19 @@
         <v>6470.8</v>
       </c>
       <c r="C91">
+        <v>9637.700000000001</v>
+      </c>
+      <c r="D91">
+        <v>67.14100000000001</v>
+      </c>
+      <c r="E91">
         <v>4155.7</v>
       </c>
-      <c r="D91">
+      <c r="F91">
         <v>6203.2</v>
       </c>
-      <c r="E91">
-        <v>9637.700000000001</v>
-      </c>
-      <c r="F91">
+      <c r="G91">
         <v>66.99800000000001</v>
-      </c>
-      <c r="G91">
-        <v>67.14100000000001</v>
       </c>
       <c r="H91">
         <v>60.519</v>
@@ -13214,19 +13284,19 @@
         <v>6566.6</v>
       </c>
       <c r="C92">
+        <v>9733</v>
+      </c>
+      <c r="D92">
+        <v>67.462</v>
+      </c>
+      <c r="E92">
         <v>4227</v>
       </c>
-      <c r="D92">
+      <c r="F92">
         <v>6269.7</v>
       </c>
-      <c r="E92">
-        <v>9733</v>
-      </c>
-      <c r="F92">
+      <c r="G92">
         <v>67.425</v>
-      </c>
-      <c r="G92">
-        <v>67.462</v>
       </c>
       <c r="H92">
         <v>61.047</v>
@@ -13354,19 +13424,19 @@
         <v>6680.8</v>
       </c>
       <c r="C93">
+        <v>9834.5</v>
+      </c>
+      <c r="D93">
+        <v>67.937</v>
+      </c>
+      <c r="E93">
         <v>4307.2</v>
       </c>
-      <c r="D93">
+      <c r="F93">
         <v>6344.4</v>
       </c>
-      <c r="E93">
-        <v>9834.5</v>
-      </c>
-      <c r="F93">
+      <c r="G93">
         <v>67.895</v>
-      </c>
-      <c r="G93">
-        <v>67.937</v>
       </c>
       <c r="H93">
         <v>61.43</v>
@@ -13494,19 +13564,19 @@
         <v>6729.5</v>
       </c>
       <c r="C94">
+        <v>9851</v>
+      </c>
+      <c r="D94">
+        <v>68.34099999999999</v>
+      </c>
+      <c r="E94">
         <v>4349.5</v>
       </c>
-      <c r="D94">
+      <c r="F94">
         <v>6368.8</v>
       </c>
-      <c r="E94">
-        <v>9851</v>
-      </c>
-      <c r="F94">
+      <c r="G94">
         <v>68.29900000000001</v>
-      </c>
-      <c r="G94">
-        <v>68.34099999999999</v>
       </c>
       <c r="H94">
         <v>61.584</v>
@@ -13640,19 +13710,19 @@
         <v>6808.9</v>
       </c>
       <c r="C95">
+        <v>9908.299999999999</v>
+      </c>
+      <c r="D95">
+        <v>68.744</v>
+      </c>
+      <c r="E95">
         <v>4418.6</v>
       </c>
-      <c r="D95">
+      <c r="F95">
         <v>6426.7</v>
       </c>
-      <c r="E95">
-        <v>9908.299999999999</v>
-      </c>
-      <c r="F95">
+      <c r="G95">
         <v>68.758</v>
-      </c>
-      <c r="G95">
-        <v>68.744</v>
       </c>
       <c r="H95">
         <v>61.855</v>
@@ -13786,19 +13856,19 @@
         <v>6882.1</v>
       </c>
       <c r="C96">
+        <v>9955.6</v>
+      </c>
+      <c r="D96">
+        <v>69.089</v>
+      </c>
+      <c r="E96">
         <v>4487.2</v>
       </c>
-      <c r="D96">
+      <c r="F96">
         <v>6498.2</v>
       </c>
-      <c r="E96">
-        <v>9955.6</v>
-      </c>
-      <c r="F96">
+      <c r="G96">
         <v>69.057</v>
-      </c>
-      <c r="G96">
-        <v>69.089</v>
       </c>
       <c r="H96">
         <v>62.303</v>
@@ -13932,19 +14002,19 @@
         <v>7013.7</v>
       </c>
       <c r="C97">
+        <v>10091</v>
+      </c>
+      <c r="D97">
+        <v>69.49500000000001</v>
+      </c>
+      <c r="E97">
         <v>4552.7</v>
       </c>
-      <c r="D97">
+      <c r="F97">
         <v>6555.3</v>
       </c>
-      <c r="E97">
-        <v>10091</v>
-      </c>
-      <c r="F97">
+      <c r="G97">
         <v>69.455</v>
-      </c>
-      <c r="G97">
-        <v>69.49500000000001</v>
       </c>
       <c r="H97">
         <v>62.861</v>
@@ -14078,19 +14148,19 @@
         <v>7115.7</v>
       </c>
       <c r="C98">
+        <v>10189</v>
+      </c>
+      <c r="D98">
+        <v>69.851</v>
+      </c>
+      <c r="E98">
         <v>4621.2</v>
       </c>
-      <c r="D98">
+      <c r="F98">
         <v>6630.3</v>
       </c>
-      <c r="E98">
-        <v>10189</v>
-      </c>
-      <c r="F98">
+      <c r="G98">
         <v>69.70399999999999</v>
-      </c>
-      <c r="G98">
-        <v>69.851</v>
       </c>
       <c r="H98">
         <v>63.15</v>
@@ -14224,19 +14294,19 @@
         <v>7246.9</v>
       </c>
       <c r="C99">
+        <v>10327</v>
+      </c>
+      <c r="D99">
+        <v>70.184</v>
+      </c>
+      <c r="E99">
         <v>4683.2</v>
       </c>
-      <c r="D99">
+      <c r="F99">
         <v>6681.8</v>
       </c>
-      <c r="E99">
-        <v>10327</v>
-      </c>
-      <c r="F99">
+      <c r="G99">
         <v>70.093</v>
-      </c>
-      <c r="G99">
-        <v>70.184</v>
       </c>
       <c r="H99">
         <v>63.679</v>
@@ -14370,19 +14440,19 @@
         <v>7331.1</v>
       </c>
       <c r="C100">
+        <v>10387.4</v>
+      </c>
+      <c r="D100">
+        <v>70.55800000000001</v>
+      </c>
+      <c r="E100">
         <v>4752.8</v>
       </c>
-      <c r="D100">
+      <c r="F100">
         <v>6732.8</v>
       </c>
-      <c r="E100">
-        <v>10387.4</v>
-      </c>
-      <c r="F100">
+      <c r="G100">
         <v>70.596</v>
-      </c>
-      <c r="G100">
-        <v>70.55800000000001</v>
       </c>
       <c r="H100">
         <v>64.045</v>
@@ -14516,19 +14586,19 @@
         <v>7455.3</v>
       </c>
       <c r="C101">
+        <v>10506.4</v>
+      </c>
+      <c r="D101">
+        <v>70.952</v>
+      </c>
+      <c r="E101">
         <v>4826.7</v>
       </c>
-      <c r="D101">
+      <c r="F101">
         <v>6805.6</v>
       </c>
-      <c r="E101">
-        <v>10506.4</v>
-      </c>
-      <c r="F101">
+      <c r="G101">
         <v>70.92700000000001</v>
-      </c>
-      <c r="G101">
-        <v>70.952</v>
       </c>
       <c r="H101">
         <v>64.571</v>
@@ -14662,19 +14732,19 @@
         <v>7522.3</v>
       </c>
       <c r="C102">
+        <v>10543.6</v>
+      </c>
+      <c r="D102">
+        <v>71.356</v>
+      </c>
+      <c r="E102">
         <v>4862.4</v>
       </c>
-      <c r="D102">
+      <c r="F102">
         <v>6822.5</v>
       </c>
-      <c r="E102">
-        <v>10543.6</v>
-      </c>
-      <c r="F102">
+      <c r="G102">
         <v>71.274</v>
-      </c>
-      <c r="G102">
-        <v>71.356</v>
       </c>
       <c r="H102">
         <v>65.115</v>
@@ -14808,19 +14878,19 @@
         <v>7581</v>
       </c>
       <c r="C103">
+        <v>10575.1</v>
+      </c>
+      <c r="D103">
+        <v>71.706</v>
+      </c>
+      <c r="E103">
         <v>4933.6</v>
       </c>
-      <c r="D103">
+      <c r="F103">
         <v>6882.3</v>
       </c>
-      <c r="E103">
-        <v>10575.1</v>
-      </c>
-      <c r="F103">
+      <c r="G103">
         <v>71.68899999999999</v>
-      </c>
-      <c r="G103">
-        <v>71.706</v>
       </c>
       <c r="H103">
         <v>65.54900000000001</v>
@@ -14954,19 +15024,19 @@
         <v>7683.1</v>
       </c>
       <c r="C104">
+        <v>10665.1</v>
+      </c>
+      <c r="D104">
+        <v>72.027</v>
+      </c>
+      <c r="E104">
         <v>4998.7</v>
       </c>
-      <c r="D104">
+      <c r="F104">
         <v>6944.7</v>
       </c>
-      <c r="E104">
-        <v>10665.1</v>
-      </c>
-      <c r="F104">
+      <c r="G104">
         <v>71.981</v>
-      </c>
-      <c r="G104">
-        <v>72.027</v>
       </c>
       <c r="H104">
         <v>65.88800000000001</v>
@@ -15100,19 +15170,19 @@
         <v>7772.6</v>
       </c>
       <c r="C105">
+        <v>10737.5</v>
+      </c>
+      <c r="D105">
+        <v>72.367</v>
+      </c>
+      <c r="E105">
         <v>5055.7</v>
       </c>
-      <c r="D105">
+      <c r="F105">
         <v>6993.1</v>
       </c>
-      <c r="E105">
-        <v>10737.5</v>
-      </c>
-      <c r="F105">
+      <c r="G105">
         <v>72.298</v>
-      </c>
-      <c r="G105">
-        <v>72.367</v>
       </c>
       <c r="H105">
         <v>66.798</v>
@@ -15246,16 +15316,16 @@
         <v>7868.5</v>
       </c>
       <c r="C106">
+        <v>10817.9</v>
+      </c>
+      <c r="D106">
+        <v>72.7</v>
+      </c>
+      <c r="E106">
         <v>5130.6</v>
       </c>
-      <c r="D106">
+      <c r="F106">
         <v>7057.6</v>
-      </c>
-      <c r="E106">
-        <v>10817.9</v>
-      </c>
-      <c r="F106">
-        <v>72.7</v>
       </c>
       <c r="G106">
         <v>72.7</v>
@@ -15392,19 +15462,19 @@
         <v>8032.8</v>
       </c>
       <c r="C107">
+        <v>10998.3</v>
+      </c>
+      <c r="D107">
+        <v>72.997</v>
+      </c>
+      <c r="E107">
         <v>5220.5</v>
       </c>
-      <c r="D107">
+      <c r="F107">
         <v>7133.6</v>
       </c>
-      <c r="E107">
-        <v>10998.3</v>
-      </c>
-      <c r="F107">
+      <c r="G107">
         <v>73.187</v>
-      </c>
-      <c r="G107">
-        <v>72.997</v>
       </c>
       <c r="H107">
         <v>66.596</v>
@@ -15538,19 +15608,19 @@
         <v>8131.4</v>
       </c>
       <c r="C108">
+        <v>11097</v>
+      </c>
+      <c r="D108">
+        <v>73.352</v>
+      </c>
+      <c r="E108">
         <v>5274.5</v>
       </c>
-      <c r="D108">
+      <c r="F108">
         <v>7176.8</v>
       </c>
-      <c r="E108">
-        <v>11097</v>
-      </c>
-      <c r="F108">
+      <c r="G108">
         <v>73.499</v>
-      </c>
-      <c r="G108">
-        <v>73.352</v>
       </c>
       <c r="H108">
         <v>66.983</v>
@@ -15684,19 +15754,19 @@
         <v>8259.799999999999</v>
       </c>
       <c r="C109">
+        <v>11212.2</v>
+      </c>
+      <c r="D109">
+        <v>73.66200000000001</v>
+      </c>
+      <c r="E109">
         <v>5352.8</v>
       </c>
-      <c r="D109">
+      <c r="F109">
         <v>7233.9</v>
       </c>
-      <c r="E109">
-        <v>11212.2</v>
-      </c>
-      <c r="F109">
+      <c r="G109">
         <v>73.999</v>
-      </c>
-      <c r="G109">
-        <v>73.66200000000001</v>
       </c>
       <c r="H109">
         <v>67.212</v>
@@ -15830,19 +15900,19 @@
         <v>8362.700000000001</v>
       </c>
       <c r="C110">
+        <v>11284.6</v>
+      </c>
+      <c r="D110">
+        <v>73.992</v>
+      </c>
+      <c r="E110">
         <v>5433.1</v>
       </c>
-      <c r="D110">
+      <c r="F110">
         <v>7310.2</v>
       </c>
-      <c r="E110">
-        <v>11284.6</v>
-      </c>
-      <c r="F110">
+      <c r="G110">
         <v>74.32599999999999</v>
-      </c>
-      <c r="G110">
-        <v>73.992</v>
       </c>
       <c r="H110">
         <v>67.44199999999999</v>
@@ -15976,19 +16046,19 @@
         <v>8518.799999999999</v>
       </c>
       <c r="C111">
+        <v>11472.1</v>
+      </c>
+      <c r="D111">
+        <v>74.361</v>
+      </c>
+      <c r="E111">
         <v>5471.3</v>
       </c>
-      <c r="D111">
+      <c r="F111">
         <v>7343.1</v>
       </c>
-      <c r="E111">
-        <v>11472.1</v>
-      </c>
-      <c r="F111">
+      <c r="G111">
         <v>74.512</v>
-      </c>
-      <c r="G111">
-        <v>74.361</v>
       </c>
       <c r="H111">
         <v>67.88500000000001</v>
@@ -16122,19 +16192,19 @@
         <v>8662.799999999999</v>
       </c>
       <c r="C112">
+        <v>11615.6</v>
+      </c>
+      <c r="D112">
+        <v>74.581</v>
+      </c>
+      <c r="E112">
         <v>5579.2</v>
       </c>
-      <c r="D112">
+      <c r="F112">
         <v>7468.2</v>
       </c>
-      <c r="E112">
-        <v>11615.6</v>
-      </c>
-      <c r="F112">
+      <c r="G112">
         <v>74.709</v>
-      </c>
-      <c r="G112">
-        <v>74.581</v>
       </c>
       <c r="H112">
         <v>68.042</v>
@@ -16268,19 +16338,19 @@
         <v>8765.9</v>
       </c>
       <c r="C113">
+        <v>11715.4</v>
+      </c>
+      <c r="D113">
+        <v>74.848</v>
+      </c>
+      <c r="E113">
         <v>5663.6</v>
       </c>
-      <c r="D113">
+      <c r="F113">
         <v>7557.4</v>
       </c>
-      <c r="E113">
-        <v>11715.4</v>
-      </c>
-      <c r="F113">
+      <c r="G113">
         <v>74.943</v>
-      </c>
-      <c r="G113">
-        <v>74.848</v>
       </c>
       <c r="H113">
         <v>68.51900000000001</v>
@@ -16414,19 +16484,19 @@
         <v>8866.5</v>
       </c>
       <c r="C114">
+        <v>11832.5</v>
+      </c>
+      <c r="D114">
+        <v>74.92400000000001</v>
+      </c>
+      <c r="E114">
         <v>5721.3</v>
       </c>
-      <c r="D114">
+      <c r="F114">
         <v>7633.9</v>
       </c>
-      <c r="E114">
-        <v>11832.5</v>
-      </c>
-      <c r="F114">
+      <c r="G114">
         <v>74.949</v>
-      </c>
-      <c r="G114">
-        <v>74.92400000000001</v>
       </c>
       <c r="H114">
         <v>68.232</v>
@@ -16560,19 +16630,19 @@
         <v>8969.700000000001</v>
       </c>
       <c r="C115">
+        <v>11942</v>
+      </c>
+      <c r="D115">
+        <v>75.119</v>
+      </c>
+      <c r="E115">
         <v>5832.6</v>
       </c>
-      <c r="D115">
+      <c r="F115">
         <v>7768.3</v>
       </c>
-      <c r="E115">
-        <v>11942</v>
-      </c>
-      <c r="F115">
+      <c r="G115">
         <v>75.084</v>
-      </c>
-      <c r="G115">
-        <v>75.119</v>
       </c>
       <c r="H115">
         <v>68.67100000000001</v>
@@ -16706,19 +16776,19 @@
         <v>9121.1</v>
       </c>
       <c r="C116">
+        <v>12091.6</v>
+      </c>
+      <c r="D116">
+        <v>75.41</v>
+      </c>
+      <c r="E116">
         <v>5926.8</v>
       </c>
-      <c r="D116">
+      <c r="F116">
         <v>7869.6</v>
       </c>
-      <c r="E116">
-        <v>12091.6</v>
-      </c>
-      <c r="F116">
+      <c r="G116">
         <v>75.31699999999999</v>
-      </c>
-      <c r="G116">
-        <v>75.41</v>
       </c>
       <c r="H116">
         <v>69.119</v>
@@ -16852,19 +16922,19 @@
         <v>9294</v>
       </c>
       <c r="C117">
+        <v>12287</v>
+      </c>
+      <c r="D117">
+        <v>75.613</v>
+      </c>
+      <c r="E117">
         <v>6028.2</v>
       </c>
-      <c r="D117">
+      <c r="F117">
         <v>7983.3</v>
       </c>
-      <c r="E117">
-        <v>12287</v>
-      </c>
-      <c r="F117">
+      <c r="G117">
         <v>75.515</v>
-      </c>
-      <c r="G117">
-        <v>75.613</v>
       </c>
       <c r="H117">
         <v>69.34099999999999</v>
@@ -16998,19 +17068,19 @@
         <v>9417.299999999999</v>
       </c>
       <c r="C118">
+        <v>12403.3</v>
+      </c>
+      <c r="D118">
+        <v>75.859</v>
+      </c>
+      <c r="E118">
         <v>6102.5</v>
       </c>
-      <c r="D118">
+      <c r="F118">
         <v>8060.8</v>
       </c>
-      <c r="E118">
-        <v>12403.3</v>
-      </c>
-      <c r="F118">
+      <c r="G118">
         <v>75.71299999999999</v>
-      </c>
-      <c r="G118">
-        <v>75.859</v>
       </c>
       <c r="H118">
         <v>69.54600000000001</v>
@@ -17144,19 +17214,19 @@
         <v>9524.200000000001</v>
       </c>
       <c r="C119">
+        <v>12498.7</v>
+      </c>
+      <c r="D119">
+        <v>76.19</v>
+      </c>
+      <c r="E119">
         <v>6225.3</v>
       </c>
-      <c r="D119">
+      <c r="F119">
         <v>8178.3</v>
       </c>
-      <c r="E119">
-        <v>12498.7</v>
-      </c>
-      <c r="F119">
+      <c r="G119">
         <v>76.127</v>
-      </c>
-      <c r="G119">
-        <v>76.19</v>
       </c>
       <c r="H119">
         <v>70.128</v>
@@ -17290,19 +17360,19 @@
         <v>9681.9</v>
       </c>
       <c r="C120">
+        <v>12662.4</v>
+      </c>
+      <c r="D120">
+        <v>76.47199999999999</v>
+      </c>
+      <c r="E120">
         <v>6328.9</v>
       </c>
-      <c r="D120">
+      <c r="F120">
         <v>8270.6</v>
       </c>
-      <c r="E120">
-        <v>12662.4</v>
-      </c>
-      <c r="F120">
+      <c r="G120">
         <v>76.53</v>
-      </c>
-      <c r="G120">
-        <v>76.47199999999999</v>
       </c>
       <c r="H120">
         <v>70.765</v>
@@ -17436,19 +17506,19 @@
         <v>9899.4</v>
       </c>
       <c r="C121">
+        <v>12877.6</v>
+      </c>
+      <c r="D121">
+        <v>76.863</v>
+      </c>
+      <c r="E121">
         <v>6459.6</v>
       </c>
-      <c r="D121">
+      <c r="F121">
         <v>8391.799999999999</v>
       </c>
-      <c r="E121">
-        <v>12877.6</v>
-      </c>
-      <c r="F121">
+      <c r="G121">
         <v>76.982</v>
-      </c>
-      <c r="G121">
-        <v>76.863</v>
       </c>
       <c r="H121">
         <v>71.636</v>
@@ -17582,19 +17652,19 @@
         <v>10002.9</v>
       </c>
       <c r="C122">
+        <v>12924.2</v>
+      </c>
+      <c r="D122">
+        <v>77.389</v>
+      </c>
+      <c r="E122">
         <v>6613.6</v>
       </c>
-      <c r="D122">
+      <c r="F122">
         <v>8520.700000000001</v>
       </c>
-      <c r="E122">
-        <v>12924.2</v>
-      </c>
-      <c r="F122">
+      <c r="G122">
         <v>77.625</v>
-      </c>
-      <c r="G122">
-        <v>77.389</v>
       </c>
       <c r="H122">
         <v>72.334</v>
@@ -17728,19 +17798,19 @@
         <v>10247.7</v>
       </c>
       <c r="C123">
+        <v>13160.8</v>
+      </c>
+      <c r="D123">
+        <v>77.84099999999999</v>
+      </c>
+      <c r="E123">
         <v>6707.5</v>
       </c>
-      <c r="D123">
+      <c r="F123">
         <v>8603</v>
       </c>
-      <c r="E123">
-        <v>13160.8</v>
-      </c>
-      <c r="F123">
+      <c r="G123">
         <v>77.973</v>
-      </c>
-      <c r="G123">
-        <v>77.84099999999999</v>
       </c>
       <c r="H123">
         <v>72.614</v>
@@ -17874,19 +17944,19 @@
         <v>10319.8</v>
       </c>
       <c r="C124">
+        <v>13178.4</v>
+      </c>
+      <c r="D124">
+        <v>78.315</v>
+      </c>
+      <c r="E124">
         <v>6815.4</v>
       </c>
-      <c r="D124">
+      <c r="F124">
         <v>8687.5</v>
       </c>
-      <c r="E124">
-        <v>13178.4</v>
-      </c>
-      <c r="F124">
+      <c r="G124">
         <v>78.455</v>
-      </c>
-      <c r="G124">
-        <v>78.315</v>
       </c>
       <c r="H124">
         <v>73.134</v>
@@ -18020,19 +18090,19 @@
         <v>10439</v>
       </c>
       <c r="C125">
+        <v>13260.5</v>
+      </c>
+      <c r="D125">
+        <v>78.729</v>
+      </c>
+      <c r="E125">
         <v>6912.1</v>
       </c>
-      <c r="D125">
+      <c r="F125">
         <v>8762.200000000001</v>
       </c>
-      <c r="E125">
-        <v>13260.5</v>
-      </c>
-      <c r="F125">
+      <c r="G125">
         <v>78.88800000000001</v>
-      </c>
-      <c r="G125">
-        <v>78.729</v>
       </c>
       <c r="H125">
         <v>73.46299999999999</v>
@@ -18166,19 +18236,19 @@
         <v>10472.9</v>
       </c>
       <c r="C126">
+        <v>13222.7</v>
+      </c>
+      <c r="D126">
+        <v>79.232</v>
+      </c>
+      <c r="E126">
         <v>6986.9</v>
       </c>
-      <c r="D126">
+      <c r="F126">
         <v>8797.299999999999</v>
       </c>
-      <c r="E126">
-        <v>13222.7</v>
-      </c>
-      <c r="F126">
+      <c r="G126">
         <v>79.423</v>
-      </c>
-      <c r="G126">
-        <v>79.232</v>
       </c>
       <c r="H126">
         <v>73.589</v>
@@ -18312,19 +18382,19 @@
         <v>10597.8</v>
       </c>
       <c r="C127">
+        <v>13300</v>
+      </c>
+      <c r="D127">
+        <v>79.76000000000001</v>
+      </c>
+      <c r="E127">
         <v>7036.3</v>
       </c>
-      <c r="D127">
+      <c r="F127">
         <v>8818.1</v>
       </c>
-      <c r="E127">
-        <v>13300</v>
-      </c>
-      <c r="F127">
+      <c r="G127">
         <v>79.795</v>
-      </c>
-      <c r="G127">
-        <v>79.76000000000001</v>
       </c>
       <c r="H127">
         <v>73.97499999999999</v>
@@ -18458,19 +18528,19 @@
         <v>10596.3</v>
       </c>
       <c r="C128">
+        <v>13244.8</v>
+      </c>
+      <c r="D128">
+        <v>80.01000000000001</v>
+      </c>
+      <c r="E128">
         <v>7064.7</v>
       </c>
-      <c r="D128">
+      <c r="F128">
         <v>8848.299999999999</v>
       </c>
-      <c r="E128">
-        <v>13244.8</v>
-      </c>
-      <c r="F128">
+      <c r="G128">
         <v>79.842</v>
-      </c>
-      <c r="G128">
-        <v>80.01000000000001</v>
       </c>
       <c r="H128">
         <v>74.44799999999999</v>
@@ -18604,19 +18674,19 @@
         <v>10660.3</v>
       </c>
       <c r="C129">
+        <v>13280.9</v>
+      </c>
+      <c r="D129">
+        <v>80.28400000000001</v>
+      </c>
+      <c r="E129">
         <v>7174.7</v>
       </c>
-      <c r="D129">
+      <c r="F129">
         <v>8980.6</v>
       </c>
-      <c r="E129">
-        <v>13280.9</v>
-      </c>
-      <c r="F129">
+      <c r="G129">
         <v>79.892</v>
-      </c>
-      <c r="G129">
-        <v>80.28400000000001</v>
       </c>
       <c r="H129">
         <v>74.93000000000001</v>
@@ -18750,19 +18820,19 @@
         <v>10789</v>
       </c>
       <c r="C130">
+        <v>13397</v>
+      </c>
+      <c r="D130">
+        <v>80.503</v>
+      </c>
+      <c r="E130">
         <v>7209.9</v>
       </c>
-      <c r="D130">
+      <c r="F130">
         <v>9008.1</v>
       </c>
-      <c r="E130">
-        <v>13397</v>
-      </c>
-      <c r="F130">
+      <c r="G130">
         <v>80.041</v>
-      </c>
-      <c r="G130">
-        <v>80.503</v>
       </c>
       <c r="H130">
         <v>75.414</v>
@@ -18896,19 +18966,19 @@
         <v>10893.2</v>
       </c>
       <c r="C131">
+        <v>13478.2</v>
+      </c>
+      <c r="D131">
+        <v>80.83199999999999</v>
+      </c>
+      <c r="E131">
         <v>7302.1</v>
       </c>
-      <c r="D131">
+      <c r="F131">
         <v>9054.299999999999</v>
       </c>
-      <c r="E131">
-        <v>13478.2</v>
-      </c>
-      <c r="F131">
+      <c r="G131">
         <v>80.651</v>
-      </c>
-      <c r="G131">
-        <v>80.83199999999999</v>
       </c>
       <c r="H131">
         <v>76.127</v>
@@ -19042,19 +19112,19 @@
         <v>10992.1</v>
       </c>
       <c r="C132">
+        <v>13538.1</v>
+      </c>
+      <c r="D132">
+        <v>81.17700000000001</v>
+      </c>
+      <c r="E132">
         <v>7390.9</v>
       </c>
-      <c r="D132">
+      <c r="F132">
         <v>9119.9</v>
       </c>
-      <c r="E132">
-        <v>13538.1</v>
-      </c>
-      <c r="F132">
+      <c r="G132">
         <v>81.045</v>
-      </c>
-      <c r="G132">
-        <v>81.17700000000001</v>
       </c>
       <c r="H132">
         <v>76.78</v>
@@ -19188,19 +19258,19 @@
         <v>11071.5</v>
       </c>
       <c r="C133">
+        <v>13559</v>
+      </c>
+      <c r="D133">
+        <v>81.643</v>
+      </c>
+      <c r="E133">
         <v>7467.7</v>
       </c>
-      <c r="D133">
+      <c r="F133">
         <v>9172.4</v>
       </c>
-      <c r="E133">
-        <v>13559</v>
-      </c>
-      <c r="F133">
+      <c r="G133">
         <v>81.42</v>
-      </c>
-      <c r="G133">
-        <v>81.643</v>
       </c>
       <c r="H133">
         <v>78.203</v>
@@ -19334,19 +19404,19 @@
         <v>11183.5</v>
       </c>
       <c r="C134">
+        <v>13634.3</v>
+      </c>
+      <c r="D134">
+        <v>82.047</v>
+      </c>
+      <c r="E134">
         <v>7555.8</v>
       </c>
-      <c r="D134">
+      <c r="F134">
         <v>9215.5</v>
       </c>
-      <c r="E134">
-        <v>13634.3</v>
-      </c>
-      <c r="F134">
+      <c r="G134">
         <v>81.994</v>
-      </c>
-      <c r="G134">
-        <v>82.047</v>
       </c>
       <c r="H134">
         <v>79.075</v>
@@ -19480,19 +19550,19 @@
         <v>11312.9</v>
       </c>
       <c r="C135">
+        <v>13751.5</v>
+      </c>
+      <c r="D135">
+        <v>82.28700000000001</v>
+      </c>
+      <c r="E135">
         <v>7642.6</v>
       </c>
-      <c r="D135">
+      <c r="F135">
         <v>9319</v>
       </c>
-      <c r="E135">
-        <v>13751.5</v>
-      </c>
-      <c r="F135">
+      <c r="G135">
         <v>82.015</v>
-      </c>
-      <c r="G135">
-        <v>82.28700000000001</v>
       </c>
       <c r="H135">
         <v>79.637</v>
@@ -19626,19 +19696,19 @@
         <v>11567.3</v>
       </c>
       <c r="C136">
+        <v>13985.1</v>
+      </c>
+      <c r="D136">
+        <v>82.738</v>
+      </c>
+      <c r="E136">
         <v>7802.6</v>
       </c>
-      <c r="D136">
+      <c r="F136">
         <v>9455.700000000001</v>
       </c>
-      <c r="E136">
-        <v>13985.1</v>
-      </c>
-      <c r="F136">
+      <c r="G136">
         <v>82.52200000000001</v>
-      </c>
-      <c r="G136">
-        <v>82.738</v>
       </c>
       <c r="H136">
         <v>80.359</v>
@@ -19772,19 +19842,19 @@
         <v>11769.3</v>
       </c>
       <c r="C137">
+        <v>14145.6</v>
+      </c>
+      <c r="D137">
+        <v>83.196</v>
+      </c>
+      <c r="E137">
         <v>7891.5</v>
       </c>
-      <c r="D137">
+      <c r="F137">
         <v>9519.799999999999</v>
       </c>
-      <c r="E137">
-        <v>14145.6</v>
-      </c>
-      <c r="F137">
+      <c r="G137">
         <v>82.901</v>
-      </c>
-      <c r="G137">
-        <v>83.196</v>
       </c>
       <c r="H137">
         <v>80.961</v>
@@ -19918,19 +19988,19 @@
         <v>11920.2</v>
       </c>
       <c r="C138">
+        <v>14221.1</v>
+      </c>
+      <c r="D138">
+        <v>83.824</v>
+      </c>
+      <c r="E138">
         <v>8027.7</v>
       </c>
-      <c r="D138">
+      <c r="F138">
         <v>9604.5</v>
       </c>
-      <c r="E138">
-        <v>14221.1</v>
-      </c>
-      <c r="F138">
+      <c r="G138">
         <v>83.589</v>
-      </c>
-      <c r="G138">
-        <v>83.824</v>
       </c>
       <c r="H138">
         <v>81.65000000000001</v>
@@ -20064,19 +20134,19 @@
         <v>12109</v>
       </c>
       <c r="C139">
+        <v>14329.5</v>
+      </c>
+      <c r="D139">
+        <v>84.515</v>
+      </c>
+      <c r="E139">
         <v>8133</v>
       </c>
-      <c r="D139">
+      <c r="F139">
         <v>9664.299999999999</v>
       </c>
-      <c r="E139">
-        <v>14329.5</v>
-      </c>
-      <c r="F139">
+      <c r="G139">
         <v>84.16200000000001</v>
-      </c>
-      <c r="G139">
-        <v>84.515</v>
       </c>
       <c r="H139">
         <v>82.358</v>
@@ -20210,19 +20280,19 @@
         <v>12303.3</v>
       </c>
       <c r="C140">
+        <v>14465</v>
+      </c>
+      <c r="D140">
+        <v>85.06</v>
+      </c>
+      <c r="E140">
         <v>8264.299999999999</v>
       </c>
-      <c r="D140">
+      <c r="F140">
         <v>9771.1</v>
       </c>
-      <c r="E140">
-        <v>14465</v>
-      </c>
-      <c r="F140">
+      <c r="G140">
         <v>84.586</v>
-      </c>
-      <c r="G140">
-        <v>85.06</v>
       </c>
       <c r="H140">
         <v>83.112</v>
@@ -20356,19 +20426,19 @@
         <v>12522.4</v>
       </c>
       <c r="C141">
+        <v>14609.9</v>
+      </c>
+      <c r="D141">
+        <v>85.714</v>
+      </c>
+      <c r="E141">
         <v>8425.6</v>
       </c>
-      <c r="D141">
+      <c r="F141">
         <v>9877.4</v>
       </c>
-      <c r="E141">
-        <v>14609.9</v>
-      </c>
-      <c r="F141">
+      <c r="G141">
         <v>85.309</v>
-      </c>
-      <c r="G141">
-        <v>85.714</v>
       </c>
       <c r="H141">
         <v>83.92</v>
@@ -20502,19 +20572,19 @@
         <v>12761.3</v>
       </c>
       <c r="C142">
+        <v>14771.6</v>
+      </c>
+      <c r="D142">
+        <v>86.368</v>
+      </c>
+      <c r="E142">
         <v>8523</v>
       </c>
-      <c r="D142">
+      <c r="F142">
         <v>9935</v>
       </c>
-      <c r="E142">
-        <v>14771.6</v>
-      </c>
-      <c r="F142">
+      <c r="G142">
         <v>85.795</v>
-      </c>
-      <c r="G142">
-        <v>86.368</v>
       </c>
       <c r="H142">
         <v>85.026</v>
@@ -20648,19 +20718,19 @@
         <v>12910</v>
       </c>
       <c r="C143">
+        <v>14839.8</v>
+      </c>
+      <c r="D143">
+        <v>86.977</v>
+      </c>
+      <c r="E143">
         <v>8671.4</v>
       </c>
-      <c r="D143">
+      <c r="F143">
         <v>10047.8</v>
       </c>
-      <c r="E143">
-        <v>14839.8</v>
-      </c>
-      <c r="F143">
+      <c r="G143">
         <v>86.31</v>
-      </c>
-      <c r="G143">
-        <v>86.977</v>
       </c>
       <c r="H143">
         <v>85.79300000000001</v>
@@ -20794,19 +20864,19 @@
         <v>13142.9</v>
       </c>
       <c r="C144">
+        <v>14972.1</v>
+      </c>
+      <c r="D144">
+        <v>87.794</v>
+      </c>
+      <c r="E144">
         <v>8849.200000000001</v>
       </c>
-      <c r="D144">
+      <c r="F144">
         <v>10145.3</v>
       </c>
-      <c r="E144">
-        <v>14972.1</v>
-      </c>
-      <c r="F144">
+      <c r="G144">
         <v>87.232</v>
-      </c>
-      <c r="G144">
-        <v>87.794</v>
       </c>
       <c r="H144">
         <v>86.688</v>
@@ -20940,19 +21010,19 @@
         <v>13332.3</v>
       </c>
       <c r="C145">
+        <v>15066.6</v>
+      </c>
+      <c r="D145">
+        <v>88.489</v>
+      </c>
+      <c r="E145">
         <v>8944.9</v>
       </c>
-      <c r="D145">
+      <c r="F145">
         <v>10175.4</v>
       </c>
-      <c r="E145">
-        <v>15066.6</v>
-      </c>
-      <c r="F145">
+      <c r="G145">
         <v>87.913</v>
-      </c>
-      <c r="G145">
-        <v>88.489</v>
       </c>
       <c r="H145">
         <v>87.31</v>
@@ -21086,19 +21156,19 @@
         <v>13603.9</v>
       </c>
       <c r="C146">
+        <v>15267</v>
+      </c>
+      <c r="D146">
+        <v>89.101</v>
+      </c>
+      <c r="E146">
         <v>9090.700000000001</v>
       </c>
-      <c r="D146">
+      <c r="F146">
         <v>10288.9</v>
       </c>
-      <c r="E146">
-        <v>15267</v>
-      </c>
-      <c r="F146">
+      <c r="G146">
         <v>88.359</v>
-      </c>
-      <c r="G146">
-        <v>89.101</v>
       </c>
       <c r="H146">
         <v>88.045</v>
@@ -21232,19 +21302,19 @@
         <v>13749.8</v>
       </c>
       <c r="C147">
+        <v>15302.7</v>
+      </c>
+      <c r="D147">
+        <v>89.845</v>
+      </c>
+      <c r="E147">
         <v>9210.200000000001</v>
       </c>
-      <c r="D147">
+      <c r="F147">
         <v>10341</v>
       </c>
-      <c r="E147">
-        <v>15302.7</v>
-      </c>
-      <c r="F147">
+      <c r="G147">
         <v>89.069</v>
-      </c>
-      <c r="G147">
-        <v>89.845</v>
       </c>
       <c r="H147">
         <v>88.657</v>
@@ -21378,19 +21448,19 @@
         <v>13867.5</v>
       </c>
       <c r="C148">
+        <v>15326.4</v>
+      </c>
+      <c r="D148">
+        <v>90.505</v>
+      </c>
+      <c r="E148">
         <v>9333</v>
       </c>
-      <c r="D148">
+      <c r="F148">
         <v>10403.8</v>
       </c>
-      <c r="E148">
-        <v>15326.4</v>
-      </c>
-      <c r="F148">
+      <c r="G148">
         <v>89.711</v>
-      </c>
-      <c r="G148">
-        <v>90.505</v>
       </c>
       <c r="H148">
         <v>89.315</v>
@@ -21524,19 +21594,19 @@
         <v>14037.2</v>
       </c>
       <c r="C149">
+        <v>15456.9</v>
+      </c>
+      <c r="D149">
+        <v>90.845</v>
+      </c>
+      <c r="E149">
         <v>9407.5</v>
       </c>
-      <c r="D149">
+      <c r="F149">
         <v>10504.5</v>
       </c>
-      <c r="E149">
-        <v>15456.9</v>
-      </c>
-      <c r="F149">
+      <c r="G149">
         <v>89.559</v>
-      </c>
-      <c r="G149">
-        <v>90.845</v>
       </c>
       <c r="H149">
         <v>89.78</v>
@@ -21670,19 +21740,19 @@
         <v>14208.6</v>
       </c>
       <c r="C150">
+        <v>15493.3</v>
+      </c>
+      <c r="D150">
+        <v>91.777</v>
+      </c>
+      <c r="E150">
         <v>9549.4</v>
       </c>
-      <c r="D150">
+      <c r="F150">
         <v>10563.3</v>
       </c>
-      <c r="E150">
-        <v>15493.3</v>
-      </c>
-      <c r="F150">
+      <c r="G150">
         <v>90.40600000000001</v>
-      </c>
-      <c r="G150">
-        <v>91.777</v>
       </c>
       <c r="H150">
         <v>90.54900000000001</v>
@@ -21816,19 +21886,19 @@
         <v>14382.4</v>
       </c>
       <c r="C151">
+        <v>15582.1</v>
+      </c>
+      <c r="D151">
+        <v>92.339</v>
+      </c>
+      <c r="E151">
         <v>9644.700000000001</v>
       </c>
-      <c r="D151">
+      <c r="F151">
         <v>10582.8</v>
       </c>
-      <c r="E151">
-        <v>15582.1</v>
-      </c>
-      <c r="F151">
+      <c r="G151">
         <v>91.139</v>
-      </c>
-      <c r="G151">
-        <v>92.339</v>
       </c>
       <c r="H151">
         <v>91.27200000000001</v>
@@ -21962,19 +22032,19 @@
         <v>14535</v>
       </c>
       <c r="C152">
+        <v>15666.7</v>
+      </c>
+      <c r="D152">
+        <v>92.72499999999999</v>
+      </c>
+      <c r="E152">
         <v>9753.799999999999</v>
       </c>
-      <c r="D152">
+      <c r="F152">
         <v>10642.5</v>
       </c>
-      <c r="E152">
-        <v>15666.7</v>
-      </c>
-      <c r="F152">
+      <c r="G152">
         <v>91.65300000000001</v>
-      </c>
-      <c r="G152">
-        <v>92.72499999999999</v>
       </c>
       <c r="H152">
         <v>91.899</v>
@@ -22108,19 +22178,19 @@
         <v>14681.5</v>
       </c>
       <c r="C153">
+        <v>15762</v>
+      </c>
+      <c r="D153">
+        <v>93.15000000000001</v>
+      </c>
+      <c r="E153">
         <v>9877.799999999999</v>
       </c>
-      <c r="D153">
+      <c r="F153">
         <v>10672.8</v>
       </c>
-      <c r="E153">
-        <v>15762</v>
-      </c>
-      <c r="F153">
+      <c r="G153">
         <v>92.553</v>
-      </c>
-      <c r="G153">
-        <v>93.15000000000001</v>
       </c>
       <c r="H153">
         <v>92.636</v>
@@ -22254,19 +22324,19 @@
         <v>14651</v>
       </c>
       <c r="C154">
+        <v>15671.4</v>
+      </c>
+      <c r="D154">
+        <v>93.569</v>
+      </c>
+      <c r="E154">
         <v>9934.299999999999</v>
       </c>
-      <c r="D154">
+      <c r="F154">
         <v>10644.4</v>
       </c>
-      <c r="E154">
-        <v>15671.4</v>
-      </c>
-      <c r="F154">
+      <c r="G154">
         <v>93.32899999999999</v>
-      </c>
-      <c r="G154">
-        <v>93.569</v>
       </c>
       <c r="H154">
         <v>93.416</v>
@@ -22400,19 +22470,19 @@
         <v>14805.6</v>
       </c>
       <c r="C155">
+        <v>15752.3</v>
+      </c>
+      <c r="D155">
+        <v>93.935</v>
+      </c>
+      <c r="E155">
         <v>10052.8</v>
       </c>
-      <c r="D155">
+      <c r="F155">
         <v>10661.7</v>
       </c>
-      <c r="E155">
-        <v>15752.3</v>
-      </c>
-      <c r="F155">
+      <c r="G155">
         <v>94.289</v>
-      </c>
-      <c r="G155">
-        <v>93.935</v>
       </c>
       <c r="H155">
         <v>94.37300000000001</v>
@@ -22546,19 +22616,19 @@
         <v>14835.2</v>
       </c>
       <c r="C156">
+        <v>15667</v>
+      </c>
+      <c r="D156">
+        <v>94.654</v>
+      </c>
+      <c r="E156">
         <v>10081</v>
       </c>
-      <c r="D156">
+      <c r="F156">
         <v>10581.9</v>
       </c>
-      <c r="E156">
-        <v>15667</v>
-      </c>
-      <c r="F156">
+      <c r="G156">
         <v>95.26600000000001</v>
-      </c>
-      <c r="G156">
-        <v>94.654</v>
       </c>
       <c r="H156">
         <v>95.09</v>
@@ -22692,19 +22762,19 @@
         <v>14559.5</v>
       </c>
       <c r="C157">
+        <v>15328</v>
+      </c>
+      <c r="D157">
+        <v>94.896</v>
+      </c>
+      <c r="E157">
         <v>9837.299999999999</v>
       </c>
-      <c r="D157">
+      <c r="F157">
         <v>10483.4</v>
       </c>
-      <c r="E157">
-        <v>15328</v>
-      </c>
-      <c r="F157">
+      <c r="G157">
         <v>93.836</v>
-      </c>
-      <c r="G157">
-        <v>94.896</v>
       </c>
       <c r="H157">
         <v>94.646</v>
@@ -22838,19 +22908,19 @@
         <v>14394.5</v>
       </c>
       <c r="C158">
+        <v>15155.9</v>
+      </c>
+      <c r="D158">
+        <v>94.959</v>
+      </c>
+      <c r="E158">
         <v>9756.1</v>
       </c>
-      <c r="D158">
+      <c r="F158">
         <v>10459.7</v>
       </c>
-      <c r="E158">
-        <v>15155.9</v>
-      </c>
-      <c r="F158">
+      <c r="G158">
         <v>93.274</v>
-      </c>
-      <c r="G158">
-        <v>94.959</v>
       </c>
       <c r="H158">
         <v>93.87600000000001</v>
@@ -22984,19 +23054,19 @@
         <v>14352.9</v>
       </c>
       <c r="C159">
+        <v>15134.1</v>
+      </c>
+      <c r="D159">
+        <v>94.856</v>
+      </c>
+      <c r="E159">
         <v>9760.200000000001</v>
       </c>
-      <c r="D159">
+      <c r="F159">
         <v>10417.3</v>
       </c>
-      <c r="E159">
-        <v>15134.1</v>
-      </c>
-      <c r="F159">
+      <c r="G159">
         <v>93.693</v>
-      </c>
-      <c r="G159">
-        <v>94.856</v>
       </c>
       <c r="H159">
         <v>93.895</v>
@@ -23130,19 +23200,19 @@
         <v>14420.3</v>
       </c>
       <c r="C160">
+        <v>15189.2</v>
+      </c>
+      <c r="D160">
+        <v>94.91200000000001</v>
+      </c>
+      <c r="E160">
         <v>9895.4</v>
       </c>
-      <c r="D160">
+      <c r="F160">
         <v>10489.2</v>
       </c>
-      <c r="E160">
-        <v>15189.2</v>
-      </c>
-      <c r="F160">
+      <c r="G160">
         <v>94.34</v>
-      </c>
-      <c r="G160">
-        <v>94.91200000000001</v>
       </c>
       <c r="H160">
         <v>94.188</v>
@@ -23276,19 +23346,19 @@
         <v>14628</v>
       </c>
       <c r="C161">
+        <v>15356.1</v>
+      </c>
+      <c r="D161">
+        <v>95.26900000000001</v>
+      </c>
+      <c r="E161">
         <v>9957.1</v>
       </c>
-      <c r="D161">
+      <c r="F161">
         <v>10473.6</v>
       </c>
-      <c r="E161">
-        <v>15356.1</v>
-      </c>
-      <c r="F161">
+      <c r="G161">
         <v>95.06999999999999</v>
-      </c>
-      <c r="G161">
-        <v>95.26900000000001</v>
       </c>
       <c r="H161">
         <v>94.896</v>
@@ -23422,19 +23492,19 @@
         <v>14721.4</v>
       </c>
       <c r="C162">
+        <v>15415.1</v>
+      </c>
+      <c r="D162">
+        <v>95.491</v>
+      </c>
+      <c r="E162">
         <v>10040.5</v>
       </c>
-      <c r="D162">
+      <c r="F162">
         <v>10525.4</v>
       </c>
-      <c r="E162">
-        <v>15415.1</v>
-      </c>
-      <c r="F162">
+      <c r="G162">
         <v>95.395</v>
-      </c>
-      <c r="G162">
-        <v>95.491</v>
       </c>
       <c r="H162">
         <v>95.484</v>
@@ -23568,19 +23638,19 @@
         <v>14926.1</v>
       </c>
       <c r="C163">
+        <v>15557.3</v>
+      </c>
+      <c r="D163">
+        <v>95.91200000000001</v>
+      </c>
+      <c r="E163">
         <v>10131.8</v>
       </c>
-      <c r="D163">
+      <c r="F163">
         <v>10609.1</v>
       </c>
-      <c r="E163">
-        <v>15557.3</v>
-      </c>
-      <c r="F163">
+      <c r="G163">
         <v>95.503</v>
-      </c>
-      <c r="G163">
-        <v>95.91200000000001</v>
       </c>
       <c r="H163">
         <v>96.214</v>
@@ -23714,19 +23784,19 @@
         <v>15079.9</v>
       </c>
       <c r="C164">
+        <v>15672</v>
+      </c>
+      <c r="D164">
+        <v>96.25100000000001</v>
+      </c>
+      <c r="E164">
         <v>10220.6</v>
       </c>
-      <c r="D164">
+      <c r="F164">
         <v>10683.3</v>
       </c>
-      <c r="E164">
-        <v>15672</v>
-      </c>
-      <c r="F164">
+      <c r="G164">
         <v>95.67100000000001</v>
-      </c>
-      <c r="G164">
-        <v>96.25100000000001</v>
       </c>
       <c r="H164">
         <v>96.59699999999999</v>
@@ -23860,19 +23930,19 @@
         <v>15240.8</v>
       </c>
       <c r="C165">
+        <v>15750.6</v>
+      </c>
+      <c r="D165">
+        <v>96.78100000000001</v>
+      </c>
+      <c r="E165">
         <v>10350.5</v>
       </c>
-      <c r="D165">
+      <c r="F165">
         <v>10754</v>
       </c>
-      <c r="E165">
-        <v>15750.6</v>
-      </c>
-      <c r="F165">
+      <c r="G165">
         <v>96.25</v>
-      </c>
-      <c r="G165">
-        <v>96.78100000000001</v>
       </c>
       <c r="H165">
         <v>97.389</v>
@@ -24006,19 +24076,19 @@
         <v>15285.8</v>
       </c>
       <c r="C166">
+        <v>15712.8</v>
+      </c>
+      <c r="D166">
+        <v>97.276</v>
+      </c>
+      <c r="E166">
         <v>10485.4</v>
       </c>
-      <c r="D166">
+      <c r="F166">
         <v>10799.7</v>
       </c>
-      <c r="E166">
-        <v>15712.8</v>
-      </c>
-      <c r="F166">
+      <c r="G166">
         <v>97.09099999999999</v>
-      </c>
-      <c r="G166">
-        <v>97.276</v>
       </c>
       <c r="H166">
         <v>98.26600000000001</v>
@@ -24152,19 +24222,19 @@
         <v>15496.2</v>
       </c>
       <c r="C167">
+        <v>15825.1</v>
+      </c>
+      <c r="D167">
+        <v>97.97499999999999</v>
+      </c>
+      <c r="E167">
         <v>10612.1</v>
       </c>
-      <c r="D167">
+      <c r="F167">
         <v>10823.7</v>
       </c>
-      <c r="E167">
-        <v>15825.1</v>
-      </c>
-      <c r="F167">
+      <c r="G167">
         <v>98.048</v>
-      </c>
-      <c r="G167">
-        <v>97.97499999999999</v>
       </c>
       <c r="H167">
         <v>99.155</v>
@@ -24298,19 +24368,19 @@
         <v>15591.9</v>
       </c>
       <c r="C168">
+        <v>15820.7</v>
+      </c>
+      <c r="D168">
+        <v>98.51900000000001</v>
+      </c>
+      <c r="E168">
         <v>10705.4</v>
       </c>
-      <c r="D168">
+      <c r="F168">
         <v>10866</v>
       </c>
-      <c r="E168">
-        <v>15820.7</v>
-      </c>
-      <c r="F168">
+      <c r="G168">
         <v>98.523</v>
-      </c>
-      <c r="G168">
-        <v>98.51900000000001</v>
       </c>
       <c r="H168">
         <v>99.49800000000001</v>
@@ -24444,19 +24514,19 @@
         <v>15796.5</v>
       </c>
       <c r="C169">
+        <v>16004.1</v>
+      </c>
+      <c r="D169">
+        <v>98.676</v>
+      </c>
+      <c r="E169">
         <v>10761.6</v>
       </c>
-      <c r="D169">
+      <c r="F169">
         <v>10885.9</v>
       </c>
-      <c r="E169">
-        <v>16004.1</v>
-      </c>
-      <c r="F169">
+      <c r="G169">
         <v>98.86</v>
-      </c>
-      <c r="G169">
-        <v>98.676</v>
       </c>
       <c r="H169">
         <v>99.363</v>
@@ -24590,19 +24660,19 @@
         <v>16019.8</v>
       </c>
       <c r="C170">
+        <v>16129.4</v>
+      </c>
+      <c r="D170">
+        <v>99.28400000000001</v>
+      </c>
+      <c r="E170">
         <v>10922.4</v>
       </c>
-      <c r="D170">
+      <c r="F170">
         <v>10973.3</v>
       </c>
-      <c r="E170">
-        <v>16129.4</v>
-      </c>
-      <c r="F170">
+      <c r="G170">
         <v>99.538</v>
-      </c>
-      <c r="G170">
-        <v>99.28400000000001</v>
       </c>
       <c r="H170">
         <v>99.705</v>
@@ -24736,19 +24806,19 @@
         <v>16152.3</v>
       </c>
       <c r="C171">
+        <v>16198.8</v>
+      </c>
+      <c r="D171">
+        <v>99.68899999999999</v>
+      </c>
+      <c r="E171">
         <v>10964.9</v>
       </c>
-      <c r="D171">
+      <c r="F171">
         <v>10989.6</v>
       </c>
-      <c r="E171">
-        <v>16198.8</v>
-      </c>
-      <c r="F171">
+      <c r="G171">
         <v>99.776</v>
-      </c>
-      <c r="G171">
-        <v>99.68899999999999</v>
       </c>
       <c r="H171">
         <v>99.928</v>
@@ -24882,19 +24952,19 @@
         <v>16257.2</v>
       </c>
       <c r="C172">
+        <v>16220.7</v>
+      </c>
+      <c r="D172">
+        <v>100.299</v>
+      </c>
+      <c r="E172">
         <v>11014.2</v>
       </c>
-      <c r="D172">
+      <c r="F172">
         <v>11007.5</v>
       </c>
-      <c r="E172">
-        <v>16220.7</v>
-      </c>
-      <c r="F172">
+      <c r="G172">
         <v>100.062</v>
-      </c>
-      <c r="G172">
-        <v>100.299</v>
       </c>
       <c r="H172">
         <v>100.122</v>
@@ -25028,19 +25098,19 @@
         <v>16358.9</v>
       </c>
       <c r="C173">
+        <v>16239.1</v>
+      </c>
+      <c r="D173">
+        <v>100.728</v>
+      </c>
+      <c r="E173">
         <v>11125.7</v>
       </c>
-      <c r="D173">
+      <c r="F173">
         <v>11056.9</v>
       </c>
-      <c r="E173">
-        <v>16239.1</v>
-      </c>
-      <c r="F173">
+      <c r="G173">
         <v>100.624</v>
-      </c>
-      <c r="G173">
-        <v>100.728</v>
       </c>
       <c r="H173">
         <v>100.245</v>
@@ -25174,19 +25244,19 @@
         <v>16569.6</v>
       </c>
       <c r="C174">
+        <v>16383</v>
+      </c>
+      <c r="D174">
+        <v>101.123</v>
+      </c>
+      <c r="E174">
         <v>11223.2</v>
       </c>
-      <c r="D174">
+      <c r="F174">
         <v>11114.2</v>
       </c>
-      <c r="E174">
-        <v>16383</v>
-      </c>
-      <c r="F174">
+      <c r="G174">
         <v>100.982</v>
-      </c>
-      <c r="G174">
-        <v>101.123</v>
       </c>
       <c r="H174">
         <v>100.241</v>
@@ -25320,19 +25390,19 @@
         <v>16637.9</v>
       </c>
       <c r="C175">
+        <v>16403.2</v>
+      </c>
+      <c r="D175">
+        <v>101.431</v>
+      </c>
+      <c r="E175">
         <v>11239.6</v>
       </c>
-      <c r="D175">
+      <c r="F175">
         <v>11122.2</v>
       </c>
-      <c r="E175">
-        <v>16403.2</v>
-      </c>
-      <c r="F175">
+      <c r="G175">
         <v>101.057</v>
-      </c>
-      <c r="G175">
-        <v>101.431</v>
       </c>
       <c r="H175">
         <v>100.436</v>
@@ -25466,19 +25536,19 @@
         <v>16848.7</v>
       </c>
       <c r="C176">
+        <v>16531.7</v>
+      </c>
+      <c r="D176">
+        <v>101.985</v>
+      </c>
+      <c r="E176">
         <v>11330.9</v>
       </c>
-      <c r="D176">
+      <c r="F176">
         <v>11167.4</v>
       </c>
-      <c r="E176">
-        <v>16531.7</v>
-      </c>
-      <c r="F176">
+      <c r="G176">
         <v>101.466</v>
-      </c>
-      <c r="G176">
-        <v>101.985</v>
       </c>
       <c r="H176">
         <v>100.759</v>
@@ -25612,19 +25682,19 @@
         <v>17083.1</v>
       </c>
       <c r="C177">
+        <v>16663.6</v>
+      </c>
+      <c r="D177">
+        <v>102.551</v>
+      </c>
+      <c r="E177">
         <v>11475.1</v>
       </c>
-      <c r="D177">
+      <c r="F177">
         <v>11263.6</v>
       </c>
-      <c r="E177">
-        <v>16663.6</v>
-      </c>
-      <c r="F177">
+      <c r="G177">
         <v>101.88</v>
-      </c>
-      <c r="G177">
-        <v>102.551</v>
       </c>
       <c r="H177">
         <v>102.29</v>
@@ -25758,19 +25828,19 @@
         <v>17104.6</v>
       </c>
       <c r="C178">
+        <v>16616.5</v>
+      </c>
+      <c r="D178">
+        <v>102.96</v>
+      </c>
+      <c r="E178">
         <v>11574.2</v>
       </c>
-      <c r="D178">
+      <c r="F178">
         <v>11308</v>
       </c>
-      <c r="E178">
-        <v>16616.5</v>
-      </c>
-      <c r="F178">
+      <c r="G178">
         <v>102.357</v>
-      </c>
-      <c r="G178">
-        <v>102.96</v>
       </c>
       <c r="H178">
         <v>102.024</v>
@@ -25904,19 +25974,19 @@
         <v>17432.9</v>
       </c>
       <c r="C179">
+        <v>16841.5</v>
+      </c>
+      <c r="D179">
+        <v>103.539</v>
+      </c>
+      <c r="E179">
         <v>11756.9</v>
       </c>
-      <c r="D179">
+      <c r="F179">
         <v>11431.8</v>
       </c>
-      <c r="E179">
-        <v>16841.5</v>
-      </c>
-      <c r="F179">
+      <c r="G179">
         <v>102.846</v>
-      </c>
-      <c r="G179">
-        <v>103.539</v>
       </c>
       <c r="H179">
         <v>102.472</v>
@@ -26050,19 +26120,19 @@
         <v>17721.7</v>
       </c>
       <c r="C180">
+        <v>17047.1</v>
+      </c>
+      <c r="D180">
+        <v>104.01</v>
+      </c>
+      <c r="E180">
         <v>11915.4</v>
       </c>
-      <c r="D180">
+      <c r="F180">
         <v>11554.8</v>
       </c>
-      <c r="E180">
-        <v>17047.1</v>
-      </c>
-      <c r="F180">
+      <c r="G180">
         <v>103.123</v>
-      </c>
-      <c r="G180">
-        <v>104.01</v>
       </c>
       <c r="H180">
         <v>102.949</v>
@@ -26196,19 +26266,19 @@
         <v>17849.9</v>
       </c>
       <c r="C181">
+        <v>17143</v>
+      </c>
+      <c r="D181">
+        <v>104.078</v>
+      </c>
+      <c r="E181">
         <v>12044.5</v>
       </c>
-      <c r="D181">
+      <c r="F181">
         <v>11695</v>
       </c>
-      <c r="E181">
-        <v>17143</v>
-      </c>
-      <c r="F181">
+      <c r="G181">
         <v>102.992</v>
-      </c>
-      <c r="G181">
-        <v>104.078</v>
       </c>
       <c r="H181">
         <v>103.085</v>
@@ -26342,19 +26412,19 @@
         <v>18003.4</v>
       </c>
       <c r="C182">
+        <v>17305.8</v>
+      </c>
+      <c r="D182">
+        <v>104.054</v>
+      </c>
+      <c r="E182">
         <v>12099.1</v>
       </c>
-      <c r="D182">
+      <c r="F182">
         <v>11798.3</v>
       </c>
-      <c r="E182">
-        <v>17305.8</v>
-      </c>
-      <c r="F182">
+      <c r="G182">
         <v>102.552</v>
-      </c>
-      <c r="G182">
-        <v>104.054</v>
       </c>
       <c r="H182">
         <v>102.922</v>
@@ -26488,19 +26558,19 @@
         <v>18223.6</v>
       </c>
       <c r="C183">
+        <v>17422.8</v>
+      </c>
+      <c r="D183">
+        <v>104.647</v>
+      </c>
+      <c r="E183">
         <v>12255.5</v>
       </c>
-      <c r="D183">
+      <c r="F183">
         <v>11892.3</v>
       </c>
-      <c r="E183">
-        <v>17422.8</v>
-      </c>
-      <c r="F183">
+      <c r="G183">
         <v>103.057</v>
-      </c>
-      <c r="G183">
-        <v>104.647</v>
       </c>
       <c r="H183">
         <v>103.122</v>
@@ -26634,19 +26704,19 @@
         <v>18347.4</v>
       </c>
       <c r="C184">
+        <v>17486</v>
+      </c>
+      <c r="D184">
+        <v>104.92</v>
+      </c>
+      <c r="E184">
         <v>12389.3</v>
       </c>
-      <c r="D184">
+      <c r="F184">
         <v>11991.2</v>
       </c>
-      <c r="E184">
-        <v>17486</v>
-      </c>
-      <c r="F184">
+      <c r="G184">
         <v>103.322</v>
-      </c>
-      <c r="G184">
-        <v>104.92</v>
       </c>
       <c r="H184">
         <v>103.277</v>
@@ -26780,19 +26850,19 @@
         <v>18378.8</v>
       </c>
       <c r="C185">
+        <v>17514.1</v>
+      </c>
+      <c r="D185">
+        <v>104.935</v>
+      </c>
+      <c r="E185">
         <v>12446</v>
       </c>
-      <c r="D185">
+      <c r="F185">
         <v>12055.4</v>
       </c>
-      <c r="E185">
-        <v>17514.1</v>
-      </c>
-      <c r="F185">
+      <c r="G185">
         <v>103.243</v>
-      </c>
-      <c r="G185">
-        <v>104.935</v>
       </c>
       <c r="H185">
         <v>103.192</v>
@@ -26926,19 +26996,19 @@
         <v>18470.2</v>
       </c>
       <c r="C186">
+        <v>17613.3</v>
+      </c>
+      <c r="D186">
+        <v>104.902</v>
+      </c>
+      <c r="E186">
         <v>12551.6</v>
       </c>
-      <c r="D186">
+      <c r="F186">
         <v>12148.1</v>
       </c>
-      <c r="E186">
-        <v>17613.3</v>
-      </c>
-      <c r="F186">
+      <c r="G186">
         <v>103.325</v>
-      </c>
-      <c r="G186">
-        <v>104.902</v>
       </c>
       <c r="H186">
         <v>102.914</v>
@@ -27072,19 +27142,19 @@
         <v>18656.2</v>
       </c>
       <c r="C187">
+        <v>17668.2</v>
+      </c>
+      <c r="D187">
+        <v>105.595</v>
+      </c>
+      <c r="E187">
         <v>12707.5</v>
       </c>
-      <c r="D187">
+      <c r="F187">
         <v>12225.8</v>
       </c>
-      <c r="E187">
-        <v>17668.2</v>
-      </c>
-      <c r="F187">
+      <c r="G187">
         <v>103.944</v>
-      </c>
-      <c r="G187">
-        <v>105.595</v>
       </c>
       <c r="H187">
         <v>103.505</v>
@@ -27218,19 +27288,19 @@
         <v>18821.4</v>
       </c>
       <c r="C188">
+        <v>17764.4</v>
+      </c>
+      <c r="D188">
+        <v>105.941</v>
+      </c>
+      <c r="E188">
         <v>12841.2</v>
       </c>
-      <c r="D188">
+      <c r="F188">
         <v>12304.5</v>
       </c>
-      <c r="E188">
-        <v>17764.4</v>
-      </c>
-      <c r="F188">
+      <c r="G188">
         <v>104.366</v>
-      </c>
-      <c r="G188">
-        <v>105.941</v>
       </c>
       <c r="H188">
         <v>103.95</v>
@@ -27364,19 +27434,19 @@
         <v>19032.6</v>
       </c>
       <c r="C189">
+        <v>17876.2</v>
+      </c>
+      <c r="D189">
+        <v>106.506</v>
+      </c>
+      <c r="E189">
         <v>12979.5</v>
       </c>
-      <c r="D189">
+      <c r="F189">
         <v>12380</v>
       </c>
-      <c r="E189">
-        <v>17876.2</v>
-      </c>
-      <c r="F189">
+      <c r="G189">
         <v>104.847</v>
-      </c>
-      <c r="G189">
-        <v>106.506</v>
       </c>
       <c r="H189">
         <v>104.475</v>
@@ -27510,19 +27580,19 @@
         <v>19237.4</v>
       </c>
       <c r="C190">
+        <v>17977.3</v>
+      </c>
+      <c r="D190">
+        <v>107.031</v>
+      </c>
+      <c r="E190">
         <v>13153.2</v>
       </c>
-      <c r="D190">
+      <c r="F190">
         <v>12477.3</v>
       </c>
-      <c r="E190">
-        <v>17977.3</v>
-      </c>
-      <c r="F190">
+      <c r="G190">
         <v>105.421</v>
-      </c>
-      <c r="G190">
-        <v>107.031</v>
       </c>
       <c r="H190">
         <v>105.072</v>
@@ -27656,19 +27726,19 @@
         <v>19379.2</v>
       </c>
       <c r="C191">
+        <v>18054.1</v>
+      </c>
+      <c r="D191">
+        <v>107.368</v>
+      </c>
+      <c r="E191">
         <v>13241.3</v>
       </c>
-      <c r="D191">
+      <c r="F191">
         <v>12533.1</v>
       </c>
-      <c r="E191">
-        <v>18054.1</v>
-      </c>
-      <c r="F191">
+      <c r="G191">
         <v>105.654</v>
-      </c>
-      <c r="G191">
-        <v>107.368</v>
       </c>
       <c r="H191">
         <v>105.466</v>
@@ -27802,19 +27872,19 @@
         <v>19617.3</v>
       </c>
       <c r="C192">
+        <v>18185.6</v>
+      </c>
+      <c r="D192">
+        <v>107.968</v>
+      </c>
+      <c r="E192">
         <v>13370.9</v>
       </c>
-      <c r="D192">
+      <c r="F192">
         <v>12604.5</v>
       </c>
-      <c r="E192">
-        <v>18185.6</v>
-      </c>
-      <c r="F192">
+      <c r="G192">
         <v>106.084</v>
-      </c>
-      <c r="G192">
-        <v>107.968</v>
       </c>
       <c r="H192">
         <v>106.002</v>
@@ -27948,19 +28018,19 @@
         <v>19938</v>
       </c>
       <c r="C193">
+        <v>18359.4</v>
+      </c>
+      <c r="D193">
+        <v>108.637</v>
+      </c>
+      <c r="E193">
         <v>13596</v>
       </c>
-      <c r="D193">
+      <c r="F193">
         <v>12733.7</v>
       </c>
-      <c r="E193">
-        <v>18359.4</v>
-      </c>
-      <c r="F193">
+      <c r="G193">
         <v>106.775</v>
-      </c>
-      <c r="G193">
-        <v>108.637</v>
       </c>
       <c r="H193">
         <v>106.831</v>
@@ -28094,19 +28164,19 @@
         <v>20242.2</v>
       </c>
       <c r="C194">
+        <v>18530.5</v>
+      </c>
+      <c r="D194">
+        <v>109.292</v>
+      </c>
+      <c r="E194">
         <v>13755.5</v>
       </c>
-      <c r="D194">
+      <c r="F194">
         <v>12798.1</v>
       </c>
-      <c r="E194">
-        <v>18530.5</v>
-      </c>
-      <c r="F194">
+      <c r="G194">
         <v>107.485</v>
-      </c>
-      <c r="G194">
-        <v>109.292</v>
       </c>
       <c r="H194">
         <v>107.962</v>
@@ -28240,19 +28310,19 @@
         <v>20552.7</v>
       </c>
       <c r="C195">
+        <v>18654.4</v>
+      </c>
+      <c r="D195">
+        <v>110.165</v>
+      </c>
+      <c r="E195">
         <v>13939.9</v>
       </c>
-      <c r="D195">
+      <c r="F195">
         <v>12898.1</v>
       </c>
-      <c r="E195">
-        <v>18654.4</v>
-      </c>
-      <c r="F195">
+      <c r="G195">
         <v>108.081</v>
-      </c>
-      <c r="G195">
-        <v>110.165</v>
       </c>
       <c r="H195">
         <v>108.763</v>
@@ -28386,19 +28456,19 @@
         <v>20742.7</v>
       </c>
       <c r="C196">
+        <v>18752.4</v>
+      </c>
+      <c r="D196">
+        <v>110.671</v>
+      </c>
+      <c r="E196">
         <v>14086.3</v>
       </c>
-      <c r="D196">
+      <c r="F196">
         <v>12983</v>
       </c>
-      <c r="E196">
-        <v>18752.4</v>
-      </c>
-      <c r="F196">
+      <c r="G196">
         <v>108.501</v>
-      </c>
-      <c r="G196">
-        <v>110.671</v>
       </c>
       <c r="H196">
         <v>109.413</v>
@@ -28532,19 +28602,19 @@
         <v>20909.9</v>
       </c>
       <c r="C197">
+        <v>18813.9</v>
+      </c>
+      <c r="D197">
+        <v>111.159</v>
+      </c>
+      <c r="E197">
         <v>14191.4</v>
       </c>
-      <c r="D197">
+      <c r="F197">
         <v>13033.4</v>
       </c>
-      <c r="E197">
-        <v>18813.9</v>
-      </c>
-      <c r="F197">
+      <c r="G197">
         <v>108.889</v>
-      </c>
-      <c r="G197">
-        <v>111.159</v>
       </c>
       <c r="H197">
         <v>110.218</v>
@@ -28678,19 +28748,19 @@
         <v>21115.3</v>
       </c>
       <c r="C198">
+        <v>18950.3</v>
+      </c>
+      <c r="D198">
+        <v>111.497</v>
+      </c>
+      <c r="E198">
         <v>14276.6</v>
       </c>
-      <c r="D198">
+      <c r="F198">
         <v>13093.2</v>
       </c>
-      <c r="E198">
-        <v>18950.3</v>
-      </c>
-      <c r="F198">
+      <c r="G198">
         <v>109.042</v>
-      </c>
-      <c r="G198">
-        <v>111.497</v>
       </c>
       <c r="H198">
         <v>111.479</v>
@@ -28824,19 +28894,19 @@
         <v>21329.9</v>
       </c>
       <c r="C199">
+        <v>19020.6</v>
+      </c>
+      <c r="D199">
+        <v>112.181</v>
+      </c>
+      <c r="E199">
         <v>14497.3</v>
       </c>
-      <c r="D199">
+      <c r="F199">
         <v>13212.8</v>
       </c>
-      <c r="E199">
-        <v>19020.6</v>
-      </c>
-      <c r="F199">
+      <c r="G199">
         <v>109.726</v>
-      </c>
-      <c r="G199">
-        <v>112.181</v>
       </c>
       <c r="H199">
         <v>110.761</v>
@@ -28970,19 +29040,19 @@
         <v>21540.3</v>
       </c>
       <c r="C200">
+        <v>19141.7</v>
+      </c>
+      <c r="D200">
+        <v>112.602</v>
+      </c>
+      <c r="E200">
         <v>14645.3</v>
       </c>
-      <c r="D200">
+      <c r="F200">
         <v>13301.3</v>
       </c>
-      <c r="E200">
-        <v>19141.7</v>
-      </c>
-      <c r="F200">
+      <c r="G200">
         <v>110.108</v>
-      </c>
-      <c r="G200">
-        <v>112.602</v>
       </c>
       <c r="H200">
         <v>110.921</v>
@@ -29116,19 +29186,19 @@
         <v>21747.4</v>
       </c>
       <c r="C201">
+        <v>19254</v>
+      </c>
+      <c r="D201">
+        <v>112.989</v>
+      </c>
+      <c r="E201">
         <v>14759.2</v>
       </c>
-      <c r="D201">
+      <c r="F201">
         <v>13353.7</v>
       </c>
-      <c r="E201">
-        <v>19254</v>
-      </c>
-      <c r="F201">
+      <c r="G201">
         <v>110.529</v>
-      </c>
-      <c r="G201">
-        <v>112.989</v>
       </c>
       <c r="H201">
         <v>111.281</v>
@@ -29262,19 +29332,19 @@
         <v>21561.1</v>
       </c>
       <c r="C202">
+        <v>19010.8</v>
+      </c>
+      <c r="D202">
+        <v>113.38</v>
+      </c>
+      <c r="E202">
         <v>14545.5</v>
       </c>
-      <c r="D202">
+      <c r="F202">
         <v>13118.4</v>
       </c>
-      <c r="E202">
-        <v>19010.8</v>
-      </c>
-      <c r="F202">
+      <c r="G202">
         <v>110.882</v>
-      </c>
-      <c r="G202">
-        <v>113.38</v>
       </c>
       <c r="H202">
         <v>111.205</v>
@@ -29408,19 +29478,19 @@
         <v>19520.1</v>
       </c>
       <c r="C203">
+        <v>17302.5</v>
+      </c>
+      <c r="D203">
+        <v>112.86</v>
+      </c>
+      <c r="E203">
         <v>13097.3</v>
       </c>
-      <c r="D203">
+      <c r="F203">
         <v>11860.3</v>
       </c>
-      <c r="E203">
-        <v>17302.5</v>
-      </c>
-      <c r="F203">
+      <c r="G203">
         <v>110.435</v>
-      </c>
-      <c r="G203">
-        <v>112.86</v>
       </c>
       <c r="H203">
         <v>110.901</v>
@@ -29459,7 +29529,7 @@
         <v>112.5</v>
       </c>
       <c r="T203">
-        <v>2095.7</v>
+        <v>2096.5</v>
       </c>
       <c r="U203">
         <v>1395.8</v>
@@ -29471,7 +29541,7 @@
         <v>3839.3</v>
       </c>
       <c r="X203">
-        <v>1384.9</v>
+        <v>1393.3</v>
       </c>
       <c r="Y203">
         <v>110.431</v>
@@ -29489,7 +29559,7 @@
         <v>2013.1</v>
       </c>
       <c r="AD203">
-        <v>1599.3</v>
+        <v>1600.1</v>
       </c>
       <c r="AE203">
         <v>131.4</v>
@@ -29498,7 +29568,7 @@
         <v>171.5</v>
       </c>
       <c r="AG203">
-        <v>1365.7</v>
+        <v>1374.2</v>
       </c>
       <c r="AH203">
         <v>4815.3</v>
@@ -29544,6 +29614,45 @@
       </c>
       <c r="AV203">
         <v>1062344</v>
+      </c>
+      <c r="AW203">
+        <v>1078.1</v>
+      </c>
+      <c r="AX203">
+        <v>19.1</v>
+      </c>
+      <c r="AY203">
+        <v>160.9</v>
+      </c>
+      <c r="AZ203">
+        <v>609.3</v>
+      </c>
+      <c r="BA203">
+        <v>63.8</v>
+      </c>
+      <c r="BB203">
+        <v>73.3</v>
+      </c>
+      <c r="BC203">
+        <v>140</v>
+      </c>
+      <c r="BD203">
+        <v>597.9</v>
+      </c>
+      <c r="BE203">
+        <v>28.4</v>
+      </c>
+      <c r="BF203">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="BG203">
+        <v>7.2</v>
+      </c>
+      <c r="BH203">
+        <v>101.5</v>
+      </c>
+      <c r="BI203">
+        <v>679.2000000000001</v>
       </c>
     </row>
     <row r="204">
@@ -29551,127 +29660,127 @@
         <v>44104</v>
       </c>
       <c r="B204">
-        <v>21157.6</v>
+        <v>21170.3</v>
       </c>
       <c r="C204">
-        <v>14394.8</v>
+        <v>18596.5</v>
       </c>
       <c r="D204">
-        <v>12917.3</v>
+        <v>113.838</v>
       </c>
       <c r="E204">
-        <v>18584</v>
+        <v>14401.5</v>
       </c>
       <c r="F204">
-        <v>111.442</v>
+        <v>12924.7</v>
       </c>
       <c r="G204">
-        <v>113.86</v>
+        <v>111.431</v>
       </c>
       <c r="H204">
-        <v>111.334</v>
+        <v>111.373</v>
       </c>
       <c r="I204">
-        <v>117.122</v>
+        <v>116.889</v>
       </c>
       <c r="J204">
-        <v>116.958</v>
+        <v>116.685</v>
       </c>
       <c r="K204">
-        <v>117.835</v>
+        <v>117.775</v>
       </c>
       <c r="L204">
-        <v>-0.6800000000000001</v>
+        <v>-0.75</v>
       </c>
       <c r="M204">
-        <v>-0.3</v>
+        <v>-0.37</v>
       </c>
       <c r="N204">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="O204">
         <v>842.7000000000001</v>
       </c>
       <c r="P204">
-        <v>699</v>
+        <v>683.7000000000001</v>
       </c>
       <c r="Q204">
-        <v>771.5</v>
+        <v>775.2000000000001</v>
       </c>
       <c r="R204">
-        <v>4357.4</v>
+        <v>4323.4</v>
       </c>
       <c r="S204">
         <v>113</v>
       </c>
       <c r="T204">
-        <v>2191.8</v>
+        <v>2193.9</v>
       </c>
       <c r="U204">
-        <v>1459.8</v>
+        <v>1489.2</v>
       </c>
       <c r="V204">
-        <v>256.6</v>
+        <v>297.2</v>
       </c>
       <c r="W204">
-        <v>3824.5</v>
+        <v>3816.6</v>
       </c>
       <c r="X204">
-        <v>1439.5</v>
+        <v>1455.6</v>
       </c>
       <c r="Y204">
-        <v>111.438</v>
+        <v>111.426</v>
       </c>
       <c r="Z204">
-        <v>1486.6</v>
+        <v>1487</v>
       </c>
       <c r="AA204">
-        <v>2337.9</v>
+        <v>2329.6</v>
       </c>
       <c r="AB204">
-        <v>1335.2</v>
+        <v>1335.1</v>
       </c>
       <c r="AC204">
-        <v>1996.2</v>
+        <v>1993.1</v>
       </c>
       <c r="AD204">
-        <v>1686.4</v>
+        <v>1687.4</v>
       </c>
       <c r="AE204">
         <v>144.7</v>
       </c>
       <c r="AF204">
-        <v>193.9</v>
+        <v>207</v>
       </c>
       <c r="AG204">
-        <v>1419.3</v>
+        <v>1435.4</v>
       </c>
       <c r="AH204">
-        <v>3513.8</v>
+        <v>3494.9</v>
       </c>
       <c r="AI204">
-        <v>727.5</v>
+        <v>728.2000000000001</v>
       </c>
       <c r="AJ204">
-        <v>505.4</v>
+        <v>506.6</v>
       </c>
       <c r="AK204">
-        <v>1315.1</v>
+        <v>1344.5</v>
       </c>
       <c r="AL204">
-        <v>62.63333333333333</v>
+        <v>90.2</v>
       </c>
       <c r="AM204">
         <v>20.2</v>
       </c>
       <c r="AN204">
-        <v>843.6</v>
+        <v>828.5</v>
       </c>
       <c r="AO204">
-        <v>3183.5</v>
+        <v>3160.3</v>
       </c>
       <c r="AP204">
-        <v>533020</v>
+        <v>533712</v>
       </c>
       <c r="AQ204">
         <v>486072</v>
@@ -29680,16 +29789,246 @@
         <v>73845</v>
       </c>
       <c r="AS204">
-        <v>1211.7</v>
+        <v>1212.9</v>
       </c>
       <c r="AT204">
         <v>0.6</v>
       </c>
       <c r="AU204">
-        <v>1212.3</v>
+        <v>1213.5</v>
       </c>
       <c r="AV204">
-        <v>734317</v>
+        <v>737133</v>
+      </c>
+      <c r="AW204">
+        <v>15.6</v>
+      </c>
+      <c r="AX204">
+        <v>27</v>
+      </c>
+      <c r="AY204">
+        <v>58.4</v>
+      </c>
+      <c r="AZ204">
+        <v>865.6</v>
+      </c>
+      <c r="BA204">
+        <v>15</v>
+      </c>
+      <c r="BB204">
+        <v>73.3</v>
+      </c>
+      <c r="BC204">
+        <v>140</v>
+      </c>
+      <c r="BD204">
+        <v>0</v>
+      </c>
+      <c r="BE204">
+        <v>15.8</v>
+      </c>
+      <c r="BF204">
+        <v>23.4</v>
+      </c>
+      <c r="BG204">
+        <v>23.9</v>
+      </c>
+      <c r="BH204">
+        <v>156.1</v>
+      </c>
+      <c r="BI204">
+        <v>373.1</v>
+      </c>
+      <c r="BJ204">
+        <v>159.3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B205">
+        <v>21479.5</v>
+      </c>
+      <c r="C205">
+        <v>18780.3</v>
+      </c>
+      <c r="D205">
+        <v>114.415</v>
+      </c>
+      <c r="E205">
+        <v>14545.3</v>
+      </c>
+      <c r="F205">
+        <v>13004.7</v>
+      </c>
+      <c r="G205">
+        <v>111.851</v>
+      </c>
+      <c r="H205">
+        <v>112.015</v>
+      </c>
+      <c r="I205">
+        <v>117.773</v>
+      </c>
+      <c r="J205">
+        <v>117.701</v>
+      </c>
+      <c r="K205">
+        <v>118.101</v>
+      </c>
+      <c r="L205">
+        <v>-0.22</v>
+      </c>
+      <c r="M205">
+        <v>-0.19</v>
+      </c>
+      <c r="N205">
+        <v>-0.04</v>
+      </c>
+      <c r="O205">
+        <v>860.6</v>
+      </c>
+      <c r="P205">
+        <v>673.6</v>
+      </c>
+      <c r="Q205">
+        <v>302.4</v>
+      </c>
+      <c r="R205">
+        <v>3743.8</v>
+      </c>
+      <c r="S205">
+        <v>113.6</v>
+      </c>
+      <c r="T205">
+        <v>2226.7</v>
+      </c>
+      <c r="U205">
+        <v>1503.7</v>
+      </c>
+      <c r="V205">
+        <v>255.4</v>
+      </c>
+      <c r="W205">
+        <v>3830.8</v>
+      </c>
+      <c r="X205">
+        <v>1478.8</v>
+      </c>
+      <c r="Y205">
+        <v>111.846</v>
+      </c>
+      <c r="Z205">
+        <v>1493.6</v>
+      </c>
+      <c r="AA205">
+        <v>2337.2</v>
+      </c>
+      <c r="AB205">
+        <v>1333.3</v>
+      </c>
+      <c r="AC205">
+        <v>1984.5</v>
+      </c>
+      <c r="AD205">
+        <v>1710.3</v>
+      </c>
+      <c r="AE205">
+        <v>151.3</v>
+      </c>
+      <c r="AF205">
+        <v>186.3333333333333</v>
+      </c>
+      <c r="AG205">
+        <v>1456.9</v>
+      </c>
+      <c r="AH205">
+        <v>2925.1</v>
+      </c>
+      <c r="AI205">
+        <v>738.1</v>
+      </c>
+      <c r="AJ205">
+        <v>516.4</v>
+      </c>
+      <c r="AK205">
+        <v>1352.4</v>
+      </c>
+      <c r="AL205">
+        <v>69.03333333333333</v>
+      </c>
+      <c r="AM205">
+        <v>21.8</v>
+      </c>
+      <c r="AN205">
+        <v>818.7000000000001</v>
+      </c>
+      <c r="AO205">
+        <v>3152.2</v>
+      </c>
+      <c r="AP205">
+        <v>547131</v>
+      </c>
+      <c r="AQ205">
+        <v>512193</v>
+      </c>
+      <c r="AR205">
+        <v>73559</v>
+      </c>
+      <c r="AS205">
+        <v>609.9</v>
+      </c>
+      <c r="AT205">
+        <v>0.6</v>
+      </c>
+      <c r="AU205">
+        <v>610.5</v>
+      </c>
+      <c r="AV205">
+        <v>233386</v>
+      </c>
+      <c r="AW205">
+        <v>5</v>
+      </c>
+      <c r="AX205">
+        <v>10.8</v>
+      </c>
+      <c r="AY205">
+        <v>34.5</v>
+      </c>
+      <c r="AZ205">
+        <v>260.3</v>
+      </c>
+      <c r="BA205">
+        <v>0.1</v>
+      </c>
+      <c r="BB205">
+        <v>73.3</v>
+      </c>
+      <c r="BC205">
+        <v>140</v>
+      </c>
+      <c r="BD205">
+        <v>0</v>
+      </c>
+      <c r="BE205">
+        <v>15.2</v>
+      </c>
+      <c r="BF205">
+        <v>13.8</v>
+      </c>
+      <c r="BG205">
+        <v>64.8</v>
+      </c>
+      <c r="BH205">
+        <v>112</v>
+      </c>
+      <c r="BI205">
+        <v>16.1</v>
+      </c>
+      <c r="BJ205">
+        <v>35.83333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/national_accounts.xlsx
+++ b/inst/extdata/national_accounts.xlsx
@@ -32173,7 +32173,7 @@
         <v>113</v>
       </c>
       <c r="Q204">
-        <v>2193.9</v>
+        <v>2191.6</v>
       </c>
       <c r="R204">
         <v>1489.2</v>
@@ -32185,7 +32185,7 @@
         <v>3816.6</v>
       </c>
       <c r="U204">
-        <v>1455.6</v>
+        <v>1446.9</v>
       </c>
       <c r="V204">
         <v>111.426</v>
@@ -32203,7 +32203,7 @@
         <v>1993.1</v>
       </c>
       <c r="AA204">
-        <v>1687.4</v>
+        <v>1685</v>
       </c>
       <c r="AB204">
         <v>144.7</v>
@@ -32212,7 +32212,7 @@
         <v>207</v>
       </c>
       <c r="AD204">
-        <v>1435.4</v>
+        <v>1426.6</v>
       </c>
       <c r="AE204">
         <v>3494.9</v>
@@ -32337,103 +32337,103 @@
         <v>44196</v>
       </c>
       <c r="B205">
-        <v>21479.5</v>
+        <v>21487.9</v>
       </c>
       <c r="C205">
-        <v>18780.3</v>
+        <v>18783.9</v>
       </c>
       <c r="D205">
-        <v>114.415</v>
+        <v>114.441</v>
       </c>
       <c r="E205">
-        <v>14545.3</v>
+        <v>14542.4</v>
       </c>
       <c r="F205">
-        <v>13004.7</v>
+        <v>13000.3</v>
       </c>
       <c r="G205">
-        <v>111.851</v>
+        <v>111.867</v>
       </c>
       <c r="H205">
-        <v>112.015</v>
+        <v>112.115</v>
       </c>
       <c r="I205">
-        <v>117.773</v>
+        <v>117.726</v>
       </c>
       <c r="J205">
-        <v>117.701</v>
+        <v>117.642</v>
       </c>
       <c r="K205">
-        <v>118.101</v>
+        <v>118.106</v>
       </c>
       <c r="L205">
         <v>860.6</v>
       </c>
       <c r="M205">
-        <v>673.6</v>
+        <v>684.5</v>
       </c>
       <c r="N205">
-        <v>302.4</v>
+        <v>297.8</v>
       </c>
       <c r="O205">
-        <v>3743.8</v>
+        <v>3748.6</v>
       </c>
       <c r="P205">
         <v>113.6</v>
       </c>
       <c r="Q205">
-        <v>2226.7</v>
+        <v>2236.1</v>
       </c>
       <c r="R205">
-        <v>1503.7</v>
+        <v>1504.1</v>
       </c>
       <c r="S205">
         <v>255.4</v>
       </c>
       <c r="T205">
-        <v>3830.8</v>
+        <v>3832.6</v>
       </c>
       <c r="U205">
-        <v>1478.8</v>
+        <v>1468.2</v>
       </c>
       <c r="V205">
-        <v>111.846</v>
+        <v>111.862</v>
       </c>
       <c r="W205">
-        <v>1493.6</v>
+        <v>1493.5</v>
       </c>
       <c r="X205">
-        <v>2337.2</v>
+        <v>2339</v>
       </c>
       <c r="Y205">
-        <v>1333.3</v>
+        <v>1332.1</v>
       </c>
       <c r="Z205">
-        <v>1984.5</v>
+        <v>1986.9</v>
       </c>
       <c r="AA205">
-        <v>1710.3</v>
+        <v>1717.8</v>
       </c>
       <c r="AB205">
-        <v>151.3</v>
+        <v>150.9</v>
       </c>
       <c r="AC205">
         <v>186.3333333333333</v>
       </c>
       <c r="AD205">
-        <v>1456.9</v>
+        <v>1446.3</v>
       </c>
       <c r="AE205">
-        <v>2925.1</v>
+        <v>2919</v>
       </c>
       <c r="AF205">
         <v>738.1</v>
       </c>
       <c r="AG205">
-        <v>516.4</v>
+        <v>518.3</v>
       </c>
       <c r="AH205">
-        <v>1352.4</v>
+        <v>1353.2</v>
       </c>
       <c r="AI205">
         <v>69.03333333333333</v>
@@ -32442,10 +32442,10 @@
         <v>21.8</v>
       </c>
       <c r="AK205">
-        <v>818.7000000000001</v>
+        <v>829.6</v>
       </c>
       <c r="AL205">
-        <v>3152.2</v>
+        <v>3164.6</v>
       </c>
       <c r="AM205">
         <v>547131</v>
@@ -32457,13 +32457,13 @@
         <v>73559</v>
       </c>
       <c r="AP205">
-        <v>609.9</v>
+        <v>609.8</v>
       </c>
       <c r="AQ205">
         <v>0.6</v>
       </c>
       <c r="AR205">
-        <v>610.5</v>
+        <v>610.4</v>
       </c>
       <c r="AS205">
         <v>5</v>
@@ -32502,16 +32502,16 @@
         <v>13.8</v>
       </c>
       <c r="BE205">
-        <v>64.8</v>
+        <v>63.9</v>
       </c>
       <c r="BF205">
-        <v>112</v>
+        <v>110.8</v>
       </c>
       <c r="BG205">
-        <v>16.1</v>
+        <v>13.6</v>
       </c>
       <c r="BH205">
-        <v>203.9</v>
+        <v>199.4</v>
       </c>
       <c r="BI205">
         <v>35.83333333333334</v>

--- a/inst/extdata/national_accounts.xlsx
+++ b/inst/extdata/national_accounts.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BU206"/>
+  <dimension ref="A1:BV206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,50 +682,55 @@
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
+          <t>yptol</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
           <t>gfctp</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>yptolm</t>
+          <t>gftffx</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>ui</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>pcw</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>gdppothq</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>gdppotq</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>recessq</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>lasgova</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>lalgova</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>cpgs</t>
         </is>
@@ -858,31 +863,34 @@
       <c r="AR2">
         <v>4.7</v>
       </c>
-      <c r="BL2">
+      <c r="BM2">
         <v>5.7</v>
       </c>
       <c r="BN2">
+        <v>0.584</v>
+      </c>
+      <c r="BO2">
         <v>38.1</v>
       </c>
-      <c r="BO2">
+      <c r="BP2">
         <v>38.3</v>
       </c>
-      <c r="BP2">
+      <c r="BQ2">
         <v>4940.7</v>
       </c>
-      <c r="BQ2">
+      <c r="BR2">
         <v>1052.1</v>
       </c>
-      <c r="BR2">
+      <c r="BS2">
         <v>1</v>
       </c>
-      <c r="BS2">
+      <c r="BT2">
         <v>2613.333333333334</v>
       </c>
-      <c r="BT2">
+      <c r="BU2">
         <v>7048.666666666667</v>
       </c>
-      <c r="BU2">
+      <c r="BV2">
         <v>23545.66666666667</v>
       </c>
     </row>
@@ -1013,31 +1021,34 @@
       <c r="AR3">
         <v>4.8</v>
       </c>
-      <c r="BL3">
+      <c r="BM3">
         <v>5.4</v>
       </c>
       <c r="BN3">
+        <v>0.98</v>
+      </c>
+      <c r="BO3">
         <v>38.63333333333333</v>
       </c>
-      <c r="BO3">
+      <c r="BP3">
         <v>38.83333333333334</v>
       </c>
-      <c r="BP3">
+      <c r="BQ3">
         <v>4982</v>
       </c>
-      <c r="BQ3">
+      <c r="BR3">
         <v>1075.7</v>
       </c>
-      <c r="BR3">
+      <c r="BS3">
         <v>1</v>
       </c>
-      <c r="BS3">
+      <c r="BT3">
         <v>2648.333333333334</v>
       </c>
-      <c r="BT3">
+      <c r="BU3">
         <v>7104.333333333333</v>
       </c>
-      <c r="BU3">
+      <c r="BV3">
         <v>24037</v>
       </c>
     </row>
@@ -1168,31 +1179,34 @@
       <c r="AR4">
         <v>4.7</v>
       </c>
-      <c r="BL4">
+      <c r="BM4">
         <v>4.9</v>
       </c>
       <c r="BN4">
+        <v>1.256</v>
+      </c>
+      <c r="BO4">
         <v>39.03333333333333</v>
       </c>
-      <c r="BO4">
+      <c r="BP4">
         <v>39.23333333333334</v>
       </c>
-      <c r="BP4">
+      <c r="BQ4">
         <v>5021.9</v>
       </c>
-      <c r="BQ4">
+      <c r="BR4">
         <v>1093.2</v>
       </c>
-      <c r="BR4">
+      <c r="BS4">
         <v>1</v>
       </c>
-      <c r="BS4">
+      <c r="BT4">
         <v>2681.666666666667</v>
       </c>
-      <c r="BT4">
+      <c r="BU4">
         <v>7204.333333333333</v>
       </c>
-      <c r="BU4">
+      <c r="BV4">
         <v>25485.66666666667</v>
       </c>
     </row>
@@ -1323,31 +1337,34 @@
       <c r="AR5">
         <v>4.8</v>
       </c>
-      <c r="BL5">
+      <c r="BM5">
         <v>5.1</v>
       </c>
       <c r="BN5">
+        <v>1.592</v>
+      </c>
+      <c r="BO5">
         <v>39.6</v>
       </c>
-      <c r="BO5">
+      <c r="BP5">
         <v>39.8</v>
       </c>
-      <c r="BP5">
+      <c r="BQ5">
         <v>5060.8</v>
       </c>
-      <c r="BQ5">
+      <c r="BR5">
         <v>1116.2</v>
       </c>
-      <c r="BR5">
+      <c r="BS5">
         <v>1</v>
       </c>
-      <c r="BS5">
+      <c r="BT5">
         <v>2716.333333333334</v>
       </c>
-      <c r="BT5">
+      <c r="BU5">
         <v>7279.333333333333</v>
       </c>
-      <c r="BU5">
+      <c r="BV5">
         <v>25754.66666666667</v>
       </c>
     </row>
@@ -1478,31 +1495,34 @@
       <c r="AR6">
         <v>4.8</v>
       </c>
-      <c r="BL6">
+      <c r="BM6">
         <v>5.6</v>
       </c>
       <c r="BN6">
+        <v>1.62</v>
+      </c>
+      <c r="BO6">
         <v>39.93333333333333</v>
       </c>
-      <c r="BO6">
+      <c r="BP6">
         <v>40.16666666666667</v>
       </c>
-      <c r="BP6">
+      <c r="BQ6">
         <v>5099.9</v>
       </c>
-      <c r="BQ6">
+      <c r="BR6">
         <v>1142</v>
       </c>
-      <c r="BR6">
+      <c r="BS6">
         <v>-1</v>
       </c>
-      <c r="BS6">
+      <c r="BT6">
         <v>2719.333333333334</v>
       </c>
-      <c r="BT6">
+      <c r="BU6">
         <v>7353.333333333333</v>
       </c>
-      <c r="BU6">
+      <c r="BV6">
         <v>25713</v>
       </c>
     </row>
@@ -1633,31 +1653,34 @@
       <c r="AR7">
         <v>4.8</v>
       </c>
-      <c r="BL7">
+      <c r="BM7">
         <v>6.4</v>
       </c>
       <c r="BN7">
+        <v>1.6</v>
+      </c>
+      <c r="BO7">
         <v>40.3</v>
       </c>
-      <c r="BO7">
+      <c r="BP7">
         <v>40.53333333333334</v>
       </c>
-      <c r="BP7">
+      <c r="BQ7">
         <v>5139.7</v>
       </c>
-      <c r="BQ7">
+      <c r="BR7">
         <v>1165.9</v>
       </c>
-      <c r="BR7">
+      <c r="BS7">
         <v>-1</v>
       </c>
-      <c r="BS7">
+      <c r="BT7">
         <v>2739.666666666667</v>
       </c>
-      <c r="BT7">
+      <c r="BU7">
         <v>7419.666666666667</v>
       </c>
-      <c r="BU7">
+      <c r="BV7">
         <v>25998.66666666667</v>
       </c>
     </row>
@@ -1788,31 +1811,34 @@
       <c r="AR8">
         <v>4.5</v>
       </c>
-      <c r="BL8">
+      <c r="BM8">
         <v>5.9</v>
       </c>
       <c r="BN8">
+        <v>1.7</v>
+      </c>
+      <c r="BO8">
         <v>40.7</v>
       </c>
-      <c r="BO8">
+      <c r="BP8">
         <v>40.96666666666667</v>
       </c>
-      <c r="BP8">
+      <c r="BQ8">
         <v>5180</v>
       </c>
-      <c r="BQ8">
+      <c r="BR8">
         <v>1187.1</v>
       </c>
-      <c r="BR8">
+      <c r="BS8">
         <v>-1</v>
       </c>
-      <c r="BS8">
+      <c r="BT8">
         <v>2751.666666666667</v>
       </c>
-      <c r="BT8">
+      <c r="BU8">
         <v>7443.666666666667</v>
       </c>
-      <c r="BU8">
+      <c r="BV8">
         <v>25691</v>
       </c>
     </row>
@@ -1943,31 +1969,34 @@
       <c r="AR9">
         <v>4.6</v>
       </c>
-      <c r="BL9">
+      <c r="BM9">
         <v>5.8</v>
       </c>
       <c r="BN9">
+        <v>1.872</v>
+      </c>
+      <c r="BO9">
         <v>41</v>
       </c>
-      <c r="BO9">
+      <c r="BP9">
         <v>41.23333333333334</v>
       </c>
-      <c r="BP9">
+      <c r="BQ9">
         <v>5221</v>
       </c>
-      <c r="BQ9">
+      <c r="BR9">
         <v>1206.4</v>
       </c>
-      <c r="BR9">
+      <c r="BS9">
         <v>-1</v>
       </c>
-      <c r="BS9">
+      <c r="BT9">
         <v>2781</v>
       </c>
-      <c r="BT9">
+      <c r="BU9">
         <v>7534</v>
       </c>
-      <c r="BU9">
+      <c r="BV9">
         <v>26178.66666666667</v>
       </c>
     </row>
@@ -2098,31 +2127,34 @@
       <c r="AR10">
         <v>6.1</v>
       </c>
-      <c r="BL10">
+      <c r="BM10">
         <v>5.9</v>
       </c>
       <c r="BN10">
+        <v>1.832</v>
+      </c>
+      <c r="BO10">
         <v>41.33333333333334</v>
       </c>
-      <c r="BO10">
+      <c r="BP10">
         <v>41.6</v>
       </c>
-      <c r="BP10">
+      <c r="BQ10">
         <v>5262.8</v>
       </c>
-      <c r="BQ10">
+      <c r="BR10">
         <v>1234.6</v>
       </c>
-      <c r="BR10">
+      <c r="BS10">
         <v>-1</v>
       </c>
-      <c r="BS10">
+      <c r="BT10">
         <v>2815</v>
       </c>
-      <c r="BT10">
+      <c r="BU10">
         <v>7651.666666666667</v>
       </c>
-      <c r="BU10">
+      <c r="BV10">
         <v>25519</v>
       </c>
     </row>
@@ -2253,31 +2285,34 @@
       <c r="AR11">
         <v>6.2</v>
       </c>
-      <c r="BL11">
+      <c r="BM11">
         <v>5.5</v>
       </c>
       <c r="BN11">
+        <v>1.824</v>
+      </c>
+      <c r="BO11">
         <v>41.6</v>
       </c>
-      <c r="BO11">
+      <c r="BP11">
         <v>41.8</v>
       </c>
-      <c r="BP11">
+      <c r="BQ11">
         <v>5305.2</v>
       </c>
-      <c r="BQ11">
+      <c r="BR11">
         <v>1252.3</v>
       </c>
-      <c r="BR11">
+      <c r="BS11">
         <v>-1</v>
       </c>
-      <c r="BS11">
+      <c r="BT11">
         <v>2849</v>
       </c>
-      <c r="BT11">
+      <c r="BU11">
         <v>7726.333333333333</v>
       </c>
-      <c r="BU11">
+      <c r="BV11">
         <v>24875</v>
       </c>
     </row>
@@ -2408,31 +2443,34 @@
       <c r="AR12">
         <v>7.2</v>
       </c>
-      <c r="BL12">
+      <c r="BM12">
         <v>7</v>
       </c>
       <c r="BN12">
+        <v>2.108</v>
+      </c>
+      <c r="BO12">
         <v>41.93333333333333</v>
       </c>
-      <c r="BO12">
+      <c r="BP12">
         <v>42.2</v>
       </c>
-      <c r="BP12">
+      <c r="BQ12">
         <v>5348.2</v>
       </c>
-      <c r="BQ12">
+      <c r="BR12">
         <v>1274.5</v>
       </c>
-      <c r="BR12">
+      <c r="BS12">
         <v>-1</v>
       </c>
-      <c r="BS12">
+      <c r="BT12">
         <v>2874</v>
       </c>
-      <c r="BT12">
+      <c r="BU12">
         <v>7855</v>
       </c>
-      <c r="BU12">
+      <c r="BV12">
         <v>25641</v>
       </c>
     </row>
@@ -2563,31 +2601,34 @@
       <c r="AR13">
         <v>7.1</v>
       </c>
-      <c r="BL13">
+      <c r="BM13">
         <v>5.9</v>
       </c>
       <c r="BN13">
+        <v>2.156</v>
+      </c>
+      <c r="BO13">
         <v>42.36666666666667</v>
       </c>
-      <c r="BO13">
+      <c r="BP13">
         <v>42.63333333333333</v>
       </c>
-      <c r="BP13">
+      <c r="BQ13">
         <v>5391.9</v>
       </c>
-      <c r="BQ13">
+      <c r="BR13">
         <v>1301.3</v>
       </c>
-      <c r="BR13">
+      <c r="BS13">
         <v>-1</v>
       </c>
-      <c r="BS13">
+      <c r="BT13">
         <v>2901.333333333334</v>
       </c>
-      <c r="BT13">
+      <c r="BU13">
         <v>7931.333333333333</v>
       </c>
-      <c r="BU13">
+      <c r="BV13">
         <v>27114.33333333333</v>
       </c>
     </row>
@@ -2718,31 +2759,34 @@
       <c r="AR14">
         <v>5.9</v>
       </c>
-      <c r="BL14">
+      <c r="BM14">
         <v>5.9</v>
       </c>
       <c r="BN14">
+        <v>2.156</v>
+      </c>
+      <c r="BO14">
         <v>43.03333333333333</v>
       </c>
-      <c r="BO14">
+      <c r="BP14">
         <v>43.26666666666667</v>
       </c>
-      <c r="BP14">
+      <c r="BQ14">
         <v>5436.6</v>
       </c>
-      <c r="BQ14">
+      <c r="BR14">
         <v>1327.2</v>
       </c>
-      <c r="BR14">
+      <c r="BS14">
         <v>-1</v>
       </c>
-      <c r="BS14">
+      <c r="BT14">
         <v>2899.666666666667</v>
       </c>
-      <c r="BT14">
+      <c r="BU14">
         <v>8016</v>
       </c>
-      <c r="BU14">
+      <c r="BV14">
         <v>27472.66666666667</v>
       </c>
     </row>
@@ -2873,31 +2917,34 @@
       <c r="AR15">
         <v>5.7</v>
       </c>
-      <c r="BL15">
+      <c r="BM15">
         <v>6.4</v>
       </c>
       <c r="BN15">
+        <v>2.144</v>
+      </c>
+      <c r="BO15">
         <v>43.93333333333334</v>
       </c>
-      <c r="BO15">
+      <c r="BP15">
         <v>44.16666666666666</v>
       </c>
-      <c r="BP15">
+      <c r="BQ15">
         <v>5483.5</v>
       </c>
-      <c r="BQ15">
+      <c r="BR15">
         <v>1359.2</v>
       </c>
-      <c r="BR15">
+      <c r="BS15">
         <v>-1</v>
       </c>
-      <c r="BS15">
+      <c r="BT15">
         <v>2911.666666666667</v>
       </c>
-      <c r="BT15">
+      <c r="BU15">
         <v>8115</v>
       </c>
-      <c r="BU15">
+      <c r="BV15">
         <v>27079.33333333333</v>
       </c>
     </row>
@@ -3028,31 +3075,34 @@
       <c r="AR16">
         <v>4.7</v>
       </c>
-      <c r="BL16">
+      <c r="BM16">
         <v>5.5</v>
       </c>
       <c r="BN16">
+        <v>2.248</v>
+      </c>
+      <c r="BO16">
         <v>44.8</v>
       </c>
-      <c r="BO16">
+      <c r="BP16">
         <v>45.06666666666666</v>
       </c>
-      <c r="BP16">
+      <c r="BQ16">
         <v>5530.8</v>
       </c>
-      <c r="BQ16">
+      <c r="BR16">
         <v>1397.6</v>
       </c>
-      <c r="BR16">
+      <c r="BS16">
         <v>-1</v>
       </c>
-      <c r="BS16">
+      <c r="BT16">
         <v>2926.333333333334</v>
       </c>
-      <c r="BT16">
+      <c r="BU16">
         <v>8183.666666666667</v>
       </c>
-      <c r="BU16">
+      <c r="BV16">
         <v>27510</v>
       </c>
     </row>
@@ -3183,31 +3233,34 @@
       <c r="AR17">
         <v>4.6</v>
       </c>
-      <c r="BL17">
+      <c r="BM17">
         <v>6.1</v>
       </c>
       <c r="BN17">
+        <v>2.288</v>
+      </c>
+      <c r="BO17">
         <v>45.93333333333333</v>
       </c>
-      <c r="BO17">
+      <c r="BP17">
         <v>46.16666666666666</v>
       </c>
-      <c r="BP17">
+      <c r="BQ17">
         <v>5579.2</v>
       </c>
-      <c r="BQ17">
+      <c r="BR17">
         <v>1437.9</v>
       </c>
-      <c r="BR17">
+      <c r="BS17">
         <v>1</v>
       </c>
-      <c r="BS17">
+      <c r="BT17">
         <v>2953.333333333334</v>
       </c>
-      <c r="BT17">
+      <c r="BU17">
         <v>8272.333333333334</v>
       </c>
-      <c r="BU17">
+      <c r="BV17">
         <v>28620</v>
       </c>
     </row>
@@ -3338,31 +3391,34 @@
       <c r="AR18">
         <v>3.6</v>
       </c>
-      <c r="BL18">
+      <c r="BM18">
         <v>8</v>
       </c>
       <c r="BN18">
+        <v>3.064</v>
+      </c>
+      <c r="BO18">
         <v>47.3</v>
       </c>
-      <c r="BO18">
+      <c r="BP18">
         <v>47.56666666666666</v>
       </c>
-      <c r="BP18">
+      <c r="BQ18">
         <v>5628.2</v>
       </c>
-      <c r="BQ18">
+      <c r="BR18">
         <v>1477.9</v>
       </c>
-      <c r="BR18">
+      <c r="BS18">
         <v>1</v>
       </c>
-      <c r="BS18">
+      <c r="BT18">
         <v>2988.666666666667</v>
       </c>
-      <c r="BT18">
+      <c r="BU18">
         <v>8307.666666666666</v>
       </c>
-      <c r="BU18">
+      <c r="BV18">
         <v>30923.66666666667</v>
       </c>
     </row>
@@ -3493,31 +3549,34 @@
       <c r="AR19">
         <v>2.9</v>
       </c>
-      <c r="BL19">
+      <c r="BM19">
         <v>8.800000000000001</v>
       </c>
       <c r="BN19">
+        <v>3.16</v>
+      </c>
+      <c r="BO19">
         <v>48.56666666666667</v>
       </c>
-      <c r="BO19">
+      <c r="BP19">
         <v>48.76666666666667</v>
       </c>
-      <c r="BP19">
+      <c r="BQ19">
         <v>5677.5</v>
       </c>
-      <c r="BQ19">
+      <c r="BR19">
         <v>1526.2</v>
       </c>
-      <c r="BR19">
+      <c r="BS19">
         <v>1</v>
       </c>
-      <c r="BS19">
+      <c r="BT19">
         <v>3018</v>
       </c>
-      <c r="BT19">
+      <c r="BU19">
         <v>8346.333333333334</v>
       </c>
-      <c r="BU19">
+      <c r="BV19">
         <v>33400.66666666666</v>
       </c>
     </row>
@@ -3648,31 +3707,34 @@
       <c r="AR20">
         <v>3.2</v>
       </c>
-      <c r="BL20">
+      <c r="BM20">
         <v>6.7</v>
       </c>
       <c r="BN20">
+        <v>3.62</v>
+      </c>
+      <c r="BO20">
         <v>49.93333333333333</v>
       </c>
-      <c r="BO20">
+      <c r="BP20">
         <v>50.23333333333334</v>
       </c>
-      <c r="BP20">
+      <c r="BQ20">
         <v>5726.2</v>
       </c>
-      <c r="BQ20">
+      <c r="BR20">
         <v>1584.3</v>
       </c>
-      <c r="BR20">
+      <c r="BS20">
         <v>1</v>
       </c>
-      <c r="BS20">
+      <c r="BT20">
         <v>3048.333333333334</v>
       </c>
-      <c r="BT20">
+      <c r="BU20">
         <v>8424.666666666666</v>
       </c>
-      <c r="BU20">
+      <c r="BV20">
         <v>33701.66666666666</v>
       </c>
     </row>
@@ -3803,31 +3865,34 @@
       <c r="AR21">
         <v>3.6</v>
       </c>
-      <c r="BL21">
+      <c r="BM21">
         <v>8.1</v>
       </c>
       <c r="BN21">
+        <v>3.888</v>
+      </c>
+      <c r="BO21">
         <v>51.46666666666667</v>
       </c>
-      <c r="BO21">
+      <c r="BP21">
         <v>51.76666666666667</v>
       </c>
-      <c r="BP21">
+      <c r="BQ21">
         <v>5774.2</v>
       </c>
-      <c r="BQ21">
+      <c r="BR21">
         <v>1644.6</v>
       </c>
-      <c r="BR21">
+      <c r="BS21">
         <v>1</v>
       </c>
-      <c r="BS21">
+      <c r="BT21">
         <v>3099</v>
       </c>
-      <c r="BT21">
+      <c r="BU21">
         <v>8551.333333333334</v>
       </c>
-      <c r="BU21">
+      <c r="BV21">
         <v>33884</v>
       </c>
     </row>
@@ -3958,31 +4023,34 @@
       <c r="AR22">
         <v>4.2</v>
       </c>
-      <c r="BL22">
+      <c r="BM22">
         <v>9</v>
       </c>
       <c r="BN22">
+        <v>4.364</v>
+      </c>
+      <c r="BO22">
         <v>52.56666666666666</v>
       </c>
-      <c r="BO22">
+      <c r="BP22">
         <v>52.86666666666667</v>
       </c>
-      <c r="BP22">
+      <c r="BQ22">
         <v>5820.9</v>
       </c>
-      <c r="BQ22">
+      <c r="BR22">
         <v>1695.5</v>
       </c>
-      <c r="BR22">
+      <c r="BS22">
         <v>1</v>
       </c>
-      <c r="BS22">
+      <c r="BT22">
         <v>3161.666666666667</v>
       </c>
-      <c r="BT22">
+      <c r="BU22">
         <v>8673</v>
       </c>
-      <c r="BU22">
+      <c r="BV22">
         <v>37820.33333333334</v>
       </c>
     </row>
@@ -4113,31 +4181,34 @@
       <c r="AR23">
         <v>4.3</v>
       </c>
-      <c r="BL23">
+      <c r="BM23">
         <v>8.1</v>
       </c>
       <c r="BN23">
+        <v>4.512</v>
+      </c>
+      <c r="BO23">
         <v>53.2</v>
       </c>
-      <c r="BO23">
+      <c r="BP23">
         <v>53.5</v>
       </c>
-      <c r="BP23">
+      <c r="BQ23">
         <v>5866.7</v>
       </c>
-      <c r="BQ23">
+      <c r="BR23">
         <v>1734.3</v>
       </c>
-      <c r="BR23">
+      <c r="BS23">
         <v>-1</v>
       </c>
-      <c r="BS23">
+      <c r="BT23">
         <v>3177.333333333334</v>
       </c>
-      <c r="BT23">
+      <c r="BU23">
         <v>8751.333333333334</v>
       </c>
-      <c r="BU23">
+      <c r="BV23">
         <v>35429.66666666666</v>
       </c>
     </row>
@@ -4268,31 +4339,34 @@
       <c r="AR24">
         <v>4.6</v>
       </c>
-      <c r="BL24">
+      <c r="BM24">
         <v>11.1</v>
       </c>
       <c r="BN24">
+        <v>4.832</v>
+      </c>
+      <c r="BO24">
         <v>54.26666666666667</v>
       </c>
-      <c r="BO24">
+      <c r="BP24">
         <v>54.56666666666666</v>
       </c>
-      <c r="BP24">
+      <c r="BQ24">
         <v>5912</v>
       </c>
-      <c r="BQ24">
+      <c r="BR24">
         <v>1778.6</v>
       </c>
-      <c r="BR24">
+      <c r="BS24">
         <v>-1</v>
       </c>
-      <c r="BS24">
+      <c r="BT24">
         <v>3178</v>
       </c>
-      <c r="BT24">
+      <c r="BU24">
         <v>8786.333333333334</v>
       </c>
-      <c r="BU24">
+      <c r="BV24">
         <v>36988.33333333334</v>
       </c>
     </row>
@@ -4423,31 +4497,34 @@
       <c r="AR25">
         <v>4.9</v>
       </c>
-      <c r="BL25">
+      <c r="BM25">
         <v>10.7</v>
       </c>
       <c r="BN25">
+        <v>4.68</v>
+      </c>
+      <c r="BO25">
         <v>55.26666666666667</v>
       </c>
-      <c r="BO25">
+      <c r="BP25">
         <v>55.56666666666667</v>
       </c>
-      <c r="BP25">
+      <c r="BQ25">
         <v>5957.4</v>
       </c>
-      <c r="BQ25">
+      <c r="BR25">
         <v>1822.2</v>
       </c>
-      <c r="BR25">
+      <c r="BS25">
         <v>-1</v>
       </c>
-      <c r="BS25">
+      <c r="BT25">
         <v>3197.333333333334</v>
       </c>
-      <c r="BT25">
+      <c r="BU25">
         <v>8824.666666666666</v>
       </c>
-      <c r="BU25">
+      <c r="BV25">
         <v>39554</v>
       </c>
     </row>
@@ -4578,31 +4655,34 @@
       <c r="AR26">
         <v>5.1</v>
       </c>
-      <c r="BL26">
+      <c r="BM26">
         <v>10.3</v>
       </c>
       <c r="BN26">
+        <v>4.768</v>
+      </c>
+      <c r="BO26">
         <v>55.9</v>
       </c>
-      <c r="BO26">
+      <c r="BP26">
         <v>56.23333333333333</v>
       </c>
-      <c r="BP26">
+      <c r="BQ26">
         <v>6002.8</v>
       </c>
-      <c r="BQ26">
+      <c r="BR26">
         <v>1855.5</v>
       </c>
-      <c r="BR26">
+      <c r="BS26">
         <v>-1</v>
       </c>
-      <c r="BS26">
+      <c r="BT26">
         <v>3214.333333333334</v>
       </c>
-      <c r="BT26">
+      <c r="BU26">
         <v>8883</v>
       </c>
-      <c r="BU26">
+      <c r="BV26">
         <v>42554</v>
       </c>
     </row>
@@ -4733,31 +4813,34 @@
       <c r="AR27">
         <v>4.8</v>
       </c>
-      <c r="BL27">
+      <c r="BM27">
         <v>10</v>
       </c>
       <c r="BN27">
+        <v>4.676</v>
+      </c>
+      <c r="BO27">
         <v>56.4</v>
       </c>
-      <c r="BO27">
+      <c r="BP27">
         <v>56.73333333333333</v>
       </c>
-      <c r="BP27">
+      <c r="BQ27">
         <v>6048.9</v>
       </c>
-      <c r="BQ27">
+      <c r="BR27">
         <v>1888.6</v>
       </c>
-      <c r="BR27">
+      <c r="BS27">
         <v>-1</v>
       </c>
-      <c r="BS27">
+      <c r="BT27">
         <v>3241.666666666667</v>
       </c>
-      <c r="BT27">
+      <c r="BU27">
         <v>8868.666666666666</v>
       </c>
-      <c r="BU27">
+      <c r="BV27">
         <v>38830.66666666666</v>
       </c>
     </row>
@@ -4888,31 +4971,34 @@
       <c r="AR28">
         <v>5.1</v>
       </c>
-      <c r="BL28">
+      <c r="BM28">
         <v>10.8</v>
       </c>
       <c r="BN28">
+        <v>4.416</v>
+      </c>
+      <c r="BO28">
         <v>57.3</v>
       </c>
-      <c r="BO28">
+      <c r="BP28">
         <v>57.6</v>
       </c>
-      <c r="BP28">
+      <c r="BQ28">
         <v>6096.4</v>
       </c>
-      <c r="BQ28">
+      <c r="BR28">
         <v>1928.1</v>
       </c>
-      <c r="BR28">
+      <c r="BS28">
         <v>-1</v>
       </c>
-      <c r="BS28">
+      <c r="BT28">
         <v>3290.666666666667</v>
       </c>
-      <c r="BT28">
+      <c r="BU28">
         <v>8845</v>
       </c>
-      <c r="BU28">
+      <c r="BV28">
         <v>36130</v>
       </c>
     </row>
@@ -5043,31 +5129,34 @@
       <c r="AR29">
         <v>5.5</v>
       </c>
-      <c r="BL29">
+      <c r="BM29">
         <v>11.3</v>
       </c>
       <c r="BN29">
+        <v>4.532</v>
+      </c>
+      <c r="BO29">
         <v>58.13333333333333</v>
       </c>
-      <c r="BO29">
+      <c r="BP29">
         <v>58.43333333333334</v>
       </c>
-      <c r="BP29">
+      <c r="BQ29">
         <v>6144.7</v>
       </c>
-      <c r="BQ29">
+      <c r="BR29">
         <v>1978.1</v>
       </c>
-      <c r="BR29">
+      <c r="BS29">
         <v>-1</v>
       </c>
-      <c r="BS29">
+      <c r="BT29">
         <v>3342</v>
       </c>
-      <c r="BT29">
+      <c r="BU29">
         <v>8861</v>
       </c>
-      <c r="BU29">
+      <c r="BV29">
         <v>34359.66666666666</v>
       </c>
     </row>
@@ -5198,31 +5287,34 @@
       <c r="AR30">
         <v>5.8</v>
       </c>
-      <c r="BL30">
+      <c r="BM30">
         <v>10.9</v>
       </c>
       <c r="BN30">
+        <v>4.496</v>
+      </c>
+      <c r="BO30">
         <v>59.2</v>
       </c>
-      <c r="BO30">
+      <c r="BP30">
         <v>59.53333333333333</v>
       </c>
-      <c r="BP30">
+      <c r="BQ30">
         <v>6194.5</v>
       </c>
-      <c r="BQ30">
+      <c r="BR30">
         <v>2026.2</v>
       </c>
-      <c r="BR30">
+      <c r="BS30">
         <v>-1</v>
       </c>
-      <c r="BS30">
+      <c r="BT30">
         <v>3341.333333333334</v>
       </c>
-      <c r="BT30">
+      <c r="BU30">
         <v>8860.666666666666</v>
       </c>
-      <c r="BU30">
+      <c r="BV30">
         <v>36034</v>
       </c>
     </row>
@@ -5353,31 +5445,34 @@
       <c r="AR31">
         <v>5.9</v>
       </c>
-      <c r="BL31">
+      <c r="BM31">
         <v>10.9</v>
       </c>
       <c r="BN31">
+        <v>4.316</v>
+      </c>
+      <c r="BO31">
         <v>60.23333333333333</v>
       </c>
-      <c r="BO31">
+      <c r="BP31">
         <v>60.6</v>
       </c>
-      <c r="BP31">
+      <c r="BQ31">
         <v>6245.6</v>
       </c>
-      <c r="BQ31">
+      <c r="BR31">
         <v>2071.8</v>
       </c>
-      <c r="BR31">
+      <c r="BS31">
         <v>-1</v>
       </c>
-      <c r="BS31">
+      <c r="BT31">
         <v>3374.666666666667</v>
       </c>
-      <c r="BT31">
+      <c r="BU31">
         <v>8907.333333333334</v>
       </c>
-      <c r="BU31">
+      <c r="BV31">
         <v>37037.66666666666</v>
       </c>
     </row>
@@ -5508,31 +5603,34 @@
       <c r="AR32">
         <v>6.4</v>
       </c>
-      <c r="BL32">
+      <c r="BM32">
         <v>12.1</v>
       </c>
       <c r="BN32">
+        <v>4.38</v>
+      </c>
+      <c r="BO32">
         <v>61.06666666666666</v>
       </c>
-      <c r="BO32">
+      <c r="BP32">
         <v>61.43333333333334</v>
       </c>
-      <c r="BP32">
+      <c r="BQ32">
         <v>6297.4</v>
       </c>
-      <c r="BQ32">
+      <c r="BR32">
         <v>2114.4</v>
       </c>
-      <c r="BR32">
+      <c r="BS32">
         <v>-1</v>
       </c>
-      <c r="BS32">
+      <c r="BT32">
         <v>3385</v>
       </c>
-      <c r="BT32">
+      <c r="BU32">
         <v>9099.333333333334</v>
       </c>
-      <c r="BU32">
+      <c r="BV32">
         <v>35666.33333333334</v>
       </c>
     </row>
@@ -5663,31 +5761,34 @@
       <c r="AR33">
         <v>10.3</v>
       </c>
-      <c r="BL33">
+      <c r="BM33">
         <v>10.9</v>
       </c>
       <c r="BN33">
+        <v>4.384</v>
+      </c>
+      <c r="BO33">
         <v>61.96666666666667</v>
       </c>
-      <c r="BO33">
+      <c r="BP33">
         <v>62.26666666666666</v>
       </c>
-      <c r="BP33">
+      <c r="BQ33">
         <v>6350.6</v>
       </c>
-      <c r="BQ33">
+      <c r="BR33">
         <v>2178.3</v>
       </c>
-      <c r="BR33">
+      <c r="BS33">
         <v>-1</v>
       </c>
-      <c r="BS33">
+      <c r="BT33">
         <v>3404.666666666667</v>
       </c>
-      <c r="BT33">
+      <c r="BU33">
         <v>9231</v>
       </c>
-      <c r="BU33">
+      <c r="BV33">
         <v>35160</v>
       </c>
     </row>
@@ -5818,31 +5919,34 @@
       <c r="AR34">
         <v>8.699999999999999</v>
       </c>
-      <c r="BL34">
+      <c r="BM34">
         <v>11.2</v>
       </c>
       <c r="BN34">
+        <v>4.584</v>
+      </c>
+      <c r="BO34">
         <v>63.03333333333333</v>
       </c>
-      <c r="BO34">
+      <c r="BP34">
         <v>63.36666666666667</v>
       </c>
-      <c r="BP34">
+      <c r="BQ34">
         <v>6405.2</v>
       </c>
-      <c r="BQ34">
+      <c r="BR34">
         <v>2229</v>
       </c>
-      <c r="BR34">
+      <c r="BS34">
         <v>-1</v>
       </c>
-      <c r="BS34">
+      <c r="BT34">
         <v>3442.333333333334</v>
       </c>
-      <c r="BT34">
+      <c r="BU34">
         <v>9348.333333333334</v>
       </c>
-      <c r="BU34">
+      <c r="BV34">
         <v>34095.33333333334</v>
       </c>
     </row>
@@ -5973,31 +6077,34 @@
       <c r="AR35">
         <v>8.4</v>
       </c>
-      <c r="BL35">
+      <c r="BM35">
         <v>11.8</v>
       </c>
       <c r="BN35">
+        <v>4.488</v>
+      </c>
+      <c r="BO35">
         <v>64.46666666666667</v>
       </c>
-      <c r="BO35">
+      <c r="BP35">
         <v>64.76666666666667</v>
       </c>
-      <c r="BP35">
+      <c r="BQ35">
         <v>6460.8</v>
       </c>
-      <c r="BQ35">
+      <c r="BR35">
         <v>2291.3</v>
       </c>
-      <c r="BR35">
+      <c r="BS35">
         <v>-1</v>
       </c>
-      <c r="BS35">
+      <c r="BT35">
         <v>3479</v>
       </c>
-      <c r="BT35">
+      <c r="BU35">
         <v>9466</v>
       </c>
-      <c r="BU35">
+      <c r="BV35">
         <v>41889.66666666666</v>
       </c>
     </row>
@@ -6128,31 +6235,34 @@
       <c r="AR36">
         <v>8.300000000000001</v>
       </c>
-      <c r="BL36">
+      <c r="BM36">
         <v>12.2</v>
       </c>
       <c r="BN36">
+        <v>4.672</v>
+      </c>
+      <c r="BO36">
         <v>65.96666666666667</v>
       </c>
-      <c r="BO36">
+      <c r="BP36">
         <v>66.23333333333333</v>
       </c>
-      <c r="BP36">
+      <c r="BQ36">
         <v>6518</v>
       </c>
-      <c r="BQ36">
+      <c r="BR36">
         <v>2350.9</v>
       </c>
-      <c r="BR36">
+      <c r="BS36">
         <v>-1</v>
       </c>
-      <c r="BS36">
+      <c r="BT36">
         <v>3477.333333333334</v>
       </c>
-      <c r="BT36">
+      <c r="BU36">
         <v>9492.333333333334</v>
       </c>
-      <c r="BU36">
+      <c r="BV36">
         <v>43760.66666666666</v>
       </c>
     </row>
@@ -6283,31 +6393,34 @@
       <c r="AR37">
         <v>10.4</v>
       </c>
-      <c r="BL37">
+      <c r="BM37">
         <v>12.8</v>
       </c>
       <c r="BN37">
+        <v>4.596</v>
+      </c>
+      <c r="BO37">
         <v>67.5</v>
       </c>
-      <c r="BO37">
+      <c r="BP37">
         <v>67.83333333333333</v>
       </c>
-      <c r="BP37">
+      <c r="BQ37">
         <v>6576.2</v>
       </c>
-      <c r="BQ37">
+      <c r="BR37">
         <v>2420.4</v>
       </c>
-      <c r="BR37">
+      <c r="BS37">
         <v>-1</v>
       </c>
-      <c r="BS37">
+      <c r="BT37">
         <v>3494</v>
       </c>
-      <c r="BT37">
+      <c r="BU37">
         <v>9482.666666666666</v>
       </c>
-      <c r="BU37">
+      <c r="BV37">
         <v>45015.33333333334</v>
       </c>
     </row>
@@ -6438,31 +6551,34 @@
       <c r="AR38">
         <v>8.4</v>
       </c>
-      <c r="BL38">
+      <c r="BM38">
         <v>13.9</v>
       </c>
       <c r="BN38">
+        <v>5.424</v>
+      </c>
+      <c r="BO38">
         <v>69.2</v>
       </c>
-      <c r="BO38">
+      <c r="BP38">
         <v>69.56666666666666</v>
       </c>
-      <c r="BP38">
+      <c r="BQ38">
         <v>6636</v>
       </c>
-      <c r="BQ38">
+      <c r="BR38">
         <v>2486.9</v>
       </c>
-      <c r="BR38">
+      <c r="BS38">
         <v>-1</v>
       </c>
-      <c r="BS38">
+      <c r="BT38">
         <v>3504.333333333334</v>
       </c>
-      <c r="BT38">
+      <c r="BU38">
         <v>9531.333333333334</v>
       </c>
-      <c r="BU38">
+      <c r="BV38">
         <v>40794</v>
       </c>
     </row>
@@ -6593,31 +6709,34 @@
       <c r="AR39">
         <v>8.800000000000001</v>
       </c>
-      <c r="BL39">
+      <c r="BM39">
         <v>13.4</v>
       </c>
       <c r="BN39">
+        <v>5.78</v>
+      </c>
+      <c r="BO39">
         <v>71.40000000000001</v>
       </c>
-      <c r="BO39">
+      <c r="BP39">
         <v>71.89999999999999</v>
       </c>
-      <c r="BP39">
+      <c r="BQ39">
         <v>6693.8</v>
       </c>
-      <c r="BQ39">
+      <c r="BR39">
         <v>2570</v>
       </c>
-      <c r="BR39">
+      <c r="BS39">
         <v>-1</v>
       </c>
-      <c r="BS39">
+      <c r="BT39">
         <v>3518</v>
       </c>
-      <c r="BT39">
+      <c r="BU39">
         <v>9604.333333333334</v>
       </c>
-      <c r="BU39">
+      <c r="BV39">
         <v>45875.33333333334</v>
       </c>
     </row>
@@ -6748,31 +6867,34 @@
       <c r="AR40">
         <v>8.1</v>
       </c>
-      <c r="BL40">
+      <c r="BM40">
         <v>14.7</v>
       </c>
       <c r="BN40">
+        <v>6.88</v>
+      </c>
+      <c r="BO40">
         <v>73.7</v>
       </c>
-      <c r="BO40">
+      <c r="BP40">
         <v>74.23333333333333</v>
       </c>
-      <c r="BP40">
+      <c r="BQ40">
         <v>6748.7</v>
       </c>
-      <c r="BQ40">
+      <c r="BR40">
         <v>2647.8</v>
       </c>
-      <c r="BR40">
+      <c r="BS40">
         <v>-1</v>
       </c>
-      <c r="BS40">
+      <c r="BT40">
         <v>3560.666666666667</v>
       </c>
-      <c r="BT40">
+      <c r="BU40">
         <v>9710.666666666666</v>
       </c>
-      <c r="BU40">
+      <c r="BV40">
         <v>49343.66666666666</v>
       </c>
     </row>
@@ -6903,31 +7025,34 @@
       <c r="AR41">
         <v>8.9</v>
       </c>
-      <c r="BL41">
+      <c r="BM41">
         <v>16.1</v>
       </c>
       <c r="BN41">
+        <v>7.244</v>
+      </c>
+      <c r="BO41">
         <v>76.03333333333333</v>
       </c>
-      <c r="BO41">
+      <c r="BP41">
         <v>76.5</v>
       </c>
-      <c r="BP41">
+      <c r="BQ41">
         <v>6800.2</v>
       </c>
-      <c r="BQ41">
+      <c r="BR41">
         <v>2717.5</v>
       </c>
-      <c r="BR41">
+      <c r="BS41">
         <v>-1</v>
       </c>
-      <c r="BS41">
+      <c r="BT41">
         <v>3579.333333333334</v>
       </c>
-      <c r="BT41">
+      <c r="BU41">
         <v>9697.333333333334</v>
       </c>
-      <c r="BU41">
+      <c r="BV41">
         <v>52609</v>
       </c>
     </row>
@@ -7058,31 +7183,34 @@
       <c r="AR42">
         <v>9.199999999999999</v>
       </c>
-      <c r="BL42">
+      <c r="BM42">
         <v>16.7</v>
       </c>
       <c r="BN42">
+        <v>7.764</v>
+      </c>
+      <c r="BO42">
         <v>79.03333333333333</v>
       </c>
-      <c r="BO42">
+      <c r="BP42">
         <v>79.5</v>
       </c>
-      <c r="BP42">
+      <c r="BQ42">
         <v>6847.6</v>
       </c>
-      <c r="BQ42">
+      <c r="BR42">
         <v>2793.9</v>
       </c>
-      <c r="BR42">
+      <c r="BS42">
         <v>1</v>
       </c>
-      <c r="BS42">
+      <c r="BT42">
         <v>3582</v>
       </c>
-      <c r="BT42">
+      <c r="BU42">
         <v>9741.333333333334</v>
       </c>
-      <c r="BU42">
+      <c r="BV42">
         <v>55934.33333333334</v>
       </c>
     </row>
@@ -7213,31 +7341,34 @@
       <c r="AR43">
         <v>9.6</v>
       </c>
-      <c r="BL43">
+      <c r="BM43">
         <v>16.9</v>
       </c>
       <c r="BN43">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="BO43">
         <v>81.7</v>
       </c>
-      <c r="BO43">
+      <c r="BP43">
         <v>82.2</v>
       </c>
-      <c r="BP43">
+      <c r="BQ43">
         <v>6890.3</v>
       </c>
-      <c r="BQ43">
+      <c r="BR43">
         <v>2878.2</v>
       </c>
-      <c r="BR43">
+      <c r="BS43">
         <v>1</v>
       </c>
-      <c r="BS43">
+      <c r="BT43">
         <v>3602.666666666667</v>
       </c>
-      <c r="BT43">
+      <c r="BU43">
         <v>9749.333333333334</v>
       </c>
-      <c r="BU43">
+      <c r="BV43">
         <v>54112</v>
       </c>
     </row>
@@ -7368,31 +7499,34 @@
       <c r="AR44">
         <v>10.1</v>
       </c>
-      <c r="BL44">
+      <c r="BM44">
         <v>16.3</v>
       </c>
       <c r="BN44">
+        <v>8.44</v>
+      </c>
+      <c r="BO44">
         <v>83.23333333333333</v>
       </c>
-      <c r="BO44">
+      <c r="BP44">
         <v>83.73333333333333</v>
       </c>
-      <c r="BP44">
+      <c r="BQ44">
         <v>6928.3</v>
       </c>
-      <c r="BQ44">
+      <c r="BR44">
         <v>2958.8</v>
       </c>
-      <c r="BR44">
+      <c r="BS44">
         <v>1</v>
       </c>
-      <c r="BS44">
+      <c r="BT44">
         <v>3624</v>
       </c>
-      <c r="BT44">
+      <c r="BU44">
         <v>9782.333333333334</v>
       </c>
-      <c r="BU44">
+      <c r="BV44">
         <v>52797</v>
       </c>
     </row>
@@ -7523,31 +7657,34 @@
       <c r="AR45">
         <v>10.3</v>
       </c>
-      <c r="BL45">
+      <c r="BM45">
         <v>17.1</v>
       </c>
       <c r="BN45">
+        <v>8.512000000000001</v>
+      </c>
+      <c r="BO45">
         <v>85.56666666666666</v>
       </c>
-      <c r="BO45">
+      <c r="BP45">
         <v>86.16666666666667</v>
       </c>
-      <c r="BP45">
+      <c r="BQ45">
         <v>6968.3</v>
       </c>
-      <c r="BQ45">
+      <c r="BR45">
         <v>3053.4</v>
       </c>
-      <c r="BR45">
+      <c r="BS45">
         <v>-1</v>
       </c>
-      <c r="BS45">
+      <c r="BT45">
         <v>3630.666666666667</v>
       </c>
-      <c r="BT45">
+      <c r="BU45">
         <v>9793</v>
       </c>
-      <c r="BU45">
+      <c r="BV45">
         <v>54381</v>
       </c>
     </row>
@@ -7678,31 +7815,34 @@
       <c r="AR46">
         <v>10.6</v>
       </c>
-      <c r="BL46">
+      <c r="BM46">
         <v>16.4</v>
       </c>
       <c r="BN46">
+        <v>10.144</v>
+      </c>
+      <c r="BO46">
         <v>87.93333333333334</v>
       </c>
-      <c r="BO46">
+      <c r="BP46">
         <v>88.46666666666665</v>
       </c>
-      <c r="BP46">
+      <c r="BQ46">
         <v>7012.5</v>
       </c>
-      <c r="BQ46">
+      <c r="BR46">
         <v>3153.6</v>
       </c>
-      <c r="BR46">
+      <c r="BS46">
         <v>-1</v>
       </c>
-      <c r="BS46">
+      <c r="BT46">
         <v>3636</v>
       </c>
-      <c r="BT46">
+      <c r="BU46">
         <v>9750.333333333334</v>
       </c>
-      <c r="BU46">
+      <c r="BV46">
         <v>60484</v>
       </c>
     </row>
@@ -7833,31 +7973,34 @@
       <c r="AR47">
         <v>10.7</v>
       </c>
-      <c r="BL47">
+      <c r="BM47">
         <v>16</v>
       </c>
       <c r="BN47">
+        <v>10.272</v>
+      </c>
+      <c r="BO47">
         <v>89.76666666666667</v>
       </c>
-      <c r="BO47">
+      <c r="BP47">
         <v>90.23333333333335</v>
       </c>
-      <c r="BP47">
+      <c r="BQ47">
         <v>7059.7</v>
       </c>
-      <c r="BQ47">
+      <c r="BR47">
         <v>3237.8</v>
       </c>
-      <c r="BR47">
+      <c r="BS47">
         <v>-1</v>
       </c>
-      <c r="BS47">
+      <c r="BT47">
         <v>3631.666666666667</v>
       </c>
-      <c r="BT47">
+      <c r="BU47">
         <v>9665</v>
       </c>
-      <c r="BU47">
+      <c r="BV47">
         <v>53862</v>
       </c>
     </row>
@@ -7988,31 +8131,34 @@
       <c r="AR48">
         <v>11.1</v>
       </c>
-      <c r="BL48">
+      <c r="BM48">
         <v>15.1</v>
       </c>
       <c r="BN48">
+        <v>10.16</v>
+      </c>
+      <c r="BO48">
         <v>92.26666666666667</v>
       </c>
-      <c r="BO48">
+      <c r="BP48">
         <v>92.73333333333333</v>
       </c>
-      <c r="BP48">
+      <c r="BQ48">
         <v>7109.5</v>
       </c>
-      <c r="BQ48">
+      <c r="BR48">
         <v>3322</v>
       </c>
-      <c r="BR48">
+      <c r="BS48">
         <v>1</v>
       </c>
-      <c r="BS48">
+      <c r="BT48">
         <v>3640</v>
       </c>
-      <c r="BT48">
+      <c r="BU48">
         <v>9547.666666666666</v>
       </c>
-      <c r="BU48">
+      <c r="BV48">
         <v>52044</v>
       </c>
     </row>
@@ -8143,31 +8289,34 @@
       <c r="AR49">
         <v>13.5</v>
       </c>
-      <c r="BL49">
+      <c r="BM49">
         <v>15.4</v>
       </c>
       <c r="BN49">
+        <v>9.683999999999999</v>
+      </c>
+      <c r="BO49">
         <v>93.76666666666667</v>
       </c>
-      <c r="BO49">
+      <c r="BP49">
         <v>94.16666666666667</v>
       </c>
-      <c r="BP49">
+      <c r="BQ49">
         <v>7161.9</v>
       </c>
-      <c r="BQ49">
+      <c r="BR49">
         <v>3404.3</v>
       </c>
-      <c r="BR49">
+      <c r="BS49">
         <v>1</v>
       </c>
-      <c r="BS49">
+      <c r="BT49">
         <v>3653</v>
       </c>
-      <c r="BT49">
+      <c r="BU49">
         <v>9507</v>
       </c>
-      <c r="BU49">
+      <c r="BV49">
         <v>54313.66666666666</v>
       </c>
     </row>
@@ -8298,31 +8447,34 @@
       <c r="AR50">
         <v>14</v>
       </c>
-      <c r="BL50">
+      <c r="BM50">
         <v>14.2</v>
       </c>
       <c r="BN50">
+        <v>9.295999999999999</v>
+      </c>
+      <c r="BO50">
         <v>94.60000000000001</v>
       </c>
-      <c r="BO50">
+      <c r="BP50">
         <v>94.96666666666665</v>
       </c>
-      <c r="BP50">
+      <c r="BQ50">
         <v>7216.2</v>
       </c>
-      <c r="BQ50">
+      <c r="BR50">
         <v>3477.3</v>
       </c>
-      <c r="BR50">
+      <c r="BS50">
         <v>1</v>
       </c>
-      <c r="BS50">
+      <c r="BT50">
         <v>3645.666666666667</v>
       </c>
-      <c r="BT50">
+      <c r="BU50">
         <v>9484.333333333334</v>
       </c>
-      <c r="BU50">
+      <c r="BV50">
         <v>51944</v>
       </c>
     </row>
@@ -8453,31 +8605,34 @@
       <c r="AR51">
         <v>13.6</v>
       </c>
-      <c r="BL51">
+      <c r="BM51">
         <v>14.9</v>
       </c>
       <c r="BN51">
+        <v>9.432</v>
+      </c>
+      <c r="BO51">
         <v>95.96666666666667</v>
       </c>
-      <c r="BO51">
+      <c r="BP51">
         <v>96.23333333333333</v>
       </c>
-      <c r="BP51">
+      <c r="BQ51">
         <v>7271.9</v>
       </c>
-      <c r="BQ51">
+      <c r="BR51">
         <v>3549.7</v>
       </c>
-      <c r="BR51">
+      <c r="BS51">
         <v>1</v>
       </c>
-      <c r="BS51">
+      <c r="BT51">
         <v>3647.333333333334</v>
       </c>
-      <c r="BT51">
+      <c r="BU51">
         <v>9495.666666666666</v>
       </c>
-      <c r="BU51">
+      <c r="BV51">
         <v>52182.66666666666</v>
       </c>
     </row>
@@ -8608,31 +8763,34 @@
       <c r="AR52">
         <v>13</v>
       </c>
-      <c r="BL52">
+      <c r="BM52">
         <v>14.8</v>
       </c>
       <c r="BN52">
+        <v>9.676</v>
+      </c>
+      <c r="BO52">
         <v>97.63333333333334</v>
       </c>
-      <c r="BO52">
+      <c r="BP52">
         <v>98</v>
       </c>
-      <c r="BP52">
+      <c r="BQ52">
         <v>7328.5</v>
       </c>
-      <c r="BQ52">
+      <c r="BR52">
         <v>3628</v>
       </c>
-      <c r="BR52">
+      <c r="BS52">
         <v>1</v>
       </c>
-      <c r="BS52">
+      <c r="BT52">
         <v>3625.666666666667</v>
       </c>
-      <c r="BT52">
+      <c r="BU52">
         <v>9409.666666666666</v>
       </c>
-      <c r="BU52">
+      <c r="BV52">
         <v>52486.33333333334</v>
       </c>
     </row>
@@ -8763,31 +8921,34 @@
       <c r="AR53">
         <v>19.4</v>
       </c>
-      <c r="BL53">
+      <c r="BM53">
         <v>14.7</v>
       </c>
       <c r="BN53">
+        <v>11.18</v>
+      </c>
+      <c r="BO53">
         <v>97.93333333333334</v>
       </c>
-      <c r="BO53">
+      <c r="BP53">
         <v>98.33333333333333</v>
       </c>
-      <c r="BP53">
+      <c r="BQ53">
         <v>7386.2</v>
       </c>
-      <c r="BQ53">
+      <c r="BR53">
         <v>3694.6</v>
       </c>
-      <c r="BR53">
+      <c r="BS53">
         <v>1</v>
       </c>
-      <c r="BS53">
+      <c r="BT53">
         <v>3640.333333333334</v>
       </c>
-      <c r="BT53">
+      <c r="BU53">
         <v>9437</v>
       </c>
-      <c r="BU53">
+      <c r="BV53">
         <v>54765.33333333334</v>
       </c>
     </row>
@@ -8918,31 +9079,34 @@
       <c r="AR54">
         <v>19.9</v>
       </c>
-      <c r="BL54">
+      <c r="BM54">
         <v>16.1</v>
       </c>
       <c r="BN54">
+        <v>11.288</v>
+      </c>
+      <c r="BO54">
         <v>98</v>
       </c>
-      <c r="BO54">
+      <c r="BP54">
         <v>98.3</v>
       </c>
-      <c r="BP54">
+      <c r="BQ54">
         <v>7443.9</v>
       </c>
-      <c r="BQ54">
+      <c r="BR54">
         <v>3751.5</v>
       </c>
-      <c r="BR54">
+      <c r="BS54">
         <v>-1</v>
       </c>
-      <c r="BS54">
+      <c r="BT54">
         <v>3650.333333333334</v>
       </c>
-      <c r="BT54">
+      <c r="BU54">
         <v>9447.333333333334</v>
       </c>
-      <c r="BU54">
+      <c r="BV54">
         <v>52678.33333333334</v>
       </c>
     </row>
@@ -9073,31 +9237,34 @@
       <c r="AR55">
         <v>21.6</v>
       </c>
-      <c r="BL55">
+      <c r="BM55">
         <v>14.3</v>
       </c>
       <c r="BN55">
+        <v>11.124</v>
+      </c>
+      <c r="BO55">
         <v>99.13333333333334</v>
       </c>
-      <c r="BO55">
+      <c r="BP55">
         <v>99.43333333333334</v>
       </c>
-      <c r="BP55">
+      <c r="BQ55">
         <v>7502.9</v>
       </c>
-      <c r="BQ55">
+      <c r="BR55">
         <v>3809.3</v>
       </c>
-      <c r="BR55">
+      <c r="BS55">
         <v>-1</v>
       </c>
-      <c r="BS55">
+      <c r="BT55">
         <v>3656</v>
       </c>
-      <c r="BT55">
+      <c r="BU55">
         <v>9445.333333333334</v>
       </c>
-      <c r="BU55">
+      <c r="BV55">
         <v>51386</v>
       </c>
     </row>
@@ -9228,31 +9395,34 @@
       <c r="AR56">
         <v>22.2</v>
       </c>
-      <c r="BL56">
+      <c r="BM56">
         <v>16</v>
       </c>
       <c r="BN56">
+        <v>10.964</v>
+      </c>
+      <c r="BO56">
         <v>100.1</v>
       </c>
-      <c r="BO56">
+      <c r="BP56">
         <v>100.4</v>
       </c>
-      <c r="BP56">
+      <c r="BQ56">
         <v>7563.6</v>
       </c>
-      <c r="BQ56">
+      <c r="BR56">
         <v>3881</v>
       </c>
-      <c r="BR56">
+      <c r="BS56">
         <v>-1</v>
       </c>
-      <c r="BS56">
+      <c r="BT56">
         <v>3671.333333333334</v>
       </c>
-      <c r="BT56">
+      <c r="BU56">
         <v>9433</v>
       </c>
-      <c r="BU56">
+      <c r="BV56">
         <v>53662.33333333334</v>
       </c>
     </row>
@@ -9383,31 +9553,34 @@
       <c r="AR57">
         <v>21.5</v>
       </c>
-      <c r="BL57">
+      <c r="BM57">
         <v>15.9</v>
       </c>
       <c r="BN57">
+        <v>10.888</v>
+      </c>
+      <c r="BO57">
         <v>101.1</v>
       </c>
-      <c r="BO57">
+      <c r="BP57">
         <v>101.1666666666667</v>
       </c>
-      <c r="BP57">
+      <c r="BQ57">
         <v>7626.8</v>
       </c>
-      <c r="BQ57">
+      <c r="BR57">
         <v>3943</v>
       </c>
-      <c r="BR57">
+      <c r="BS57">
         <v>-1</v>
       </c>
-      <c r="BS57">
+      <c r="BT57">
         <v>3671.666666666667</v>
       </c>
-      <c r="BT57">
+      <c r="BU57">
         <v>9401.666666666666</v>
       </c>
-      <c r="BU57">
+      <c r="BV57">
         <v>53249</v>
       </c>
     </row>
@@ -9538,31 +9711,34 @@
       <c r="AR58">
         <v>21.2</v>
       </c>
-      <c r="BL58">
+      <c r="BM58">
         <v>16.7</v>
       </c>
       <c r="BN58">
+        <v>10.8</v>
+      </c>
+      <c r="BO58">
         <v>102.5333333333333</v>
       </c>
-      <c r="BO58">
+      <c r="BP58">
         <v>101.9333333333333</v>
       </c>
-      <c r="BP58">
+      <c r="BQ58">
         <v>7692.5</v>
       </c>
-      <c r="BQ58">
+      <c r="BR58">
         <v>4017.3</v>
       </c>
-      <c r="BR58">
+      <c r="BS58">
         <v>-1</v>
       </c>
-      <c r="BS58">
+      <c r="BT58">
         <v>3687</v>
       </c>
-      <c r="BT58">
+      <c r="BU58">
         <v>9412</v>
       </c>
-      <c r="BU58">
+      <c r="BV58">
         <v>55752.33333333334</v>
       </c>
     </row>
@@ -9693,31 +9869,34 @@
       <c r="AR59">
         <v>21</v>
       </c>
-      <c r="BL59">
+      <c r="BM59">
         <v>17.3</v>
       </c>
       <c r="BN59">
+        <v>10.624</v>
+      </c>
+      <c r="BO59">
         <v>103.5</v>
       </c>
-      <c r="BO59">
+      <c r="BP59">
         <v>102.4666666666667</v>
       </c>
-      <c r="BP59">
+      <c r="BQ59">
         <v>7760.5</v>
       </c>
-      <c r="BQ59">
+      <c r="BR59">
         <v>4087.5</v>
       </c>
-      <c r="BR59">
+      <c r="BS59">
         <v>-1</v>
       </c>
-      <c r="BS59">
+      <c r="BT59">
         <v>3720</v>
       </c>
-      <c r="BT59">
+      <c r="BU59">
         <v>9445.333333333334</v>
       </c>
-      <c r="BU59">
+      <c r="BV59">
         <v>57382.66666666666</v>
       </c>
     </row>
@@ -9848,31 +10027,34 @@
       <c r="AR60">
         <v>20.9</v>
       </c>
-      <c r="BL60">
+      <c r="BM60">
         <v>18.2</v>
       </c>
       <c r="BN60">
+        <v>10.432</v>
+      </c>
+      <c r="BO60">
         <v>104.4</v>
       </c>
-      <c r="BO60">
+      <c r="BP60">
         <v>103.9333333333333</v>
       </c>
-      <c r="BP60">
+      <c r="BQ60">
         <v>7830.2</v>
       </c>
-      <c r="BQ60">
+      <c r="BR60">
         <v>4160.9</v>
       </c>
-      <c r="BR60">
+      <c r="BS60">
         <v>-1</v>
       </c>
-      <c r="BS60">
+      <c r="BT60">
         <v>3758</v>
       </c>
-      <c r="BT60">
+      <c r="BU60">
         <v>9509</v>
       </c>
-      <c r="BU60">
+      <c r="BV60">
         <v>59910.33333333334</v>
       </c>
     </row>
@@ -10003,31 +10185,34 @@
       <c r="AR61">
         <v>21.2</v>
       </c>
-      <c r="BL61">
+      <c r="BM61">
         <v>18.9</v>
       </c>
       <c r="BN61">
+        <v>10.82</v>
+      </c>
+      <c r="BO61">
         <v>105.3</v>
       </c>
-      <c r="BO61">
+      <c r="BP61">
         <v>104.8</v>
       </c>
-      <c r="BP61">
+      <c r="BQ61">
         <v>7901.2</v>
       </c>
-      <c r="BQ61">
+      <c r="BR61">
         <v>4230</v>
       </c>
-      <c r="BR61">
+      <c r="BS61">
         <v>-1</v>
       </c>
-      <c r="BS61">
+      <c r="BT61">
         <v>3773</v>
       </c>
-      <c r="BT61">
+      <c r="BU61">
         <v>9555</v>
       </c>
-      <c r="BU61">
+      <c r="BV61">
         <v>60890.66666666666</v>
       </c>
     </row>
@@ -10158,31 +10343,34 @@
       <c r="AR62">
         <v>21.1</v>
       </c>
-      <c r="BL62">
+      <c r="BM62">
         <v>17.2</v>
       </c>
       <c r="BN62">
+        <v>10.784</v>
+      </c>
+      <c r="BO62">
         <v>106.2666666666667</v>
       </c>
-      <c r="BO62">
+      <c r="BP62">
         <v>105.6666666666667</v>
       </c>
-      <c r="BP62">
+      <c r="BQ62">
         <v>7972.5</v>
       </c>
-      <c r="BQ62">
+      <c r="BR62">
         <v>4310.4</v>
       </c>
-      <c r="BR62">
+      <c r="BS62">
         <v>-1</v>
       </c>
-      <c r="BS62">
+      <c r="BT62">
         <v>3798.333333333334</v>
       </c>
-      <c r="BT62">
+      <c r="BU62">
         <v>9595.666666666666</v>
       </c>
-      <c r="BU62">
+      <c r="BV62">
         <v>62514.66666666666</v>
       </c>
     </row>
@@ -10313,31 +10501,34 @@
       <c r="AR63">
         <v>21</v>
       </c>
-      <c r="BL63">
+      <c r="BM63">
         <v>19.6</v>
       </c>
       <c r="BN63">
+        <v>10.72</v>
+      </c>
+      <c r="BO63">
         <v>107.2333333333333</v>
       </c>
-      <c r="BO63">
+      <c r="BP63">
         <v>106.6333333333333</v>
       </c>
-      <c r="BP63">
+      <c r="BQ63">
         <v>8044.2</v>
       </c>
-      <c r="BQ63">
+      <c r="BR63">
         <v>4377.1</v>
       </c>
-      <c r="BR63">
+      <c r="BS63">
         <v>-1</v>
       </c>
-      <c r="BS63">
+      <c r="BT63">
         <v>3819.333333333334</v>
       </c>
-      <c r="BT63">
+      <c r="BU63">
         <v>9640.333333333334</v>
       </c>
-      <c r="BU63">
+      <c r="BV63">
         <v>65739.33333333333</v>
       </c>
     </row>
@@ -10468,31 +10659,34 @@
       <c r="AR64">
         <v>21.3</v>
       </c>
-      <c r="BL64">
+      <c r="BM64">
         <v>20.2</v>
       </c>
       <c r="BN64">
+        <v>10.612</v>
+      </c>
+      <c r="BO64">
         <v>107.9</v>
       </c>
-      <c r="BO64">
+      <c r="BP64">
         <v>107.1333333333333</v>
       </c>
-      <c r="BP64">
+      <c r="BQ64">
         <v>8115.9</v>
       </c>
-      <c r="BQ64">
+      <c r="BR64">
         <v>4442.8</v>
       </c>
-      <c r="BR64">
+      <c r="BS64">
         <v>-1</v>
       </c>
-      <c r="BS64">
+      <c r="BT64">
         <v>3844.333333333334</v>
       </c>
-      <c r="BT64">
+      <c r="BU64">
         <v>9746.666666666666</v>
       </c>
-      <c r="BU64">
+      <c r="BV64">
         <v>67220</v>
       </c>
     </row>
@@ -10623,31 +10817,34 @@
       <c r="AR65">
         <v>22</v>
       </c>
-      <c r="BL65">
+      <c r="BM65">
         <v>21.3</v>
       </c>
       <c r="BN65">
+        <v>10.644</v>
+      </c>
+      <c r="BO65">
         <v>109</v>
       </c>
-      <c r="BO65">
+      <c r="BP65">
         <v>108.2</v>
       </c>
-      <c r="BP65">
+      <c r="BQ65">
         <v>8187.2</v>
       </c>
-      <c r="BQ65">
+      <c r="BR65">
         <v>4506.8</v>
       </c>
-      <c r="BR65">
+      <c r="BS65">
         <v>-1</v>
       </c>
-      <c r="BS65">
+      <c r="BT65">
         <v>3864.333333333334</v>
       </c>
-      <c r="BT65">
+      <c r="BU65">
         <v>9764.333333333334</v>
       </c>
-      <c r="BU65">
+      <c r="BV65">
         <v>66558.33333333333</v>
       </c>
     </row>
@@ -10778,31 +10975,34 @@
       <c r="AR66">
         <v>23.1</v>
       </c>
-      <c r="BL66">
+      <c r="BM66">
         <v>19.8</v>
       </c>
       <c r="BN66">
+        <v>10.488</v>
+      </c>
+      <c r="BO66">
         <v>109.5666666666667</v>
       </c>
-      <c r="BO66">
+      <c r="BP66">
         <v>108.6666666666667</v>
       </c>
-      <c r="BP66">
+      <c r="BQ66">
         <v>8257.9</v>
       </c>
-      <c r="BQ66">
+      <c r="BR66">
         <v>4568.4</v>
       </c>
-      <c r="BR66">
+      <c r="BS66">
         <v>-1</v>
       </c>
-      <c r="BS66">
+      <c r="BT66">
         <v>3872.333333333334</v>
       </c>
-      <c r="BT66">
+      <c r="BU66">
         <v>9815.333333333334</v>
       </c>
-      <c r="BU66">
+      <c r="BV66">
         <v>70815.33333333333</v>
       </c>
     </row>
@@ -10933,31 +11133,34 @@
       <c r="AR67">
         <v>24.2</v>
       </c>
-      <c r="BL67">
+      <c r="BM67">
         <v>20.7</v>
       </c>
       <c r="BN67">
+        <v>10.564</v>
+      </c>
+      <c r="BO67">
         <v>109.0333333333333</v>
       </c>
-      <c r="BO67">
+      <c r="BP67">
         <v>107.9333333333333</v>
       </c>
-      <c r="BP67">
+      <c r="BQ67">
         <v>8328.299999999999</v>
       </c>
-      <c r="BQ67">
+      <c r="BR67">
         <v>4624.7</v>
       </c>
-      <c r="BR67">
+      <c r="BS67">
         <v>-1</v>
       </c>
-      <c r="BS67">
+      <c r="BT67">
         <v>3883</v>
       </c>
-      <c r="BT67">
+      <c r="BU67">
         <v>9854.333333333334</v>
       </c>
-      <c r="BU67">
+      <c r="BV67">
         <v>72215.33333333333</v>
       </c>
     </row>
@@ -11088,31 +11291,34 @@
       <c r="AR68">
         <v>25.5</v>
       </c>
-      <c r="BL68">
+      <c r="BM68">
         <v>21.4</v>
       </c>
       <c r="BN68">
+        <v>10.576</v>
+      </c>
+      <c r="BO68">
         <v>109.7</v>
       </c>
-      <c r="BO68">
+      <c r="BP68">
         <v>108.5</v>
       </c>
-      <c r="BP68">
+      <c r="BQ68">
         <v>8398.5</v>
       </c>
-      <c r="BQ68">
+      <c r="BR68">
         <v>4682.9</v>
       </c>
-      <c r="BR68">
+      <c r="BS68">
         <v>-1</v>
       </c>
-      <c r="BS68">
+      <c r="BT68">
         <v>3889.333333333334</v>
       </c>
-      <c r="BT68">
+      <c r="BU68">
         <v>9906.666666666666</v>
       </c>
-      <c r="BU68">
+      <c r="BV68">
         <v>73843.33333333333</v>
       </c>
     </row>
@@ -11243,31 +11449,34 @@
       <c r="AR69">
         <v>26.8</v>
       </c>
-      <c r="BL69">
+      <c r="BM69">
         <v>18.4</v>
       </c>
       <c r="BN69">
+        <v>10.584</v>
+      </c>
+      <c r="BO69">
         <v>110.4666666666667</v>
       </c>
-      <c r="BO69">
+      <c r="BP69">
         <v>109.2</v>
       </c>
-      <c r="BP69">
+      <c r="BQ69">
         <v>8468.4</v>
       </c>
-      <c r="BQ69">
+      <c r="BR69">
         <v>4747.5</v>
       </c>
-      <c r="BR69">
+      <c r="BS69">
         <v>-1</v>
       </c>
-      <c r="BS69">
+      <c r="BT69">
         <v>3926.666666666667</v>
       </c>
-      <c r="BT69">
+      <c r="BU69">
         <v>10024.33333333333</v>
       </c>
-      <c r="BU69">
+      <c r="BV69">
         <v>71122.66666666667</v>
       </c>
     </row>
@@ -11398,31 +11607,34 @@
       <c r="AR70">
         <v>28.3</v>
       </c>
-      <c r="BL70">
+      <c r="BM70">
         <v>18.9</v>
       </c>
       <c r="BN70">
+        <v>10.54</v>
+      </c>
+      <c r="BO70">
         <v>111.8</v>
       </c>
-      <c r="BO70">
+      <c r="BP70">
         <v>110.6666666666667</v>
       </c>
-      <c r="BP70">
+      <c r="BQ70">
         <v>8537.9</v>
       </c>
-      <c r="BQ70">
+      <c r="BR70">
         <v>4817</v>
       </c>
-      <c r="BR70">
+      <c r="BS70">
         <v>-1</v>
       </c>
-      <c r="BS70">
+      <c r="BT70">
         <v>3943.666666666667</v>
       </c>
-      <c r="BT70">
+      <c r="BU70">
         <v>10039.33333333333</v>
       </c>
-      <c r="BU70">
+      <c r="BV70">
         <v>75290</v>
       </c>
     </row>
@@ -11553,31 +11765,34 @@
       <c r="AR71">
         <v>30.4</v>
       </c>
-      <c r="BL71">
+      <c r="BM71">
         <v>19.7</v>
       </c>
       <c r="BN71">
+        <v>10.488</v>
+      </c>
+      <c r="BO71">
         <v>113.0666666666667</v>
       </c>
-      <c r="BO71">
+      <c r="BP71">
         <v>111.9666666666667</v>
       </c>
-      <c r="BP71">
+      <c r="BQ71">
         <v>8606.700000000001</v>
       </c>
-      <c r="BQ71">
+      <c r="BR71">
         <v>4889.4</v>
       </c>
-      <c r="BR71">
+      <c r="BS71">
         <v>-1</v>
       </c>
-      <c r="BS71">
+      <c r="BT71">
         <v>3953</v>
       </c>
-      <c r="BT71">
+      <c r="BU71">
         <v>10083.33333333333</v>
       </c>
-      <c r="BU71">
+      <c r="BV71">
         <v>75025.66666666667</v>
       </c>
     </row>
@@ -11708,31 +11923,34 @@
       <c r="AR72">
         <v>31.3</v>
       </c>
-      <c r="BL72">
+      <c r="BM72">
         <v>19</v>
       </c>
       <c r="BN72">
+        <v>10.312</v>
+      </c>
+      <c r="BO72">
         <v>114.2666666666667</v>
       </c>
-      <c r="BO72">
+      <c r="BP72">
         <v>113.1666666666667</v>
       </c>
-      <c r="BP72">
+      <c r="BQ72">
         <v>8675.1</v>
       </c>
-      <c r="BQ72">
+      <c r="BR72">
         <v>4965.6</v>
       </c>
-      <c r="BR72">
+      <c r="BS72">
         <v>-1</v>
       </c>
-      <c r="BS72">
+      <c r="BT72">
         <v>3969</v>
       </c>
-      <c r="BT72">
+      <c r="BU72">
         <v>10092.33333333333</v>
       </c>
-      <c r="BU72">
+      <c r="BV72">
         <v>77047</v>
       </c>
     </row>
@@ -11863,31 +12081,34 @@
       <c r="AR73">
         <v>31.1</v>
       </c>
-      <c r="BL73">
+      <c r="BM73">
         <v>18.8</v>
       </c>
       <c r="BN73">
+        <v>11.088</v>
+      </c>
+      <c r="BO73">
         <v>115.3333333333333</v>
       </c>
-      <c r="BO73">
+      <c r="BP73">
         <v>114.1666666666667</v>
       </c>
-      <c r="BP73">
+      <c r="BQ73">
         <v>8743.5</v>
       </c>
-      <c r="BQ73">
+      <c r="BR73">
         <v>5044.5</v>
       </c>
-      <c r="BR73">
+      <c r="BS73">
         <v>-1</v>
       </c>
-      <c r="BS73">
+      <c r="BT73">
         <v>4000.666666666667</v>
       </c>
-      <c r="BT73">
+      <c r="BU73">
         <v>10184.66666666667</v>
       </c>
-      <c r="BU73">
+      <c r="BV73">
         <v>78058</v>
       </c>
     </row>
@@ -12018,31 +12239,34 @@
       <c r="AR74">
         <v>30.4</v>
       </c>
-      <c r="BL74">
+      <c r="BM74">
         <v>19.1</v>
       </c>
       <c r="BN74">
+        <v>11.176</v>
+      </c>
+      <c r="BO74">
         <v>116.2333333333333</v>
       </c>
-      <c r="BO74">
+      <c r="BP74">
         <v>114.9333333333333</v>
       </c>
-      <c r="BP74">
+      <c r="BQ74">
         <v>8811.200000000001</v>
       </c>
-      <c r="BQ74">
+      <c r="BR74">
         <v>5123.5</v>
       </c>
-      <c r="BR74">
+      <c r="BS74">
         <v>-1</v>
       </c>
-      <c r="BS74">
+      <c r="BT74">
         <v>4030.666666666667</v>
       </c>
-      <c r="BT74">
+      <c r="BU74">
         <v>10250.66666666667</v>
       </c>
-      <c r="BU74">
+      <c r="BV74">
         <v>79349.66666666667</v>
       </c>
     </row>
@@ -12173,31 +12397,34 @@
       <c r="AR75">
         <v>29.8</v>
       </c>
-      <c r="BL75">
+      <c r="BM75">
         <v>20</v>
       </c>
       <c r="BN75">
+        <v>11.132</v>
+      </c>
+      <c r="BO75">
         <v>117.5666666666667</v>
       </c>
-      <c r="BO75">
+      <c r="BP75">
         <v>116.2</v>
       </c>
-      <c r="BP75">
+      <c r="BQ75">
         <v>8878.9</v>
       </c>
-      <c r="BQ75">
+      <c r="BR75">
         <v>5213.1</v>
       </c>
-      <c r="BR75">
+      <c r="BS75">
         <v>-1</v>
       </c>
-      <c r="BS75">
+      <c r="BT75">
         <v>4065.333333333334</v>
       </c>
-      <c r="BT75">
+      <c r="BU75">
         <v>10315.33333333333</v>
       </c>
-      <c r="BU75">
+      <c r="BV75">
         <v>83348</v>
       </c>
     </row>
@@ -12328,31 +12555,34 @@
       <c r="AR76">
         <v>29.2</v>
       </c>
-      <c r="BL76">
+      <c r="BM76">
         <v>20.5</v>
       </c>
       <c r="BN76">
+        <v>11.052</v>
+      </c>
+      <c r="BO76">
         <v>119</v>
       </c>
-      <c r="BO76">
+      <c r="BP76">
         <v>117.7333333333333</v>
       </c>
-      <c r="BP76">
+      <c r="BQ76">
         <v>8946.299999999999</v>
       </c>
-      <c r="BQ76">
+      <c r="BR76">
         <v>5315.4</v>
       </c>
-      <c r="BR76">
+      <c r="BS76">
         <v>-1</v>
       </c>
-      <c r="BS76">
+      <c r="BT76">
         <v>4094.333333333334</v>
       </c>
-      <c r="BT76">
+      <c r="BU76">
         <v>10341.66666666667</v>
       </c>
-      <c r="BU76">
+      <c r="BV76">
         <v>82022.66666666667</v>
       </c>
     </row>
@@ -12483,31 +12713,34 @@
       <c r="AR77">
         <v>28.6</v>
       </c>
-      <c r="BL77">
+      <c r="BM77">
         <v>19.4</v>
       </c>
       <c r="BN77">
+        <v>11.492</v>
+      </c>
+      <c r="BO77">
         <v>120.3</v>
       </c>
-      <c r="BO77">
+      <c r="BP77">
         <v>118.9333333333333</v>
       </c>
-      <c r="BP77">
+      <c r="BQ77">
         <v>9013.700000000001</v>
       </c>
-      <c r="BQ77">
+      <c r="BR77">
         <v>5401.8</v>
       </c>
-      <c r="BR77">
+      <c r="BS77">
         <v>-1</v>
       </c>
-      <c r="BS77">
+      <c r="BT77">
         <v>4114.666666666667</v>
       </c>
-      <c r="BT77">
+      <c r="BU77">
         <v>10446.66666666667</v>
       </c>
-      <c r="BU77">
+      <c r="BV77">
         <v>84604</v>
       </c>
     </row>
@@ -12638,31 +12871,34 @@
       <c r="AR78">
         <v>28</v>
       </c>
-      <c r="BL78">
+      <c r="BM78">
         <v>20.3</v>
       </c>
       <c r="BN78">
+        <v>11.656</v>
+      </c>
+      <c r="BO78">
         <v>121.6666666666667</v>
       </c>
-      <c r="BO78">
+      <c r="BP78">
         <v>120.3666666666667</v>
       </c>
-      <c r="BP78">
+      <c r="BQ78">
         <v>9080.700000000001</v>
       </c>
-      <c r="BQ78">
+      <c r="BR78">
         <v>5498.7</v>
       </c>
-      <c r="BR78">
+      <c r="BS78">
         <v>-1</v>
       </c>
-      <c r="BS78">
+      <c r="BT78">
         <v>4135.666666666667</v>
       </c>
-      <c r="BT78">
+      <c r="BU78">
         <v>10510.66666666667</v>
       </c>
-      <c r="BU78">
+      <c r="BV78">
         <v>83566.66666666667</v>
       </c>
     </row>
@@ -12793,31 +13029,34 @@
       <c r="AR79">
         <v>27.4</v>
       </c>
-      <c r="BL79">
+      <c r="BM79">
         <v>20.1</v>
       </c>
       <c r="BN79">
+        <v>11.712</v>
+      </c>
+      <c r="BO79">
         <v>123.6333333333333</v>
       </c>
-      <c r="BO79">
+      <c r="BP79">
         <v>122.4</v>
       </c>
-      <c r="BP79">
+      <c r="BQ79">
         <v>9147.6</v>
       </c>
-      <c r="BQ79">
+      <c r="BR79">
         <v>5598.2</v>
       </c>
-      <c r="BR79">
+      <c r="BS79">
         <v>-1</v>
       </c>
-      <c r="BS79">
+      <c r="BT79">
         <v>4169</v>
       </c>
-      <c r="BT79">
+      <c r="BU79">
         <v>10566.33333333333</v>
       </c>
-      <c r="BU79">
+      <c r="BV79">
         <v>85684</v>
       </c>
     </row>
@@ -12948,31 +13187,34 @@
       <c r="AR80">
         <v>27.1</v>
       </c>
-      <c r="BL80">
+      <c r="BM80">
         <v>19</v>
       </c>
       <c r="BN80">
+        <v>11.784</v>
+      </c>
+      <c r="BO80">
         <v>124.6</v>
       </c>
-      <c r="BO80">
+      <c r="BP80">
         <v>123.2666666666667</v>
       </c>
-      <c r="BP80">
+      <c r="BQ80">
         <v>9214.200000000001</v>
       </c>
-      <c r="BQ80">
+      <c r="BR80">
         <v>5680.2</v>
       </c>
-      <c r="BR80">
+      <c r="BS80">
         <v>-1</v>
       </c>
-      <c r="BS80">
+      <c r="BT80">
         <v>4201.333333333333</v>
       </c>
-      <c r="BT80">
+      <c r="BU80">
         <v>10640.66666666667</v>
       </c>
-      <c r="BU80">
+      <c r="BV80">
         <v>85730.33333333333</v>
       </c>
     </row>
@@ -13103,31 +13345,34 @@
       <c r="AR81">
         <v>27.3</v>
       </c>
-      <c r="BL81">
+      <c r="BM81">
         <v>21.5</v>
       </c>
       <c r="BN81">
+        <v>14.148</v>
+      </c>
+      <c r="BO81">
         <v>125.8666666666667</v>
       </c>
-      <c r="BO81">
+      <c r="BP81">
         <v>124.4</v>
       </c>
-      <c r="BP81">
+      <c r="BQ81">
         <v>9280.700000000001</v>
       </c>
-      <c r="BQ81">
+      <c r="BR81">
         <v>5761.9</v>
       </c>
-      <c r="BR81">
+      <c r="BS81">
         <v>-1</v>
       </c>
-      <c r="BS81">
+      <c r="BT81">
         <v>4221</v>
       </c>
-      <c r="BT81">
+      <c r="BU81">
         <v>10719.66666666667</v>
       </c>
-      <c r="BU81">
+      <c r="BV81">
         <v>89358.33333333333</v>
       </c>
     </row>
@@ -13258,31 +13503,34 @@
       <c r="AR82">
         <v>27.1</v>
       </c>
-      <c r="BL82">
+      <c r="BM82">
         <v>22.3</v>
       </c>
       <c r="BN82">
+        <v>13.984</v>
+      </c>
+      <c r="BO82">
         <v>128.0333333333333</v>
       </c>
-      <c r="BO82">
+      <c r="BP82">
         <v>126.5666666666667</v>
       </c>
-      <c r="BP82">
+      <c r="BQ82">
         <v>9346.4</v>
       </c>
-      <c r="BQ82">
+      <c r="BR82">
         <v>5865.2</v>
       </c>
-      <c r="BR82">
+      <c r="BS82">
         <v>-1</v>
       </c>
-      <c r="BS82">
+      <c r="BT82">
         <v>4258</v>
       </c>
-      <c r="BT82">
+      <c r="BU82">
         <v>10814</v>
       </c>
-      <c r="BU82">
+      <c r="BV82">
         <v>94388.33333333333</v>
       </c>
     </row>
@@ -13413,31 +13661,34 @@
       <c r="AR83">
         <v>27</v>
       </c>
-      <c r="BL83">
+      <c r="BM83">
         <v>20.3</v>
       </c>
       <c r="BN83">
+        <v>14.216</v>
+      </c>
+      <c r="BO83">
         <v>129.3</v>
       </c>
-      <c r="BO83">
+      <c r="BP83">
         <v>127.6666666666667</v>
       </c>
-      <c r="BP83">
+      <c r="BQ83">
         <v>9411.5</v>
       </c>
-      <c r="BQ83">
+      <c r="BR83">
         <v>5972.2</v>
       </c>
-      <c r="BR83">
+      <c r="BS83">
         <v>-1</v>
       </c>
-      <c r="BS83">
+      <c r="BT83">
         <v>4295.666666666667</v>
       </c>
-      <c r="BT83">
+      <c r="BU83">
         <v>10873</v>
       </c>
-      <c r="BU83">
+      <c r="BV83">
         <v>93807</v>
       </c>
     </row>
@@ -13568,31 +13819,34 @@
       <c r="AR84">
         <v>26.9</v>
       </c>
-      <c r="BL84">
+      <c r="BM84">
         <v>20.7</v>
       </c>
       <c r="BN84">
+        <v>14.404</v>
+      </c>
+      <c r="BO84">
         <v>131.5333333333333</v>
       </c>
-      <c r="BO84">
+      <c r="BP84">
         <v>129.8666666666667</v>
       </c>
-      <c r="BP84">
+      <c r="BQ84">
         <v>9475.299999999999</v>
       </c>
-      <c r="BQ84">
+      <c r="BR84">
         <v>6064.3</v>
       </c>
-      <c r="BR84">
+      <c r="BS84">
         <v>1</v>
       </c>
-      <c r="BS84">
+      <c r="BT84">
         <v>4322.666666666667</v>
       </c>
-      <c r="BT84">
+      <c r="BU84">
         <v>10967.33333333333</v>
       </c>
-      <c r="BU84">
+      <c r="BV84">
         <v>94972</v>
       </c>
     </row>
@@ -13723,31 +13977,34 @@
       <c r="AR85">
         <v>27</v>
       </c>
-      <c r="BL85">
+      <c r="BM85">
         <v>49.5</v>
       </c>
       <c r="BN85">
+        <v>16.36</v>
+      </c>
+      <c r="BO85">
         <v>133.7666666666667</v>
       </c>
-      <c r="BO85">
+      <c r="BP85">
         <v>132.1</v>
       </c>
-      <c r="BP85">
+      <c r="BQ85">
         <v>9537.799999999999</v>
       </c>
-      <c r="BQ85">
+      <c r="BR85">
         <v>6149.7</v>
       </c>
-      <c r="BR85">
+      <c r="BS85">
         <v>1</v>
       </c>
-      <c r="BS85">
+      <c r="BT85">
         <v>4342.666666666667</v>
       </c>
-      <c r="BT85">
+      <c r="BU85">
         <v>11000.33333333333</v>
       </c>
-      <c r="BU85">
+      <c r="BV85">
         <v>98807.66666666667</v>
       </c>
     </row>
@@ -13878,31 +14135,34 @@
       <c r="AR86">
         <v>27.1</v>
       </c>
-      <c r="BL86">
+      <c r="BM86">
         <v>26</v>
       </c>
       <c r="BN86">
+        <v>16.996</v>
+      </c>
+      <c r="BO86">
         <v>134.7666666666667</v>
       </c>
-      <c r="BO86">
+      <c r="BP86">
         <v>132.9333333333333</v>
       </c>
-      <c r="BP86">
+      <c r="BQ86">
         <v>9599.200000000001</v>
       </c>
-      <c r="BQ86">
+      <c r="BR86">
         <v>6249.9</v>
       </c>
-      <c r="BR86">
+      <c r="BS86">
         <v>1</v>
       </c>
-      <c r="BS86">
+      <c r="BT86">
         <v>4358</v>
       </c>
-      <c r="BT86">
+      <c r="BU86">
         <v>11027</v>
       </c>
-      <c r="BU86">
+      <c r="BV86">
         <v>95253.66666666667</v>
       </c>
     </row>
@@ -14033,31 +14293,34 @@
       <c r="AR87">
         <v>27.2</v>
       </c>
-      <c r="BL87">
+      <c r="BM87">
         <v>22.2</v>
       </c>
       <c r="BN87">
+        <v>17.636</v>
+      </c>
+      <c r="BO87">
         <v>135.5666666666667</v>
       </c>
-      <c r="BO87">
+      <c r="BP87">
         <v>133.7333333333334</v>
       </c>
-      <c r="BP87">
+      <c r="BQ87">
         <v>9659.6</v>
       </c>
-      <c r="BQ87">
+      <c r="BR87">
         <v>6335.5</v>
       </c>
-      <c r="BR87">
+      <c r="BS87">
         <v>-1</v>
       </c>
-      <c r="BS87">
+      <c r="BT87">
         <v>4362.333333333333</v>
       </c>
-      <c r="BT87">
+      <c r="BU87">
         <v>11057.33333333333</v>
       </c>
-      <c r="BU87">
+      <c r="BV87">
         <v>96128.66666666667</v>
       </c>
     </row>
@@ -14188,31 +14451,34 @@
       <c r="AR88">
         <v>27.5</v>
       </c>
-      <c r="BL88">
+      <c r="BM88">
         <v>37.1</v>
       </c>
       <c r="BN88">
+        <v>18.092</v>
+      </c>
+      <c r="BO88">
         <v>136.6</v>
       </c>
-      <c r="BO88">
+      <c r="BP88">
         <v>134.6333333333333</v>
       </c>
-      <c r="BP88">
+      <c r="BQ88">
         <v>9719.4</v>
       </c>
-      <c r="BQ88">
+      <c r="BR88">
         <v>6424.4</v>
       </c>
-      <c r="BR88">
+      <c r="BS88">
         <v>-1</v>
       </c>
-      <c r="BS88">
+      <c r="BT88">
         <v>4345</v>
       </c>
-      <c r="BT88">
+      <c r="BU88">
         <v>11099.33333333333</v>
       </c>
-      <c r="BU88">
+      <c r="BV88">
         <v>97326.33333333333</v>
       </c>
     </row>
@@ -14343,31 +14609,34 @@
       <c r="AR89">
         <v>28.1</v>
       </c>
-      <c r="BL89">
+      <c r="BM89">
         <v>20.8</v>
       </c>
       <c r="BN89">
+        <v>20.332</v>
+      </c>
+      <c r="BO89">
         <v>137.7333333333333</v>
       </c>
-      <c r="BO89">
+      <c r="BP89">
         <v>135.7333333333333</v>
       </c>
-      <c r="BP89">
+      <c r="BQ89">
         <v>9779.4</v>
       </c>
-      <c r="BQ89">
+      <c r="BR89">
         <v>6502.4</v>
       </c>
-      <c r="BR89">
+      <c r="BS89">
         <v>-1</v>
       </c>
-      <c r="BS89">
+      <c r="BT89">
         <v>4354.333333333333</v>
       </c>
-      <c r="BT89">
+      <c r="BU89">
         <v>11139.33333333333</v>
       </c>
-      <c r="BU89">
+      <c r="BV89">
         <v>99221</v>
       </c>
     </row>
@@ -14498,31 +14767,34 @@
       <c r="AR90">
         <v>28.6</v>
       </c>
-      <c r="BL90">
+      <c r="BM90">
         <v>21.6</v>
       </c>
       <c r="BN90">
+        <v>20.596</v>
+      </c>
+      <c r="BO90">
         <v>138.6666666666667</v>
       </c>
-      <c r="BO90">
+      <c r="BP90">
         <v>136.5333333333333</v>
       </c>
-      <c r="BP90">
+      <c r="BQ90">
         <v>9839.700000000001</v>
       </c>
-      <c r="BQ90">
+      <c r="BR90">
         <v>6566.9</v>
       </c>
-      <c r="BR90">
+      <c r="BS90">
         <v>-1</v>
       </c>
-      <c r="BS90">
+      <c r="BT90">
         <v>4372</v>
       </c>
-      <c r="BT90">
+      <c r="BU90">
         <v>11199</v>
       </c>
-      <c r="BU90">
+      <c r="BV90">
         <v>106368.6666666667</v>
       </c>
     </row>
@@ -14653,31 +14925,34 @@
       <c r="AR91">
         <v>29.2</v>
       </c>
-      <c r="BL91">
+      <c r="BM91">
         <v>23.2</v>
       </c>
       <c r="BN91">
+        <v>20.932</v>
+      </c>
+      <c r="BO91">
         <v>139.7333333333333</v>
       </c>
-      <c r="BO91">
+      <c r="BP91">
         <v>137.5666666666667</v>
       </c>
-      <c r="BP91">
+      <c r="BQ91">
         <v>9900.9</v>
       </c>
-      <c r="BQ91">
+      <c r="BR91">
         <v>6647.5</v>
       </c>
-      <c r="BR91">
+      <c r="BS91">
         <v>-1</v>
       </c>
-      <c r="BS91">
+      <c r="BT91">
         <v>4395.666666666667</v>
       </c>
-      <c r="BT91">
+      <c r="BU91">
         <v>11238</v>
       </c>
-      <c r="BU91">
+      <c r="BV91">
         <v>103446</v>
       </c>
     </row>
@@ -14808,31 +15083,34 @@
       <c r="AR92">
         <v>30.4</v>
       </c>
-      <c r="BL92">
+      <c r="BM92">
         <v>22.5</v>
       </c>
       <c r="BN92">
+        <v>21.792</v>
+      </c>
+      <c r="BO92">
         <v>140.8</v>
       </c>
-      <c r="BO92">
+      <c r="BP92">
         <v>138.7</v>
       </c>
-      <c r="BP92">
+      <c r="BQ92">
         <v>9963.6</v>
       </c>
-      <c r="BQ92">
+      <c r="BR92">
         <v>6722.2</v>
       </c>
-      <c r="BR92">
+      <c r="BS92">
         <v>-1</v>
       </c>
-      <c r="BS92">
+      <c r="BT92">
         <v>4425.333333333333</v>
       </c>
-      <c r="BT92">
+      <c r="BU92">
         <v>11306.66666666667</v>
       </c>
-      <c r="BU92">
+      <c r="BV92">
         <v>99580.33333333333</v>
       </c>
     </row>
@@ -14963,31 +15241,34 @@
       <c r="AR93">
         <v>32.2</v>
       </c>
-      <c r="BL93">
+      <c r="BM93">
         <v>23.2</v>
       </c>
       <c r="BN93">
+        <v>21.86</v>
+      </c>
+      <c r="BO93">
         <v>142.0333333333333</v>
       </c>
-      <c r="BO93">
+      <c r="BP93">
         <v>139.8</v>
       </c>
-      <c r="BP93">
+      <c r="BQ93">
         <v>10027.2</v>
       </c>
-      <c r="BQ93">
+      <c r="BR93">
         <v>6811.7</v>
       </c>
-      <c r="BR93">
+      <c r="BS93">
         <v>-1</v>
       </c>
-      <c r="BS93">
+      <c r="BT93">
         <v>4438</v>
       </c>
-      <c r="BT93">
+      <c r="BU93">
         <v>11319.66666666667</v>
       </c>
-      <c r="BU93">
+      <c r="BV93">
         <v>98022.33333333333</v>
       </c>
     </row>
@@ -15124,31 +15405,34 @@
       <c r="AR94">
         <v>35.5</v>
       </c>
-      <c r="BL94">
+      <c r="BM94">
         <v>24.4</v>
       </c>
       <c r="BN94">
+        <v>21.82</v>
+      </c>
+      <c r="BO94">
         <v>143.0666666666667</v>
       </c>
-      <c r="BO94">
+      <c r="BP94">
         <v>140.7666666666667</v>
       </c>
-      <c r="BP94">
+      <c r="BQ94">
         <v>10091.8</v>
       </c>
-      <c r="BQ94">
+      <c r="BR94">
         <v>6894</v>
       </c>
-      <c r="BR94">
+      <c r="BS94">
         <v>-1</v>
       </c>
-      <c r="BS94">
+      <c r="BT94">
         <v>4456</v>
       </c>
-      <c r="BT94">
+      <c r="BU94">
         <v>11366.66666666667</v>
       </c>
-      <c r="BU94">
+      <c r="BV94">
         <v>102495</v>
       </c>
     </row>
@@ -15285,31 +15569,34 @@
       <c r="AR95">
         <v>37.6</v>
       </c>
-      <c r="BL95">
+      <c r="BM95">
         <v>22.6</v>
       </c>
       <c r="BN95">
+        <v>22.14</v>
+      </c>
+      <c r="BO95">
         <v>144.1</v>
       </c>
-      <c r="BO95">
+      <c r="BP95">
         <v>141.7333333333334</v>
       </c>
-      <c r="BP95">
+      <c r="BQ95">
         <v>10158.1</v>
       </c>
-      <c r="BQ95">
+      <c r="BR95">
         <v>6980.6</v>
       </c>
-      <c r="BR95">
+      <c r="BS95">
         <v>-1</v>
       </c>
-      <c r="BS95">
+      <c r="BT95">
         <v>4478</v>
       </c>
-      <c r="BT95">
+      <c r="BU95">
         <v>11407.66666666667</v>
       </c>
-      <c r="BU95">
+      <c r="BV95">
         <v>111962</v>
       </c>
     </row>
@@ -15446,31 +15733,34 @@
       <c r="AR96">
         <v>37.7</v>
       </c>
-      <c r="BL96">
+      <c r="BM96">
         <v>25.3</v>
       </c>
       <c r="BN96">
+        <v>22.204</v>
+      </c>
+      <c r="BO96">
         <v>144.7666666666667</v>
       </c>
-      <c r="BO96">
+      <c r="BP96">
         <v>142.3333333333333</v>
       </c>
-      <c r="BP96">
+      <c r="BQ96">
         <v>10225.2</v>
       </c>
-      <c r="BQ96">
+      <c r="BR96">
         <v>7068.5</v>
       </c>
-      <c r="BR96">
+      <c r="BS96">
         <v>-1</v>
       </c>
-      <c r="BS96">
+      <c r="BT96">
         <v>4496</v>
       </c>
-      <c r="BT96">
+      <c r="BU96">
         <v>11483</v>
       </c>
-      <c r="BU96">
+      <c r="BV96">
         <v>116124.6666666667</v>
       </c>
     </row>
@@ -15607,31 +15897,34 @@
       <c r="AR97">
         <v>36</v>
       </c>
-      <c r="BL97">
+      <c r="BM97">
         <v>24.9</v>
       </c>
       <c r="BN97">
+        <v>22.68</v>
+      </c>
+      <c r="BO97">
         <v>145.9666666666667</v>
       </c>
-      <c r="BO97">
+      <c r="BP97">
         <v>143.4333333333333</v>
       </c>
-      <c r="BP97">
+      <c r="BQ97">
         <v>10293.3</v>
       </c>
-      <c r="BQ97">
+      <c r="BR97">
         <v>7154.3</v>
       </c>
-      <c r="BR97">
+      <c r="BS97">
         <v>-1</v>
       </c>
-      <c r="BS97">
+      <c r="BT97">
         <v>4515</v>
       </c>
-      <c r="BT97">
+      <c r="BU97">
         <v>11520.66666666667</v>
       </c>
-      <c r="BU97">
+      <c r="BV97">
         <v>118029</v>
       </c>
     </row>
@@ -15768,31 +16061,34 @@
       <c r="AR98">
         <v>33.6</v>
       </c>
-      <c r="BL98">
+      <c r="BM98">
         <v>23.8</v>
       </c>
       <c r="BN98">
+        <v>23.06</v>
+      </c>
+      <c r="BO98">
         <v>146.7</v>
       </c>
-      <c r="BO98">
+      <c r="BP98">
         <v>144.0333333333333</v>
       </c>
-      <c r="BP98">
+      <c r="BQ98">
         <v>10362.2</v>
       </c>
-      <c r="BQ98">
+      <c r="BR98">
         <v>7236.6</v>
       </c>
-      <c r="BR98">
+      <c r="BS98">
         <v>-1</v>
       </c>
-      <c r="BS98">
+      <c r="BT98">
         <v>4523.666666666667</v>
       </c>
-      <c r="BT98">
+      <c r="BU98">
         <v>11591.33333333333</v>
       </c>
-      <c r="BU98">
+      <c r="BV98">
         <v>111803</v>
       </c>
     </row>
@@ -15929,31 +16225,34 @@
       <c r="AR99">
         <v>32.4</v>
       </c>
-      <c r="BL99">
+      <c r="BM99">
         <v>27.5</v>
       </c>
       <c r="BN99">
+        <v>22.58</v>
+      </c>
+      <c r="BO99">
         <v>147.5333333333333</v>
       </c>
-      <c r="BO99">
+      <c r="BP99">
         <v>144.8666666666667</v>
       </c>
-      <c r="BP99">
+      <c r="BQ99">
         <v>10431.5</v>
       </c>
-      <c r="BQ99">
+      <c r="BR99">
         <v>7320.2</v>
       </c>
-      <c r="BR99">
+      <c r="BS99">
         <v>-1</v>
       </c>
-      <c r="BS99">
+      <c r="BT99">
         <v>4555.333333333333</v>
       </c>
-      <c r="BT99">
+      <c r="BU99">
         <v>11672.33333333333</v>
       </c>
-      <c r="BU99">
+      <c r="BV99">
         <v>113545</v>
       </c>
     </row>
@@ -16090,31 +16389,34 @@
       <c r="AR100">
         <v>31.9</v>
       </c>
-      <c r="BL100">
+      <c r="BM100">
         <v>26.2</v>
       </c>
       <c r="BN100">
+        <v>22.504</v>
+      </c>
+      <c r="BO100">
         <v>148.9</v>
       </c>
-      <c r="BO100">
+      <c r="BP100">
         <v>146.4</v>
       </c>
-      <c r="BP100">
+      <c r="BQ100">
         <v>10502</v>
       </c>
-      <c r="BQ100">
+      <c r="BR100">
         <v>7412</v>
       </c>
-      <c r="BR100">
+      <c r="BS100">
         <v>-1</v>
       </c>
-      <c r="BS100">
+      <c r="BT100">
         <v>4600</v>
       </c>
-      <c r="BT100">
+      <c r="BU100">
         <v>11710.33333333333</v>
       </c>
-      <c r="BU100">
+      <c r="BV100">
         <v>118942</v>
       </c>
     </row>
@@ -16251,31 +16553,34 @@
       <c r="AR101">
         <v>32.2</v>
       </c>
-      <c r="BL101">
+      <c r="BM101">
         <v>26.7</v>
       </c>
       <c r="BN101">
+        <v>23.224</v>
+      </c>
+      <c r="BO101">
         <v>149.7666666666667</v>
       </c>
-      <c r="BO101">
+      <c r="BP101">
         <v>147.2666666666667</v>
       </c>
-      <c r="BP101">
+      <c r="BQ101">
         <v>10573.5</v>
       </c>
-      <c r="BQ101">
+      <c r="BR101">
         <v>7502.9</v>
       </c>
-      <c r="BR101">
+      <c r="BS101">
         <v>-1</v>
       </c>
-      <c r="BS101">
+      <c r="BT101">
         <v>4626.333333333333</v>
       </c>
-      <c r="BT101">
+      <c r="BU101">
         <v>11752</v>
       </c>
-      <c r="BU101">
+      <c r="BV101">
         <v>117294.3333333333</v>
       </c>
     </row>
@@ -16412,31 +16717,34 @@
       <c r="AR102">
         <v>34</v>
       </c>
-      <c r="BL102">
+      <c r="BM102">
         <v>27.9</v>
       </c>
       <c r="BN102">
+        <v>22.716</v>
+      </c>
+      <c r="BO102">
         <v>150.8666666666667</v>
       </c>
-      <c r="BO102">
+      <c r="BP102">
         <v>148.3333333333333</v>
       </c>
-      <c r="BP102">
+      <c r="BQ102">
         <v>10645.4</v>
       </c>
-      <c r="BQ102">
+      <c r="BR102">
         <v>7595</v>
       </c>
-      <c r="BR102">
+      <c r="BS102">
         <v>-1</v>
       </c>
-      <c r="BS102">
+      <c r="BT102">
         <v>4649.666666666667</v>
       </c>
-      <c r="BT102">
+      <c r="BU102">
         <v>11791.33333333333</v>
       </c>
-      <c r="BU102">
+      <c r="BV102">
         <v>116848.6666666667</v>
       </c>
     </row>
@@ -16573,31 +16881,34 @@
       <c r="AR103">
         <v>34.6</v>
       </c>
-      <c r="BL103">
+      <c r="BM103">
         <v>28.2</v>
       </c>
       <c r="BN103">
+        <v>22.384</v>
+      </c>
+      <c r="BO103">
         <v>152.1</v>
       </c>
-      <c r="BO103">
+      <c r="BP103">
         <v>149.5</v>
       </c>
-      <c r="BP103">
+      <c r="BQ103">
         <v>10718.4</v>
       </c>
-      <c r="BQ103">
+      <c r="BR103">
         <v>7683.7</v>
       </c>
-      <c r="BR103">
+      <c r="BS103">
         <v>-1</v>
       </c>
-      <c r="BS103">
+      <c r="BT103">
         <v>4643</v>
       </c>
-      <c r="BT103">
+      <c r="BU103">
         <v>11828.66666666667</v>
       </c>
-      <c r="BU103">
+      <c r="BV103">
         <v>124434.3333333333</v>
       </c>
     </row>
@@ -16734,31 +17045,34 @@
       <c r="AR104">
         <v>35.1</v>
       </c>
-      <c r="BL104">
+      <c r="BM104">
         <v>28.4</v>
       </c>
       <c r="BN104">
+        <v>22.052</v>
+      </c>
+      <c r="BO104">
         <v>152.8666666666667</v>
       </c>
-      <c r="BO104">
+      <c r="BP104">
         <v>150.1666666666667</v>
       </c>
-      <c r="BP104">
+      <c r="BQ104">
         <v>10792</v>
       </c>
-      <c r="BQ104">
+      <c r="BR104">
         <v>7774.5</v>
       </c>
-      <c r="BR104">
+      <c r="BS104">
         <v>-1</v>
       </c>
-      <c r="BS104">
+      <c r="BT104">
         <v>4623.666666666667</v>
       </c>
-      <c r="BT104">
+      <c r="BU104">
         <v>11868</v>
       </c>
-      <c r="BU104">
+      <c r="BV104">
         <v>125240</v>
       </c>
     </row>
@@ -16895,31 +17209,34 @@
       <c r="AR105">
         <v>35.5</v>
       </c>
-      <c r="BL105">
+      <c r="BM105">
         <v>27</v>
       </c>
       <c r="BN105">
+        <v>22.636</v>
+      </c>
+      <c r="BO105">
         <v>153.7</v>
       </c>
-      <c r="BO105">
+      <c r="BP105">
         <v>151</v>
       </c>
-      <c r="BP105">
+      <c r="BQ105">
         <v>10867.2</v>
       </c>
-      <c r="BQ105">
+      <c r="BR105">
         <v>7866.5</v>
       </c>
-      <c r="BR105">
+      <c r="BS105">
         <v>-1</v>
       </c>
-      <c r="BS105">
+      <c r="BT105">
         <v>4624.666666666667</v>
       </c>
-      <c r="BT105">
+      <c r="BU105">
         <v>11923</v>
       </c>
-      <c r="BU105">
+      <c r="BV105">
         <v>127572.6666666667</v>
       </c>
     </row>
@@ -17056,31 +17373,34 @@
       <c r="AR106">
         <v>35.5</v>
       </c>
-      <c r="BL106">
+      <c r="BM106">
         <v>29.3</v>
       </c>
       <c r="BN106">
+        <v>22.564</v>
+      </c>
+      <c r="BO106">
         <v>155.0666666666667</v>
       </c>
-      <c r="BO106">
+      <c r="BP106">
         <v>152.4</v>
       </c>
-      <c r="BP106">
+      <c r="BQ106">
         <v>10943.8</v>
       </c>
-      <c r="BQ106">
+      <c r="BR106">
         <v>7960.1</v>
       </c>
-      <c r="BR106">
+      <c r="BS106">
         <v>-1</v>
       </c>
-      <c r="BS106">
+      <c r="BT106">
         <v>4621.333333333333</v>
       </c>
-      <c r="BT106">
+      <c r="BU106">
         <v>11966</v>
       </c>
-      <c r="BU106">
+      <c r="BV106">
         <v>126179.3333333333</v>
       </c>
     </row>
@@ -17217,31 +17537,34 @@
       <c r="AR107">
         <v>35.4</v>
       </c>
-      <c r="BL107">
+      <c r="BM107">
         <v>28.1</v>
       </c>
       <c r="BN107">
+        <v>22.236</v>
+      </c>
+      <c r="BO107">
         <v>156.4</v>
       </c>
-      <c r="BO107">
+      <c r="BP107">
         <v>153.7333333333334</v>
       </c>
-      <c r="BP107">
+      <c r="BQ107">
         <v>11025.2</v>
       </c>
-      <c r="BQ107">
+      <c r="BR107">
         <v>8052.5</v>
       </c>
-      <c r="BR107">
+      <c r="BS107">
         <v>-1</v>
       </c>
-      <c r="BS107">
+      <c r="BT107">
         <v>4618.333333333333</v>
       </c>
-      <c r="BT107">
+      <c r="BU107">
         <v>12017.33333333333</v>
       </c>
-      <c r="BU107">
+      <c r="BV107">
         <v>131672</v>
       </c>
     </row>
@@ -17378,31 +17701,34 @@
       <c r="AR108">
         <v>35.2</v>
       </c>
-      <c r="BL108">
+      <c r="BM108">
         <v>27.3</v>
       </c>
       <c r="BN108">
+        <v>21.852</v>
+      </c>
+      <c r="BO108">
         <v>157.3</v>
       </c>
-      <c r="BO108">
+      <c r="BP108">
         <v>154.5666666666667</v>
       </c>
-      <c r="BP108">
+      <c r="BQ108">
         <v>11112.4</v>
       </c>
-      <c r="BQ108">
+      <c r="BR108">
         <v>8142.7</v>
       </c>
-      <c r="BR108">
+      <c r="BS108">
         <v>-1</v>
       </c>
-      <c r="BS108">
+      <c r="BT108">
         <v>4600.333333333333</v>
       </c>
-      <c r="BT108">
+      <c r="BU108">
         <v>12067</v>
       </c>
-      <c r="BU108">
+      <c r="BV108">
         <v>131615</v>
       </c>
     </row>
@@ -17539,31 +17865,34 @@
       <c r="AR109">
         <v>34.8</v>
       </c>
-      <c r="BL109">
+      <c r="BM109">
         <v>28.9</v>
       </c>
       <c r="BN109">
+        <v>21.16</v>
+      </c>
+      <c r="BO109">
         <v>158.6666666666667</v>
       </c>
-      <c r="BO109">
+      <c r="BP109">
         <v>155.8666666666667</v>
       </c>
-      <c r="BP109">
+      <c r="BQ109">
         <v>11205.1</v>
       </c>
-      <c r="BQ109">
+      <c r="BR109">
         <v>8254.6</v>
       </c>
-      <c r="BR109">
+      <c r="BS109">
         <v>-1</v>
       </c>
-      <c r="BS109">
+      <c r="BT109">
         <v>4581.333333333333</v>
       </c>
-      <c r="BT109">
+      <c r="BU109">
         <v>12139</v>
       </c>
-      <c r="BU109">
+      <c r="BV109">
         <v>135638.6666666667</v>
       </c>
     </row>
@@ -17700,31 +18029,34 @@
       <c r="AR110">
         <v>34.4</v>
       </c>
-      <c r="BL110">
+      <c r="BM110">
         <v>28.6</v>
       </c>
       <c r="BN110">
+        <v>20.04</v>
+      </c>
+      <c r="BO110">
         <v>159.6333333333333</v>
       </c>
-      <c r="BO110">
+      <c r="BP110">
         <v>156.8</v>
       </c>
-      <c r="BP110">
+      <c r="BQ110">
         <v>11303.2</v>
       </c>
-      <c r="BQ110">
+      <c r="BR110">
         <v>8376.4</v>
       </c>
-      <c r="BR110">
+      <c r="BS110">
         <v>-1</v>
       </c>
-      <c r="BS110">
+      <c r="BT110">
         <v>4574.333333333333</v>
       </c>
-      <c r="BT110">
+      <c r="BU110">
         <v>12185.66666666667</v>
       </c>
-      <c r="BU110">
+      <c r="BV110">
         <v>135471.6666666667</v>
       </c>
     </row>
@@ -17861,31 +18193,34 @@
       <c r="AR111">
         <v>33.6</v>
       </c>
-      <c r="BL111">
+      <c r="BM111">
         <v>29.5</v>
       </c>
       <c r="BN111">
+        <v>19.076</v>
+      </c>
+      <c r="BO111">
         <v>160</v>
       </c>
-      <c r="BO111">
+      <c r="BP111">
         <v>157.1</v>
       </c>
-      <c r="BP111">
+      <c r="BQ111">
         <v>11406</v>
       </c>
-      <c r="BQ111">
+      <c r="BR111">
         <v>8469.700000000001</v>
       </c>
-      <c r="BR111">
+      <c r="BS111">
         <v>-1</v>
       </c>
-      <c r="BS111">
+      <c r="BT111">
         <v>4577</v>
       </c>
-      <c r="BT111">
+      <c r="BU111">
         <v>12229.66666666667</v>
       </c>
-      <c r="BU111">
+      <c r="BV111">
         <v>139479.3333333333</v>
       </c>
     </row>
@@ -18022,31 +18357,34 @@
       <c r="AR112">
         <v>33.4</v>
       </c>
-      <c r="BL112">
+      <c r="BM112">
         <v>29.7</v>
       </c>
       <c r="BN112">
+        <v>18.144</v>
+      </c>
+      <c r="BO112">
         <v>160.8</v>
       </c>
-      <c r="BO112">
+      <c r="BP112">
         <v>157.8</v>
       </c>
-      <c r="BP112">
+      <c r="BQ112">
         <v>11513.8</v>
       </c>
-      <c r="BQ112">
+      <c r="BR112">
         <v>8586.9</v>
       </c>
-      <c r="BR112">
+      <c r="BS112">
         <v>-1</v>
       </c>
-      <c r="BS112">
+      <c r="BT112">
         <v>4589</v>
       </c>
-      <c r="BT112">
+      <c r="BU112">
         <v>12296</v>
       </c>
-      <c r="BU112">
+      <c r="BV112">
         <v>141385.3333333333</v>
       </c>
     </row>
@@ -18183,31 +18521,34 @@
       <c r="AR113">
         <v>33.8</v>
       </c>
-      <c r="BL113">
+      <c r="BM113">
         <v>29</v>
       </c>
       <c r="BN113">
+        <v>17.668</v>
+      </c>
+      <c r="BO113">
         <v>161.6666666666667</v>
       </c>
-      <c r="BO113">
+      <c r="BP113">
         <v>158.5333333333333</v>
       </c>
-      <c r="BP113">
+      <c r="BQ113">
         <v>11625.6</v>
       </c>
-      <c r="BQ113">
+      <c r="BR113">
         <v>8698.700000000001</v>
       </c>
-      <c r="BR113">
+      <c r="BS113">
         <v>-1</v>
       </c>
-      <c r="BS113">
+      <c r="BT113">
         <v>4583</v>
       </c>
-      <c r="BT113">
+      <c r="BU113">
         <v>12380</v>
       </c>
-      <c r="BU113">
+      <c r="BV113">
         <v>140102.6666666667</v>
       </c>
     </row>
@@ -18344,31 +18685,34 @@
       <c r="AR114">
         <v>33.8</v>
       </c>
-      <c r="BL114">
+      <c r="BM114">
         <v>27.3</v>
       </c>
       <c r="BN114">
+        <v>17.124</v>
+      </c>
+      <c r="BO114">
         <v>162</v>
       </c>
-      <c r="BO114">
+      <c r="BP114">
         <v>158.7333333333333</v>
       </c>
-      <c r="BP114">
+      <c r="BQ114">
         <v>11741</v>
       </c>
-      <c r="BQ114">
+      <c r="BR114">
         <v>8797.9</v>
       </c>
-      <c r="BR114">
+      <c r="BS114">
         <v>-1</v>
       </c>
-      <c r="BS114">
+      <c r="BT114">
         <v>4578</v>
       </c>
-      <c r="BT114">
+      <c r="BU114">
         <v>12437.33333333333</v>
       </c>
-      <c r="BU114">
+      <c r="BV114">
         <v>133975</v>
       </c>
     </row>
@@ -18505,31 +18849,34 @@
       <c r="AR115">
         <v>35</v>
       </c>
-      <c r="BL115">
+      <c r="BM115">
         <v>27.5</v>
       </c>
       <c r="BN115">
+        <v>16.58</v>
+      </c>
+      <c r="BO115">
         <v>162.5333333333333</v>
       </c>
-      <c r="BO115">
+      <c r="BP115">
         <v>159.2</v>
       </c>
-      <c r="BP115">
+      <c r="BQ115">
         <v>11860</v>
       </c>
-      <c r="BQ115">
+      <c r="BR115">
         <v>8908.1</v>
       </c>
-      <c r="BR115">
+      <c r="BS115">
         <v>-1</v>
       </c>
-      <c r="BS115">
+      <c r="BT115">
         <v>4596.666666666667</v>
       </c>
-      <c r="BT115">
+      <c r="BU115">
         <v>12501.33333333333</v>
       </c>
-      <c r="BU115">
+      <c r="BV115">
         <v>137818</v>
       </c>
     </row>
@@ -18666,31 +19013,34 @@
       <c r="AR116">
         <v>36.8</v>
       </c>
-      <c r="BL116">
+      <c r="BM116">
         <v>29.4</v>
       </c>
       <c r="BN116">
+        <v>15.976</v>
+      </c>
+      <c r="BO116">
         <v>163.3666666666667</v>
       </c>
-      <c r="BO116">
+      <c r="BP116">
         <v>159.9666666666667</v>
       </c>
-      <c r="BP116">
+      <c r="BQ116">
         <v>11981.4</v>
       </c>
-      <c r="BQ116">
+      <c r="BR116">
         <v>9038</v>
       </c>
-      <c r="BR116">
+      <c r="BS116">
         <v>-1</v>
       </c>
-      <c r="BS116">
+      <c r="BT116">
         <v>4631.666666666667</v>
       </c>
-      <c r="BT116">
+      <c r="BU116">
         <v>12553.33333333333</v>
       </c>
-      <c r="BU116">
+      <c r="BV116">
         <v>143529.3333333333</v>
       </c>
     </row>
@@ -18827,31 +19177,34 @@
       <c r="AR117">
         <v>39.9</v>
       </c>
-      <c r="BL117">
+      <c r="BM117">
         <v>31.5</v>
       </c>
       <c r="BN117">
+        <v>16.18</v>
+      </c>
+      <c r="BO117">
         <v>164.1333333333333</v>
       </c>
-      <c r="BO117">
+      <c r="BP117">
         <v>160.7666666666667</v>
       </c>
-      <c r="BP117">
+      <c r="BQ117">
         <v>12105</v>
       </c>
-      <c r="BQ117">
+      <c r="BR117">
         <v>9156.299999999999</v>
       </c>
-      <c r="BR117">
+      <c r="BS117">
         <v>-1</v>
       </c>
-      <c r="BS117">
+      <c r="BT117">
         <v>4640.666666666667</v>
       </c>
-      <c r="BT117">
+      <c r="BU117">
         <v>12616.33333333333</v>
       </c>
-      <c r="BU117">
+      <c r="BV117">
         <v>144434.6666666667</v>
       </c>
     </row>
@@ -18988,31 +19341,34 @@
       <c r="AR118">
         <v>42.4</v>
       </c>
-      <c r="BL118">
+      <c r="BM118">
         <v>29.2</v>
       </c>
       <c r="BN118">
+        <v>15.788</v>
+      </c>
+      <c r="BO118">
         <v>164.7333333333333</v>
       </c>
-      <c r="BO118">
+      <c r="BP118">
         <v>161.3666666666667</v>
       </c>
-      <c r="BP118">
+      <c r="BQ118">
         <v>12231.2</v>
       </c>
-      <c r="BQ118">
+      <c r="BR118">
         <v>9286.700000000001</v>
       </c>
-      <c r="BR118">
+      <c r="BS118">
         <v>-1</v>
       </c>
-      <c r="BS118">
+      <c r="BT118">
         <v>4669</v>
       </c>
-      <c r="BT118">
+      <c r="BU118">
         <v>12694.66666666667</v>
       </c>
-      <c r="BU118">
+      <c r="BV118">
         <v>150497</v>
       </c>
     </row>
@@ -19149,31 +19505,34 @@
       <c r="AR119">
         <v>45</v>
       </c>
-      <c r="BL119">
+      <c r="BM119">
         <v>33.9</v>
       </c>
       <c r="BN119">
+        <v>15.464</v>
+      </c>
+      <c r="BO119">
         <v>165.9666666666667</v>
       </c>
-      <c r="BO119">
+      <c r="BP119">
         <v>162.5333333333333</v>
       </c>
-      <c r="BP119">
+      <c r="BQ119">
         <v>12359</v>
       </c>
-      <c r="BQ119">
+      <c r="BR119">
         <v>9417.799999999999</v>
       </c>
-      <c r="BR119">
+      <c r="BS119">
         <v>-1</v>
       </c>
-      <c r="BS119">
+      <c r="BT119">
         <v>4688.333333333333</v>
       </c>
-      <c r="BT119">
+      <c r="BU119">
         <v>12783.33333333333</v>
       </c>
-      <c r="BU119">
+      <c r="BV119">
         <v>152515.3333333333</v>
       </c>
     </row>
@@ -19310,31 +19669,34 @@
       <c r="AR120">
         <v>46.4</v>
       </c>
-      <c r="BL120">
+      <c r="BM120">
         <v>35.9</v>
       </c>
       <c r="BN120">
+        <v>15.284</v>
+      </c>
+      <c r="BO120">
         <v>167.2</v>
       </c>
-      <c r="BO120">
+      <c r="BP120">
         <v>163.9</v>
       </c>
-      <c r="BP120">
+      <c r="BQ120">
         <v>12488.9</v>
       </c>
-      <c r="BQ120">
+      <c r="BR120">
         <v>9549.299999999999</v>
       </c>
-      <c r="BR120">
+      <c r="BS120">
         <v>-1</v>
       </c>
-      <c r="BS120">
+      <c r="BT120">
         <v>4717.333333333333</v>
       </c>
-      <c r="BT120">
+      <c r="BU120">
         <v>12887.33333333333</v>
       </c>
-      <c r="BU120">
+      <c r="BV120">
         <v>155465.3333333333</v>
       </c>
     </row>
@@ -19471,31 +19833,34 @@
       <c r="AR121">
         <v>46.9</v>
       </c>
-      <c r="BL121">
+      <c r="BM121">
         <v>56.3</v>
       </c>
       <c r="BN121">
+        <v>15.356</v>
+      </c>
+      <c r="BO121">
         <v>168.4333333333333</v>
       </c>
-      <c r="BO121">
+      <c r="BP121">
         <v>165.2</v>
       </c>
-      <c r="BP121">
+      <c r="BQ121">
         <v>12621</v>
       </c>
-      <c r="BQ121">
+      <c r="BR121">
         <v>9702.1</v>
       </c>
-      <c r="BR121">
+      <c r="BS121">
         <v>-1</v>
       </c>
-      <c r="BS121">
+      <c r="BT121">
         <v>4757.333333333333</v>
       </c>
-      <c r="BT121">
+      <c r="BU121">
         <v>12972.33333333333</v>
       </c>
-      <c r="BU121">
+      <c r="BV121">
         <v>163365.3333333333</v>
       </c>
     </row>
@@ -19632,31 +19997,34 @@
       <c r="AR122">
         <v>45.1</v>
       </c>
-      <c r="BL122">
+      <c r="BM122">
         <v>38</v>
       </c>
       <c r="BN122">
+        <v>13.616</v>
+      </c>
+      <c r="BO122">
         <v>170.1</v>
       </c>
-      <c r="BO122">
+      <c r="BP122">
         <v>166.8333333333333</v>
       </c>
-      <c r="BP122">
+      <c r="BQ122">
         <v>12754.4</v>
       </c>
-      <c r="BQ122">
+      <c r="BR122">
         <v>9871.5</v>
       </c>
-      <c r="BR122">
+      <c r="BS122">
         <v>-1</v>
       </c>
-      <c r="BS122">
+      <c r="BT122">
         <v>4768</v>
       </c>
-      <c r="BT122">
+      <c r="BU122">
         <v>13050.33333333333</v>
       </c>
-      <c r="BU122">
+      <c r="BV122">
         <v>168776.3333333333</v>
       </c>
     </row>
@@ -19793,31 +20161,34 @@
       <c r="AR123">
         <v>45.5</v>
       </c>
-      <c r="BL123">
+      <c r="BM123">
         <v>37.9</v>
       </c>
       <c r="BN123">
+        <v>14.896</v>
+      </c>
+      <c r="BO123">
         <v>171.4333333333333</v>
       </c>
-      <c r="BO123">
+      <c r="BP123">
         <v>168.1666666666667</v>
       </c>
-      <c r="BP123">
+      <c r="BQ123">
         <v>12885.1</v>
       </c>
-      <c r="BQ123">
+      <c r="BR123">
         <v>10033</v>
       </c>
-      <c r="BR123">
+      <c r="BS123">
         <v>-1</v>
       </c>
-      <c r="BS123">
+      <c r="BT123">
         <v>4779.333333333333</v>
       </c>
-      <c r="BT123">
+      <c r="BU123">
         <v>13113</v>
       </c>
-      <c r="BU123">
+      <c r="BV123">
         <v>165200.6666666667</v>
       </c>
     </row>
@@ -19954,31 +20325,34 @@
       <c r="AR124">
         <v>45.8</v>
       </c>
-      <c r="BL124">
+      <c r="BM124">
         <v>39.4</v>
       </c>
       <c r="BN124">
+        <v>14.84</v>
+      </c>
+      <c r="BO124">
         <v>173</v>
       </c>
-      <c r="BO124">
+      <c r="BP124">
         <v>169.7</v>
       </c>
-      <c r="BP124">
+      <c r="BQ124">
         <v>13011.4</v>
       </c>
-      <c r="BQ124">
+      <c r="BR124">
         <v>10189</v>
       </c>
-      <c r="BR124">
+      <c r="BS124">
         <v>-1</v>
       </c>
-      <c r="BS124">
+      <c r="BT124">
         <v>4793.333333333333</v>
       </c>
-      <c r="BT124">
+      <c r="BU124">
         <v>13168</v>
       </c>
-      <c r="BU124">
+      <c r="BV124">
         <v>166145</v>
       </c>
     </row>
@@ -20115,31 +20489,34 @@
       <c r="AR125">
         <v>47</v>
       </c>
-      <c r="BL125">
+      <c r="BM125">
         <v>49.6</v>
       </c>
       <c r="BN125">
+        <v>14.908</v>
+      </c>
+      <c r="BO125">
         <v>174.2333333333333</v>
       </c>
-      <c r="BO125">
+      <c r="BP125">
         <v>170.8333333333333</v>
       </c>
-      <c r="BP125">
+      <c r="BQ125">
         <v>13131.9</v>
       </c>
-      <c r="BQ125">
+      <c r="BR125">
         <v>10337.8</v>
       </c>
-      <c r="BR125">
+      <c r="BS125">
         <v>-1</v>
       </c>
-      <c r="BS125">
+      <c r="BT125">
         <v>4809</v>
       </c>
-      <c r="BT125">
+      <c r="BU125">
         <v>13220.66666666667</v>
       </c>
-      <c r="BU125">
+      <c r="BV125">
         <v>170616.6666666667</v>
       </c>
     </row>
@@ -20276,31 +20653,34 @@
       <c r="AR126">
         <v>55.2</v>
       </c>
-      <c r="BL126">
+      <c r="BM126">
         <v>40.9</v>
       </c>
       <c r="BN126">
+        <v>15.1</v>
+      </c>
+      <c r="BO126">
         <v>175.9</v>
       </c>
-      <c r="BO126">
+      <c r="BP126">
         <v>172.4333333333333</v>
       </c>
-      <c r="BP126">
+      <c r="BQ126">
         <v>13247.1</v>
       </c>
-      <c r="BQ126">
+      <c r="BR126">
         <v>10492.2</v>
       </c>
-      <c r="BR126">
+      <c r="BS126">
         <v>1</v>
       </c>
-      <c r="BS126">
+      <c r="BT126">
         <v>4832</v>
       </c>
-      <c r="BT126">
+      <c r="BU126">
         <v>13310</v>
       </c>
-      <c r="BU126">
+      <c r="BV126">
         <v>176411.3333333333</v>
       </c>
     </row>
@@ -20437,31 +20817,34 @@
       <c r="AR127">
         <v>62</v>
       </c>
-      <c r="BL127">
+      <c r="BM127">
         <v>43.8</v>
       </c>
       <c r="BN127">
+        <v>15.536</v>
+      </c>
+      <c r="BO127">
         <v>177.1333333333333</v>
       </c>
-      <c r="BO127">
+      <c r="BP127">
         <v>173.7333333333334</v>
       </c>
-      <c r="BP127">
+      <c r="BQ127">
         <v>13356.2</v>
       </c>
-      <c r="BQ127">
+      <c r="BR127">
         <v>10642.6</v>
       </c>
-      <c r="BR127">
+      <c r="BS127">
         <v>1</v>
       </c>
-      <c r="BS127">
+      <c r="BT127">
         <v>4877.666666666667</v>
       </c>
-      <c r="BT127">
+      <c r="BU127">
         <v>13410.66666666667</v>
       </c>
-      <c r="BU127">
+      <c r="BV127">
         <v>189275.6666666667</v>
       </c>
     </row>
@@ -20598,31 +20981,34 @@
       <c r="AR128">
         <v>71.2</v>
       </c>
-      <c r="BL128">
+      <c r="BM128">
         <v>44.3</v>
       </c>
       <c r="BN128">
+        <v>15.996</v>
+      </c>
+      <c r="BO128">
         <v>177.6333333333333</v>
       </c>
-      <c r="BO128">
+      <c r="BP128">
         <v>174.1</v>
       </c>
-      <c r="BP128">
+      <c r="BQ128">
         <v>13459.7</v>
       </c>
-      <c r="BQ128">
+      <c r="BR128">
         <v>10768.3</v>
       </c>
-      <c r="BR128">
+      <c r="BS128">
         <v>1</v>
       </c>
-      <c r="BS128">
+      <c r="BT128">
         <v>4936.666666666667</v>
       </c>
-      <c r="BT128">
+      <c r="BU128">
         <v>13500.66666666667</v>
       </c>
-      <c r="BU128">
+      <c r="BV128">
         <v>187116</v>
       </c>
     </row>
@@ -20759,31 +21145,34 @@
       <c r="AR129">
         <v>46.4</v>
       </c>
-      <c r="BL129">
+      <c r="BM129">
         <v>45.3</v>
       </c>
       <c r="BN129">
+        <v>17.236</v>
+      </c>
+      <c r="BO129">
         <v>177.5</v>
       </c>
-      <c r="BO129">
+      <c r="BP129">
         <v>173.6666666666667</v>
       </c>
-      <c r="BP129">
+      <c r="BQ129">
         <v>13557.8</v>
       </c>
-      <c r="BQ129">
+      <c r="BR129">
         <v>10882.5</v>
       </c>
-      <c r="BR129">
+      <c r="BS129">
         <v>1</v>
       </c>
-      <c r="BS129">
+      <c r="BT129">
         <v>4977.333333333333</v>
       </c>
-      <c r="BT129">
+      <c r="BU129">
         <v>13583.66666666667</v>
       </c>
-      <c r="BU129">
+      <c r="BV129">
         <v>193037.6666666667</v>
       </c>
     </row>
@@ -20920,31 +21309,34 @@
       <c r="AR130">
         <v>42.6</v>
       </c>
-      <c r="BL130">
+      <c r="BM130">
         <v>59.6</v>
       </c>
       <c r="BN130">
+        <v>17.898</v>
+      </c>
+      <c r="BO130">
         <v>178.0666666666667</v>
       </c>
-      <c r="BO130">
+      <c r="BP130">
         <v>174.0333333333333</v>
       </c>
-      <c r="BP130">
+      <c r="BQ130">
         <v>13651.1</v>
       </c>
-      <c r="BQ130">
+      <c r="BR130">
         <v>10993.6</v>
       </c>
-      <c r="BR130">
+      <c r="BS130">
         <v>-1</v>
       </c>
-      <c r="BS130">
+      <c r="BT130">
         <v>5004.333333333333</v>
       </c>
-      <c r="BT130">
+      <c r="BU130">
         <v>13639</v>
       </c>
-      <c r="BU130">
+      <c r="BV130">
         <v>198023.3333333333</v>
       </c>
     </row>
@@ -21081,31 +21473,34 @@
       <c r="AR131">
         <v>39.8</v>
       </c>
-      <c r="BL131">
+      <c r="BM131">
         <v>47.2</v>
       </c>
       <c r="BN131">
+        <v>18.222</v>
+      </c>
+      <c r="BO131">
         <v>179.4666666666667</v>
       </c>
-      <c r="BO131">
+      <c r="BP131">
         <v>175.5333333333333</v>
       </c>
-      <c r="BP131">
+      <c r="BQ131">
         <v>13741.2</v>
       </c>
-      <c r="BQ131">
+      <c r="BR131">
         <v>11105.7</v>
       </c>
-      <c r="BR131">
+      <c r="BS131">
         <v>-1</v>
       </c>
-      <c r="BS131">
+      <c r="BT131">
         <v>5039</v>
       </c>
-      <c r="BT131">
+      <c r="BU131">
         <v>13699.33333333333</v>
       </c>
-      <c r="BU131">
+      <c r="BV131">
         <v>194794</v>
       </c>
     </row>
@@ -21242,31 +21637,34 @@
       <c r="AR132">
         <v>41.3</v>
       </c>
-      <c r="BL132">
+      <c r="BM132">
         <v>43.2</v>
       </c>
       <c r="BN132">
+        <v>18.485</v>
+      </c>
+      <c r="BO132">
         <v>180.4333333333333</v>
       </c>
-      <c r="BO132">
+      <c r="BP132">
         <v>176.5</v>
       </c>
-      <c r="BP132">
+      <c r="BQ132">
         <v>13829.2</v>
       </c>
-      <c r="BQ132">
+      <c r="BR132">
         <v>11228.4</v>
       </c>
-      <c r="BR132">
+      <c r="BS132">
         <v>-1</v>
       </c>
-      <c r="BS132">
+      <c r="BT132">
         <v>5052.666666666667</v>
       </c>
-      <c r="BT132">
+      <c r="BU132">
         <v>13744.66666666667</v>
       </c>
-      <c r="BU132">
+      <c r="BV132">
         <v>196443.6666666667</v>
       </c>
     </row>
@@ -21403,31 +21801,34 @@
       <c r="AR133">
         <v>41.9</v>
       </c>
-      <c r="BL133">
+      <c r="BM133">
         <v>63.5</v>
       </c>
       <c r="BN133">
+        <v>19.842</v>
+      </c>
+      <c r="BO133">
         <v>181.5</v>
       </c>
-      <c r="BO133">
+      <c r="BP133">
         <v>177.4666666666667</v>
       </c>
-      <c r="BP133">
+      <c r="BQ133">
         <v>13916</v>
       </c>
-      <c r="BQ133">
+      <c r="BR133">
         <v>11363</v>
       </c>
-      <c r="BR133">
+      <c r="BS133">
         <v>-1</v>
       </c>
-      <c r="BS133">
+      <c r="BT133">
         <v>5020.666666666667</v>
       </c>
-      <c r="BT133">
+      <c r="BU133">
         <v>13775</v>
       </c>
-      <c r="BU133">
+      <c r="BV133">
         <v>199770.6666666667</v>
       </c>
     </row>
@@ -21564,31 +21965,34 @@
       <c r="AR134">
         <v>47.1</v>
       </c>
-      <c r="BL134">
+      <c r="BM134">
         <v>65.7</v>
       </c>
       <c r="BN134">
+        <v>20.652</v>
+      </c>
+      <c r="BO134">
         <v>183.3666666666667</v>
       </c>
-      <c r="BO134">
+      <c r="BP134">
         <v>179.4666666666667</v>
       </c>
-      <c r="BP134">
+      <c r="BQ134">
         <v>14002.4</v>
       </c>
-      <c r="BQ134">
+      <c r="BR134">
         <v>11485.5</v>
       </c>
-      <c r="BR134">
+      <c r="BS134">
         <v>-1</v>
       </c>
-      <c r="BS134">
+      <c r="BT134">
         <v>5029.333333333333</v>
       </c>
-      <c r="BT134">
+      <c r="BU134">
         <v>13801</v>
       </c>
-      <c r="BU134">
+      <c r="BV134">
         <v>197410.6666666667</v>
       </c>
     </row>
@@ -21725,31 +22129,34 @@
       <c r="AR135">
         <v>57.1</v>
       </c>
-      <c r="BL135">
+      <c r="BM135">
         <v>75.5</v>
       </c>
       <c r="BN135">
+        <v>21.759</v>
+      </c>
+      <c r="BO135">
         <v>183.0666666666667</v>
       </c>
-      <c r="BO135">
+      <c r="BP135">
         <v>178.9333333333333</v>
       </c>
-      <c r="BP135">
+      <c r="BQ135">
         <v>14089.7</v>
       </c>
-      <c r="BQ135">
+      <c r="BR135">
         <v>11591.1</v>
       </c>
-      <c r="BR135">
+      <c r="BS135">
         <v>-1</v>
       </c>
-      <c r="BS135">
+      <c r="BT135">
         <v>5007.666666666667</v>
       </c>
-      <c r="BT135">
+      <c r="BU135">
         <v>13820</v>
       </c>
-      <c r="BU135">
+      <c r="BV135">
         <v>195858</v>
       </c>
     </row>
@@ -21886,31 +22293,34 @@
       <c r="AR136">
         <v>45.9</v>
       </c>
-      <c r="BL136">
+      <c r="BM136">
         <v>71.5</v>
       </c>
       <c r="BN136">
+        <v>22.788</v>
+      </c>
+      <c r="BO136">
         <v>184.4333333333333</v>
       </c>
-      <c r="BO136">
+      <c r="BP136">
         <v>180.2</v>
       </c>
-      <c r="BP136">
+      <c r="BQ136">
         <v>14177.4</v>
       </c>
-      <c r="BQ136">
+      <c r="BR136">
         <v>11726.4</v>
       </c>
-      <c r="BR136">
+      <c r="BS136">
         <v>-1</v>
       </c>
-      <c r="BS136">
+      <c r="BT136">
         <v>4978.666666666667</v>
       </c>
-      <c r="BT136">
+      <c r="BU136">
         <v>13832.33333333333</v>
       </c>
-      <c r="BU136">
+      <c r="BV136">
         <v>200686</v>
       </c>
     </row>
@@ -22047,31 +22457,34 @@
       <c r="AR137">
         <v>46</v>
       </c>
-      <c r="BL137">
+      <c r="BM137">
         <v>66.40000000000001</v>
       </c>
       <c r="BN137">
+        <v>23.299</v>
+      </c>
+      <c r="BO137">
         <v>185.1333333333333</v>
       </c>
-      <c r="BO137">
+      <c r="BP137">
         <v>180.7333333333334</v>
       </c>
-      <c r="BP137">
+      <c r="BQ137">
         <v>14266.5</v>
       </c>
-      <c r="BQ137">
+      <c r="BR137">
         <v>11869.8</v>
       </c>
-      <c r="BR137">
+      <c r="BS137">
         <v>-1</v>
       </c>
-      <c r="BS137">
+      <c r="BT137">
         <v>4985.333333333333</v>
       </c>
-      <c r="BT137">
+      <c r="BU137">
         <v>13824.33333333333</v>
       </c>
-      <c r="BU137">
+      <c r="BV137">
         <v>199340</v>
       </c>
     </row>
@@ -22208,31 +22621,34 @@
       <c r="AR138">
         <v>44.2</v>
       </c>
-      <c r="BL138">
+      <c r="BM138">
         <v>75.3</v>
       </c>
       <c r="BN138">
+        <v>24.086</v>
+      </c>
+      <c r="BO138">
         <v>186.7</v>
       </c>
-      <c r="BO138">
+      <c r="BP138">
         <v>182.3333333333333</v>
       </c>
-      <c r="BP138">
+      <c r="BQ138">
         <v>14357.5</v>
       </c>
-      <c r="BQ138">
+      <c r="BR138">
         <v>12034.5</v>
       </c>
-      <c r="BR138">
+      <c r="BS138">
         <v>-1</v>
       </c>
-      <c r="BS138">
+      <c r="BT138">
         <v>4968.333333333333</v>
       </c>
-      <c r="BT138">
+      <c r="BU138">
         <v>13859</v>
       </c>
-      <c r="BU138">
+      <c r="BV138">
         <v>197322.3333333333</v>
       </c>
     </row>
@@ -22369,31 +22785,34 @@
       <c r="AR139">
         <v>43.7</v>
       </c>
-      <c r="BL139">
+      <c r="BM139">
         <v>65.2</v>
       </c>
       <c r="BN139">
+        <v>24.969</v>
+      </c>
+      <c r="BO139">
         <v>188.1666666666667</v>
       </c>
-      <c r="BO139">
+      <c r="BP139">
         <v>183.6666666666667</v>
       </c>
-      <c r="BP139">
+      <c r="BQ139">
         <v>14450.4</v>
       </c>
-      <c r="BQ139">
+      <c r="BR139">
         <v>12211.2</v>
       </c>
-      <c r="BR139">
+      <c r="BS139">
         <v>-1</v>
       </c>
-      <c r="BS139">
+      <c r="BT139">
         <v>4974</v>
       </c>
-      <c r="BT139">
+      <c r="BU139">
         <v>13898</v>
       </c>
-      <c r="BU139">
+      <c r="BV139">
         <v>202356.3333333333</v>
       </c>
     </row>
@@ -22530,31 +22949,34 @@
       <c r="AR140">
         <v>45.4</v>
       </c>
-      <c r="BL140">
+      <c r="BM140">
         <v>74.7</v>
       </c>
       <c r="BN140">
+        <v>25.888</v>
+      </c>
+      <c r="BO140">
         <v>189.3666666666667</v>
       </c>
-      <c r="BO140">
+      <c r="BP140">
         <v>184.8666666666667</v>
       </c>
-      <c r="BP140">
+      <c r="BQ140">
         <v>14545.5</v>
       </c>
-      <c r="BQ140">
+      <c r="BR140">
         <v>12371.8</v>
       </c>
-      <c r="BR140">
+      <c r="BS140">
         <v>-1</v>
       </c>
-      <c r="BS140">
+      <c r="BT140">
         <v>4984</v>
       </c>
-      <c r="BT140">
+      <c r="BU140">
         <v>13909.33333333333</v>
       </c>
-      <c r="BU140">
+      <c r="BV140">
         <v>202328</v>
       </c>
     </row>
@@ -22691,31 +23113,34 @@
       <c r="AR141">
         <v>52.3</v>
       </c>
-      <c r="BL141">
+      <c r="BM141">
         <v>70.2</v>
       </c>
       <c r="BN141">
+        <v>28.839</v>
+      </c>
+      <c r="BO141">
         <v>191.4</v>
       </c>
-      <c r="BO141">
+      <c r="BP141">
         <v>187.0666666666667</v>
       </c>
-      <c r="BP141">
+      <c r="BQ141">
         <v>14642.1</v>
       </c>
-      <c r="BQ141">
+      <c r="BR141">
         <v>12550</v>
       </c>
-      <c r="BR141">
+      <c r="BS141">
         <v>-1</v>
       </c>
-      <c r="BS141">
+      <c r="BT141">
         <v>4995.333333333333</v>
       </c>
-      <c r="BT141">
+      <c r="BU141">
         <v>13958.66666666667</v>
       </c>
-      <c r="BU141">
+      <c r="BV141">
         <v>204931</v>
       </c>
     </row>
@@ -22852,31 +23277,34 @@
       <c r="AR142">
         <v>56.7</v>
       </c>
-      <c r="BL142">
+      <c r="BM142">
         <v>90.59999999999999</v>
       </c>
       <c r="BN142">
+        <v>27.844</v>
+      </c>
+      <c r="BO142">
         <v>192.3666666666667</v>
       </c>
-      <c r="BO142">
+      <c r="BP142">
         <v>187.9333333333333</v>
       </c>
-      <c r="BP142">
+      <c r="BQ142">
         <v>14737.1</v>
       </c>
-      <c r="BQ142">
+      <c r="BR142">
         <v>12731.5</v>
       </c>
-      <c r="BR142">
+      <c r="BS142">
         <v>-1</v>
       </c>
-      <c r="BS142">
+      <c r="BT142">
         <v>5015.666666666667</v>
       </c>
-      <c r="BT142">
+      <c r="BU142">
         <v>13994.66666666667</v>
       </c>
-      <c r="BU142">
+      <c r="BV142">
         <v>207202</v>
       </c>
     </row>
@@ -23013,31 +23441,34 @@
       <c r="AR143">
         <v>60.7</v>
       </c>
-      <c r="BL143">
+      <c r="BM143">
         <v>75</v>
       </c>
       <c r="BN143">
+        <v>28.237</v>
+      </c>
+      <c r="BO143">
         <v>193.6666666666667</v>
       </c>
-      <c r="BO143">
+      <c r="BP143">
         <v>189.2333333333334</v>
       </c>
-      <c r="BP143">
+      <c r="BQ143">
         <v>14829.4</v>
       </c>
-      <c r="BQ143">
+      <c r="BR143">
         <v>12901</v>
       </c>
-      <c r="BR143">
+      <c r="BS143">
         <v>-1</v>
       </c>
-      <c r="BS143">
+      <c r="BT143">
         <v>5023.333333333333</v>
       </c>
-      <c r="BT143">
+      <c r="BU143">
         <v>14012</v>
       </c>
-      <c r="BU143">
+      <c r="BV143">
         <v>215946</v>
       </c>
     </row>
@@ -23174,31 +23605,34 @@
       <c r="AR144">
         <v>62</v>
       </c>
-      <c r="BL144">
+      <c r="BM144">
         <v>141.5</v>
       </c>
       <c r="BN144">
+        <v>29.613</v>
+      </c>
+      <c r="BO144">
         <v>196.6</v>
       </c>
-      <c r="BO144">
+      <c r="BP144">
         <v>192.5666666666667</v>
       </c>
-      <c r="BP144">
+      <c r="BQ144">
         <v>14920.2</v>
       </c>
-      <c r="BQ144">
+      <c r="BR144">
         <v>13097.4</v>
       </c>
-      <c r="BR144">
+      <c r="BS144">
         <v>-1</v>
       </c>
-      <c r="BS144">
+      <c r="BT144">
         <v>5039.333333333333</v>
       </c>
-      <c r="BT144">
+      <c r="BU144">
         <v>14085.33333333333</v>
       </c>
-      <c r="BU144">
+      <c r="BV144">
         <v>219407.6666666667</v>
       </c>
     </row>
@@ -23335,31 +23769,34 @@
       <c r="AR145">
         <v>64.2</v>
       </c>
-      <c r="BL145">
+      <c r="BM145">
         <v>82.90000000000001</v>
       </c>
       <c r="BN145">
+        <v>32.274</v>
+      </c>
+      <c r="BO145">
         <v>198.4333333333333</v>
       </c>
-      <c r="BO145">
+      <c r="BP145">
         <v>194.2</v>
       </c>
-      <c r="BP145">
+      <c r="BQ145">
         <v>15008.9</v>
       </c>
-      <c r="BQ145">
+      <c r="BR145">
         <v>13281.3</v>
       </c>
-      <c r="BR145">
+      <c r="BS145">
         <v>-1</v>
       </c>
-      <c r="BS145">
+      <c r="BT145">
         <v>5047.666666666667</v>
       </c>
-      <c r="BT145">
+      <c r="BU145">
         <v>14072.33333333333</v>
       </c>
-      <c r="BU145">
+      <c r="BV145">
         <v>222763.6666666667</v>
       </c>
     </row>
@@ -23496,31 +23933,34 @@
       <c r="AR146">
         <v>55.7</v>
       </c>
-      <c r="BL146">
+      <c r="BM146">
         <v>80.5</v>
       </c>
       <c r="BN146">
+        <v>29.235</v>
+      </c>
+      <c r="BO146">
         <v>199.4666666666667</v>
       </c>
-      <c r="BO146">
+      <c r="BP146">
         <v>195.1333333333334</v>
       </c>
-      <c r="BP146">
+      <c r="BQ146">
         <v>15095.2</v>
       </c>
-      <c r="BQ146">
+      <c r="BR146">
         <v>13450.8</v>
       </c>
-      <c r="BR146">
+      <c r="BS146">
         <v>-1</v>
       </c>
-      <c r="BS146">
+      <c r="BT146">
         <v>5047</v>
       </c>
-      <c r="BT146">
+      <c r="BU146">
         <v>14098</v>
       </c>
-      <c r="BU146">
+      <c r="BV146">
         <v>230117.6666666667</v>
       </c>
     </row>
@@ -23657,31 +24097,34 @@
       <c r="AR147">
         <v>51.5</v>
       </c>
-      <c r="BL147">
+      <c r="BM147">
         <v>77.5</v>
       </c>
       <c r="BN147">
+        <v>29.264</v>
+      </c>
+      <c r="BO147">
         <v>201.2666666666667</v>
       </c>
-      <c r="BO147">
+      <c r="BP147">
         <v>196.9333333333333</v>
       </c>
-      <c r="BP147">
+      <c r="BQ147">
         <v>15179.4</v>
       </c>
-      <c r="BQ147">
+      <c r="BR147">
         <v>13639</v>
       </c>
-      <c r="BR147">
+      <c r="BS147">
         <v>-1</v>
       </c>
-      <c r="BS147">
+      <c r="BT147">
         <v>5068.333333333333</v>
       </c>
-      <c r="BT147">
+      <c r="BU147">
         <v>14119.66666666667</v>
       </c>
-      <c r="BU147">
+      <c r="BV147">
         <v>238436</v>
       </c>
     </row>
@@ -23818,31 +24261,34 @@
       <c r="AR148">
         <v>49.9</v>
       </c>
-      <c r="BL148">
+      <c r="BM148">
         <v>74.8</v>
       </c>
       <c r="BN148">
+        <v>29.344</v>
+      </c>
+      <c r="BO148">
         <v>203.1666666666667</v>
       </c>
-      <c r="BO148">
+      <c r="BP148">
         <v>198.8</v>
       </c>
-      <c r="BP148">
+      <c r="BQ148">
         <v>15259.8</v>
       </c>
-      <c r="BQ148">
+      <c r="BR148">
         <v>13807.3</v>
       </c>
-      <c r="BR148">
+      <c r="BS148">
         <v>-1</v>
       </c>
-      <c r="BS148">
+      <c r="BT148">
         <v>5086</v>
       </c>
-      <c r="BT148">
+      <c r="BU148">
         <v>14201</v>
       </c>
-      <c r="BU148">
+      <c r="BV148">
         <v>238965</v>
       </c>
     </row>
@@ -23979,31 +24425,34 @@
       <c r="AR149">
         <v>48.7</v>
       </c>
-      <c r="BL149">
+      <c r="BM149">
         <v>73.90000000000001</v>
       </c>
       <c r="BN149">
+        <v>29.717</v>
+      </c>
+      <c r="BO149">
         <v>202.3333333333333</v>
       </c>
-      <c r="BO149">
+      <c r="BP149">
         <v>197.5666666666666</v>
       </c>
-      <c r="BP149">
+      <c r="BQ149">
         <v>15336.4</v>
       </c>
-      <c r="BQ149">
+      <c r="BR149">
         <v>13927.8</v>
       </c>
-      <c r="BR149">
+      <c r="BS149">
         <v>-1</v>
       </c>
-      <c r="BS149">
+      <c r="BT149">
         <v>5098.333333333333</v>
       </c>
-      <c r="BT149">
+      <c r="BU149">
         <v>14251.33333333333</v>
       </c>
-      <c r="BU149">
+      <c r="BV149">
         <v>242956.3333333333</v>
       </c>
     </row>
@@ -24140,31 +24589,34 @@
       <c r="AR150">
         <v>49.5</v>
       </c>
-      <c r="BL150">
+      <c r="BM150">
         <v>90.3</v>
       </c>
       <c r="BN150">
+        <v>30</v>
+      </c>
+      <c r="BO150">
         <v>204.317</v>
       </c>
-      <c r="BO150">
+      <c r="BP150">
         <v>199.553</v>
       </c>
-      <c r="BP150">
+      <c r="BQ150">
         <v>15412.4</v>
       </c>
-      <c r="BQ150">
+      <c r="BR150">
         <v>14134.4</v>
       </c>
-      <c r="BR150">
+      <c r="BS150">
         <v>-1</v>
       </c>
-      <c r="BS150">
+      <c r="BT150">
         <v>5106.333333333333</v>
       </c>
-      <c r="BT150">
+      <c r="BU150">
         <v>14287.33333333333</v>
       </c>
-      <c r="BU150">
+      <c r="BV150">
         <v>258254.3333333333</v>
       </c>
     </row>
@@ -24301,31 +24753,34 @@
       <c r="AR151">
         <v>58.2</v>
       </c>
-      <c r="BL151">
+      <c r="BM151">
         <v>86.5</v>
       </c>
       <c r="BN151">
+        <v>30.392</v>
+      </c>
+      <c r="BO151">
         <v>206.631</v>
       </c>
-      <c r="BO151">
+      <c r="BP151">
         <v>202.077</v>
       </c>
-      <c r="BP151">
+      <c r="BQ151">
         <v>15488</v>
       </c>
-      <c r="BQ151">
+      <c r="BR151">
         <v>14295.6</v>
       </c>
-      <c r="BR151">
+      <c r="BS151">
         <v>-1</v>
       </c>
-      <c r="BS151">
+      <c r="BT151">
         <v>5124.333333333333</v>
       </c>
-      <c r="BT151">
+      <c r="BU151">
         <v>14336</v>
       </c>
-      <c r="BU151">
+      <c r="BV151">
         <v>266203.6666666667</v>
       </c>
     </row>
@@ -24462,31 +24917,34 @@
       <c r="AR152">
         <v>55.9</v>
       </c>
-      <c r="BL152">
+      <c r="BM152">
         <v>86.3</v>
       </c>
       <c r="BN152">
+        <v>30.74</v>
+      </c>
+      <c r="BO152">
         <v>207.939</v>
       </c>
-      <c r="BO152">
+      <c r="BP152">
         <v>203.37</v>
       </c>
-      <c r="BP152">
+      <c r="BQ152">
         <v>15563.8</v>
       </c>
-      <c r="BQ152">
+      <c r="BR152">
         <v>14439.6</v>
       </c>
-      <c r="BR152">
+      <c r="BS152">
         <v>-1</v>
       </c>
-      <c r="BS152">
+      <c r="BT152">
         <v>5122</v>
       </c>
-      <c r="BT152">
+      <c r="BU152">
         <v>14369.33333333333</v>
       </c>
-      <c r="BU152">
+      <c r="BV152">
         <v>271640.3333333333</v>
       </c>
     </row>
@@ -24623,31 +25081,34 @@
       <c r="AR153">
         <v>54.7</v>
       </c>
-      <c r="BL153">
+      <c r="BM153">
         <v>80.40000000000001</v>
       </c>
       <c r="BN153">
+        <v>32.553</v>
+      </c>
+      <c r="BO153">
         <v>210.4896666666667</v>
       </c>
-      <c r="BO153">
+      <c r="BP153">
         <v>206.0856666666666</v>
       </c>
-      <c r="BP153">
+      <c r="BQ153">
         <v>15638.8</v>
       </c>
-      <c r="BQ153">
+      <c r="BR153">
         <v>14566.7</v>
       </c>
-      <c r="BR153">
+      <c r="BS153">
         <v>1</v>
       </c>
-      <c r="BS153">
+      <c r="BT153">
         <v>5136</v>
       </c>
-      <c r="BT153">
+      <c r="BU153">
         <v>14455</v>
       </c>
-      <c r="BU153">
+      <c r="BV153">
         <v>276454.6666666667</v>
       </c>
     </row>
@@ -24784,31 +25245,34 @@
       <c r="AR154">
         <v>51.9</v>
       </c>
-      <c r="BL154">
+      <c r="BM154">
         <v>87</v>
       </c>
       <c r="BN154">
+        <v>33.466</v>
+      </c>
+      <c r="BO154">
         <v>212.7696666666667</v>
       </c>
-      <c r="BO154">
+      <c r="BP154">
         <v>208.516</v>
       </c>
-      <c r="BP154">
+      <c r="BQ154">
         <v>15712.6</v>
       </c>
-      <c r="BQ154">
+      <c r="BR154">
         <v>14689.5</v>
       </c>
-      <c r="BR154">
+      <c r="BS154">
         <v>1</v>
       </c>
-      <c r="BS154">
+      <c r="BT154">
         <v>5148.666666666667</v>
       </c>
-      <c r="BT154">
+      <c r="BU154">
         <v>14521.66666666667</v>
       </c>
-      <c r="BU154">
+      <c r="BV154">
         <v>278038.3333333333</v>
       </c>
     </row>
@@ -24945,31 +25409,34 @@
       <c r="AR155">
         <v>51.7</v>
       </c>
-      <c r="BL155">
+      <c r="BM155">
         <v>81.40000000000001</v>
       </c>
       <c r="BN155">
+        <v>34.607</v>
+      </c>
+      <c r="BO155">
         <v>215.5376666666667</v>
       </c>
-      <c r="BO155">
+      <c r="BP155">
         <v>211.5026666666667</v>
       </c>
-      <c r="BP155">
+      <c r="BQ155">
         <v>15783.7</v>
       </c>
-      <c r="BQ155">
+      <c r="BR155">
         <v>14835.1</v>
       </c>
-      <c r="BR155">
+      <c r="BS155">
         <v>1</v>
       </c>
-      <c r="BS155">
+      <c r="BT155">
         <v>5166</v>
       </c>
-      <c r="BT155">
+      <c r="BU155">
         <v>14560.33333333333</v>
       </c>
-      <c r="BU155">
+      <c r="BV155">
         <v>283074.3333333333</v>
       </c>
     </row>
@@ -25106,31 +25573,34 @@
       <c r="AR156">
         <v>52</v>
       </c>
-      <c r="BL156">
+      <c r="BM156">
         <v>91.2</v>
       </c>
       <c r="BN156">
+        <v>37.1</v>
+      </c>
+      <c r="BO156">
         <v>218.861</v>
       </c>
-      <c r="BO156">
+      <c r="BP156">
         <v>215.13</v>
       </c>
-      <c r="BP156">
+      <c r="BQ156">
         <v>15850.9</v>
       </c>
-      <c r="BQ156">
+      <c r="BR156">
         <v>15009.3</v>
       </c>
-      <c r="BR156">
+      <c r="BS156">
         <v>1</v>
       </c>
-      <c r="BS156">
+      <c r="BT156">
         <v>5196.333333333333</v>
       </c>
-      <c r="BT156">
+      <c r="BU156">
         <v>14594</v>
       </c>
-      <c r="BU156">
+      <c r="BV156">
         <v>287093.6666666667</v>
       </c>
     </row>
@@ -25267,31 +25737,34 @@
       <c r="AR157">
         <v>54.6</v>
       </c>
-      <c r="BL157">
+      <c r="BM157">
         <v>348.6</v>
       </c>
       <c r="BN157">
+        <v>42.964</v>
+      </c>
+      <c r="BO157">
         <v>213.8486666666667</v>
       </c>
-      <c r="BO157">
+      <c r="BP157">
         <v>208.8386666666667</v>
       </c>
-      <c r="BP157">
+      <c r="BQ157">
         <v>15913.8</v>
       </c>
-      <c r="BQ157">
+      <c r="BR157">
         <v>15116</v>
       </c>
-      <c r="BR157">
+      <c r="BS157">
         <v>1</v>
       </c>
-      <c r="BS157">
+      <c r="BT157">
         <v>5189</v>
       </c>
-      <c r="BT157">
+      <c r="BU157">
         <v>14591</v>
       </c>
-      <c r="BU157">
+      <c r="BV157">
         <v>288334</v>
       </c>
     </row>
@@ -25428,31 +25901,34 @@
       <c r="AR158">
         <v>55.4</v>
       </c>
-      <c r="BL158">
+      <c r="BM158">
         <v>301.2</v>
       </c>
       <c r="BN158">
+        <v>44.63</v>
+      </c>
+      <c r="BO158">
         <v>212.3776666666667</v>
       </c>
-      <c r="BO158">
+      <c r="BP158">
         <v>206.9433333333334</v>
       </c>
-      <c r="BP158">
+      <c r="BQ158">
         <v>15971.4</v>
       </c>
-      <c r="BQ158">
+      <c r="BR158">
         <v>15169.1</v>
       </c>
-      <c r="BR158">
+      <c r="BS158">
         <v>1</v>
       </c>
-      <c r="BS158">
+      <c r="BT158">
         <v>5192</v>
       </c>
-      <c r="BT158">
+      <c r="BU158">
         <v>14587</v>
       </c>
-      <c r="BU158">
+      <c r="BV158">
         <v>289591.3333333333</v>
       </c>
     </row>
@@ -25589,31 +26065,34 @@
       <c r="AR159">
         <v>55.5</v>
       </c>
-      <c r="BL159">
+      <c r="BM159">
         <v>226</v>
       </c>
       <c r="BN159">
+        <v>55.541</v>
+      </c>
+      <c r="BO159">
         <v>213.507</v>
       </c>
-      <c r="BO159">
+      <c r="BP159">
         <v>208.3903333333334</v>
       </c>
-      <c r="BP159">
+      <c r="BQ159">
         <v>16025</v>
       </c>
-      <c r="BQ159">
+      <c r="BR159">
         <v>15197.8</v>
       </c>
-      <c r="BR159">
+      <c r="BS159">
         <v>1</v>
       </c>
-      <c r="BS159">
+      <c r="BT159">
         <v>5181.666666666667</v>
       </c>
-      <c r="BT159">
+      <c r="BU159">
         <v>14576.33333333333</v>
       </c>
-      <c r="BU159">
+      <c r="BV159">
         <v>292223.6666666667</v>
       </c>
     </row>
@@ -25750,31 +26229,34 @@
       <c r="AR160">
         <v>67.09999999999999</v>
       </c>
-      <c r="BL160">
+      <c r="BM160">
         <v>144.9</v>
       </c>
       <c r="BN160">
+        <v>58.195</v>
+      </c>
+      <c r="BO160">
         <v>215.344</v>
       </c>
-      <c r="BO160">
+      <c r="BP160">
         <v>210.695</v>
       </c>
-      <c r="BP160">
+      <c r="BQ160">
         <v>16075.4</v>
       </c>
-      <c r="BQ160">
+      <c r="BR160">
         <v>15261.7</v>
       </c>
-      <c r="BR160">
+      <c r="BS160">
         <v>-1</v>
       </c>
-      <c r="BS160">
+      <c r="BT160">
         <v>5145.333333333333</v>
       </c>
-      <c r="BT160">
+      <c r="BU160">
         <v>14532</v>
       </c>
-      <c r="BU160">
+      <c r="BV160">
         <v>287368</v>
       </c>
     </row>
@@ -25911,31 +26393,34 @@
       <c r="AR161">
         <v>55.5</v>
       </c>
-      <c r="BL161">
+      <c r="BM161">
         <v>178.4</v>
       </c>
       <c r="BN161">
+        <v>60.683</v>
+      </c>
+      <c r="BO161">
         <v>217.03</v>
       </c>
-      <c r="BO161">
+      <c r="BP161">
         <v>212.6326666666666</v>
       </c>
-      <c r="BP161">
+      <c r="BQ161">
         <v>16124.4</v>
       </c>
-      <c r="BQ161">
+      <c r="BR161">
         <v>15359.8</v>
       </c>
-      <c r="BR161">
+      <c r="BS161">
         <v>-1</v>
       </c>
-      <c r="BS161">
+      <c r="BT161">
         <v>5153.333333333333</v>
       </c>
-      <c r="BT161">
+      <c r="BU161">
         <v>14521</v>
       </c>
-      <c r="BU161">
+      <c r="BV161">
         <v>274301</v>
       </c>
     </row>
@@ -26072,31 +26557,34 @@
       <c r="AR162">
         <v>54.8</v>
       </c>
-      <c r="BL162">
+      <c r="BM162">
         <v>164.3</v>
       </c>
       <c r="BN162">
+        <v>63.749</v>
+      </c>
+      <c r="BO162">
         <v>217.374</v>
       </c>
-      <c r="BO162">
+      <c r="BP162">
         <v>213.237</v>
       </c>
-      <c r="BP162">
+      <c r="BQ162">
         <v>16173.6</v>
       </c>
-      <c r="BQ162">
+      <c r="BR162">
         <v>15445.7</v>
       </c>
-      <c r="BR162">
+      <c r="BS162">
         <v>-1</v>
       </c>
-      <c r="BS162">
+      <c r="BT162">
         <v>5144</v>
       </c>
-      <c r="BT162">
+      <c r="BU162">
         <v>14466</v>
       </c>
-      <c r="BU162">
+      <c r="BV162">
         <v>268022</v>
       </c>
     </row>
@@ -26233,31 +26721,34 @@
       <c r="AR163">
         <v>55.5</v>
       </c>
-      <c r="BL163">
+      <c r="BM163">
         <v>195.8</v>
       </c>
       <c r="BN163">
+        <v>65.743</v>
+      </c>
+      <c r="BO163">
         <v>217.2973333333333</v>
       </c>
-      <c r="BO163">
+      <c r="BP163">
         <v>213.1506666666667</v>
       </c>
-      <c r="BP163">
+      <c r="BQ163">
         <v>16224.4</v>
       </c>
-      <c r="BQ163">
+      <c r="BR163">
         <v>15566.2</v>
       </c>
-      <c r="BR163">
+      <c r="BS163">
         <v>-1</v>
       </c>
-      <c r="BS163">
+      <c r="BT163">
         <v>5136.666666666667</v>
       </c>
-      <c r="BT163">
+      <c r="BU163">
         <v>14434</v>
       </c>
-      <c r="BU163">
+      <c r="BV163">
         <v>274526.6666666667</v>
       </c>
     </row>
@@ -26394,31 +26885,34 @@
       <c r="AR164">
         <v>56</v>
       </c>
-      <c r="BL164">
+      <c r="BM164">
         <v>122.5</v>
       </c>
       <c r="BN164">
+        <v>67.74</v>
+      </c>
+      <c r="BO164">
         <v>217.9343333333333</v>
       </c>
-      <c r="BO164">
+      <c r="BP164">
         <v>213.82</v>
       </c>
-      <c r="BP164">
+      <c r="BQ164">
         <v>16277.7</v>
       </c>
-      <c r="BQ164">
+      <c r="BR164">
         <v>15662.7</v>
       </c>
-      <c r="BR164">
+      <c r="BS164">
         <v>-1</v>
       </c>
-      <c r="BS164">
+      <c r="BT164">
         <v>5129.333333333333</v>
       </c>
-      <c r="BT164">
+      <c r="BU164">
         <v>14327.66666666667</v>
       </c>
-      <c r="BU164">
+      <c r="BV164">
         <v>277232.3333333333</v>
       </c>
     </row>
@@ -26555,31 +27049,34 @@
       <c r="AR165">
         <v>56.9</v>
       </c>
-      <c r="BL165">
+      <c r="BM165">
         <v>110</v>
       </c>
       <c r="BN165">
+        <v>68.828</v>
+      </c>
+      <c r="BO165">
         <v>219.699</v>
       </c>
-      <c r="BO165">
+      <c r="BP165">
         <v>215.764</v>
       </c>
-      <c r="BP165">
+      <c r="BQ165">
         <v>16333.2</v>
       </c>
-      <c r="BQ165">
+      <c r="BR165">
         <v>15804.5</v>
       </c>
-      <c r="BR165">
+      <c r="BS165">
         <v>-1</v>
       </c>
-      <c r="BS165">
+      <c r="BT165">
         <v>5137</v>
       </c>
-      <c r="BT165">
+      <c r="BU165">
         <v>14279</v>
       </c>
-      <c r="BU165">
+      <c r="BV165">
         <v>269906.3333333333</v>
       </c>
     </row>
@@ -26716,31 +27213,34 @@
       <c r="AR166">
         <v>58.9</v>
       </c>
-      <c r="BL166">
+      <c r="BM166">
         <v>110.2</v>
       </c>
       <c r="BN166">
+        <v>71.063</v>
+      </c>
+      <c r="BO166">
         <v>222.0436666666667</v>
       </c>
-      <c r="BO166">
+      <c r="BP166">
         <v>218.4156666666667</v>
       </c>
-      <c r="BP166">
+      <c r="BQ166">
         <v>16390.9</v>
       </c>
-      <c r="BQ166">
+      <c r="BR166">
         <v>15945.5</v>
       </c>
-      <c r="BR166">
+      <c r="BS166">
         <v>-1</v>
       </c>
-      <c r="BS166">
+      <c r="BT166">
         <v>5113.333333333333</v>
       </c>
-      <c r="BT166">
+      <c r="BU166">
         <v>14232.66666666667</v>
       </c>
-      <c r="BU166">
+      <c r="BV166">
         <v>258077</v>
       </c>
     </row>
@@ -26877,31 +27377,34 @@
       <c r="AR167">
         <v>59.9</v>
       </c>
-      <c r="BL167">
+      <c r="BM167">
         <v>142.2</v>
       </c>
       <c r="BN167">
+        <v>72.82899999999999</v>
+      </c>
+      <c r="BO167">
         <v>224.5683333333333</v>
       </c>
-      <c r="BO167">
+      <c r="BP167">
         <v>221.2876666666667</v>
       </c>
-      <c r="BP167">
+      <c r="BQ167">
         <v>16450.9</v>
       </c>
-      <c r="BQ167">
+      <c r="BR167">
         <v>16109</v>
       </c>
-      <c r="BR167">
+      <c r="BS167">
         <v>-1</v>
       </c>
-      <c r="BS167">
+      <c r="BT167">
         <v>5084.333333333333</v>
       </c>
-      <c r="BT167">
+      <c r="BU167">
         <v>14207.66666666667</v>
       </c>
-      <c r="BU167">
+      <c r="BV167">
         <v>251739</v>
       </c>
     </row>
@@ -27038,31 +27541,34 @@
       <c r="AR168">
         <v>60.2</v>
       </c>
-      <c r="BL168">
+      <c r="BM168">
         <v>122.8</v>
       </c>
       <c r="BN168">
+        <v>73.527</v>
+      </c>
+      <c r="BO168">
         <v>226.0326666666667</v>
       </c>
-      <c r="BO168">
+      <c r="BP168">
         <v>222.738</v>
       </c>
-      <c r="BP168">
+      <c r="BQ168">
         <v>16513.3</v>
       </c>
-      <c r="BQ168">
+      <c r="BR168">
         <v>16274.4</v>
       </c>
-      <c r="BR168">
+      <c r="BS168">
         <v>-1</v>
       </c>
-      <c r="BS168">
+      <c r="BT168">
         <v>5069.666666666667</v>
       </c>
-      <c r="BT168">
+      <c r="BU168">
         <v>14094</v>
       </c>
-      <c r="BU168">
+      <c r="BV168">
         <v>253215.3333333333</v>
       </c>
     </row>
@@ -27199,31 +27705,34 @@
       <c r="AR169">
         <v>61.1</v>
       </c>
-      <c r="BL169">
+      <c r="BM169">
         <v>149.7</v>
       </c>
       <c r="BN169">
+        <v>73.492</v>
+      </c>
+      <c r="BO169">
         <v>227.0473333333333</v>
       </c>
-      <c r="BO169">
+      <c r="BP169">
         <v>223.7746666666667</v>
       </c>
-      <c r="BP169">
+      <c r="BQ169">
         <v>16577.3</v>
       </c>
-      <c r="BQ169">
+      <c r="BR169">
         <v>16362.2</v>
       </c>
-      <c r="BR169">
+      <c r="BS169">
         <v>-1</v>
       </c>
-      <c r="BS169">
+      <c r="BT169">
         <v>5051</v>
       </c>
-      <c r="BT169">
+      <c r="BU169">
         <v>14080.66666666667</v>
       </c>
-      <c r="BU169">
+      <c r="BV169">
         <v>258046</v>
       </c>
     </row>
@@ -27360,31 +27869,34 @@
       <c r="AR170">
         <v>58.4</v>
       </c>
-      <c r="BL170">
+      <c r="BM170">
         <v>110.8</v>
       </c>
       <c r="BN170">
+        <v>74.054</v>
+      </c>
+      <c r="BO170">
         <v>228.326</v>
       </c>
-      <c r="BO170">
+      <c r="BP170">
         <v>225.0873333333333</v>
       </c>
-      <c r="BP170">
+      <c r="BQ170">
         <v>16642.9</v>
       </c>
-      <c r="BQ170">
+      <c r="BR170">
         <v>16529.8</v>
       </c>
-      <c r="BR170">
+      <c r="BS170">
         <v>-1</v>
       </c>
-      <c r="BS170">
+      <c r="BT170">
         <v>5048</v>
       </c>
-      <c r="BT170">
+      <c r="BU170">
         <v>14067.66666666667</v>
       </c>
-      <c r="BU170">
+      <c r="BV170">
         <v>254528.3333333333</v>
       </c>
     </row>
@@ -27521,31 +28033,34 @@
       <c r="AR171">
         <v>58.1</v>
       </c>
-      <c r="BL171">
+      <c r="BM171">
         <v>93</v>
       </c>
       <c r="BN171">
+        <v>74.348</v>
+      </c>
+      <c r="BO171">
         <v>228.808</v>
       </c>
-      <c r="BO171">
+      <c r="BP171">
         <v>225.4593333333333</v>
       </c>
-      <c r="BP171">
+      <c r="BQ171">
         <v>16710.5</v>
       </c>
-      <c r="BQ171">
+      <c r="BR171">
         <v>16662.5</v>
       </c>
-      <c r="BR171">
+      <c r="BS171">
         <v>-1</v>
       </c>
-      <c r="BS171">
+      <c r="BT171">
         <v>5055.333333333333</v>
       </c>
-      <c r="BT171">
+      <c r="BU171">
         <v>14044.33333333333</v>
       </c>
-      <c r="BU171">
+      <c r="BV171">
         <v>254598.6666666667</v>
       </c>
     </row>
@@ -27682,31 +28197,34 @@
       <c r="AR172">
         <v>56.3</v>
       </c>
-      <c r="BL172">
+      <c r="BM172">
         <v>90.7</v>
       </c>
       <c r="BN172">
+        <v>75.343</v>
+      </c>
+      <c r="BO172">
         <v>229.841</v>
       </c>
-      <c r="BO172">
+      <c r="BP172">
         <v>226.357</v>
       </c>
-      <c r="BP172">
+      <c r="BQ172">
         <v>16779.7</v>
       </c>
-      <c r="BQ172">
+      <c r="BR172">
         <v>16817.4</v>
       </c>
-      <c r="BR172">
+      <c r="BS172">
         <v>-1</v>
       </c>
-      <c r="BS172">
+      <c r="BT172">
         <v>5064.666666666667</v>
       </c>
-      <c r="BT172">
+      <c r="BU172">
         <v>14034.33333333333</v>
       </c>
-      <c r="BU172">
+      <c r="BV172">
         <v>252248.6666666667</v>
       </c>
     </row>
@@ -27843,31 +28361,34 @@
       <c r="AR173">
         <v>59.4</v>
       </c>
-      <c r="BL173">
+      <c r="BM173">
         <v>125.3</v>
       </c>
       <c r="BN173">
+        <v>75.66</v>
+      </c>
+      <c r="BO173">
         <v>231.3693333333333</v>
       </c>
-      <c r="BO173">
+      <c r="BP173">
         <v>227.9716666666667</v>
       </c>
-      <c r="BP173">
+      <c r="BQ173">
         <v>16850.1</v>
       </c>
-      <c r="BQ173">
+      <c r="BR173">
         <v>16974.5</v>
       </c>
-      <c r="BR173">
+      <c r="BS173">
         <v>-1</v>
       </c>
-      <c r="BS173">
+      <c r="BT173">
         <v>5051.666666666667</v>
       </c>
-      <c r="BT173">
+      <c r="BU173">
         <v>14026.33333333333</v>
       </c>
-      <c r="BU173">
+      <c r="BV173">
         <v>246424.3333333333</v>
       </c>
     </row>
@@ -28004,31 +28525,34 @@
       <c r="AR174">
         <v>59.4</v>
       </c>
-      <c r="BL174">
+      <c r="BM174">
         <v>91.2</v>
       </c>
       <c r="BN174">
+        <v>75.95999999999999</v>
+      </c>
+      <c r="BO174">
         <v>232.2993333333334</v>
       </c>
-      <c r="BO174">
+      <c r="BP174">
         <v>228.8366666666667</v>
       </c>
-      <c r="BP174">
+      <c r="BQ174">
         <v>16921.8</v>
       </c>
-      <c r="BQ174">
+      <c r="BR174">
         <v>17114.6</v>
       </c>
-      <c r="BR174">
+      <c r="BS174">
         <v>-1</v>
       </c>
-      <c r="BS174">
+      <c r="BT174">
         <v>5042</v>
       </c>
-      <c r="BT174">
+      <c r="BU174">
         <v>14029.33333333333</v>
       </c>
-      <c r="BU174">
+      <c r="BV174">
         <v>242924.3333333333</v>
       </c>
     </row>
@@ -28165,31 +28689,34 @@
       <c r="AR175">
         <v>60.1</v>
       </c>
-      <c r="BL175">
+      <c r="BM175">
         <v>84.40000000000001</v>
       </c>
       <c r="BN175">
+        <v>76.039</v>
+      </c>
+      <c r="BO175">
         <v>232.045</v>
       </c>
-      <c r="BO175">
+      <c r="BP175">
         <v>228.4096666666667</v>
       </c>
-      <c r="BP175">
+      <c r="BQ175">
         <v>16994.9</v>
       </c>
-      <c r="BQ175">
+      <c r="BR175">
         <v>17238</v>
       </c>
-      <c r="BR175">
+      <c r="BS175">
         <v>-1</v>
       </c>
-      <c r="BS175">
+      <c r="BT175">
         <v>5044.666666666667</v>
       </c>
-      <c r="BT175">
+      <c r="BU175">
         <v>14033</v>
       </c>
-      <c r="BU175">
+      <c r="BV175">
         <v>245991.6666666667</v>
       </c>
     </row>
@@ -28326,31 +28853,34 @@
       <c r="AR176">
         <v>60</v>
       </c>
-      <c r="BL176">
+      <c r="BM176">
         <v>85.3</v>
       </c>
       <c r="BN176">
+        <v>75.214</v>
+      </c>
+      <c r="BO176">
         <v>233.3</v>
       </c>
-      <c r="BO176">
+      <c r="BP176">
         <v>229.589</v>
       </c>
-      <c r="BP176">
+      <c r="BQ176">
         <v>17068.6</v>
       </c>
-      <c r="BQ176">
+      <c r="BR176">
         <v>17395.8</v>
       </c>
-      <c r="BR176">
+      <c r="BS176">
         <v>-1</v>
       </c>
-      <c r="BS176">
+      <c r="BT176">
         <v>5040</v>
       </c>
-      <c r="BT176">
+      <c r="BU176">
         <v>14031</v>
       </c>
-      <c r="BU176">
+      <c r="BV176">
         <v>249225</v>
       </c>
     </row>
@@ -28487,31 +29017,34 @@
       <c r="AR177">
         <v>59.4</v>
       </c>
-      <c r="BL177">
+      <c r="BM177">
         <v>79.7</v>
       </c>
       <c r="BN177">
+        <v>71.414</v>
+      </c>
+      <c r="BO177">
         <v>234.1626666666667</v>
       </c>
-      <c r="BO177">
+      <c r="BP177">
         <v>230.4336666666667</v>
       </c>
-      <c r="BP177">
+      <c r="BQ177">
         <v>17143.4</v>
       </c>
-      <c r="BQ177">
+      <c r="BR177">
         <v>17575</v>
       </c>
-      <c r="BR177">
+      <c r="BS177">
         <v>-1</v>
       </c>
-      <c r="BS177">
+      <c r="BT177">
         <v>5055.333333333333</v>
       </c>
-      <c r="BT177">
+      <c r="BU177">
         <v>14033.66666666667</v>
       </c>
-      <c r="BU177">
+      <c r="BV177">
         <v>247543.3333333333</v>
       </c>
     </row>
@@ -28648,31 +29181,34 @@
       <c r="AR178">
         <v>58.7</v>
       </c>
-      <c r="BL178">
+      <c r="BM178">
         <v>86.8</v>
       </c>
       <c r="BN178">
+        <v>69.318</v>
+      </c>
+      <c r="BO178">
         <v>235.621</v>
       </c>
-      <c r="BO178">
+      <c r="BP178">
         <v>231.95</v>
       </c>
-      <c r="BP178">
+      <c r="BQ178">
         <v>17219.3</v>
       </c>
-      <c r="BQ178">
+      <c r="BR178">
         <v>17725.1</v>
       </c>
-      <c r="BR178">
+      <c r="BS178">
         <v>-1</v>
       </c>
-      <c r="BS178">
+      <c r="BT178">
         <v>5054.666666666667</v>
       </c>
-      <c r="BT178">
+      <c r="BU178">
         <v>14037.66666666667</v>
       </c>
-      <c r="BU178">
+      <c r="BV178">
         <v>242591.3333333333</v>
       </c>
     </row>
@@ -28809,31 +29345,34 @@
       <c r="AR179">
         <v>58.5</v>
       </c>
-      <c r="BL179">
+      <c r="BM179">
         <v>84.09999999999999</v>
       </c>
       <c r="BN179">
+        <v>69.354</v>
+      </c>
+      <c r="BO179">
         <v>236.8723333333333</v>
       </c>
-      <c r="BO179">
+      <c r="BP179">
         <v>233.1013333333334</v>
       </c>
-      <c r="BP179">
+      <c r="BQ179">
         <v>17296.2</v>
       </c>
-      <c r="BQ179">
+      <c r="BR179">
         <v>17903.5</v>
       </c>
-      <c r="BR179">
+      <c r="BS179">
         <v>-1</v>
       </c>
-      <c r="BS179">
+      <c r="BT179">
         <v>5054.666666666667</v>
       </c>
-      <c r="BT179">
+      <c r="BU179">
         <v>14077</v>
       </c>
-      <c r="BU179">
+      <c r="BV179">
         <v>251613.3333333333</v>
       </c>
     </row>
@@ -28970,31 +29509,34 @@
       <c r="AR180">
         <v>58.2</v>
       </c>
-      <c r="BL180">
+      <c r="BM180">
         <v>83</v>
       </c>
       <c r="BN180">
+        <v>68.645</v>
+      </c>
+      <c r="BO180">
         <v>237.4783333333333</v>
       </c>
-      <c r="BO180">
+      <c r="BP180">
         <v>233.4943333333333</v>
       </c>
-      <c r="BP180">
+      <c r="BQ180">
         <v>17374.2</v>
       </c>
-      <c r="BQ180">
+      <c r="BR180">
         <v>18061.8</v>
       </c>
-      <c r="BR180">
+      <c r="BS180">
         <v>-1</v>
       </c>
-      <c r="BS180">
+      <c r="BT180">
         <v>5030.666666666667</v>
       </c>
-      <c r="BT180">
+      <c r="BU180">
         <v>14120</v>
       </c>
-      <c r="BU180">
+      <c r="BV180">
         <v>257546.3333333333</v>
       </c>
     </row>
@@ -29131,31 +29673,34 @@
       <c r="AR181">
         <v>57</v>
       </c>
-      <c r="BL181">
+      <c r="BM181">
         <v>80.8</v>
       </c>
       <c r="BN181">
+        <v>70.31699999999999</v>
+      </c>
+      <c r="BO181">
         <v>236.8883333333334</v>
       </c>
-      <c r="BO181">
+      <c r="BP181">
         <v>232.431</v>
       </c>
-      <c r="BP181">
+      <c r="BQ181">
         <v>17453</v>
       </c>
-      <c r="BQ181">
+      <c r="BR181">
         <v>18172.7</v>
       </c>
-      <c r="BR181">
+      <c r="BS181">
         <v>-1</v>
       </c>
-      <c r="BS181">
+      <c r="BT181">
         <v>5052.666666666667</v>
       </c>
-      <c r="BT181">
+      <c r="BU181">
         <v>14140</v>
       </c>
-      <c r="BU181">
+      <c r="BV181">
         <v>260104.3333333333</v>
       </c>
     </row>
@@ -29292,31 +29837,34 @@
       <c r="AR182">
         <v>56</v>
       </c>
-      <c r="BL182">
+      <c r="BM182">
         <v>83.2</v>
       </c>
       <c r="BN182">
+        <v>69.767</v>
+      </c>
+      <c r="BO182">
         <v>235.355</v>
       </c>
-      <c r="BO182">
+      <c r="BP182">
         <v>230.2366666666667</v>
       </c>
-      <c r="BP182">
+      <c r="BQ182">
         <v>17532.1</v>
       </c>
-      <c r="BQ182">
+      <c r="BR182">
         <v>18238.8</v>
       </c>
-      <c r="BR182">
+      <c r="BS182">
         <v>-1</v>
       </c>
-      <c r="BS182">
+      <c r="BT182">
         <v>5067.666666666667</v>
       </c>
-      <c r="BT182">
+      <c r="BU182">
         <v>14155</v>
       </c>
-      <c r="BU182">
+      <c r="BV182">
         <v>260731.6666666667</v>
       </c>
     </row>
@@ -29453,31 +30001,34 @@
       <c r="AR183">
         <v>56.4</v>
       </c>
-      <c r="BL183">
+      <c r="BM183">
         <v>77.09999999999999</v>
       </c>
       <c r="BN183">
+        <v>69.164</v>
+      </c>
+      <c r="BO183">
         <v>236.96</v>
       </c>
-      <c r="BO183">
+      <c r="BP183">
         <v>231.9576666666667</v>
       </c>
-      <c r="BP183">
+      <c r="BQ183">
         <v>17611.2</v>
       </c>
-      <c r="BQ183">
+      <c r="BR183">
         <v>18420.6</v>
       </c>
-      <c r="BR183">
+      <c r="BS183">
         <v>-1</v>
       </c>
-      <c r="BS183">
+      <c r="BT183">
         <v>5072.333333333333</v>
       </c>
-      <c r="BT183">
+      <c r="BU183">
         <v>14181.66666666667</v>
       </c>
-      <c r="BU183">
+      <c r="BV183">
         <v>274292.3333333333</v>
       </c>
     </row>
@@ -29614,31 +30165,34 @@
       <c r="AR184">
         <v>57.7</v>
       </c>
-      <c r="BL184">
+      <c r="BM184">
         <v>83.90000000000001</v>
       </c>
       <c r="BN184">
+        <v>68.38200000000001</v>
+      </c>
+      <c r="BO184">
         <v>237.855</v>
       </c>
-      <c r="BO184">
+      <c r="BP184">
         <v>232.6933333333334</v>
       </c>
-      <c r="BP184">
+      <c r="BQ184">
         <v>17689.6</v>
       </c>
-      <c r="BQ184">
+      <c r="BR184">
         <v>18561</v>
       </c>
-      <c r="BR184">
+      <c r="BS184">
         <v>-1</v>
       </c>
-      <c r="BS184">
+      <c r="BT184">
         <v>5077.666666666667</v>
       </c>
-      <c r="BT184">
+      <c r="BU184">
         <v>14214</v>
       </c>
-      <c r="BU184">
+      <c r="BV184">
         <v>278090.3333333333</v>
       </c>
     </row>
@@ -29775,31 +30329,34 @@
       <c r="AR185">
         <v>58.7</v>
       </c>
-      <c r="BL185">
+      <c r="BM185">
         <v>76.40000000000001</v>
       </c>
       <c r="BN185">
+        <v>67.63800000000001</v>
+      </c>
+      <c r="BO185">
         <v>237.837</v>
       </c>
-      <c r="BO185">
+      <c r="BP185">
         <v>232.2803333333334</v>
       </c>
-      <c r="BP185">
+      <c r="BQ185">
         <v>17766.8</v>
       </c>
-      <c r="BQ185">
+      <c r="BR185">
         <v>18643.9</v>
       </c>
-      <c r="BR185">
+      <c r="BS185">
         <v>-1</v>
       </c>
-      <c r="BS185">
+      <c r="BT185">
         <v>5087.333333333333</v>
       </c>
-      <c r="BT185">
+      <c r="BU185">
         <v>14223.66666666667</v>
       </c>
-      <c r="BU185">
+      <c r="BV185">
         <v>268417</v>
       </c>
     </row>
@@ -29936,31 +30493,34 @@
       <c r="AR186">
         <v>60.7</v>
       </c>
-      <c r="BL186">
+      <c r="BM186">
         <v>81.7</v>
       </c>
       <c r="BN186">
+        <v>67.364</v>
+      </c>
+      <c r="BO186">
         <v>237.6893333333333</v>
       </c>
-      <c r="BO186">
+      <c r="BP186">
         <v>231.781</v>
       </c>
-      <c r="BP186">
+      <c r="BQ186">
         <v>17843.2</v>
       </c>
-      <c r="BQ186">
+      <c r="BR186">
         <v>18711.2</v>
       </c>
-      <c r="BR186">
+      <c r="BS186">
         <v>-1</v>
       </c>
-      <c r="BS186">
+      <c r="BT186">
         <v>5089</v>
       </c>
-      <c r="BT186">
+      <c r="BU186">
         <v>14277</v>
       </c>
-      <c r="BU186">
+      <c r="BV186">
         <v>280145</v>
       </c>
     </row>
@@ -30097,31 +30657,34 @@
       <c r="AR187">
         <v>62.4</v>
       </c>
-      <c r="BL187">
+      <c r="BM187">
         <v>77.2</v>
       </c>
       <c r="BN187">
+        <v>65.473</v>
+      </c>
+      <c r="BO187">
         <v>239.5903333333333</v>
       </c>
-      <c r="BO187">
+      <c r="BP187">
         <v>233.774</v>
       </c>
-      <c r="BP187">
+      <c r="BQ187">
         <v>17918.2</v>
       </c>
-      <c r="BQ187">
+      <c r="BR187">
         <v>18920.1</v>
       </c>
-      <c r="BR187">
+      <c r="BS187">
         <v>-1</v>
       </c>
-      <c r="BS187">
+      <c r="BT187">
         <v>5098.666666666667</v>
       </c>
-      <c r="BT187">
+      <c r="BU187">
         <v>14297.66666666667</v>
       </c>
-      <c r="BU187">
+      <c r="BV187">
         <v>275022</v>
       </c>
     </row>
@@ -30258,31 +30821,34 @@
       <c r="AR188">
         <v>63</v>
       </c>
-      <c r="BL188">
+      <c r="BM188">
         <v>79.2</v>
       </c>
       <c r="BN188">
+        <v>64.788</v>
+      </c>
+      <c r="BO188">
         <v>240.6073333333333</v>
       </c>
-      <c r="BO188">
+      <c r="BP188">
         <v>234.5966666666667</v>
       </c>
-      <c r="BP188">
+      <c r="BQ188">
         <v>17992</v>
       </c>
-      <c r="BQ188">
+      <c r="BR188">
         <v>19062.5</v>
       </c>
-      <c r="BR188">
+      <c r="BS188">
         <v>-1</v>
       </c>
-      <c r="BS188">
+      <c r="BT188">
         <v>5126.666666666667</v>
       </c>
-      <c r="BT188">
+      <c r="BU188">
         <v>14369</v>
       </c>
-      <c r="BU188">
+      <c r="BV188">
         <v>271266.6666666667</v>
       </c>
     </row>
@@ -30419,31 +30985,34 @@
       <c r="AR189">
         <v>61</v>
       </c>
-      <c r="BL189">
+      <c r="BM189">
         <v>84.2</v>
       </c>
       <c r="BN189">
+        <v>64.383</v>
+      </c>
+      <c r="BO189">
         <v>242.1346666666667</v>
       </c>
-      <c r="BO189">
+      <c r="BP189">
         <v>236.1406666666667</v>
       </c>
-      <c r="BP189">
+      <c r="BQ189">
         <v>18065.1</v>
       </c>
-      <c r="BQ189">
+      <c r="BR189">
         <v>19233.7</v>
       </c>
-      <c r="BR189">
+      <c r="BS189">
         <v>-1</v>
       </c>
-      <c r="BS189">
+      <c r="BT189">
         <v>5135.333333333333</v>
       </c>
-      <c r="BT189">
+      <c r="BU189">
         <v>14351</v>
       </c>
-      <c r="BU189">
+      <c r="BV189">
         <v>274719.6666666667</v>
       </c>
     </row>
@@ -30580,31 +31149,34 @@
       <c r="AR190">
         <v>59.5</v>
       </c>
-      <c r="BL190">
+      <c r="BM190">
         <v>84.3</v>
       </c>
       <c r="BN190">
+        <v>63.712</v>
+      </c>
+      <c r="BO190">
         <v>243.7526666666667</v>
       </c>
-      <c r="BO190">
+      <c r="BP190">
         <v>237.75</v>
       </c>
-      <c r="BP190">
+      <c r="BQ190">
         <v>18137.7</v>
       </c>
-      <c r="BQ190">
+      <c r="BR190">
         <v>19409</v>
       </c>
-      <c r="BR190">
+      <c r="BS190">
         <v>-1</v>
       </c>
-      <c r="BS190">
+      <c r="BT190">
         <v>5158</v>
       </c>
-      <c r="BT190">
+      <c r="BU190">
         <v>14347</v>
       </c>
-      <c r="BU190">
+      <c r="BV190">
         <v>274527.6666666667</v>
       </c>
     </row>
@@ -30741,31 +31313,34 @@
       <c r="AR191">
         <v>58.1</v>
       </c>
-      <c r="BL191">
+      <c r="BM191">
         <v>84.8</v>
       </c>
       <c r="BN191">
+        <v>62.381</v>
+      </c>
+      <c r="BO191">
         <v>244.187</v>
       </c>
-      <c r="BO191">
+      <c r="BP191">
         <v>238.0306666666667</v>
       </c>
-      <c r="BP191">
+      <c r="BQ191">
         <v>18211.1</v>
       </c>
-      <c r="BQ191">
+      <c r="BR191">
         <v>19547.7</v>
       </c>
-      <c r="BR191">
+      <c r="BS191">
         <v>-1</v>
       </c>
-      <c r="BS191">
+      <c r="BT191">
         <v>5170.333333333333</v>
       </c>
-      <c r="BT191">
+      <c r="BU191">
         <v>14363</v>
       </c>
-      <c r="BU191">
+      <c r="BV191">
         <v>275545.6666666667</v>
       </c>
     </row>
@@ -30902,31 +31477,34 @@
       <c r="AR192">
         <v>61.9</v>
       </c>
-      <c r="BL192">
+      <c r="BM192">
         <v>115.8</v>
       </c>
       <c r="BN192">
+        <v>63.763</v>
+      </c>
+      <c r="BO192">
         <v>245.3453333333333</v>
       </c>
-      <c r="BO192">
+      <c r="BP192">
         <v>239.2</v>
       </c>
-      <c r="BP192">
+      <c r="BQ192">
         <v>18287.1</v>
       </c>
-      <c r="BQ192">
+      <c r="BR192">
         <v>19726.8</v>
       </c>
-      <c r="BR192">
+      <c r="BS192">
         <v>-1</v>
       </c>
-      <c r="BS192">
+      <c r="BT192">
         <v>5168.333333333333</v>
       </c>
-      <c r="BT192">
+      <c r="BU192">
         <v>14401.66666666667</v>
       </c>
-      <c r="BU192">
+      <c r="BV192">
         <v>273887</v>
       </c>
     </row>
@@ -31063,31 +31641,34 @@
       <c r="AR193">
         <v>60</v>
       </c>
-      <c r="BL193">
+      <c r="BM193">
         <v>80</v>
       </c>
       <c r="BN193">
+        <v>67.036</v>
+      </c>
+      <c r="BO193">
         <v>247.257</v>
       </c>
-      <c r="BO193">
+      <c r="BP193">
         <v>241.3036666666667</v>
       </c>
-      <c r="BP193">
+      <c r="BQ193">
         <v>18365.3</v>
       </c>
-      <c r="BQ193">
+      <c r="BR193">
         <v>19944.4</v>
       </c>
-      <c r="BR193">
+      <c r="BS193">
         <v>-1</v>
       </c>
-      <c r="BS193">
+      <c r="BT193">
         <v>5160.333333333333</v>
       </c>
-      <c r="BT193">
+      <c r="BU193">
         <v>14428.66666666667</v>
       </c>
-      <c r="BU193">
+      <c r="BV193">
         <v>278738</v>
       </c>
     </row>
@@ -31224,31 +31805,34 @@
       <c r="AR194">
         <v>58.2</v>
       </c>
-      <c r="BL194">
+      <c r="BM194">
         <v>79.2</v>
       </c>
       <c r="BN194">
+        <v>59.858</v>
+      </c>
+      <c r="BO194">
         <v>249.1793333333334</v>
       </c>
-      <c r="BO194">
+      <c r="BP194">
         <v>243.2743333333333</v>
       </c>
-      <c r="BP194">
+      <c r="BQ194">
         <v>18446.4</v>
       </c>
-      <c r="BQ194">
+      <c r="BR194">
         <v>20150.3</v>
       </c>
-      <c r="BR194">
+      <c r="BS194">
         <v>-1</v>
       </c>
-      <c r="BS194">
+      <c r="BT194">
         <v>5150.333333333333</v>
       </c>
-      <c r="BT194">
+      <c r="BU194">
         <v>14442.33333333333</v>
       </c>
-      <c r="BU194">
+      <c r="BV194">
         <v>284701</v>
       </c>
     </row>
@@ -31385,31 +31969,34 @@
       <c r="AR195">
         <v>57.8</v>
       </c>
-      <c r="BL195">
+      <c r="BM195">
         <v>85.2</v>
       </c>
       <c r="BN195">
+        <v>58.529</v>
+      </c>
+      <c r="BO195">
         <v>250.7376666666667</v>
       </c>
-      <c r="BO195">
+      <c r="BP195">
         <v>244.813</v>
       </c>
-      <c r="BP195">
+      <c r="BQ195">
         <v>18530.5</v>
       </c>
-      <c r="BQ195">
+      <c r="BR195">
         <v>20416.2</v>
       </c>
-      <c r="BR195">
+      <c r="BS195">
         <v>-1</v>
       </c>
-      <c r="BS195">
+      <c r="BT195">
         <v>5173</v>
       </c>
-      <c r="BT195">
+      <c r="BU195">
         <v>14468.66666666667</v>
       </c>
-      <c r="BU195">
+      <c r="BV195">
         <v>293031</v>
       </c>
     </row>
@@ -31546,31 +32133,34 @@
       <c r="AR196">
         <v>57.9</v>
       </c>
-      <c r="BL196">
+      <c r="BM196">
         <v>83.59999999999999</v>
       </c>
       <c r="BN196">
+        <v>57.25</v>
+      </c>
+      <c r="BO196">
         <v>251.7543333333333</v>
       </c>
-      <c r="BO196">
+      <c r="BP196">
         <v>245.793</v>
       </c>
-      <c r="BP196">
+      <c r="BQ196">
         <v>18617.4</v>
       </c>
-      <c r="BQ196">
+      <c r="BR196">
         <v>20593.4</v>
       </c>
-      <c r="BR196">
+      <c r="BS196">
         <v>-1</v>
       </c>
-      <c r="BS196">
+      <c r="BT196">
         <v>5185.333333333333</v>
       </c>
-      <c r="BT196">
+      <c r="BU196">
         <v>14494.33333333333</v>
       </c>
-      <c r="BU196">
+      <c r="BV196">
         <v>291638.3333333333</v>
       </c>
     </row>
@@ -31707,31 +32297,34 @@
       <c r="AR197">
         <v>79.5</v>
       </c>
-      <c r="BL197">
+      <c r="BM197">
         <v>80.8</v>
       </c>
       <c r="BN197">
+        <v>56.916</v>
+      </c>
+      <c r="BO197">
         <v>252.738</v>
       </c>
-      <c r="BO197">
+      <c r="BP197">
         <v>246.681</v>
       </c>
-      <c r="BP197">
+      <c r="BQ197">
         <v>18705.5</v>
       </c>
-      <c r="BQ197">
+      <c r="BR197">
         <v>20789.5</v>
       </c>
-      <c r="BR197">
+      <c r="BS197">
         <v>-1</v>
       </c>
-      <c r="BS197">
+      <c r="BT197">
         <v>5177</v>
       </c>
-      <c r="BT197">
+      <c r="BU197">
         <v>14510</v>
       </c>
-      <c r="BU197">
+      <c r="BV197">
         <v>283060</v>
       </c>
     </row>
@@ -31868,31 +32461,34 @@
       <c r="AR198">
         <v>71.3</v>
       </c>
-      <c r="BL198">
+      <c r="BM198">
         <v>85.3</v>
       </c>
       <c r="BN198">
+        <v>56.061</v>
+      </c>
+      <c r="BO198">
         <v>253.1856666666667</v>
       </c>
-      <c r="BO198">
+      <c r="BP198">
         <v>246.765</v>
       </c>
-      <c r="BP198">
+      <c r="BQ198">
         <v>18794.8</v>
       </c>
-      <c r="BQ198">
+      <c r="BR198">
         <v>20942.1</v>
       </c>
-      <c r="BR198">
+      <c r="BS198">
         <v>-1</v>
       </c>
-      <c r="BS198">
+      <c r="BT198">
         <v>5171.333333333333</v>
       </c>
-      <c r="BT198">
+      <c r="BU198">
         <v>14527.66666666667</v>
       </c>
-      <c r="BU198">
+      <c r="BV198">
         <v>299821.3333333333</v>
       </c>
     </row>
@@ -32029,31 +32625,34 @@
       <c r="AR199">
         <v>61.1</v>
       </c>
-      <c r="BL199">
+      <c r="BM199">
         <v>77.59999999999999</v>
       </c>
       <c r="BN199">
+        <v>54.671</v>
+      </c>
+      <c r="BO199">
         <v>255.3733333333333</v>
       </c>
-      <c r="BO199">
+      <c r="BP199">
         <v>249.0076666666667</v>
       </c>
-      <c r="BP199">
+      <c r="BQ199">
         <v>18885.5</v>
       </c>
-      <c r="BQ199">
+      <c r="BR199">
         <v>21178.4</v>
       </c>
-      <c r="BR199">
+      <c r="BS199">
         <v>-1</v>
       </c>
-      <c r="BS199">
+      <c r="BT199">
         <v>5177.333333333333</v>
       </c>
-      <c r="BT199">
+      <c r="BU199">
         <v>14558.33333333333</v>
       </c>
-      <c r="BU199">
+      <c r="BV199">
         <v>314021</v>
       </c>
     </row>
@@ -32190,31 +32789,34 @@
       <c r="AR200">
         <v>82</v>
       </c>
-      <c r="BL200">
+      <c r="BM200">
         <v>80</v>
       </c>
       <c r="BN200">
+        <v>54.125</v>
+      </c>
+      <c r="BO200">
         <v>256.1916666666667</v>
       </c>
-      <c r="BO200">
+      <c r="BP200">
         <v>249.665</v>
       </c>
-      <c r="BP200">
+      <c r="BQ200">
         <v>18976.5</v>
       </c>
-      <c r="BQ200">
+      <c r="BR200">
         <v>21354.4</v>
       </c>
-      <c r="BR200">
+      <c r="BS200">
         <v>-1</v>
       </c>
-      <c r="BS200">
+      <c r="BT200">
         <v>5218.333333333333</v>
       </c>
-      <c r="BT200">
+      <c r="BU200">
         <v>14590</v>
       </c>
-      <c r="BU200">
+      <c r="BV200">
         <v>311467.6666666667</v>
       </c>
     </row>
@@ -32351,31 +32953,34 @@
       <c r="AR201">
         <v>81.09999999999999</v>
       </c>
-      <c r="BL201">
+      <c r="BM201">
         <v>86.09999999999999</v>
       </c>
       <c r="BN201">
+        <v>53.888</v>
+      </c>
+      <c r="BO201">
         <v>257.8596666666667</v>
       </c>
-      <c r="BO201">
+      <c r="BP201">
         <v>251.4253333333334</v>
       </c>
-      <c r="BP201">
+      <c r="BQ201">
         <v>19065.6</v>
       </c>
-      <c r="BQ201">
+      <c r="BR201">
         <v>21534.6</v>
       </c>
-      <c r="BR201">
+      <c r="BS201">
         <v>1</v>
       </c>
-      <c r="BS201">
+      <c r="BT201">
         <v>5250.333333333333</v>
       </c>
-      <c r="BT201">
+      <c r="BU201">
         <v>14620.33333333333</v>
       </c>
-      <c r="BU201">
+      <c r="BV201">
         <v>312808.6666666667</v>
       </c>
     </row>
@@ -32512,31 +33117,34 @@
       <c r="AR202">
         <v>75.09999999999999</v>
       </c>
-      <c r="BL202">
+      <c r="BM202">
         <v>92.40000000000001</v>
       </c>
       <c r="BN202">
+        <v>56.811</v>
+      </c>
+      <c r="BO202">
         <v>258.5</v>
       </c>
-      <c r="BO202">
+      <c r="BP202">
         <v>251.8853333333333</v>
       </c>
-      <c r="BP202">
+      <c r="BQ202">
         <v>19154</v>
       </c>
-      <c r="BQ202">
+      <c r="BR202">
         <v>21723.5</v>
       </c>
-      <c r="BR202">
+      <c r="BS202">
         <v>1</v>
       </c>
-      <c r="BS202">
+      <c r="BT202">
         <v>5276.333333333333</v>
       </c>
-      <c r="BT202">
+      <c r="BU202">
         <v>14658.33333333333</v>
       </c>
-      <c r="BU202">
+      <c r="BV202">
         <v>328551</v>
       </c>
     </row>
@@ -32727,31 +33335,34 @@
       <c r="BJ203">
         <v>788</v>
       </c>
-      <c r="BL203">
+      <c r="BM203">
         <v>85.09999999999999</v>
       </c>
       <c r="BN203">
+        <v>123.988</v>
+      </c>
+      <c r="BO203">
         <v>256.472</v>
       </c>
-      <c r="BO203">
+      <c r="BP203">
         <v>249.576</v>
       </c>
-      <c r="BP203">
+      <c r="BQ203">
         <v>19242</v>
       </c>
-      <c r="BQ203">
+      <c r="BR203">
         <v>21708.2</v>
       </c>
-      <c r="BR203">
+      <c r="BS203">
         <v>1</v>
       </c>
-      <c r="BS203">
+      <c r="BT203">
         <v>5049.333333333333</v>
       </c>
-      <c r="BT203">
+      <c r="BU203">
         <v>13569.66666666667</v>
       </c>
-      <c r="BU203">
+      <c r="BV203">
         <v>326980</v>
       </c>
     </row>
@@ -32946,33 +33557,36 @@
         <v>3.1</v>
       </c>
       <c r="BL204">
+        <v>106.2</v>
+      </c>
+      <c r="BM204">
         <v>87.90000000000001</v>
       </c>
-      <c r="BM204">
-        <v>106.2</v>
-      </c>
       <c r="BN204">
+        <v>138.57</v>
+      </c>
+      <c r="BO204">
         <v>259.4213333333333</v>
       </c>
-      <c r="BO204">
+      <c r="BP204">
         <v>253.0136666666666</v>
       </c>
-      <c r="BP204">
+      <c r="BQ204">
         <v>19327.3</v>
       </c>
-      <c r="BQ204">
+      <c r="BR204">
         <v>22002.3</v>
       </c>
-      <c r="BR204">
+      <c r="BS204">
         <v>1</v>
       </c>
-      <c r="BS204">
+      <c r="BT204">
         <v>5036.333333333333</v>
       </c>
-      <c r="BT204">
+      <c r="BU204">
         <v>13736.66666666667</v>
       </c>
-      <c r="BU204">
+      <c r="BV204">
         <v>318988.3333333333</v>
       </c>
     </row>
@@ -33167,33 +33781,36 @@
         <v>11</v>
       </c>
       <c r="BL205">
+        <v>35.9</v>
+      </c>
+      <c r="BM205">
         <v>87</v>
       </c>
-      <c r="BM205">
-        <v>35.83333333333334</v>
-      </c>
       <c r="BN205">
+        <v>133.139</v>
+      </c>
+      <c r="BO205">
         <v>260.983</v>
       </c>
-      <c r="BO205">
+      <c r="BP205">
         <v>254.6803333333333</v>
       </c>
-      <c r="BP205">
+      <c r="BQ205">
         <v>19414.2</v>
       </c>
-      <c r="BQ205">
+      <c r="BR205">
         <v>22146</v>
       </c>
-      <c r="BR205">
+      <c r="BS205">
         <v>1</v>
       </c>
-      <c r="BS205">
+      <c r="BT205">
         <v>4935.333333333333</v>
       </c>
-      <c r="BT205">
+      <c r="BU205">
         <v>13655.33333333333</v>
       </c>
-      <c r="BU205">
+      <c r="BV205">
         <v>327773.6666666667</v>
       </c>
     </row>
@@ -33388,33 +34005,36 @@
         <v>18.6</v>
       </c>
       <c r="BL206">
+        <v>1.6</v>
+      </c>
+      <c r="BM206">
         <v>295.1</v>
       </c>
-      <c r="BM206">
-        <v>1.633333333333333</v>
-      </c>
       <c r="BN206">
+        <v>148.855</v>
+      </c>
+      <c r="BO206">
         <v>263.395</v>
       </c>
-      <c r="BO206">
+      <c r="BP206">
         <v>257.3506666666667</v>
       </c>
-      <c r="BP206">
+      <c r="BQ206">
         <v>19502.8</v>
       </c>
-      <c r="BQ206">
+      <c r="BR206">
         <v>22361.5</v>
       </c>
-      <c r="BR206">
+      <c r="BS206">
         <v>1</v>
       </c>
-      <c r="BS206">
+      <c r="BT206">
         <v>4976.666666666667</v>
       </c>
-      <c r="BT206">
+      <c r="BU206">
         <v>13671.33333333333</v>
       </c>
-      <c r="BU206">
+      <c r="BV206">
         <v>323711.6666666667</v>
       </c>
     </row>

--- a/inst/extdata/national_accounts.xlsx
+++ b/inst/extdata/national_accounts.xlsx
@@ -33784,7 +33784,7 @@
         <v>35.9</v>
       </c>
       <c r="BM205">
-        <v>87</v>
+        <v>86.2</v>
       </c>
       <c r="BN205">
         <v>133.139</v>
@@ -33819,118 +33819,118 @@
         <v>44286</v>
       </c>
       <c r="B206">
-        <v>22061</v>
+        <v>22061.5</v>
       </c>
       <c r="C206">
-        <v>19088.1</v>
+        <v>19086.4</v>
       </c>
       <c r="D206">
-        <v>115.613</v>
+        <v>115.63</v>
       </c>
       <c r="E206">
-        <v>15069.2</v>
+        <v>15070.1</v>
       </c>
       <c r="F206">
-        <v>13352.2</v>
+        <v>13353.3</v>
       </c>
       <c r="G206">
-        <v>112.864</v>
+        <v>112.861</v>
       </c>
       <c r="H206">
-        <v>113.15</v>
+        <v>113.165</v>
       </c>
       <c r="I206">
-        <v>119.875</v>
+        <v>119.885</v>
       </c>
       <c r="J206">
-        <v>119.906</v>
+        <v>119.911</v>
       </c>
       <c r="K206">
-        <v>119.773</v>
+        <v>119.809</v>
       </c>
       <c r="L206">
         <v>880.1</v>
       </c>
       <c r="M206">
-        <v>694.4</v>
+        <v>700.1</v>
       </c>
       <c r="N206">
         <v>544.3</v>
       </c>
       <c r="O206">
-        <v>6003.5</v>
+        <v>6010</v>
       </c>
       <c r="P206">
-        <v>114.3</v>
+        <v>114.4</v>
       </c>
       <c r="Q206">
-        <v>2312.7</v>
+        <v>2314.1</v>
       </c>
       <c r="R206">
-        <v>1546</v>
+        <v>1532.1</v>
       </c>
       <c r="S206">
-        <v>347.5</v>
+        <v>355.4</v>
       </c>
       <c r="T206">
-        <v>3946.5</v>
+        <v>3946.7</v>
       </c>
       <c r="U206">
-        <v>1528.1</v>
+        <v>1528.4</v>
       </c>
       <c r="V206">
-        <v>112.86</v>
+        <v>112.857</v>
       </c>
       <c r="W206">
-        <v>1557.2</v>
+        <v>1557.1</v>
       </c>
       <c r="X206">
-        <v>2389.4</v>
+        <v>2389.6</v>
       </c>
       <c r="Y206">
-        <v>1376.2</v>
+        <v>1375.9</v>
       </c>
       <c r="Z206">
         <v>1993.3</v>
       </c>
       <c r="AA206">
-        <v>1757.8</v>
+        <v>1758.2</v>
       </c>
       <c r="AB206">
-        <v>159.8</v>
+        <v>159.9</v>
       </c>
       <c r="AC206">
-        <v>250.9</v>
+        <v>254.1</v>
       </c>
       <c r="AD206">
-        <v>1504.1</v>
+        <v>1504.4</v>
       </c>
       <c r="AE206">
-        <v>5163.2</v>
+        <v>5164</v>
       </c>
       <c r="AF206">
-        <v>785.6</v>
+        <v>786.5</v>
       </c>
       <c r="AG206">
-        <v>555</v>
+        <v>555.9</v>
       </c>
       <c r="AH206">
-        <v>1386.2</v>
+        <v>1372.1</v>
       </c>
       <c r="AI206">
-        <v>96.59999999999999</v>
+        <v>101.2</v>
       </c>
       <c r="AJ206">
         <v>23.9</v>
       </c>
       <c r="AK206">
-        <v>840.3</v>
+        <v>846</v>
       </c>
       <c r="AL206">
-        <v>3219.3</v>
+        <v>3225.2</v>
       </c>
       <c r="AM206">
-        <v>561511</v>
+        <v>562104</v>
       </c>
       <c r="AN206">
         <v>523163</v>
@@ -34008,10 +34008,10 @@
         <v>1.6</v>
       </c>
       <c r="BM206">
-        <v>295.1</v>
+        <v>290.7</v>
       </c>
       <c r="BN206">
-        <v>148.855</v>
+        <v>148.813</v>
       </c>
       <c r="BO206">
         <v>263.395</v>

--- a/inst/extdata/national_accounts.xlsx
+++ b/inst/extdata/national_accounts.xlsx
@@ -33870,7 +33870,7 @@
         <v>115.3</v>
       </c>
       <c r="Q206">
-        <v>2318.7</v>
+        <v>2412.1</v>
       </c>
       <c r="R206">
         <v>1580.1</v>
@@ -33900,7 +33900,7 @@
         <v>2017.1</v>
       </c>
       <c r="AA206">
-        <v>1758.6</v>
+        <v>1851.9</v>
       </c>
       <c r="AB206">
         <v>166.2</v>
@@ -34049,115 +34049,115 @@
         <v>44377</v>
       </c>
       <c r="B207">
-        <v>22722.6</v>
+        <v>22731.4</v>
       </c>
       <c r="C207">
-        <v>19358.2</v>
+        <v>19360.6</v>
       </c>
       <c r="D207">
-        <v>117.519</v>
+        <v>117.547</v>
       </c>
       <c r="E207">
-        <v>15672.6</v>
+        <v>15675.9</v>
       </c>
       <c r="F207">
-        <v>13659.3</v>
+        <v>13660.2</v>
       </c>
       <c r="G207">
-        <v>114.758</v>
+        <v>114.775</v>
       </c>
       <c r="H207">
-        <v>115.176</v>
+        <v>115.19</v>
       </c>
       <c r="I207">
-        <v>121.48</v>
+        <v>121.509</v>
       </c>
       <c r="J207">
-        <v>121.38</v>
+        <v>121.397</v>
       </c>
       <c r="K207">
-        <v>121.95</v>
+        <v>122.035</v>
       </c>
       <c r="L207">
         <v>815.3</v>
       </c>
       <c r="M207">
-        <v>712.9</v>
+        <v>735.5</v>
       </c>
       <c r="N207">
-        <v>482.1</v>
+        <v>480.5</v>
       </c>
       <c r="O207">
-        <v>4237.1</v>
+        <v>4257.9</v>
       </c>
       <c r="P207">
-        <v>115.8</v>
+        <v>116</v>
       </c>
       <c r="Q207">
-        <v>2427.5</v>
+        <v>2550.4</v>
       </c>
       <c r="R207">
-        <v>1640.6</v>
+        <v>1640.2</v>
       </c>
       <c r="S207">
-        <v>308.1333333333333</v>
+        <v>351.7</v>
       </c>
       <c r="T207">
-        <v>4018.9</v>
+        <v>4016</v>
       </c>
       <c r="U207">
-        <v>1562.7</v>
+        <v>1564</v>
       </c>
       <c r="V207">
-        <v>114.739</v>
+        <v>114.756</v>
       </c>
       <c r="W207">
-        <v>1563.6</v>
+        <v>1563.3</v>
       </c>
       <c r="X207">
-        <v>2455.4</v>
+        <v>2452.7</v>
       </c>
       <c r="Y207">
-        <v>1357.6</v>
+        <v>1357.1</v>
       </c>
       <c r="Z207">
-        <v>2021.2</v>
+        <v>2018.5</v>
       </c>
       <c r="AA207">
-        <v>1808.6</v>
+        <v>1927.2</v>
       </c>
       <c r="AB207">
-        <v>177.2</v>
+        <v>177.6</v>
       </c>
       <c r="AC207">
-        <v>227.7333333333333</v>
+        <v>261.2</v>
       </c>
       <c r="AD207">
-        <v>1540.8</v>
+        <v>1542.1</v>
       </c>
       <c r="AE207">
-        <v>3369.2</v>
+        <v>3367.3</v>
       </c>
       <c r="AF207">
         <v>1632.2</v>
       </c>
       <c r="AG207">
-        <v>618.8</v>
+        <v>623.3</v>
       </c>
       <c r="AH207">
-        <v>1463.5</v>
+        <v>1462.6</v>
       </c>
       <c r="AI207">
-        <v>80.36666666666666</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="AJ207">
         <v>21.9</v>
       </c>
       <c r="AK207">
-        <v>867.9</v>
+        <v>890.5</v>
       </c>
       <c r="AL207">
-        <v>3323.2</v>
+        <v>3342.9</v>
       </c>
       <c r="AM207">
         <v>553564</v>
@@ -34169,13 +34169,13 @@
         <v>76702</v>
       </c>
       <c r="AP207">
-        <v>683.7000000000001</v>
+        <v>683.6</v>
       </c>
       <c r="AQ207">
         <v>8.6</v>
       </c>
       <c r="AR207">
-        <v>692.3</v>
+        <v>692.2000000000001</v>
       </c>
       <c r="AS207">
         <v>290.1</v>
@@ -34220,16 +34220,16 @@
         <v>10.6</v>
       </c>
       <c r="BG207">
-        <v>105.1</v>
+        <v>104.5</v>
       </c>
       <c r="BH207">
-        <v>82.40000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="BI207">
-        <v>238</v>
+        <v>237.2</v>
       </c>
       <c r="BJ207">
-        <v>431.3</v>
+        <v>429.7</v>
       </c>
       <c r="BK207">
         <v>5.8</v>
@@ -34241,7 +34241,7 @@
         <v>88.8</v>
       </c>
       <c r="BN207">
-        <v>124.27</v>
+        <v>124.335</v>
       </c>
       <c r="BO207">
         <v>268.788</v>
@@ -34259,13 +34259,13 @@
         <v>-1</v>
       </c>
       <c r="BT207">
-        <v>5031.333333333333</v>
+        <v>5025.666666666667</v>
       </c>
       <c r="BU207">
-        <v>13778.33333333333</v>
+        <v>13773.66666666667</v>
       </c>
       <c r="BV207">
-        <v>324766.5555555556</v>
+        <v>317911</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/national_accounts.xlsx
+++ b/inst/extdata/national_accounts.xlsx
@@ -34049,115 +34049,115 @@
         <v>44377</v>
       </c>
       <c r="B207">
-        <v>22731.4</v>
+        <v>22741</v>
       </c>
       <c r="C207">
-        <v>19360.6</v>
+        <v>19368.3</v>
       </c>
       <c r="D207">
-        <v>117.547</v>
+        <v>117.546</v>
       </c>
       <c r="E207">
-        <v>15675.9</v>
+        <v>15681.7</v>
       </c>
       <c r="F207">
-        <v>13660.2</v>
+        <v>13665.6</v>
       </c>
       <c r="G207">
-        <v>114.775</v>
+        <v>114.772</v>
       </c>
       <c r="H207">
-        <v>115.19</v>
+        <v>115.228</v>
       </c>
       <c r="I207">
-        <v>121.509</v>
+        <v>121.544</v>
       </c>
       <c r="J207">
-        <v>121.397</v>
+        <v>121.425</v>
       </c>
       <c r="K207">
-        <v>122.035</v>
+        <v>122.101</v>
       </c>
       <c r="L207">
         <v>815.3</v>
       </c>
       <c r="M207">
-        <v>735.5</v>
+        <v>730.5</v>
       </c>
       <c r="N207">
-        <v>480.5</v>
+        <v>480.4</v>
       </c>
       <c r="O207">
-        <v>4257.9</v>
+        <v>4257.8</v>
       </c>
       <c r="P207">
         <v>116</v>
       </c>
       <c r="Q207">
-        <v>2550.4</v>
+        <v>2514.8</v>
       </c>
       <c r="R207">
-        <v>1640.2</v>
+        <v>1636.3</v>
       </c>
       <c r="S207">
-        <v>351.7</v>
+        <v>366.9</v>
       </c>
       <c r="T207">
-        <v>4016</v>
+        <v>4015.9</v>
       </c>
       <c r="U207">
-        <v>1564</v>
+        <v>1564.2</v>
       </c>
       <c r="V207">
-        <v>114.756</v>
+        <v>114.753</v>
       </c>
       <c r="W207">
         <v>1563.3</v>
       </c>
       <c r="X207">
-        <v>2452.7</v>
+        <v>2452.6</v>
       </c>
       <c r="Y207">
-        <v>1357.1</v>
+        <v>1356.7</v>
       </c>
       <c r="Z207">
-        <v>2018.5</v>
+        <v>2017.9</v>
       </c>
       <c r="AA207">
-        <v>1927.2</v>
+        <v>1928.3</v>
       </c>
       <c r="AB207">
-        <v>177.6</v>
+        <v>177.8</v>
       </c>
       <c r="AC207">
-        <v>261.2</v>
+        <v>275.1</v>
       </c>
       <c r="AD207">
-        <v>1542.1</v>
+        <v>1542.2</v>
       </c>
       <c r="AE207">
-        <v>3367.3</v>
+        <v>3372.3</v>
       </c>
       <c r="AF207">
         <v>1632.2</v>
       </c>
       <c r="AG207">
-        <v>623.3</v>
+        <v>586.4</v>
       </c>
       <c r="AH207">
-        <v>1462.6</v>
+        <v>1458.5</v>
       </c>
       <c r="AI207">
-        <v>90.59999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AJ207">
         <v>21.9</v>
       </c>
       <c r="AK207">
-        <v>890.5</v>
+        <v>885.5</v>
       </c>
       <c r="AL207">
-        <v>3342.9</v>
+        <v>3337.6</v>
       </c>
       <c r="AM207">
         <v>553564</v>
@@ -34166,16 +34166,16 @@
         <v>520729</v>
       </c>
       <c r="AO207">
-        <v>76702</v>
+        <v>77704</v>
       </c>
       <c r="AP207">
-        <v>683.6</v>
+        <v>697</v>
       </c>
       <c r="AQ207">
         <v>8.6</v>
       </c>
       <c r="AR207">
-        <v>692.2000000000001</v>
+        <v>705.6</v>
       </c>
       <c r="AS207">
         <v>290.1</v>
@@ -34202,7 +34202,7 @@
         <v>12.3</v>
       </c>
       <c r="BA207">
-        <v>1.8</v>
+        <v>14.3</v>
       </c>
       <c r="BB207">
         <v>16</v>
@@ -34238,10 +34238,10 @@
         <v>0.6</v>
       </c>
       <c r="BM207">
-        <v>88.8</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="BN207">
-        <v>124.335</v>
+        <v>128.939</v>
       </c>
       <c r="BO207">
         <v>268.788</v>
@@ -34259,13 +34259,13 @@
         <v>-1</v>
       </c>
       <c r="BT207">
-        <v>5025.666666666667</v>
+        <v>5023</v>
       </c>
       <c r="BU207">
-        <v>13773.66666666667</v>
+        <v>13769.33333333333</v>
       </c>
       <c r="BV207">
-        <v>317911</v>
+        <v>317506.6666666667</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/national_accounts.xlsx
+++ b/inst/extdata/national_accounts.xlsx
@@ -37216,7 +37216,7 @@
         <v>116</v>
       </c>
       <c r="Q207">
-        <v>2514.8</v>
+        <v>2532.5</v>
       </c>
       <c r="R207">
         <v>1636.3</v>
@@ -37228,7 +37228,7 @@
         <v>4015.9</v>
       </c>
       <c r="U207">
-        <v>1564.2</v>
+        <v>1577.7</v>
       </c>
       <c r="V207">
         <v>114.753</v>
@@ -37246,7 +37246,7 @@
         <v>2017.9</v>
       </c>
       <c r="AA207">
-        <v>1928.3</v>
+        <v>1946.1</v>
       </c>
       <c r="AB207">
         <v>177.8</v>
@@ -37255,7 +37255,7 @@
         <v>275.1</v>
       </c>
       <c r="AD207">
-        <v>1542.2</v>
+        <v>1555.7</v>
       </c>
       <c r="AE207">
         <v>3372.3</v>
@@ -37366,7 +37366,7 @@
         <v>128.939</v>
       </c>
       <c r="BO207">
-        <v>10087.8</v>
+        <v>10189.1</v>
       </c>
       <c r="BP207">
         <v>1848.2</v>
@@ -37416,115 +37416,115 @@
         <v>44469</v>
       </c>
       <c r="B208">
-        <v>23173.5</v>
+        <v>23187</v>
       </c>
       <c r="C208">
-        <v>19465.2</v>
+        <v>19469.4</v>
       </c>
       <c r="D208">
-        <v>119.19</v>
+        <v>119.237</v>
       </c>
       <c r="E208">
-        <v>15946.2</v>
+        <v>15952.4</v>
       </c>
       <c r="F208">
-        <v>13719.3</v>
+        <v>13723.7</v>
       </c>
       <c r="G208">
-        <v>116.252</v>
+        <v>116.259</v>
       </c>
       <c r="H208">
-        <v>116.539</v>
+        <v>116.58</v>
       </c>
       <c r="I208">
-        <v>123.305</v>
+        <v>123.542</v>
       </c>
       <c r="J208">
-        <v>122.996</v>
+        <v>123.296</v>
       </c>
       <c r="K208">
-        <v>124.76</v>
+        <v>124.693</v>
       </c>
       <c r="L208">
         <v>826.5</v>
       </c>
       <c r="M208">
-        <v>740</v>
+        <v>786.3</v>
       </c>
       <c r="N208">
-        <v>272.6</v>
+        <v>272.3</v>
       </c>
       <c r="O208">
-        <v>4038.8</v>
+        <v>4080.8</v>
       </c>
       <c r="P208">
         <v>116.8</v>
       </c>
       <c r="Q208">
-        <v>2592.1</v>
+        <v>2619.2</v>
       </c>
       <c r="R208">
-        <v>1658.9</v>
+        <v>1661.6</v>
       </c>
       <c r="S208">
-        <v>334.2666666666667</v>
+        <v>384.5</v>
       </c>
       <c r="T208">
-        <v>4077</v>
+        <v>4083.7</v>
       </c>
       <c r="U208">
-        <v>1594.5</v>
+        <v>1613.5</v>
       </c>
       <c r="V208">
-        <v>116.232</v>
+        <v>116.239</v>
       </c>
       <c r="W208">
-        <v>1562.1</v>
+        <v>1562</v>
       </c>
       <c r="X208">
-        <v>2514.9</v>
+        <v>2521.7</v>
       </c>
       <c r="Y208">
-        <v>1340.4</v>
+        <v>1339.9</v>
       </c>
       <c r="Z208">
-        <v>2039.6</v>
+        <v>2041.1</v>
       </c>
       <c r="AA208">
-        <v>1994.3</v>
+        <v>2019.3</v>
       </c>
       <c r="AB208">
-        <v>173.1</v>
+        <v>173</v>
       </c>
       <c r="AC208">
-        <v>248.8666666666667</v>
+        <v>293.1</v>
       </c>
       <c r="AD208">
-        <v>1572.1</v>
+        <v>1591.1</v>
       </c>
       <c r="AE208">
-        <v>3141.4</v>
+        <v>3136.6</v>
       </c>
       <c r="AF208">
         <v>1057.1</v>
       </c>
       <c r="AG208">
-        <v>597.7000000000001</v>
+        <v>599.9</v>
       </c>
       <c r="AH208">
-        <v>1485.8</v>
+        <v>1488.6</v>
       </c>
       <c r="AI208">
-        <v>85.40000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AJ208">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AK208">
-        <v>897.4</v>
+        <v>944.3</v>
       </c>
       <c r="AL208">
-        <v>3394.2</v>
+        <v>3448</v>
       </c>
       <c r="AM208">
         <v>569606</v>
@@ -37536,7 +37536,7 @@
         <v>72767</v>
       </c>
       <c r="AP208">
-        <v>554.5</v>
+        <v>554.4</v>
       </c>
       <c r="AQ208">
         <v>0.6</v>
@@ -37548,7 +37548,7 @@
         <v>38.9</v>
       </c>
       <c r="AT208">
-        <v>15</v>
+        <v>14.3</v>
       </c>
       <c r="AU208">
         <v>14</v>
@@ -37587,43 +37587,43 @@
         <v>15</v>
       </c>
       <c r="BG208">
-        <v>61.6</v>
+        <v>61.5</v>
       </c>
       <c r="BH208">
-        <v>50.1</v>
+        <v>50</v>
       </c>
       <c r="BI208">
         <v>113.2</v>
       </c>
       <c r="BJ208">
-        <v>230.6</v>
+        <v>230.4</v>
       </c>
       <c r="BK208">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="BL208">
         <v>0.1</v>
       </c>
       <c r="BM208">
-        <v>100.9</v>
+        <v>100.6</v>
       </c>
       <c r="BN208">
-        <v>140.094</v>
+        <v>135.881</v>
       </c>
       <c r="BO208">
-        <v>10327.7</v>
+        <v>10472.4</v>
       </c>
       <c r="BP208">
-        <v>1850.6</v>
+        <v>1854.2</v>
       </c>
       <c r="BQ208">
-        <v>729.3</v>
+        <v>728</v>
       </c>
       <c r="BR208">
-        <v>2949.6</v>
+        <v>2949.8</v>
       </c>
       <c r="BS208">
-        <v>2131.5</v>
+        <v>2440.4</v>
       </c>
       <c r="BT208">
         <v>57</v>
@@ -37647,13 +37647,13 @@
         <v>-1</v>
       </c>
       <c r="CA208">
-        <v>5062.666666666667</v>
+        <v>5069</v>
       </c>
       <c r="CB208">
-        <v>14107</v>
+        <v>14088.33333333333</v>
       </c>
       <c r="CC208">
-        <v>323230.5555555556</v>
+        <v>321326.3333333333</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/national_accounts.xlsx
+++ b/inst/extdata/national_accounts.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CC208"/>
+  <dimension ref="A1:CD208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,40 +732,45 @@
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
+          <t>gftfbdx</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
           <t>ui</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>pcw</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>gdppothq</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>gdppotq</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>recessq</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>lasgova</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>lalgova</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>cpgs</t>
         </is>
@@ -920,27 +925,30 @@
         <v>77.5</v>
       </c>
       <c r="BV2">
+        <v>27088</v>
+      </c>
+      <c r="BW2">
         <v>38.1</v>
       </c>
-      <c r="BW2">
+      <c r="BX2">
         <v>38.3</v>
       </c>
-      <c r="BX2">
+      <c r="BY2">
         <v>4942.2</v>
       </c>
-      <c r="BY2">
+      <c r="BZ2">
         <v>1052.4</v>
       </c>
-      <c r="BZ2">
+      <c r="CA2">
         <v>1</v>
       </c>
-      <c r="CA2">
+      <c r="CB2">
         <v>2613.333333333334</v>
       </c>
-      <c r="CB2">
+      <c r="CC2">
         <v>7048.666666666667</v>
       </c>
-      <c r="CC2">
+      <c r="CD2">
         <v>23545.66666666667</v>
       </c>
     </row>
@@ -1093,27 +1101,30 @@
         <v>81.09999999999999</v>
       </c>
       <c r="BV3">
+        <v>34148</v>
+      </c>
+      <c r="BW3">
         <v>38.63333333333333</v>
       </c>
-      <c r="BW3">
+      <c r="BX3">
         <v>38.83333333333334</v>
       </c>
-      <c r="BX3">
+      <c r="BY3">
         <v>4983.4</v>
       </c>
-      <c r="BY3">
+      <c r="BZ3">
         <v>1076</v>
       </c>
-      <c r="BZ3">
+      <c r="CA3">
         <v>1</v>
       </c>
-      <c r="CA3">
+      <c r="CB3">
         <v>2648.333333333334</v>
       </c>
-      <c r="CB3">
+      <c r="CC3">
         <v>7104.333333333333</v>
       </c>
-      <c r="CC3">
+      <c r="CD3">
         <v>24037</v>
       </c>
     </row>
@@ -1266,27 +1277,30 @@
         <v>81.09999999999999</v>
       </c>
       <c r="BV4">
+        <v>31952</v>
+      </c>
+      <c r="BW4">
         <v>39.03333333333333</v>
       </c>
-      <c r="BW4">
+      <c r="BX4">
         <v>39.23333333333334</v>
       </c>
-      <c r="BX4">
+      <c r="BY4">
         <v>5023.3</v>
       </c>
-      <c r="BY4">
+      <c r="BZ4">
         <v>1093.5</v>
       </c>
-      <c r="BZ4">
+      <c r="CA4">
         <v>1</v>
       </c>
-      <c r="CA4">
+      <c r="CB4">
         <v>2681.666666666667</v>
       </c>
-      <c r="CB4">
+      <c r="CC4">
         <v>7204.333333333333</v>
       </c>
-      <c r="CC4">
+      <c r="CD4">
         <v>25485.66666666667</v>
       </c>
     </row>
@@ -1439,27 +1453,30 @@
         <v>76.90000000000001</v>
       </c>
       <c r="BV5">
+        <v>32332</v>
+      </c>
+      <c r="BW5">
         <v>39.6</v>
       </c>
-      <c r="BW5">
+      <c r="BX5">
         <v>39.8</v>
       </c>
-      <c r="BX5">
+      <c r="BY5">
         <v>5062.2</v>
       </c>
-      <c r="BY5">
+      <c r="BZ5">
         <v>1116.5</v>
       </c>
-      <c r="BZ5">
+      <c r="CA5">
         <v>1</v>
       </c>
-      <c r="CA5">
+      <c r="CB5">
         <v>2716.333333333334</v>
       </c>
-      <c r="CB5">
+      <c r="CC5">
         <v>7279.333333333333</v>
       </c>
-      <c r="CC5">
+      <c r="CD5">
         <v>25754.66666666667</v>
       </c>
     </row>
@@ -1612,27 +1629,30 @@
         <v>89.09999999999999</v>
       </c>
       <c r="BV6">
+        <v>32820</v>
+      </c>
+      <c r="BW6">
         <v>39.93333333333333</v>
       </c>
-      <c r="BW6">
+      <c r="BX6">
         <v>40.16666666666667</v>
       </c>
-      <c r="BX6">
+      <c r="BY6">
         <v>5101.1</v>
       </c>
-      <c r="BY6">
+      <c r="BZ6">
         <v>1142.2</v>
       </c>
-      <c r="BZ6">
+      <c r="CA6">
         <v>-1</v>
       </c>
-      <c r="CA6">
+      <c r="CB6">
         <v>2719.333333333334</v>
       </c>
-      <c r="CB6">
+      <c r="CC6">
         <v>7353.333333333333</v>
       </c>
-      <c r="CC6">
+      <c r="CD6">
         <v>25713</v>
       </c>
     </row>
@@ -1785,27 +1805,30 @@
         <v>90.8</v>
       </c>
       <c r="BV7">
+        <v>38700</v>
+      </c>
+      <c r="BW7">
         <v>40.3</v>
       </c>
-      <c r="BW7">
+      <c r="BX7">
         <v>40.53333333333334</v>
       </c>
-      <c r="BX7">
+      <c r="BY7">
         <v>5140.8</v>
       </c>
-      <c r="BY7">
+      <c r="BZ7">
         <v>1166.2</v>
       </c>
-      <c r="BZ7">
+      <c r="CA7">
         <v>-1</v>
       </c>
-      <c r="CA7">
+      <c r="CB7">
         <v>2739.666666666667</v>
       </c>
-      <c r="CB7">
+      <c r="CC7">
         <v>7419.666666666667</v>
       </c>
-      <c r="CC7">
+      <c r="CD7">
         <v>25998.66666666667</v>
       </c>
     </row>
@@ -1958,27 +1981,30 @@
         <v>93.7</v>
       </c>
       <c r="BV8">
+        <v>37216</v>
+      </c>
+      <c r="BW8">
         <v>40.7</v>
       </c>
-      <c r="BW8">
+      <c r="BX8">
         <v>40.96666666666667</v>
       </c>
-      <c r="BX8">
+      <c r="BY8">
         <v>5181</v>
       </c>
-      <c r="BY8">
+      <c r="BZ8">
         <v>1187.3</v>
       </c>
-      <c r="BZ8">
+      <c r="CA8">
         <v>-1</v>
       </c>
-      <c r="CA8">
+      <c r="CB8">
         <v>2751.666666666667</v>
       </c>
-      <c r="CB8">
+      <c r="CC8">
         <v>7443.666666666667</v>
       </c>
-      <c r="CC8">
+      <c r="CD8">
         <v>25691</v>
       </c>
     </row>
@@ -2131,27 +2157,30 @@
         <v>97.59999999999999</v>
       </c>
       <c r="BV9">
+        <v>37732</v>
+      </c>
+      <c r="BW9">
         <v>41</v>
       </c>
-      <c r="BW9">
+      <c r="BX9">
         <v>41.23333333333334</v>
       </c>
-      <c r="BX9">
+      <c r="BY9">
         <v>5221.9</v>
       </c>
-      <c r="BY9">
+      <c r="BZ9">
         <v>1206.6</v>
       </c>
-      <c r="BZ9">
+      <c r="CA9">
         <v>-1</v>
       </c>
-      <c r="CA9">
+      <c r="CB9">
         <v>2781</v>
       </c>
-      <c r="CB9">
+      <c r="CC9">
         <v>7534</v>
       </c>
-      <c r="CC9">
+      <c r="CD9">
         <v>26178.66666666667</v>
       </c>
     </row>
@@ -2304,27 +2333,30 @@
         <v>102.7</v>
       </c>
       <c r="BV10">
+        <v>38284</v>
+      </c>
+      <c r="BW10">
         <v>41.33333333333334</v>
       </c>
-      <c r="BW10">
+      <c r="BX10">
         <v>41.6</v>
       </c>
-      <c r="BX10">
+      <c r="BY10">
         <v>5263.6</v>
       </c>
-      <c r="BY10">
+      <c r="BZ10">
         <v>1234.7</v>
       </c>
-      <c r="BZ10">
+      <c r="CA10">
         <v>-1</v>
       </c>
-      <c r="CA10">
+      <c r="CB10">
         <v>2815</v>
       </c>
-      <c r="CB10">
+      <c r="CC10">
         <v>7651.666666666667</v>
       </c>
-      <c r="CC10">
+      <c r="CD10">
         <v>25519</v>
       </c>
     </row>
@@ -2477,27 +2509,30 @@
         <v>104.3</v>
       </c>
       <c r="BV11">
+        <v>38748</v>
+      </c>
+      <c r="BW11">
         <v>41.6</v>
       </c>
-      <c r="BW11">
+      <c r="BX11">
         <v>41.8</v>
       </c>
-      <c r="BX11">
+      <c r="BY11">
         <v>5305.9</v>
       </c>
-      <c r="BY11">
+      <c r="BZ11">
         <v>1252.4</v>
       </c>
-      <c r="BZ11">
+      <c r="CA11">
         <v>-1</v>
       </c>
-      <c r="CA11">
+      <c r="CB11">
         <v>2849</v>
       </c>
-      <c r="CB11">
+      <c r="CC11">
         <v>7726.333333333333</v>
       </c>
-      <c r="CC11">
+      <c r="CD11">
         <v>24875</v>
       </c>
     </row>
@@ -2650,27 +2685,30 @@
         <v>108.2</v>
       </c>
       <c r="BV12">
+        <v>39284</v>
+      </c>
+      <c r="BW12">
         <v>41.93333333333333</v>
       </c>
-      <c r="BW12">
+      <c r="BX12">
         <v>42.2</v>
       </c>
-      <c r="BX12">
+      <c r="BY12">
         <v>5348.8</v>
       </c>
-      <c r="BY12">
+      <c r="BZ12">
         <v>1274.7</v>
       </c>
-      <c r="BZ12">
+      <c r="CA12">
         <v>-1</v>
       </c>
-      <c r="CA12">
+      <c r="CB12">
         <v>2874</v>
       </c>
-      <c r="CB12">
+      <c r="CC12">
         <v>7855</v>
       </c>
-      <c r="CC12">
+      <c r="CD12">
         <v>25641</v>
       </c>
     </row>
@@ -2823,27 +2861,30 @@
         <v>115.5</v>
       </c>
       <c r="BV13">
+        <v>47476</v>
+      </c>
+      <c r="BW13">
         <v>42.36666666666667</v>
       </c>
-      <c r="BW13">
+      <c r="BX13">
         <v>42.63333333333333</v>
       </c>
-      <c r="BX13">
+      <c r="BY13">
         <v>5392.4</v>
       </c>
-      <c r="BY13">
+      <c r="BZ13">
         <v>1301.4</v>
       </c>
-      <c r="BZ13">
+      <c r="CA13">
         <v>-1</v>
       </c>
-      <c r="CA13">
+      <c r="CB13">
         <v>2901.333333333334</v>
       </c>
-      <c r="CB13">
+      <c r="CC13">
         <v>7931.333333333333</v>
       </c>
-      <c r="CC13">
+      <c r="CD13">
         <v>27114.33333333333</v>
       </c>
     </row>
@@ -2996,27 +3037,30 @@
         <v>121</v>
       </c>
       <c r="BV14">
+        <v>49096</v>
+      </c>
+      <c r="BW14">
         <v>43.03333333333333</v>
       </c>
-      <c r="BW14">
+      <c r="BX14">
         <v>43.26666666666667</v>
       </c>
-      <c r="BX14">
+      <c r="BY14">
         <v>5437</v>
       </c>
-      <c r="BY14">
+      <c r="BZ14">
         <v>1327.3</v>
       </c>
-      <c r="BZ14">
+      <c r="CA14">
         <v>-1</v>
       </c>
-      <c r="CA14">
+      <c r="CB14">
         <v>2899.666666666667</v>
       </c>
-      <c r="CB14">
+      <c r="CC14">
         <v>8016</v>
       </c>
-      <c r="CC14">
+      <c r="CD14">
         <v>27472.66666666667</v>
       </c>
     </row>
@@ -3169,27 +3213,30 @@
         <v>117.2</v>
       </c>
       <c r="BV15">
+        <v>50332</v>
+      </c>
+      <c r="BW15">
         <v>43.93333333333334</v>
       </c>
-      <c r="BW15">
+      <c r="BX15">
         <v>44.16666666666666</v>
       </c>
-      <c r="BX15">
+      <c r="BY15">
         <v>5483.8</v>
       </c>
-      <c r="BY15">
+      <c r="BZ15">
         <v>1359.3</v>
       </c>
-      <c r="BZ15">
+      <c r="CA15">
         <v>-1</v>
       </c>
-      <c r="CA15">
+      <c r="CB15">
         <v>2911.666666666667</v>
       </c>
-      <c r="CB15">
+      <c r="CC15">
         <v>8115</v>
       </c>
-      <c r="CC15">
+      <c r="CD15">
         <v>27079.33333333333</v>
       </c>
     </row>
@@ -3342,27 +3389,30 @@
         <v>116.6</v>
       </c>
       <c r="BV16">
+        <v>51216</v>
+      </c>
+      <c r="BW16">
         <v>44.8</v>
       </c>
-      <c r="BW16">
+      <c r="BX16">
         <v>45.06666666666666</v>
       </c>
-      <c r="BX16">
+      <c r="BY16">
         <v>5531.1</v>
       </c>
-      <c r="BY16">
+      <c r="BZ16">
         <v>1397.7</v>
       </c>
-      <c r="BZ16">
+      <c r="CA16">
         <v>-1</v>
       </c>
-      <c r="CA16">
+      <c r="CB16">
         <v>2926.333333333334</v>
       </c>
-      <c r="CB16">
+      <c r="CC16">
         <v>8183.666666666667</v>
       </c>
-      <c r="CC16">
+      <c r="CD16">
         <v>27510</v>
       </c>
     </row>
@@ -3515,27 +3565,30 @@
         <v>119.1</v>
       </c>
       <c r="BV17">
+        <v>52016</v>
+      </c>
+      <c r="BW17">
         <v>45.93333333333333</v>
       </c>
-      <c r="BW17">
+      <c r="BX17">
         <v>46.16666666666666</v>
       </c>
-      <c r="BX17">
+      <c r="BY17">
         <v>5579.5</v>
       </c>
-      <c r="BY17">
+      <c r="BZ17">
         <v>1438</v>
       </c>
-      <c r="BZ17">
+      <c r="CA17">
         <v>1</v>
       </c>
-      <c r="CA17">
+      <c r="CB17">
         <v>2953.333333333334</v>
       </c>
-      <c r="CB17">
+      <c r="CC17">
         <v>8272.333333333334</v>
       </c>
-      <c r="CC17">
+      <c r="CD17">
         <v>28620</v>
       </c>
     </row>
@@ -3688,27 +3741,30 @@
         <v>111.1</v>
       </c>
       <c r="BV18">
+        <v>52464</v>
+      </c>
+      <c r="BW18">
         <v>47.3</v>
       </c>
-      <c r="BW18">
+      <c r="BX18">
         <v>47.56666666666666</v>
       </c>
-      <c r="BX18">
+      <c r="BY18">
         <v>5628.5</v>
       </c>
-      <c r="BY18">
+      <c r="BZ18">
         <v>1478</v>
       </c>
-      <c r="BZ18">
+      <c r="CA18">
         <v>1</v>
       </c>
-      <c r="CA18">
+      <c r="CB18">
         <v>2988.666666666667</v>
       </c>
-      <c r="CB18">
+      <c r="CC18">
         <v>8307.666666666666</v>
       </c>
-      <c r="CC18">
+      <c r="CD18">
         <v>30923.66666666667</v>
       </c>
     </row>
@@ -3861,27 +3917,30 @@
         <v>110.8</v>
       </c>
       <c r="BV19">
+        <v>56916</v>
+      </c>
+      <c r="BW19">
         <v>48.56666666666667</v>
       </c>
-      <c r="BW19">
+      <c r="BX19">
         <v>48.76666666666667</v>
       </c>
-      <c r="BX19">
+      <c r="BY19">
         <v>5677.8</v>
       </c>
-      <c r="BY19">
+      <c r="BZ19">
         <v>1526.2</v>
       </c>
-      <c r="BZ19">
+      <c r="CA19">
         <v>1</v>
       </c>
-      <c r="CA19">
+      <c r="CB19">
         <v>3018</v>
       </c>
-      <c r="CB19">
+      <c r="CC19">
         <v>8346.333333333334</v>
       </c>
-      <c r="CC19">
+      <c r="CD19">
         <v>33400.66666666666</v>
       </c>
     </row>
@@ -4034,27 +4093,30 @@
         <v>107.3</v>
       </c>
       <c r="BV20">
+        <v>59804</v>
+      </c>
+      <c r="BW20">
         <v>49.93333333333333</v>
       </c>
-      <c r="BW20">
+      <c r="BX20">
         <v>50.23333333333334</v>
       </c>
-      <c r="BX20">
+      <c r="BY20">
         <v>5726.5</v>
       </c>
-      <c r="BY20">
+      <c r="BZ20">
         <v>1584.4</v>
       </c>
-      <c r="BZ20">
+      <c r="CA20">
         <v>1</v>
       </c>
-      <c r="CA20">
+      <c r="CB20">
         <v>3048.333333333334</v>
       </c>
-      <c r="CB20">
+      <c r="CC20">
         <v>8424.666666666666</v>
       </c>
-      <c r="CC20">
+      <c r="CD20">
         <v>33701.66666666666</v>
       </c>
     </row>
@@ -4207,27 +4269,30 @@
         <v>103.8</v>
       </c>
       <c r="BV21">
+        <v>61244</v>
+      </c>
+      <c r="BW21">
         <v>51.46666666666667</v>
       </c>
-      <c r="BW21">
+      <c r="BX21">
         <v>51.76666666666667</v>
       </c>
-      <c r="BX21">
+      <c r="BY21">
         <v>5774.5</v>
       </c>
-      <c r="BY21">
+      <c r="BZ21">
         <v>1644.7</v>
       </c>
-      <c r="BZ21">
+      <c r="CA21">
         <v>1</v>
       </c>
-      <c r="CA21">
+      <c r="CB21">
         <v>3099</v>
       </c>
-      <c r="CB21">
+      <c r="CC21">
         <v>8551.333333333334</v>
       </c>
-      <c r="CC21">
+      <c r="CD21">
         <v>33884</v>
       </c>
     </row>
@@ -4380,27 +4445,30 @@
         <v>103.9</v>
       </c>
       <c r="BV22">
+        <v>62000</v>
+      </c>
+      <c r="BW22">
         <v>52.56666666666666</v>
       </c>
-      <c r="BW22">
+      <c r="BX22">
         <v>52.86666666666667</v>
       </c>
-      <c r="BX22">
+      <c r="BY22">
         <v>5821.2</v>
       </c>
-      <c r="BY22">
+      <c r="BZ22">
         <v>1695.6</v>
       </c>
-      <c r="BZ22">
+      <c r="CA22">
         <v>1</v>
       </c>
-      <c r="CA22">
+      <c r="CB22">
         <v>3161.666666666667</v>
       </c>
-      <c r="CB22">
+      <c r="CC22">
         <v>8673</v>
       </c>
-      <c r="CC22">
+      <c r="CD22">
         <v>37820.33333333334</v>
       </c>
     </row>
@@ -4553,27 +4621,30 @@
         <v>115.6</v>
       </c>
       <c r="BV23">
+        <v>62888</v>
+      </c>
+      <c r="BW23">
         <v>53.2</v>
       </c>
-      <c r="BW23">
+      <c r="BX23">
         <v>53.5</v>
       </c>
-      <c r="BX23">
+      <c r="BY23">
         <v>5866.9</v>
       </c>
-      <c r="BY23">
+      <c r="BZ23">
         <v>1734.4</v>
       </c>
-      <c r="BZ23">
+      <c r="CA23">
         <v>-1</v>
       </c>
-      <c r="CA23">
+      <c r="CB23">
         <v>3177.333333333334</v>
       </c>
-      <c r="CB23">
+      <c r="CC23">
         <v>8751.333333333334</v>
       </c>
-      <c r="CC23">
+      <c r="CD23">
         <v>35429.66666666666</v>
       </c>
     </row>
@@ -4726,27 +4797,30 @@
         <v>135.4</v>
       </c>
       <c r="BV24">
+        <v>69012</v>
+      </c>
+      <c r="BW24">
         <v>54.26666666666667</v>
       </c>
-      <c r="BW24">
+      <c r="BX24">
         <v>54.56666666666666</v>
       </c>
-      <c r="BX24">
+      <c r="BY24">
         <v>5912.2</v>
       </c>
-      <c r="BY24">
+      <c r="BZ24">
         <v>1778.6</v>
       </c>
-      <c r="BZ24">
+      <c r="CA24">
         <v>-1</v>
       </c>
-      <c r="CA24">
+      <c r="CB24">
         <v>3178</v>
       </c>
-      <c r="CB24">
+      <c r="CC24">
         <v>8786.333333333334</v>
       </c>
-      <c r="CC24">
+      <c r="CD24">
         <v>36988.33333333334</v>
       </c>
     </row>
@@ -4899,27 +4973,30 @@
         <v>142</v>
       </c>
       <c r="BV25">
+        <v>69680</v>
+      </c>
+      <c r="BW25">
         <v>55.26666666666667</v>
       </c>
-      <c r="BW25">
+      <c r="BX25">
         <v>55.56666666666667</v>
       </c>
-      <c r="BX25">
+      <c r="BY25">
         <v>5957.5</v>
       </c>
-      <c r="BY25">
+      <c r="BZ25">
         <v>1822.2</v>
       </c>
-      <c r="BZ25">
+      <c r="CA25">
         <v>-1</v>
       </c>
-      <c r="CA25">
+      <c r="CB25">
         <v>3197.333333333334</v>
       </c>
-      <c r="CB25">
+      <c r="CC25">
         <v>8824.666666666666</v>
       </c>
-      <c r="CC25">
+      <c r="CD25">
         <v>39554</v>
       </c>
     </row>
@@ -5072,27 +5149,30 @@
         <v>159.1</v>
       </c>
       <c r="BV26">
+        <v>70960</v>
+      </c>
+      <c r="BW26">
         <v>55.9</v>
       </c>
-      <c r="BW26">
+      <c r="BX26">
         <v>56.23333333333333</v>
       </c>
-      <c r="BX26">
+      <c r="BY26">
         <v>6002.8</v>
       </c>
-      <c r="BY26">
+      <c r="BZ26">
         <v>1855.5</v>
       </c>
-      <c r="BZ26">
+      <c r="CA26">
         <v>-1</v>
       </c>
-      <c r="CA26">
+      <c r="CB26">
         <v>3214.333333333334</v>
       </c>
-      <c r="CB26">
+      <c r="CC26">
         <v>8883</v>
       </c>
-      <c r="CC26">
+      <c r="CD26">
         <v>42554</v>
       </c>
     </row>
@@ -5245,27 +5325,30 @@
         <v>156.6</v>
       </c>
       <c r="BV27">
+        <v>71416</v>
+      </c>
+      <c r="BW27">
         <v>56.4</v>
       </c>
-      <c r="BW27">
+      <c r="BX27">
         <v>56.73333333333333</v>
       </c>
-      <c r="BX27">
+      <c r="BY27">
         <v>6048.8</v>
       </c>
-      <c r="BY27">
+      <c r="BZ27">
         <v>1888.6</v>
       </c>
-      <c r="BZ27">
+      <c r="CA27">
         <v>-1</v>
       </c>
-      <c r="CA27">
+      <c r="CB27">
         <v>3241.666666666667</v>
       </c>
-      <c r="CB27">
+      <c r="CC27">
         <v>8868.666666666666</v>
       </c>
-      <c r="CC27">
+      <c r="CD27">
         <v>38830.66666666666</v>
       </c>
     </row>
@@ -5418,27 +5501,30 @@
         <v>158.4</v>
       </c>
       <c r="BV28">
+        <v>76996</v>
+      </c>
+      <c r="BW28">
         <v>57.3</v>
       </c>
-      <c r="BW28">
+      <c r="BX28">
         <v>57.6</v>
       </c>
-      <c r="BX28">
+      <c r="BY28">
         <v>6096.3</v>
       </c>
-      <c r="BY28">
+      <c r="BZ28">
         <v>1928</v>
       </c>
-      <c r="BZ28">
+      <c r="CA28">
         <v>-1</v>
       </c>
-      <c r="CA28">
+      <c r="CB28">
         <v>3290.666666666667</v>
       </c>
-      <c r="CB28">
+      <c r="CC28">
         <v>8845</v>
       </c>
-      <c r="CC28">
+      <c r="CD28">
         <v>36130</v>
       </c>
     </row>
@@ -5591,27 +5677,30 @@
         <v>157.1</v>
       </c>
       <c r="BV29">
+        <v>78632</v>
+      </c>
+      <c r="BW29">
         <v>58.13333333333333</v>
       </c>
-      <c r="BW29">
+      <c r="BX29">
         <v>58.43333333333334</v>
       </c>
-      <c r="BX29">
+      <c r="BY29">
         <v>6144.6</v>
       </c>
-      <c r="BY29">
+      <c r="BZ29">
         <v>1978.1</v>
       </c>
-      <c r="BZ29">
+      <c r="CA29">
         <v>-1</v>
       </c>
-      <c r="CA29">
+      <c r="CB29">
         <v>3342</v>
       </c>
-      <c r="CB29">
+      <c r="CC29">
         <v>8861</v>
       </c>
-      <c r="CC29">
+      <c r="CD29">
         <v>34359.66666666666</v>
       </c>
     </row>
@@ -5764,27 +5853,30 @@
         <v>165</v>
       </c>
       <c r="BV30">
+        <v>79228</v>
+      </c>
+      <c r="BW30">
         <v>59.2</v>
       </c>
-      <c r="BW30">
+      <c r="BX30">
         <v>59.53333333333333</v>
       </c>
-      <c r="BX30">
+      <c r="BY30">
         <v>6194.4</v>
       </c>
-      <c r="BY30">
+      <c r="BZ30">
         <v>2026.2</v>
       </c>
-      <c r="BZ30">
+      <c r="CA30">
         <v>-1</v>
       </c>
-      <c r="CA30">
+      <c r="CB30">
         <v>3341.333333333334</v>
       </c>
-      <c r="CB30">
+      <c r="CC30">
         <v>8860.666666666666</v>
       </c>
-      <c r="CC30">
+      <c r="CD30">
         <v>36034</v>
       </c>
     </row>
@@ -5937,27 +6029,30 @@
         <v>185.7</v>
       </c>
       <c r="BV31">
+        <v>80364</v>
+      </c>
+      <c r="BW31">
         <v>60.23333333333333</v>
       </c>
-      <c r="BW31">
+      <c r="BX31">
         <v>60.6</v>
       </c>
-      <c r="BX31">
+      <c r="BY31">
         <v>6245.4</v>
       </c>
-      <c r="BY31">
+      <c r="BZ31">
         <v>2071.7</v>
       </c>
-      <c r="BZ31">
+      <c r="CA31">
         <v>-1</v>
       </c>
-      <c r="CA31">
+      <c r="CB31">
         <v>3374.666666666667</v>
       </c>
-      <c r="CB31">
+      <c r="CC31">
         <v>8907.333333333334</v>
       </c>
-      <c r="CC31">
+      <c r="CD31">
         <v>37037.66666666666</v>
       </c>
     </row>
@@ -6110,27 +6205,30 @@
         <v>199.9</v>
       </c>
       <c r="BV32">
+        <v>86256</v>
+      </c>
+      <c r="BW32">
         <v>61.06666666666666</v>
       </c>
-      <c r="BW32">
+      <c r="BX32">
         <v>61.43333333333334</v>
       </c>
-      <c r="BX32">
+      <c r="BY32">
         <v>6297.2</v>
       </c>
-      <c r="BY32">
+      <c r="BZ32">
         <v>2114.4</v>
       </c>
-      <c r="BZ32">
+      <c r="CA32">
         <v>-1</v>
       </c>
-      <c r="CA32">
+      <c r="CB32">
         <v>3385</v>
       </c>
-      <c r="CB32">
+      <c r="CC32">
         <v>9099.333333333334</v>
       </c>
-      <c r="CC32">
+      <c r="CD32">
         <v>35666.33333333334</v>
       </c>
     </row>
@@ -6283,27 +6381,30 @@
         <v>196.1</v>
       </c>
       <c r="BV33">
+        <v>87108</v>
+      </c>
+      <c r="BW33">
         <v>61.96666666666667</v>
       </c>
-      <c r="BW33">
+      <c r="BX33">
         <v>62.26666666666666</v>
       </c>
-      <c r="BX33">
+      <c r="BY33">
         <v>6350.4</v>
       </c>
-      <c r="BY33">
+      <c r="BZ33">
         <v>2178.3</v>
       </c>
-      <c r="BZ33">
+      <c r="CA33">
         <v>-1</v>
       </c>
-      <c r="CA33">
+      <c r="CB33">
         <v>3404.666666666667</v>
       </c>
-      <c r="CB33">
+      <c r="CC33">
         <v>9231</v>
       </c>
-      <c r="CC33">
+      <c r="CD33">
         <v>35160</v>
       </c>
     </row>
@@ -6456,27 +6557,30 @@
         <v>187.5</v>
       </c>
       <c r="BV34">
+        <v>87776</v>
+      </c>
+      <c r="BW34">
         <v>63.03333333333333</v>
       </c>
-      <c r="BW34">
+      <c r="BX34">
         <v>63.36666666666667</v>
       </c>
-      <c r="BX34">
+      <c r="BY34">
         <v>6404.9</v>
       </c>
-      <c r="BY34">
+      <c r="BZ34">
         <v>2229</v>
       </c>
-      <c r="BZ34">
+      <c r="CA34">
         <v>-1</v>
       </c>
-      <c r="CA34">
+      <c r="CB34">
         <v>3442.333333333334</v>
       </c>
-      <c r="CB34">
+      <c r="CC34">
         <v>9348.333333333334</v>
       </c>
-      <c r="CC34">
+      <c r="CD34">
         <v>34095.33333333334</v>
       </c>
     </row>
@@ -6629,27 +6733,30 @@
         <v>220</v>
       </c>
       <c r="BV35">
+        <v>87912</v>
+      </c>
+      <c r="BW35">
         <v>64.46666666666667</v>
       </c>
-      <c r="BW35">
+      <c r="BX35">
         <v>64.76666666666667</v>
       </c>
-      <c r="BX35">
+      <c r="BY35">
         <v>6460.6</v>
       </c>
-      <c r="BY35">
+      <c r="BZ35">
         <v>2291.2</v>
       </c>
-      <c r="BZ35">
+      <c r="CA35">
         <v>-1</v>
       </c>
-      <c r="CA35">
+      <c r="CB35">
         <v>3479</v>
       </c>
-      <c r="CB35">
+      <c r="CC35">
         <v>9466</v>
       </c>
-      <c r="CC35">
+      <c r="CD35">
         <v>41889.66666666666</v>
       </c>
     </row>
@@ -6802,27 +6909,30 @@
         <v>223.8</v>
       </c>
       <c r="BV36">
+        <v>94276</v>
+      </c>
+      <c r="BW36">
         <v>65.96666666666667</v>
       </c>
-      <c r="BW36">
+      <c r="BX36">
         <v>66.23333333333333</v>
       </c>
-      <c r="BX36">
+      <c r="BY36">
         <v>6517.8</v>
       </c>
-      <c r="BY36">
+      <c r="BZ36">
         <v>2350.9</v>
       </c>
-      <c r="BZ36">
+      <c r="CA36">
         <v>-1</v>
       </c>
-      <c r="CA36">
+      <c r="CB36">
         <v>3477.333333333334</v>
       </c>
-      <c r="CB36">
+      <c r="CC36">
         <v>9492.333333333334</v>
       </c>
-      <c r="CC36">
+      <c r="CD36">
         <v>43760.66666666666</v>
       </c>
     </row>
@@ -6975,27 +7085,30 @@
         <v>231.5</v>
       </c>
       <c r="BV37">
+        <v>95556</v>
+      </c>
+      <c r="BW37">
         <v>67.5</v>
       </c>
-      <c r="BW37">
+      <c r="BX37">
         <v>67.83333333333333</v>
       </c>
-      <c r="BX37">
+      <c r="BY37">
         <v>6576</v>
       </c>
-      <c r="BY37">
+      <c r="BZ37">
         <v>2420.3</v>
       </c>
-      <c r="BZ37">
+      <c r="CA37">
         <v>-1</v>
       </c>
-      <c r="CA37">
+      <c r="CB37">
         <v>3494</v>
       </c>
-      <c r="CB37">
+      <c r="CC37">
         <v>9482.666666666666</v>
       </c>
-      <c r="CC37">
+      <c r="CD37">
         <v>45015.33333333334</v>
       </c>
     </row>
@@ -7148,27 +7261,30 @@
         <v>221.9</v>
       </c>
       <c r="BV38">
+        <v>96528</v>
+      </c>
+      <c r="BW38">
         <v>69.2</v>
       </c>
-      <c r="BW38">
+      <c r="BX38">
         <v>69.56666666666666</v>
       </c>
-      <c r="BX38">
+      <c r="BY38">
         <v>6635.8</v>
       </c>
-      <c r="BY38">
+      <c r="BZ38">
         <v>2486.9</v>
       </c>
-      <c r="BZ38">
+      <c r="CA38">
         <v>-1</v>
       </c>
-      <c r="CA38">
+      <c r="CB38">
         <v>3504.333333333334</v>
       </c>
-      <c r="CB38">
+      <c r="CC38">
         <v>9531.333333333334</v>
       </c>
-      <c r="CC38">
+      <c r="CD38">
         <v>40794</v>
       </c>
     </row>
@@ -7321,27 +7437,30 @@
         <v>219.4</v>
       </c>
       <c r="BV39">
+        <v>97848</v>
+      </c>
+      <c r="BW39">
         <v>71.40000000000001</v>
       </c>
-      <c r="BW39">
+      <c r="BX39">
         <v>71.89999999999999</v>
       </c>
-      <c r="BX39">
+      <c r="BY39">
         <v>6693.6</v>
       </c>
-      <c r="BY39">
+      <c r="BZ39">
         <v>2569.9</v>
       </c>
-      <c r="BZ39">
+      <c r="CA39">
         <v>-1</v>
       </c>
-      <c r="CA39">
+      <c r="CB39">
         <v>3518</v>
       </c>
-      <c r="CB39">
+      <c r="CC39">
         <v>9604.333333333334</v>
       </c>
-      <c r="CC39">
+      <c r="CD39">
         <v>45875.33333333334</v>
       </c>
     </row>
@@ -7494,27 +7613,30 @@
         <v>211.1</v>
       </c>
       <c r="BV40">
+        <v>107624</v>
+      </c>
+      <c r="BW40">
         <v>73.7</v>
       </c>
-      <c r="BW40">
+      <c r="BX40">
         <v>74.23333333333333</v>
       </c>
-      <c r="BX40">
+      <c r="BY40">
         <v>6748.6</v>
       </c>
-      <c r="BY40">
+      <c r="BZ40">
         <v>2647.7</v>
       </c>
-      <c r="BZ40">
+      <c r="CA40">
         <v>-1</v>
       </c>
-      <c r="CA40">
+      <c r="CB40">
         <v>3560.666666666667</v>
       </c>
-      <c r="CB40">
+      <c r="CC40">
         <v>9710.666666666666</v>
       </c>
-      <c r="CC40">
+      <c r="CD40">
         <v>49343.66666666666</v>
       </c>
     </row>
@@ -7667,27 +7789,30 @@
         <v>205.1</v>
       </c>
       <c r="BV41">
+        <v>108324</v>
+      </c>
+      <c r="BW41">
         <v>76.03333333333333</v>
       </c>
-      <c r="BW41">
+      <c r="BX41">
         <v>76.5</v>
       </c>
-      <c r="BX41">
+      <c r="BY41">
         <v>6800.1</v>
       </c>
-      <c r="BY41">
+      <c r="BZ41">
         <v>2717.5</v>
       </c>
-      <c r="BZ41">
+      <c r="CA41">
         <v>-1</v>
       </c>
-      <c r="CA41">
+      <c r="CB41">
         <v>3579.333333333334</v>
       </c>
-      <c r="CB41">
+      <c r="CC41">
         <v>9697.333333333334</v>
       </c>
-      <c r="CC41">
+      <c r="CD41">
         <v>52609</v>
       </c>
     </row>
@@ -7840,27 +7965,30 @@
         <v>197.2</v>
       </c>
       <c r="BV42">
+        <v>109348</v>
+      </c>
+      <c r="BW42">
         <v>79.03333333333333</v>
       </c>
-      <c r="BW42">
+      <c r="BX42">
         <v>79.5</v>
       </c>
-      <c r="BX42">
+      <c r="BY42">
         <v>6847.5</v>
       </c>
-      <c r="BY42">
+      <c r="BZ42">
         <v>2793.8</v>
       </c>
-      <c r="BZ42">
+      <c r="CA42">
         <v>1</v>
       </c>
-      <c r="CA42">
+      <c r="CB42">
         <v>3582</v>
       </c>
-      <c r="CB42">
+      <c r="CC42">
         <v>9741.333333333334</v>
       </c>
-      <c r="CC42">
+      <c r="CD42">
         <v>55934.33333333334</v>
       </c>
     </row>
@@ -8013,27 +8141,30 @@
         <v>170.2</v>
       </c>
       <c r="BV43">
+        <v>109988</v>
+      </c>
+      <c r="BW43">
         <v>81.7</v>
       </c>
-      <c r="BW43">
+      <c r="BX43">
         <v>82.2</v>
       </c>
-      <c r="BX43">
+      <c r="BY43">
         <v>6890.1</v>
       </c>
-      <c r="BY43">
+      <c r="BZ43">
         <v>2878.2</v>
       </c>
-      <c r="BZ43">
+      <c r="CA43">
         <v>1</v>
       </c>
-      <c r="CA43">
+      <c r="CB43">
         <v>3602.666666666667</v>
       </c>
-      <c r="CB43">
+      <c r="CC43">
         <v>9749.333333333334</v>
       </c>
-      <c r="CC43">
+      <c r="CD43">
         <v>54112</v>
       </c>
     </row>
@@ -8186,27 +8317,30 @@
         <v>179.7</v>
       </c>
       <c r="BV44">
+        <v>126932</v>
+      </c>
+      <c r="BW44">
         <v>83.23333333333333</v>
       </c>
-      <c r="BW44">
+      <c r="BX44">
         <v>83.73333333333333</v>
       </c>
-      <c r="BX44">
+      <c r="BY44">
         <v>6928.1</v>
       </c>
-      <c r="BY44">
+      <c r="BZ44">
         <v>2958.7</v>
       </c>
-      <c r="BZ44">
+      <c r="CA44">
         <v>1</v>
       </c>
-      <c r="CA44">
+      <c r="CB44">
         <v>3624</v>
       </c>
-      <c r="CB44">
+      <c r="CC44">
         <v>9782.333333333334</v>
       </c>
-      <c r="CC44">
+      <c r="CD44">
         <v>52797</v>
       </c>
     </row>
@@ -8359,27 +8493,30 @@
         <v>205.2</v>
       </c>
       <c r="BV45">
+        <v>128076</v>
+      </c>
+      <c r="BW45">
         <v>85.56666666666666</v>
       </c>
-      <c r="BW45">
+      <c r="BX45">
         <v>86.16666666666667</v>
       </c>
-      <c r="BX45">
+      <c r="BY45">
         <v>6968</v>
       </c>
-      <c r="BY45">
+      <c r="BZ45">
         <v>3053.3</v>
       </c>
-      <c r="BZ45">
+      <c r="CA45">
         <v>-1</v>
       </c>
-      <c r="CA45">
+      <c r="CB45">
         <v>3630.666666666667</v>
       </c>
-      <c r="CB45">
+      <c r="CC45">
         <v>9793</v>
       </c>
-      <c r="CC45">
+      <c r="CD45">
         <v>54381</v>
       </c>
     </row>
@@ -8532,27 +8669,30 @@
         <v>214.2</v>
       </c>
       <c r="BV46">
+        <v>130716</v>
+      </c>
+      <c r="BW46">
         <v>87.93333333333334</v>
       </c>
-      <c r="BW46">
+      <c r="BX46">
         <v>88.46666666666665</v>
       </c>
-      <c r="BX46">
+      <c r="BY46">
         <v>7012.1</v>
       </c>
-      <c r="BY46">
+      <c r="BZ46">
         <v>3153.5</v>
       </c>
-      <c r="BZ46">
+      <c r="CA46">
         <v>-1</v>
       </c>
-      <c r="CA46">
+      <c r="CB46">
         <v>3636</v>
       </c>
-      <c r="CB46">
+      <c r="CC46">
         <v>9750.333333333334</v>
       </c>
-      <c r="CC46">
+      <c r="CD46">
         <v>60484</v>
       </c>
     </row>
@@ -8705,27 +8845,30 @@
         <v>213.3</v>
       </c>
       <c r="BV47">
+        <v>131096</v>
+      </c>
+      <c r="BW47">
         <v>89.76666666666667</v>
       </c>
-      <c r="BW47">
+      <c r="BX47">
         <v>90.23333333333335</v>
       </c>
-      <c r="BX47">
+      <c r="BY47">
         <v>7059.3</v>
       </c>
-      <c r="BY47">
+      <c r="BZ47">
         <v>3237.6</v>
       </c>
-      <c r="BZ47">
+      <c r="CA47">
         <v>-1</v>
       </c>
-      <c r="CA47">
+      <c r="CB47">
         <v>3631.666666666667</v>
       </c>
-      <c r="CB47">
+      <c r="CC47">
         <v>9665</v>
       </c>
-      <c r="CC47">
+      <c r="CD47">
         <v>53862</v>
       </c>
     </row>
@@ -8878,27 +9021,30 @@
         <v>230.4</v>
       </c>
       <c r="BV48">
+        <v>146284</v>
+      </c>
+      <c r="BW48">
         <v>92.26666666666667</v>
       </c>
-      <c r="BW48">
+      <c r="BX48">
         <v>92.73333333333333</v>
       </c>
-      <c r="BX48">
+      <c r="BY48">
         <v>7109.1</v>
       </c>
-      <c r="BY48">
+      <c r="BZ48">
         <v>3321.8</v>
       </c>
-      <c r="BZ48">
+      <c r="CA48">
         <v>1</v>
       </c>
-      <c r="CA48">
+      <c r="CB48">
         <v>3640</v>
       </c>
-      <c r="CB48">
+      <c r="CC48">
         <v>9547.666666666666</v>
       </c>
-      <c r="CC48">
+      <c r="CD48">
         <v>52044</v>
       </c>
     </row>
@@ -9051,27 +9197,30 @@
         <v>213.3</v>
       </c>
       <c r="BV49">
+        <v>146480</v>
+      </c>
+      <c r="BW49">
         <v>93.76666666666667</v>
       </c>
-      <c r="BW49">
+      <c r="BX49">
         <v>94.16666666666667</v>
       </c>
-      <c r="BX49">
+      <c r="BY49">
         <v>7161.4</v>
       </c>
-      <c r="BY49">
+      <c r="BZ49">
         <v>3404.1</v>
       </c>
-      <c r="BZ49">
+      <c r="CA49">
         <v>1</v>
       </c>
-      <c r="CA49">
+      <c r="CB49">
         <v>3653</v>
       </c>
-      <c r="CB49">
+      <c r="CC49">
         <v>9507</v>
       </c>
-      <c r="CC49">
+      <c r="CD49">
         <v>54313.66666666666</v>
       </c>
     </row>
@@ -9224,27 +9373,30 @@
         <v>190.2</v>
       </c>
       <c r="BV50">
+        <v>146772</v>
+      </c>
+      <c r="BW50">
         <v>94.60000000000001</v>
       </c>
-      <c r="BW50">
+      <c r="BX50">
         <v>94.96666666666665</v>
       </c>
-      <c r="BX50">
+      <c r="BY50">
         <v>7215.7</v>
       </c>
-      <c r="BY50">
+      <c r="BZ50">
         <v>3477.1</v>
       </c>
-      <c r="BZ50">
+      <c r="CA50">
         <v>1</v>
       </c>
-      <c r="CA50">
+      <c r="CB50">
         <v>3645.666666666667</v>
       </c>
-      <c r="CB50">
+      <c r="CC50">
         <v>9484.333333333334</v>
       </c>
-      <c r="CC50">
+      <c r="CD50">
         <v>51944</v>
       </c>
     </row>
@@ -9397,27 +9549,30 @@
         <v>202.6</v>
       </c>
       <c r="BV51">
+        <v>147528</v>
+      </c>
+      <c r="BW51">
         <v>95.96666666666667</v>
       </c>
-      <c r="BW51">
+      <c r="BX51">
         <v>96.23333333333333</v>
       </c>
-      <c r="BX51">
+      <c r="BY51">
         <v>7271.2</v>
       </c>
-      <c r="BY51">
+      <c r="BZ51">
         <v>3549.4</v>
       </c>
-      <c r="BZ51">
+      <c r="CA51">
         <v>1</v>
       </c>
-      <c r="CA51">
+      <c r="CB51">
         <v>3647.333333333334</v>
       </c>
-      <c r="CB51">
+      <c r="CC51">
         <v>9495.666666666666</v>
       </c>
-      <c r="CC51">
+      <c r="CD51">
         <v>52182.66666666666</v>
       </c>
     </row>
@@ -9570,27 +9725,30 @@
         <v>202.5</v>
       </c>
       <c r="BV52">
+        <v>157636</v>
+      </c>
+      <c r="BW52">
         <v>97.63333333333334</v>
       </c>
-      <c r="BW52">
+      <c r="BX52">
         <v>98</v>
       </c>
-      <c r="BX52">
+      <c r="BY52">
         <v>7327.8</v>
       </c>
-      <c r="BY52">
+      <c r="BZ52">
         <v>3627.7</v>
       </c>
-      <c r="BZ52">
+      <c r="CA52">
         <v>1</v>
       </c>
-      <c r="CA52">
+      <c r="CB52">
         <v>3625.666666666667</v>
       </c>
-      <c r="CB52">
+      <c r="CC52">
         <v>9409.666666666666</v>
       </c>
-      <c r="CC52">
+      <c r="CD52">
         <v>52486.33333333334</v>
       </c>
     </row>
@@ -9743,27 +9901,30 @@
         <v>193.7</v>
       </c>
       <c r="BV53">
+        <v>162896</v>
+      </c>
+      <c r="BW53">
         <v>97.93333333333334</v>
       </c>
-      <c r="BW53">
+      <c r="BX53">
         <v>98.33333333333333</v>
       </c>
-      <c r="BX53">
+      <c r="BY53">
         <v>7385.4</v>
       </c>
-      <c r="BY53">
+      <c r="BZ53">
         <v>3694.2</v>
       </c>
-      <c r="BZ53">
+      <c r="CA53">
         <v>1</v>
       </c>
-      <c r="CA53">
+      <c r="CB53">
         <v>3640.333333333334</v>
       </c>
-      <c r="CB53">
+      <c r="CC53">
         <v>9437</v>
       </c>
-      <c r="CC53">
+      <c r="CD53">
         <v>54765.33333333334</v>
       </c>
     </row>
@@ -9916,27 +10077,30 @@
         <v>211.7</v>
       </c>
       <c r="BV54">
+        <v>162144</v>
+      </c>
+      <c r="BW54">
         <v>98</v>
       </c>
-      <c r="BW54">
+      <c r="BX54">
         <v>98.3</v>
       </c>
-      <c r="BX54">
+      <c r="BY54">
         <v>7443</v>
       </c>
-      <c r="BY54">
+      <c r="BZ54">
         <v>3751</v>
       </c>
-      <c r="BZ54">
+      <c r="CA54">
         <v>-1</v>
       </c>
-      <c r="CA54">
+      <c r="CB54">
         <v>3650.333333333334</v>
       </c>
-      <c r="CB54">
+      <c r="CC54">
         <v>9447.333333333334</v>
       </c>
-      <c r="CC54">
+      <c r="CD54">
         <v>52678.33333333334</v>
       </c>
     </row>
@@ -10089,27 +10253,30 @@
         <v>240.3</v>
       </c>
       <c r="BV55">
+        <v>164008</v>
+      </c>
+      <c r="BW55">
         <v>99.13333333333334</v>
       </c>
-      <c r="BW55">
+      <c r="BX55">
         <v>99.43333333333334</v>
       </c>
-      <c r="BX55">
+      <c r="BY55">
         <v>7501.9</v>
       </c>
-      <c r="BY55">
+      <c r="BZ55">
         <v>3808.7</v>
       </c>
-      <c r="BZ55">
+      <c r="CA55">
         <v>-1</v>
       </c>
-      <c r="CA55">
+      <c r="CB55">
         <v>3656</v>
       </c>
-      <c r="CB55">
+      <c r="CC55">
         <v>9445.333333333334</v>
       </c>
-      <c r="CC55">
+      <c r="CD55">
         <v>51386</v>
       </c>
     </row>
@@ -10262,27 +10429,30 @@
         <v>256.2</v>
       </c>
       <c r="BV56">
+        <v>163980</v>
+      </c>
+      <c r="BW56">
         <v>100.1</v>
       </c>
-      <c r="BW56">
+      <c r="BX56">
         <v>100.4</v>
       </c>
-      <c r="BX56">
+      <c r="BY56">
         <v>7562.5</v>
       </c>
-      <c r="BY56">
+      <c r="BZ56">
         <v>3880.4</v>
       </c>
-      <c r="BZ56">
+      <c r="CA56">
         <v>-1</v>
       </c>
-      <c r="CA56">
+      <c r="CB56">
         <v>3671.333333333334</v>
       </c>
-      <c r="CB56">
+      <c r="CC56">
         <v>9433</v>
       </c>
-      <c r="CC56">
+      <c r="CD56">
         <v>53662.33333333334</v>
       </c>
     </row>
@@ -10435,27 +10605,30 @@
         <v>270.6</v>
       </c>
       <c r="BV57">
+        <v>167572</v>
+      </c>
+      <c r="BW57">
         <v>101.1</v>
       </c>
-      <c r="BW57">
+      <c r="BX57">
         <v>101.1666666666667</v>
       </c>
-      <c r="BX57">
+      <c r="BY57">
         <v>7625.6</v>
       </c>
-      <c r="BY57">
+      <c r="BZ57">
         <v>3942.4</v>
       </c>
-      <c r="BZ57">
+      <c r="CA57">
         <v>-1</v>
       </c>
-      <c r="CA57">
+      <c r="CB57">
         <v>3671.666666666667</v>
       </c>
-      <c r="CB57">
+      <c r="CC57">
         <v>9401.666666666666</v>
       </c>
-      <c r="CC57">
+      <c r="CD57">
         <v>53249</v>
       </c>
     </row>
@@ -10608,27 +10781,30 @@
         <v>302</v>
       </c>
       <c r="BV58">
+        <v>170936</v>
+      </c>
+      <c r="BW58">
         <v>102.5333333333333</v>
       </c>
-      <c r="BW58">
+      <c r="BX58">
         <v>101.9333333333333</v>
       </c>
-      <c r="BX58">
+      <c r="BY58">
         <v>7691.2</v>
       </c>
-      <c r="BY58">
+      <c r="BZ58">
         <v>4016.6</v>
       </c>
-      <c r="BZ58">
+      <c r="CA58">
         <v>-1</v>
       </c>
-      <c r="CA58">
+      <c r="CB58">
         <v>3687</v>
       </c>
-      <c r="CB58">
+      <c r="CC58">
         <v>9412</v>
       </c>
-      <c r="CC58">
+      <c r="CD58">
         <v>55752.33333333334</v>
       </c>
     </row>
@@ -10781,27 +10957,30 @@
         <v>301.8</v>
       </c>
       <c r="BV59">
+        <v>172680</v>
+      </c>
+      <c r="BW59">
         <v>103.5</v>
       </c>
-      <c r="BW59">
+      <c r="BX59">
         <v>102.4666666666667</v>
       </c>
-      <c r="BX59">
+      <c r="BY59">
         <v>7759.3</v>
       </c>
-      <c r="BY59">
+      <c r="BZ59">
         <v>4086.8</v>
       </c>
-      <c r="BZ59">
+      <c r="CA59">
         <v>-1</v>
       </c>
-      <c r="CA59">
+      <c r="CB59">
         <v>3720</v>
       </c>
-      <c r="CB59">
+      <c r="CC59">
         <v>9445.333333333334</v>
       </c>
-      <c r="CC59">
+      <c r="CD59">
         <v>57382.66666666666</v>
       </c>
     </row>
@@ -10954,27 +11133,30 @@
         <v>295.7</v>
       </c>
       <c r="BV60">
+        <v>172444</v>
+      </c>
+      <c r="BW60">
         <v>104.4</v>
       </c>
-      <c r="BW60">
+      <c r="BX60">
         <v>103.9333333333333</v>
       </c>
-      <c r="BX60">
+      <c r="BY60">
         <v>7829</v>
       </c>
-      <c r="BY60">
+      <c r="BZ60">
         <v>4160.2</v>
       </c>
-      <c r="BZ60">
+      <c r="CA60">
         <v>-1</v>
       </c>
-      <c r="CA60">
+      <c r="CB60">
         <v>3758</v>
       </c>
-      <c r="CB60">
+      <c r="CC60">
         <v>9509</v>
       </c>
-      <c r="CC60">
+      <c r="CD60">
         <v>59910.33333333334</v>
       </c>
     </row>
@@ -11127,27 +11309,30 @@
         <v>305.7</v>
       </c>
       <c r="BV61">
+        <v>176048</v>
+      </c>
+      <c r="BW61">
         <v>105.3</v>
       </c>
-      <c r="BW61">
+      <c r="BX61">
         <v>104.8</v>
       </c>
-      <c r="BX61">
+      <c r="BY61">
         <v>7899.9</v>
       </c>
-      <c r="BY61">
+      <c r="BZ61">
         <v>4229.3</v>
       </c>
-      <c r="BZ61">
+      <c r="CA61">
         <v>-1</v>
       </c>
-      <c r="CA61">
+      <c r="CB61">
         <v>3773</v>
       </c>
-      <c r="CB61">
+      <c r="CC61">
         <v>9555</v>
       </c>
-      <c r="CC61">
+      <c r="CD61">
         <v>60890.66666666666</v>
       </c>
     </row>
@@ -11300,27 +11485,30 @@
         <v>312.3</v>
       </c>
       <c r="BV62">
+        <v>181540</v>
+      </c>
+      <c r="BW62">
         <v>106.2666666666667</v>
       </c>
-      <c r="BW62">
+      <c r="BX62">
         <v>105.6666666666667</v>
       </c>
-      <c r="BX62">
+      <c r="BY62">
         <v>7971.2</v>
       </c>
-      <c r="BY62">
+      <c r="BZ62">
         <v>4309.7</v>
       </c>
-      <c r="BZ62">
+      <c r="CA62">
         <v>-1</v>
       </c>
-      <c r="CA62">
+      <c r="CB62">
         <v>3798.333333333334</v>
       </c>
-      <c r="CB62">
+      <c r="CC62">
         <v>9595.666666666666</v>
       </c>
-      <c r="CC62">
+      <c r="CD62">
         <v>62514.66666666666</v>
       </c>
     </row>
@@ -11473,27 +11661,30 @@
         <v>311.6</v>
       </c>
       <c r="BV63">
+        <v>181976</v>
+      </c>
+      <c r="BW63">
         <v>107.2333333333333</v>
       </c>
-      <c r="BW63">
+      <c r="BX63">
         <v>106.6333333333333</v>
       </c>
-      <c r="BX63">
+      <c r="BY63">
         <v>8042.9</v>
       </c>
-      <c r="BY63">
+      <c r="BZ63">
         <v>4376.4</v>
       </c>
-      <c r="BZ63">
+      <c r="CA63">
         <v>-1</v>
       </c>
-      <c r="CA63">
+      <c r="CB63">
         <v>3819.333333333334</v>
       </c>
-      <c r="CB63">
+      <c r="CC63">
         <v>9640.333333333334</v>
       </c>
-      <c r="CC63">
+      <c r="CD63">
         <v>65739.33333333333</v>
       </c>
     </row>
@@ -11646,27 +11837,30 @@
         <v>333.1</v>
       </c>
       <c r="BV64">
+        <v>185252</v>
+      </c>
+      <c r="BW64">
         <v>107.9</v>
       </c>
-      <c r="BW64">
+      <c r="BX64">
         <v>107.1333333333333</v>
       </c>
-      <c r="BX64">
+      <c r="BY64">
         <v>8114.7</v>
       </c>
-      <c r="BY64">
+      <c r="BZ64">
         <v>4442.1</v>
       </c>
-      <c r="BZ64">
+      <c r="CA64">
         <v>-1</v>
       </c>
-      <c r="CA64">
+      <c r="CB64">
         <v>3844.333333333334</v>
       </c>
-      <c r="CB64">
+      <c r="CC64">
         <v>9746.666666666666</v>
       </c>
-      <c r="CC64">
+      <c r="CD64">
         <v>67220</v>
       </c>
     </row>
@@ -11819,27 +12013,30 @@
         <v>308.5</v>
       </c>
       <c r="BV65">
+        <v>184332</v>
+      </c>
+      <c r="BW65">
         <v>109</v>
       </c>
-      <c r="BW65">
+      <c r="BX65">
         <v>108.2</v>
       </c>
-      <c r="BX65">
+      <c r="BY65">
         <v>8185.9</v>
       </c>
-      <c r="BY65">
+      <c r="BZ65">
         <v>4506.1</v>
       </c>
-      <c r="BZ65">
+      <c r="CA65">
         <v>-1</v>
       </c>
-      <c r="CA65">
+      <c r="CB65">
         <v>3864.333333333334</v>
       </c>
-      <c r="CB65">
+      <c r="CC65">
         <v>9764.333333333334</v>
       </c>
-      <c r="CC65">
+      <c r="CD65">
         <v>66558.33333333333</v>
       </c>
     </row>
@@ -11992,27 +12189,30 @@
         <v>298.8</v>
       </c>
       <c r="BV66">
+        <v>191100</v>
+      </c>
+      <c r="BW66">
         <v>109.5666666666667</v>
       </c>
-      <c r="BW66">
+      <c r="BX66">
         <v>108.6666666666667</v>
       </c>
-      <c r="BX66">
+      <c r="BY66">
         <v>8256.6</v>
       </c>
-      <c r="BY66">
+      <c r="BZ66">
         <v>4567.6</v>
       </c>
-      <c r="BZ66">
+      <c r="CA66">
         <v>-1</v>
       </c>
-      <c r="CA66">
+      <c r="CB66">
         <v>3872.333333333334</v>
       </c>
-      <c r="CB66">
+      <c r="CC66">
         <v>9815.333333333334</v>
       </c>
-      <c r="CC66">
+      <c r="CD66">
         <v>70815.33333333333</v>
       </c>
     </row>
@@ -12165,27 +12365,30 @@
         <v>288.1</v>
       </c>
       <c r="BV67">
+        <v>192104</v>
+      </c>
+      <c r="BW67">
         <v>109.0333333333333</v>
       </c>
-      <c r="BW67">
+      <c r="BX67">
         <v>107.9333333333333</v>
       </c>
-      <c r="BX67">
+      <c r="BY67">
         <v>8326.9</v>
       </c>
-      <c r="BY67">
+      <c r="BZ67">
         <v>4623.9</v>
       </c>
-      <c r="BZ67">
+      <c r="CA67">
         <v>-1</v>
       </c>
-      <c r="CA67">
+      <c r="CB67">
         <v>3883</v>
       </c>
-      <c r="CB67">
+      <c r="CC67">
         <v>9854.333333333334</v>
       </c>
-      <c r="CC67">
+      <c r="CD67">
         <v>72215.33333333333</v>
       </c>
     </row>
@@ -12338,27 +12541,30 @@
         <v>276.2</v>
       </c>
       <c r="BV68">
+        <v>195880</v>
+      </c>
+      <c r="BW68">
         <v>109.7</v>
       </c>
-      <c r="BW68">
+      <c r="BX68">
         <v>108.5</v>
       </c>
-      <c r="BX68">
+      <c r="BY68">
         <v>8397.1</v>
       </c>
-      <c r="BY68">
+      <c r="BZ68">
         <v>4682.1</v>
       </c>
-      <c r="BZ68">
+      <c r="CA68">
         <v>-1</v>
       </c>
-      <c r="CA68">
+      <c r="CB68">
         <v>3889.333333333334</v>
       </c>
-      <c r="CB68">
+      <c r="CC68">
         <v>9906.666666666666</v>
       </c>
-      <c r="CC68">
+      <c r="CD68">
         <v>73843.33333333333</v>
       </c>
     </row>
@@ -12511,27 +12717,30 @@
         <v>276.4</v>
       </c>
       <c r="BV69">
+        <v>195440</v>
+      </c>
+      <c r="BW69">
         <v>110.4666666666667</v>
       </c>
-      <c r="BW69">
+      <c r="BX69">
         <v>109.2</v>
       </c>
-      <c r="BX69">
+      <c r="BY69">
         <v>8467</v>
       </c>
-      <c r="BY69">
+      <c r="BZ69">
         <v>4746.7</v>
       </c>
-      <c r="BZ69">
+      <c r="CA69">
         <v>-1</v>
       </c>
-      <c r="CA69">
+      <c r="CB69">
         <v>3926.666666666667</v>
       </c>
-      <c r="CB69">
+      <c r="CC69">
         <v>10024.33333333333</v>
       </c>
-      <c r="CC69">
+      <c r="CD69">
         <v>71122.66666666667</v>
       </c>
     </row>
@@ -12684,27 +12893,30 @@
         <v>284.6</v>
       </c>
       <c r="BV70">
+        <v>198912</v>
+      </c>
+      <c r="BW70">
         <v>111.8</v>
       </c>
-      <c r="BW70">
+      <c r="BX70">
         <v>110.6666666666667</v>
       </c>
-      <c r="BX70">
+      <c r="BY70">
         <v>8536.4</v>
       </c>
-      <c r="BY70">
+      <c r="BZ70">
         <v>4816.1</v>
       </c>
-      <c r="BZ70">
+      <c r="CA70">
         <v>-1</v>
       </c>
-      <c r="CA70">
+      <c r="CB70">
         <v>3943.666666666667</v>
       </c>
-      <c r="CB70">
+      <c r="CC70">
         <v>10039.33333333333</v>
       </c>
-      <c r="CC70">
+      <c r="CD70">
         <v>75290</v>
       </c>
     </row>
@@ -12857,27 +13069,30 @@
         <v>314.4</v>
       </c>
       <c r="BV71">
+        <v>201652</v>
+      </c>
+      <c r="BW71">
         <v>113.0666666666667</v>
       </c>
-      <c r="BW71">
+      <c r="BX71">
         <v>111.9666666666667</v>
       </c>
-      <c r="BX71">
+      <c r="BY71">
         <v>8605.200000000001</v>
       </c>
-      <c r="BY71">
+      <c r="BZ71">
         <v>4888.5</v>
       </c>
-      <c r="BZ71">
+      <c r="CA71">
         <v>-1</v>
       </c>
-      <c r="CA71">
+      <c r="CB71">
         <v>3953</v>
       </c>
-      <c r="CB71">
+      <c r="CC71">
         <v>10083.33333333333</v>
       </c>
-      <c r="CC71">
+      <c r="CD71">
         <v>75025.66666666667</v>
       </c>
     </row>
@@ -13030,27 +13245,30 @@
         <v>338.6</v>
       </c>
       <c r="BV72">
+        <v>201436</v>
+      </c>
+      <c r="BW72">
         <v>114.2666666666667</v>
       </c>
-      <c r="BW72">
+      <c r="BX72">
         <v>113.1666666666667</v>
       </c>
-      <c r="BX72">
+      <c r="BY72">
         <v>8673.5</v>
       </c>
-      <c r="BY72">
+      <c r="BZ72">
         <v>4964.7</v>
       </c>
-      <c r="BZ72">
+      <c r="CA72">
         <v>-1</v>
       </c>
-      <c r="CA72">
+      <c r="CB72">
         <v>3969</v>
       </c>
-      <c r="CB72">
+      <c r="CC72">
         <v>10092.33333333333</v>
       </c>
-      <c r="CC72">
+      <c r="CD72">
         <v>77047</v>
       </c>
     </row>
@@ -13203,27 +13421,30 @@
         <v>334.3</v>
       </c>
       <c r="BV73">
+        <v>201980</v>
+      </c>
+      <c r="BW73">
         <v>115.3333333333333</v>
       </c>
-      <c r="BW73">
+      <c r="BX73">
         <v>114.1666666666667</v>
       </c>
-      <c r="BX73">
+      <c r="BY73">
         <v>8741.799999999999</v>
       </c>
-      <c r="BY73">
+      <c r="BZ73">
         <v>5043.5</v>
       </c>
-      <c r="BZ73">
+      <c r="CA73">
         <v>-1</v>
       </c>
-      <c r="CA73">
+      <c r="CB73">
         <v>4000.666666666667</v>
       </c>
-      <c r="CB73">
+      <c r="CC73">
         <v>10184.66666666667</v>
       </c>
-      <c r="CC73">
+      <c r="CD73">
         <v>78058</v>
       </c>
     </row>
@@ -13376,27 +13597,30 @@
         <v>341.5</v>
       </c>
       <c r="BV74">
+        <v>213484</v>
+      </c>
+      <c r="BW74">
         <v>116.2333333333333</v>
       </c>
-      <c r="BW74">
+      <c r="BX74">
         <v>114.9333333333333</v>
       </c>
-      <c r="BX74">
+      <c r="BY74">
         <v>8809.4</v>
       </c>
-      <c r="BY74">
+      <c r="BZ74">
         <v>5122.5</v>
       </c>
-      <c r="BZ74">
+      <c r="CA74">
         <v>-1</v>
       </c>
-      <c r="CA74">
+      <c r="CB74">
         <v>4030.666666666667</v>
       </c>
-      <c r="CB74">
+      <c r="CC74">
         <v>10250.66666666667</v>
       </c>
-      <c r="CC74">
+      <c r="CD74">
         <v>79349.66666666667</v>
       </c>
     </row>
@@ -13549,27 +13773,30 @@
         <v>350.9</v>
       </c>
       <c r="BV75">
+        <v>213536</v>
+      </c>
+      <c r="BW75">
         <v>117.5666666666667</v>
       </c>
-      <c r="BW75">
+      <c r="BX75">
         <v>116.2</v>
       </c>
-      <c r="BX75">
+      <c r="BY75">
         <v>8877.1</v>
       </c>
-      <c r="BY75">
+      <c r="BZ75">
         <v>5212</v>
       </c>
-      <c r="BZ75">
+      <c r="CA75">
         <v>-1</v>
       </c>
-      <c r="CA75">
+      <c r="CB75">
         <v>4065.333333333334</v>
       </c>
-      <c r="CB75">
+      <c r="CC75">
         <v>10315.33333333333</v>
       </c>
-      <c r="CC75">
+      <c r="CD75">
         <v>83348</v>
       </c>
     </row>
@@ -13722,27 +13949,30 @@
         <v>358.1</v>
       </c>
       <c r="BV76">
+        <v>214156</v>
+      </c>
+      <c r="BW76">
         <v>119</v>
       </c>
-      <c r="BW76">
+      <c r="BX76">
         <v>117.7333333333333</v>
       </c>
-      <c r="BX76">
+      <c r="BY76">
         <v>8944.4</v>
       </c>
-      <c r="BY76">
+      <c r="BZ76">
         <v>5314.3</v>
       </c>
-      <c r="BZ76">
+      <c r="CA76">
         <v>-1</v>
       </c>
-      <c r="CA76">
+      <c r="CB76">
         <v>4094.333333333334</v>
       </c>
-      <c r="CB76">
+      <c r="CC76">
         <v>10341.66666666667</v>
       </c>
-      <c r="CC76">
+      <c r="CD76">
         <v>82022.66666666667</v>
       </c>
     </row>
@@ -13895,27 +14125,30 @@
         <v>379.5</v>
       </c>
       <c r="BV77">
+        <v>214488</v>
+      </c>
+      <c r="BW77">
         <v>120.3</v>
       </c>
-      <c r="BW77">
+      <c r="BX77">
         <v>118.9333333333333</v>
       </c>
-      <c r="BX77">
+      <c r="BY77">
         <v>9011.799999999999</v>
       </c>
-      <c r="BY77">
+      <c r="BZ77">
         <v>5400.6</v>
       </c>
-      <c r="BZ77">
+      <c r="CA77">
         <v>-1</v>
       </c>
-      <c r="CA77">
+      <c r="CB77">
         <v>4114.666666666667</v>
       </c>
-      <c r="CB77">
+      <c r="CC77">
         <v>10446.66666666667</v>
       </c>
-      <c r="CC77">
+      <c r="CD77">
         <v>84604</v>
       </c>
     </row>
@@ -14068,27 +14301,30 @@
         <v>359.7</v>
       </c>
       <c r="BV78">
+        <v>225904</v>
+      </c>
+      <c r="BW78">
         <v>121.6666666666667</v>
       </c>
-      <c r="BW78">
+      <c r="BX78">
         <v>120.3666666666667</v>
       </c>
-      <c r="BX78">
+      <c r="BY78">
         <v>9078.799999999999</v>
       </c>
-      <c r="BY78">
+      <c r="BZ78">
         <v>5497.5</v>
       </c>
-      <c r="BZ78">
+      <c r="CA78">
         <v>-1</v>
       </c>
-      <c r="CA78">
+      <c r="CB78">
         <v>4135.666666666667</v>
       </c>
-      <c r="CB78">
+      <c r="CC78">
         <v>10510.66666666667</v>
       </c>
-      <c r="CC78">
+      <c r="CD78">
         <v>83566.66666666667</v>
       </c>
     </row>
@@ -14241,27 +14477,30 @@
         <v>351.9</v>
       </c>
       <c r="BV79">
+        <v>226768</v>
+      </c>
+      <c r="BW79">
         <v>123.6333333333333</v>
       </c>
-      <c r="BW79">
+      <c r="BX79">
         <v>122.4</v>
       </c>
-      <c r="BX79">
+      <c r="BY79">
         <v>9145.6</v>
       </c>
-      <c r="BY79">
+      <c r="BZ79">
         <v>5597</v>
       </c>
-      <c r="BZ79">
+      <c r="CA79">
         <v>-1</v>
       </c>
-      <c r="CA79">
+      <c r="CB79">
         <v>4169</v>
       </c>
-      <c r="CB79">
+      <c r="CC79">
         <v>10566.33333333333</v>
       </c>
-      <c r="CC79">
+      <c r="CD79">
         <v>85684</v>
       </c>
     </row>
@@ -14414,27 +14653,30 @@
         <v>350.1</v>
       </c>
       <c r="BV80">
+        <v>227804</v>
+      </c>
+      <c r="BW80">
         <v>124.6</v>
       </c>
-      <c r="BW80">
+      <c r="BX80">
         <v>123.2666666666667</v>
       </c>
-      <c r="BX80">
+      <c r="BY80">
         <v>9212.200000000001</v>
       </c>
-      <c r="BY80">
+      <c r="BZ80">
         <v>5678.9</v>
       </c>
-      <c r="BZ80">
+      <c r="CA80">
         <v>-1</v>
       </c>
-      <c r="CA80">
+      <c r="CB80">
         <v>4201.333333333333</v>
       </c>
-      <c r="CB80">
+      <c r="CC80">
         <v>10640.66666666667</v>
       </c>
-      <c r="CC80">
+      <c r="CD80">
         <v>85730.33333333333</v>
       </c>
     </row>
@@ -14587,27 +14829,30 @@
         <v>327</v>
       </c>
       <c r="BV81">
+        <v>229044</v>
+      </c>
+      <c r="BW81">
         <v>125.8666666666667</v>
       </c>
-      <c r="BW81">
+      <c r="BX81">
         <v>124.4</v>
       </c>
-      <c r="BX81">
+      <c r="BY81">
         <v>9278.6</v>
       </c>
-      <c r="BY81">
+      <c r="BZ81">
         <v>5760.6</v>
       </c>
-      <c r="BZ81">
+      <c r="CA81">
         <v>-1</v>
       </c>
-      <c r="CA81">
+      <c r="CB81">
         <v>4221</v>
       </c>
-      <c r="CB81">
+      <c r="CC81">
         <v>10719.66666666667</v>
       </c>
-      <c r="CC81">
+      <c r="CD81">
         <v>89358.33333333333</v>
       </c>
     </row>
@@ -14760,27 +15005,30 @@
         <v>340.5</v>
       </c>
       <c r="BV82">
+        <v>241024</v>
+      </c>
+      <c r="BW82">
         <v>128.0333333333333</v>
       </c>
-      <c r="BW82">
+      <c r="BX82">
         <v>126.5666666666667</v>
       </c>
-      <c r="BX82">
+      <c r="BY82">
         <v>9344.299999999999</v>
       </c>
-      <c r="BY82">
+      <c r="BZ82">
         <v>5863.9</v>
       </c>
-      <c r="BZ82">
+      <c r="CA82">
         <v>-1</v>
       </c>
-      <c r="CA82">
+      <c r="CB82">
         <v>4258</v>
       </c>
-      <c r="CB82">
+      <c r="CC82">
         <v>10814</v>
       </c>
-      <c r="CC82">
+      <c r="CD82">
         <v>94388.33333333333</v>
       </c>
     </row>
@@ -14933,27 +15181,30 @@
         <v>358.8</v>
       </c>
       <c r="BV83">
+        <v>243792</v>
+      </c>
+      <c r="BW83">
         <v>129.3</v>
       </c>
-      <c r="BW83">
+      <c r="BX83">
         <v>127.6666666666667</v>
       </c>
-      <c r="BX83">
+      <c r="BY83">
         <v>9409.5</v>
       </c>
-      <c r="BY83">
+      <c r="BZ83">
         <v>5970.9</v>
       </c>
-      <c r="BZ83">
+      <c r="CA83">
         <v>-1</v>
       </c>
-      <c r="CA83">
+      <c r="CB83">
         <v>4295.666666666667</v>
       </c>
-      <c r="CB83">
+      <c r="CC83">
         <v>10873</v>
       </c>
-      <c r="CC83">
+      <c r="CD83">
         <v>93807</v>
       </c>
     </row>
@@ -15106,27 +15357,30 @@
         <v>336.8</v>
       </c>
       <c r="BV84">
+        <v>244712</v>
+      </c>
+      <c r="BW84">
         <v>131.5333333333333</v>
       </c>
-      <c r="BW84">
+      <c r="BX84">
         <v>129.8666666666667</v>
       </c>
-      <c r="BX84">
+      <c r="BY84">
         <v>9473.4</v>
       </c>
-      <c r="BY84">
+      <c r="BZ84">
         <v>6063</v>
       </c>
-      <c r="BZ84">
+      <c r="CA84">
         <v>1</v>
       </c>
-      <c r="CA84">
+      <c r="CB84">
         <v>4322.666666666667</v>
       </c>
-      <c r="CB84">
+      <c r="CC84">
         <v>10967.33333333333</v>
       </c>
-      <c r="CC84">
+      <c r="CD84">
         <v>94972</v>
       </c>
     </row>
@@ -15279,27 +15533,30 @@
         <v>330.6</v>
       </c>
       <c r="BV85">
+        <v>247012</v>
+      </c>
+      <c r="BW85">
         <v>133.7666666666667</v>
       </c>
-      <c r="BW85">
+      <c r="BX85">
         <v>132.1</v>
       </c>
-      <c r="BX85">
+      <c r="BY85">
         <v>9535.799999999999</v>
       </c>
-      <c r="BY85">
+      <c r="BZ85">
         <v>6148.4</v>
       </c>
-      <c r="BZ85">
+      <c r="CA85">
         <v>1</v>
       </c>
-      <c r="CA85">
+      <c r="CB85">
         <v>4342.666666666667</v>
       </c>
-      <c r="CB85">
+      <c r="CC85">
         <v>11000.33333333333</v>
       </c>
-      <c r="CC85">
+      <c r="CD85">
         <v>98807.66666666667</v>
       </c>
     </row>
@@ -15452,27 +15709,30 @@
         <v>370.8</v>
       </c>
       <c r="BV86">
+        <v>261292</v>
+      </c>
+      <c r="BW86">
         <v>134.7666666666667</v>
       </c>
-      <c r="BW86">
+      <c r="BX86">
         <v>132.9333333333333</v>
       </c>
-      <c r="BX86">
+      <c r="BY86">
         <v>9597.4</v>
       </c>
-      <c r="BY86">
+      <c r="BZ86">
         <v>6248.7</v>
       </c>
-      <c r="BZ86">
+      <c r="CA86">
         <v>1</v>
       </c>
-      <c r="CA86">
+      <c r="CB86">
         <v>4358</v>
       </c>
-      <c r="CB86">
+      <c r="CC86">
         <v>11027</v>
       </c>
-      <c r="CC86">
+      <c r="CD86">
         <v>95253.66666666667</v>
       </c>
     </row>
@@ -15625,27 +15885,30 @@
         <v>378</v>
       </c>
       <c r="BV87">
+        <v>263620</v>
+      </c>
+      <c r="BW87">
         <v>135.5666666666667</v>
       </c>
-      <c r="BW87">
+      <c r="BX87">
         <v>133.7333333333334</v>
       </c>
-      <c r="BX87">
+      <c r="BY87">
         <v>9657.799999999999</v>
       </c>
-      <c r="BY87">
+      <c r="BZ87">
         <v>6334.3</v>
       </c>
-      <c r="BZ87">
+      <c r="CA87">
         <v>-1</v>
       </c>
-      <c r="CA87">
+      <c r="CB87">
         <v>4362.333333333333</v>
       </c>
-      <c r="CB87">
+      <c r="CC87">
         <v>11057.33333333333</v>
       </c>
-      <c r="CC87">
+      <c r="CD87">
         <v>96128.66666666667</v>
       </c>
     </row>
@@ -15798,27 +16061,30 @@
         <v>380.7</v>
       </c>
       <c r="BV88">
+        <v>265076</v>
+      </c>
+      <c r="BW88">
         <v>136.6</v>
       </c>
-      <c r="BW88">
+      <c r="BX88">
         <v>134.6333333333333</v>
       </c>
-      <c r="BX88">
+      <c r="BY88">
         <v>9717.700000000001</v>
       </c>
-      <c r="BY88">
+      <c r="BZ88">
         <v>6423.3</v>
       </c>
-      <c r="BZ88">
+      <c r="CA88">
         <v>-1</v>
       </c>
-      <c r="CA88">
+      <c r="CB88">
         <v>4345</v>
       </c>
-      <c r="CB88">
+      <c r="CC88">
         <v>11099.33333333333</v>
       </c>
-      <c r="CC88">
+      <c r="CD88">
         <v>97326.33333333333</v>
       </c>
     </row>
@@ -15971,27 +16237,30 @@
         <v>375</v>
       </c>
       <c r="BV89">
+        <v>266828</v>
+      </c>
+      <c r="BW89">
         <v>137.7333333333333</v>
       </c>
-      <c r="BW89">
+      <c r="BX89">
         <v>135.7333333333333</v>
       </c>
-      <c r="BX89">
+      <c r="BY89">
         <v>9777.799999999999</v>
       </c>
-      <c r="BY89">
+      <c r="BZ89">
         <v>6501.3</v>
       </c>
-      <c r="BZ89">
+      <c r="CA89">
         <v>-1</v>
       </c>
-      <c r="CA89">
+      <c r="CB89">
         <v>4354.333333333333</v>
       </c>
-      <c r="CB89">
+      <c r="CC89">
         <v>11139.33333333333</v>
       </c>
-      <c r="CC89">
+      <c r="CD89">
         <v>99221</v>
       </c>
     </row>
@@ -16144,27 +16413,30 @@
         <v>399.7</v>
       </c>
       <c r="BV90">
+        <v>278568</v>
+      </c>
+      <c r="BW90">
         <v>138.6666666666667</v>
       </c>
-      <c r="BW90">
+      <c r="BX90">
         <v>136.5333333333333</v>
       </c>
-      <c r="BX90">
+      <c r="BY90">
         <v>9838.1</v>
       </c>
-      <c r="BY90">
+      <c r="BZ90">
         <v>6565.9</v>
       </c>
-      <c r="BZ90">
+      <c r="CA90">
         <v>-1</v>
       </c>
-      <c r="CA90">
+      <c r="CB90">
         <v>4372</v>
       </c>
-      <c r="CB90">
+      <c r="CC90">
         <v>11199</v>
       </c>
-      <c r="CC90">
+      <c r="CD90">
         <v>106368.6666666667</v>
       </c>
     </row>
@@ -16317,27 +16589,30 @@
         <v>404</v>
       </c>
       <c r="BV91">
+        <v>281744</v>
+      </c>
+      <c r="BW91">
         <v>139.7333333333333</v>
       </c>
-      <c r="BW91">
+      <c r="BX91">
         <v>137.5666666666667</v>
       </c>
-      <c r="BX91">
+      <c r="BY91">
         <v>9899.4</v>
       </c>
-      <c r="BY91">
+      <c r="BZ91">
         <v>6646.5</v>
       </c>
-      <c r="BZ91">
+      <c r="CA91">
         <v>-1</v>
       </c>
-      <c r="CA91">
+      <c r="CB91">
         <v>4395.666666666667</v>
       </c>
-      <c r="CB91">
+      <c r="CC91">
         <v>11238</v>
       </c>
-      <c r="CC91">
+      <c r="CD91">
         <v>103446</v>
       </c>
     </row>
@@ -16490,27 +16765,30 @@
         <v>393.9</v>
       </c>
       <c r="BV92">
+        <v>282848</v>
+      </c>
+      <c r="BW92">
         <v>140.8</v>
       </c>
-      <c r="BW92">
+      <c r="BX92">
         <v>138.7</v>
       </c>
-      <c r="BX92">
+      <c r="BY92">
         <v>9962.200000000001</v>
       </c>
-      <c r="BY92">
+      <c r="BZ92">
         <v>6721.3</v>
       </c>
-      <c r="BZ92">
+      <c r="CA92">
         <v>-1</v>
       </c>
-      <c r="CA92">
+      <c r="CB92">
         <v>4425.333333333333</v>
       </c>
-      <c r="CB92">
+      <c r="CC92">
         <v>11306.66666666667</v>
       </c>
-      <c r="CC92">
+      <c r="CD92">
         <v>99580.33333333333</v>
       </c>
     </row>
@@ -16663,27 +16941,30 @@
         <v>418.7</v>
       </c>
       <c r="BV93">
+        <v>283944</v>
+      </c>
+      <c r="BW93">
         <v>142.0333333333333</v>
       </c>
-      <c r="BW93">
+      <c r="BX93">
         <v>139.8</v>
       </c>
-      <c r="BX93">
+      <c r="BY93">
         <v>10025.9</v>
       </c>
-      <c r="BY93">
+      <c r="BZ93">
         <v>6810.8</v>
       </c>
-      <c r="BZ93">
+      <c r="CA93">
         <v>-1</v>
       </c>
-      <c r="CA93">
+      <c r="CB93">
         <v>4438</v>
       </c>
-      <c r="CB93">
+      <c r="CC93">
         <v>11319.66666666667</v>
       </c>
-      <c r="CC93">
+      <c r="CD93">
         <v>98022.33333333333</v>
       </c>
     </row>
@@ -16842,27 +17123,30 @@
         <v>400.8</v>
       </c>
       <c r="BV94">
+        <v>295568</v>
+      </c>
+      <c r="BW94">
         <v>143.0666666666667</v>
       </c>
-      <c r="BW94">
+      <c r="BX94">
         <v>140.7666666666667</v>
       </c>
-      <c r="BX94">
+      <c r="BY94">
         <v>10090.7</v>
       </c>
-      <c r="BY94">
+      <c r="BZ94">
         <v>6893.2</v>
       </c>
-      <c r="BZ94">
+      <c r="CA94">
         <v>-1</v>
       </c>
-      <c r="CA94">
+      <c r="CB94">
         <v>4456</v>
       </c>
-      <c r="CB94">
+      <c r="CC94">
         <v>11366.66666666667</v>
       </c>
-      <c r="CC94">
+      <c r="CD94">
         <v>102495</v>
       </c>
     </row>
@@ -17021,27 +17305,30 @@
         <v>439</v>
       </c>
       <c r="BV95">
+        <v>297064</v>
+      </c>
+      <c r="BW95">
         <v>144.1</v>
       </c>
-      <c r="BW95">
+      <c r="BX95">
         <v>141.7333333333334</v>
       </c>
-      <c r="BX95">
+      <c r="BY95">
         <v>10157</v>
       </c>
-      <c r="BY95">
+      <c r="BZ95">
         <v>6979.8</v>
       </c>
-      <c r="BZ95">
+      <c r="CA95">
         <v>-1</v>
       </c>
-      <c r="CA95">
+      <c r="CB95">
         <v>4478</v>
       </c>
-      <c r="CB95">
+      <c r="CC95">
         <v>11407.66666666667</v>
       </c>
-      <c r="CC95">
+      <c r="CD95">
         <v>111962</v>
       </c>
     </row>
@@ -17200,27 +17487,30 @@
         <v>446.2</v>
       </c>
       <c r="BV96">
+        <v>298552</v>
+      </c>
+      <c r="BW96">
         <v>144.7666666666667</v>
       </c>
-      <c r="BW96">
+      <c r="BX96">
         <v>142.3333333333333</v>
       </c>
-      <c r="BX96">
+      <c r="BY96">
         <v>10224.3</v>
       </c>
-      <c r="BY96">
+      <c r="BZ96">
         <v>7067.8</v>
       </c>
-      <c r="BZ96">
+      <c r="CA96">
         <v>-1</v>
       </c>
-      <c r="CA96">
+      <c r="CB96">
         <v>4496</v>
       </c>
-      <c r="CB96">
+      <c r="CC96">
         <v>11483</v>
       </c>
-      <c r="CC96">
+      <c r="CD96">
         <v>116124.6666666667</v>
       </c>
     </row>
@@ -17379,27 +17669,30 @@
         <v>504.6</v>
       </c>
       <c r="BV97">
+        <v>300556</v>
+      </c>
+      <c r="BW97">
         <v>145.9666666666667</v>
       </c>
-      <c r="BW97">
+      <c r="BX97">
         <v>143.4333333333333</v>
       </c>
-      <c r="BX97">
+      <c r="BY97">
         <v>10292.6</v>
       </c>
-      <c r="BY97">
+      <c r="BZ97">
         <v>7153.8</v>
       </c>
-      <c r="BZ97">
+      <c r="CA97">
         <v>-1</v>
       </c>
-      <c r="CA97">
+      <c r="CB97">
         <v>4515</v>
       </c>
-      <c r="CB97">
+      <c r="CC97">
         <v>11520.66666666667</v>
       </c>
-      <c r="CC97">
+      <c r="CD97">
         <v>118029</v>
       </c>
     </row>
@@ -17558,27 +17851,30 @@
         <v>509.3</v>
       </c>
       <c r="BV98">
+        <v>308800</v>
+      </c>
+      <c r="BW98">
         <v>146.7</v>
       </c>
-      <c r="BW98">
+      <c r="BX98">
         <v>144.0333333333333</v>
       </c>
-      <c r="BX98">
+      <c r="BY98">
         <v>10361.5</v>
       </c>
-      <c r="BY98">
+      <c r="BZ98">
         <v>7236.2</v>
       </c>
-      <c r="BZ98">
+      <c r="CA98">
         <v>-1</v>
       </c>
-      <c r="CA98">
+      <c r="CB98">
         <v>4523.666666666667</v>
       </c>
-      <c r="CB98">
+      <c r="CC98">
         <v>11591.33333333333</v>
       </c>
-      <c r="CC98">
+      <c r="CD98">
         <v>111803</v>
       </c>
     </row>
@@ -17737,27 +18033,30 @@
         <v>530</v>
       </c>
       <c r="BV99">
+        <v>311776</v>
+      </c>
+      <c r="BW99">
         <v>147.5333333333333</v>
       </c>
-      <c r="BW99">
+      <c r="BX99">
         <v>144.8666666666667</v>
       </c>
-      <c r="BX99">
+      <c r="BY99">
         <v>10431</v>
       </c>
-      <c r="BY99">
+      <c r="BZ99">
         <v>7319.9</v>
       </c>
-      <c r="BZ99">
+      <c r="CA99">
         <v>-1</v>
       </c>
-      <c r="CA99">
+      <c r="CB99">
         <v>4555.333333333333</v>
       </c>
-      <c r="CB99">
+      <c r="CC99">
         <v>11672.33333333333</v>
       </c>
-      <c r="CC99">
+      <c r="CD99">
         <v>113545</v>
       </c>
     </row>
@@ -17916,27 +18215,30 @@
         <v>562.2000000000001</v>
       </c>
       <c r="BV100">
+        <v>312956</v>
+      </c>
+      <c r="BW100">
         <v>148.9</v>
       </c>
-      <c r="BW100">
+      <c r="BX100">
         <v>146.4</v>
       </c>
-      <c r="BX100">
+      <c r="BY100">
         <v>10501.8</v>
       </c>
-      <c r="BY100">
+      <c r="BZ100">
         <v>7411.8</v>
       </c>
-      <c r="BZ100">
+      <c r="CA100">
         <v>-1</v>
       </c>
-      <c r="CA100">
+      <c r="CB100">
         <v>4600</v>
       </c>
-      <c r="CB100">
+      <c r="CC100">
         <v>11710.33333333333</v>
       </c>
-      <c r="CC100">
+      <c r="CD100">
         <v>118942</v>
       </c>
     </row>
@@ -18095,27 +18397,30 @@
         <v>585.8</v>
       </c>
       <c r="BV101">
+        <v>315112</v>
+      </c>
+      <c r="BW101">
         <v>149.7666666666667</v>
       </c>
-      <c r="BW101">
+      <c r="BX101">
         <v>147.2666666666667</v>
       </c>
-      <c r="BX101">
+      <c r="BY101">
         <v>10573.4</v>
       </c>
-      <c r="BY101">
+      <c r="BZ101">
         <v>7502.9</v>
       </c>
-      <c r="BZ101">
+      <c r="CA101">
         <v>-1</v>
       </c>
-      <c r="CA101">
+      <c r="CB101">
         <v>4626.333333333333</v>
       </c>
-      <c r="CB101">
+      <c r="CC101">
         <v>11752</v>
       </c>
-      <c r="CC101">
+      <c r="CD101">
         <v>117294.3333333333</v>
       </c>
     </row>
@@ -18274,27 +18579,30 @@
         <v>579</v>
       </c>
       <c r="BV102">
+        <v>324784</v>
+      </c>
+      <c r="BW102">
         <v>150.8666666666667</v>
       </c>
-      <c r="BW102">
+      <c r="BX102">
         <v>148.3333333333333</v>
       </c>
-      <c r="BX102">
+      <c r="BY102">
         <v>10645.6</v>
       </c>
-      <c r="BY102">
+      <c r="BZ102">
         <v>7595.1</v>
       </c>
-      <c r="BZ102">
+      <c r="CA102">
         <v>-1</v>
       </c>
-      <c r="CA102">
+      <c r="CB102">
         <v>4649.666666666667</v>
       </c>
-      <c r="CB102">
+      <c r="CC102">
         <v>11791.33333333333</v>
       </c>
-      <c r="CC102">
+      <c r="CD102">
         <v>116848.6666666667</v>
       </c>
     </row>
@@ -18453,27 +18761,30 @@
         <v>595.7000000000001</v>
       </c>
       <c r="BV103">
+        <v>327504</v>
+      </c>
+      <c r="BW103">
         <v>152.1</v>
       </c>
-      <c r="BW103">
+      <c r="BX103">
         <v>149.5</v>
       </c>
-      <c r="BX103">
+      <c r="BY103">
         <v>10718.7</v>
       </c>
-      <c r="BY103">
+      <c r="BZ103">
         <v>7684</v>
       </c>
-      <c r="BZ103">
+      <c r="CA103">
         <v>-1</v>
       </c>
-      <c r="CA103">
+      <c r="CB103">
         <v>4643</v>
       </c>
-      <c r="CB103">
+      <c r="CC103">
         <v>11828.66666666667</v>
       </c>
-      <c r="CC103">
+      <c r="CD103">
         <v>124434.3333333333</v>
       </c>
     </row>
@@ -18632,27 +18943,30 @@
         <v>639.4</v>
       </c>
       <c r="BV104">
+        <v>328632</v>
+      </c>
+      <c r="BW104">
         <v>152.8666666666667</v>
       </c>
-      <c r="BW104">
+      <c r="BX104">
         <v>150.1666666666667</v>
       </c>
-      <c r="BX104">
+      <c r="BY104">
         <v>10792.5</v>
       </c>
-      <c r="BY104">
+      <c r="BZ104">
         <v>7774.9</v>
       </c>
-      <c r="BZ104">
+      <c r="CA104">
         <v>-1</v>
       </c>
-      <c r="CA104">
+      <c r="CB104">
         <v>4623.666666666667</v>
       </c>
-      <c r="CB104">
+      <c r="CC104">
         <v>11868</v>
       </c>
-      <c r="CC104">
+      <c r="CD104">
         <v>125240</v>
       </c>
     </row>
@@ -18811,27 +19125,30 @@
         <v>639</v>
       </c>
       <c r="BV105">
+        <v>329780</v>
+      </c>
+      <c r="BW105">
         <v>153.7</v>
       </c>
-      <c r="BW105">
+      <c r="BX105">
         <v>151</v>
       </c>
-      <c r="BX105">
+      <c r="BY105">
         <v>10868</v>
       </c>
-      <c r="BY105">
+      <c r="BZ105">
         <v>7867.1</v>
       </c>
-      <c r="BZ105">
+      <c r="CA105">
         <v>-1</v>
       </c>
-      <c r="CA105">
+      <c r="CB105">
         <v>4624.666666666667</v>
       </c>
-      <c r="CB105">
+      <c r="CC105">
         <v>11923</v>
       </c>
-      <c r="CC105">
+      <c r="CD105">
         <v>127572.6666666667</v>
       </c>
     </row>
@@ -18990,27 +19307,30 @@
         <v>671.6</v>
       </c>
       <c r="BV106">
+        <v>339100</v>
+      </c>
+      <c r="BW106">
         <v>155.0666666666667</v>
       </c>
-      <c r="BW106">
+      <c r="BX106">
         <v>152.4</v>
       </c>
-      <c r="BX106">
+      <c r="BY106">
         <v>10944.9</v>
       </c>
-      <c r="BY106">
+      <c r="BZ106">
         <v>7960.9</v>
       </c>
-      <c r="BZ106">
+      <c r="CA106">
         <v>-1</v>
       </c>
-      <c r="CA106">
+      <c r="CB106">
         <v>4621.333333333333</v>
       </c>
-      <c r="CB106">
+      <c r="CC106">
         <v>11966</v>
       </c>
-      <c r="CC106">
+      <c r="CD106">
         <v>126179.3333333333</v>
       </c>
     </row>
@@ -19169,27 +19489,30 @@
         <v>686.9</v>
       </c>
       <c r="BV107">
+        <v>341412</v>
+      </c>
+      <c r="BW107">
         <v>156.4</v>
       </c>
-      <c r="BW107">
+      <c r="BX107">
         <v>153.7333333333334</v>
       </c>
-      <c r="BX107">
+      <c r="BY107">
         <v>11026.5</v>
       </c>
-      <c r="BY107">
+      <c r="BZ107">
         <v>8053.4</v>
       </c>
-      <c r="BZ107">
+      <c r="CA107">
         <v>-1</v>
       </c>
-      <c r="CA107">
+      <c r="CB107">
         <v>4618.333333333333</v>
       </c>
-      <c r="CB107">
+      <c r="CC107">
         <v>12017.33333333333</v>
       </c>
-      <c r="CC107">
+      <c r="CD107">
         <v>131672</v>
       </c>
     </row>
@@ -19348,27 +19671,30 @@
         <v>691.4</v>
       </c>
       <c r="BV108">
+        <v>342632</v>
+      </c>
+      <c r="BW108">
         <v>157.3</v>
       </c>
-      <c r="BW108">
+      <c r="BX108">
         <v>154.5666666666667</v>
       </c>
-      <c r="BX108">
+      <c r="BY108">
         <v>11113.8</v>
       </c>
-      <c r="BY108">
+      <c r="BZ108">
         <v>8143.7</v>
       </c>
-      <c r="BZ108">
+      <c r="CA108">
         <v>-1</v>
       </c>
-      <c r="CA108">
+      <c r="CB108">
         <v>4600.333333333333</v>
       </c>
-      <c r="CB108">
+      <c r="CC108">
         <v>12067</v>
       </c>
-      <c r="CC108">
+      <c r="CD108">
         <v>131615</v>
       </c>
     </row>
@@ -19527,27 +19853,30 @@
         <v>700.2000000000001</v>
       </c>
       <c r="BV109">
+        <v>344876</v>
+      </c>
+      <c r="BW109">
         <v>158.6666666666667</v>
       </c>
-      <c r="BW109">
+      <c r="BX109">
         <v>155.8666666666667</v>
       </c>
-      <c r="BX109">
+      <c r="BY109">
         <v>11206.7</v>
       </c>
-      <c r="BY109">
+      <c r="BZ109">
         <v>8255.700000000001</v>
       </c>
-      <c r="BZ109">
+      <c r="CA109">
         <v>-1</v>
       </c>
-      <c r="CA109">
+      <c r="CB109">
         <v>4581.333333333333</v>
       </c>
-      <c r="CB109">
+      <c r="CC109">
         <v>12139</v>
       </c>
-      <c r="CC109">
+      <c r="CD109">
         <v>135638.6666666667</v>
       </c>
     </row>
@@ -19706,27 +20035,30 @@
         <v>735.7000000000001</v>
       </c>
       <c r="BV110">
+        <v>353920</v>
+      </c>
+      <c r="BW110">
         <v>159.6333333333333</v>
       </c>
-      <c r="BW110">
+      <c r="BX110">
         <v>156.8</v>
       </c>
-      <c r="BX110">
+      <c r="BY110">
         <v>11304.9</v>
       </c>
-      <c r="BY110">
+      <c r="BZ110">
         <v>8377.700000000001</v>
       </c>
-      <c r="BZ110">
+      <c r="CA110">
         <v>-1</v>
       </c>
-      <c r="CA110">
+      <c r="CB110">
         <v>4574.333333333333</v>
       </c>
-      <c r="CB110">
+      <c r="CC110">
         <v>12185.66666666667</v>
       </c>
-      <c r="CC110">
+      <c r="CD110">
         <v>135471.6666666667</v>
       </c>
     </row>
@@ -19885,27 +20217,30 @@
         <v>748.6</v>
       </c>
       <c r="BV111">
+        <v>355872</v>
+      </c>
+      <c r="BW111">
         <v>160</v>
       </c>
-      <c r="BW111">
+      <c r="BX111">
         <v>157.1</v>
       </c>
-      <c r="BX111">
+      <c r="BY111">
         <v>11407.8</v>
       </c>
-      <c r="BY111">
+      <c r="BZ111">
         <v>8471.1</v>
       </c>
-      <c r="BZ111">
+      <c r="CA111">
         <v>-1</v>
       </c>
-      <c r="CA111">
+      <c r="CB111">
         <v>4577</v>
       </c>
-      <c r="CB111">
+      <c r="CC111">
         <v>12229.66666666667</v>
       </c>
-      <c r="CC111">
+      <c r="CD111">
         <v>139479.3333333333</v>
       </c>
     </row>
@@ -20064,27 +20399,30 @@
         <v>787.1</v>
       </c>
       <c r="BV112">
+        <v>357524</v>
+      </c>
+      <c r="BW112">
         <v>160.8</v>
       </c>
-      <c r="BW112">
+      <c r="BX112">
         <v>157.8</v>
       </c>
-      <c r="BX112">
+      <c r="BY112">
         <v>11515.8</v>
       </c>
-      <c r="BY112">
+      <c r="BZ112">
         <v>8588.4</v>
       </c>
-      <c r="BZ112">
+      <c r="CA112">
         <v>-1</v>
       </c>
-      <c r="CA112">
+      <c r="CB112">
         <v>4589</v>
       </c>
-      <c r="CB112">
+      <c r="CC112">
         <v>12296</v>
       </c>
-      <c r="CC112">
+      <c r="CD112">
         <v>141385.3333333333</v>
       </c>
     </row>
@@ -20243,27 +20581,30 @@
         <v>777.2000000000001</v>
       </c>
       <c r="BV113">
+        <v>359052</v>
+      </c>
+      <c r="BW113">
         <v>161.6666666666667</v>
       </c>
-      <c r="BW113">
+      <c r="BX113">
         <v>158.5333333333333</v>
       </c>
-      <c r="BX113">
+      <c r="BY113">
         <v>11627.7</v>
       </c>
-      <c r="BY113">
+      <c r="BZ113">
         <v>8700.299999999999</v>
       </c>
-      <c r="BZ113">
+      <c r="CA113">
         <v>-1</v>
       </c>
-      <c r="CA113">
+      <c r="CB113">
         <v>4583</v>
       </c>
-      <c r="CB113">
+      <c r="CC113">
         <v>12380</v>
       </c>
-      <c r="CC113">
+      <c r="CD113">
         <v>140102.6666666667</v>
       </c>
     </row>
@@ -20422,27 +20763,30 @@
         <v>704</v>
       </c>
       <c r="BV114">
+        <v>366632</v>
+      </c>
+      <c r="BW114">
         <v>162</v>
       </c>
-      <c r="BW114">
+      <c r="BX114">
         <v>158.7333333333333</v>
       </c>
-      <c r="BX114">
+      <c r="BY114">
         <v>11743.2</v>
       </c>
-      <c r="BY114">
+      <c r="BZ114">
         <v>8799.6</v>
       </c>
-      <c r="BZ114">
+      <c r="CA114">
         <v>-1</v>
       </c>
-      <c r="CA114">
+      <c r="CB114">
         <v>4578</v>
       </c>
-      <c r="CB114">
+      <c r="CC114">
         <v>12437.33333333333</v>
       </c>
-      <c r="CC114">
+      <c r="CD114">
         <v>133975</v>
       </c>
     </row>
@@ -20601,27 +20945,30 @@
         <v>703.4</v>
       </c>
       <c r="BV115">
+        <v>368208</v>
+      </c>
+      <c r="BW115">
         <v>162.5333333333333</v>
       </c>
-      <c r="BW115">
+      <c r="BX115">
         <v>159.2</v>
       </c>
-      <c r="BX115">
+      <c r="BY115">
         <v>11862.3</v>
       </c>
-      <c r="BY115">
+      <c r="BZ115">
         <v>8909.799999999999</v>
       </c>
-      <c r="BZ115">
+      <c r="CA115">
         <v>-1</v>
       </c>
-      <c r="CA115">
+      <c r="CB115">
         <v>4596.666666666667</v>
       </c>
-      <c r="CB115">
+      <c r="CC115">
         <v>12501.33333333333</v>
       </c>
-      <c r="CC115">
+      <c r="CD115">
         <v>137818</v>
       </c>
     </row>
@@ -20780,27 +21127,30 @@
         <v>721.5</v>
       </c>
       <c r="BV116">
+        <v>370704</v>
+      </c>
+      <c r="BW116">
         <v>163.3666666666667</v>
       </c>
-      <c r="BW116">
+      <c r="BX116">
         <v>159.9666666666667</v>
       </c>
-      <c r="BX116">
+      <c r="BY116">
         <v>11983.8</v>
       </c>
-      <c r="BY116">
+      <c r="BZ116">
         <v>9039.799999999999</v>
       </c>
-      <c r="BZ116">
+      <c r="CA116">
         <v>-1</v>
       </c>
-      <c r="CA116">
+      <c r="CB116">
         <v>4631.666666666667</v>
       </c>
-      <c r="CB116">
+      <c r="CC116">
         <v>12553.33333333333</v>
       </c>
-      <c r="CC116">
+      <c r="CD116">
         <v>143529.3333333333</v>
       </c>
     </row>
@@ -20959,27 +21309,30 @@
         <v>693.8</v>
       </c>
       <c r="BV117">
+        <v>371184</v>
+      </c>
+      <c r="BW117">
         <v>164.1333333333333</v>
       </c>
-      <c r="BW117">
+      <c r="BX117">
         <v>160.7666666666667</v>
       </c>
-      <c r="BX117">
+      <c r="BY117">
         <v>12107.5</v>
       </c>
-      <c r="BY117">
+      <c r="BZ117">
         <v>9158.200000000001</v>
       </c>
-      <c r="BZ117">
+      <c r="CA117">
         <v>-1</v>
       </c>
-      <c r="CA117">
+      <c r="CB117">
         <v>4640.666666666667</v>
       </c>
-      <c r="CB117">
+      <c r="CC117">
         <v>12616.33333333333</v>
       </c>
-      <c r="CC117">
+      <c r="CD117">
         <v>144434.6666666667</v>
       </c>
     </row>
@@ -21138,27 +21491,30 @@
         <v>732.4</v>
       </c>
       <c r="BV118">
+        <v>376964</v>
+      </c>
+      <c r="BW118">
         <v>164.7333333333333</v>
       </c>
-      <c r="BW118">
+      <c r="BX118">
         <v>161.3666666666667</v>
       </c>
-      <c r="BX118">
+      <c r="BY118">
         <v>12233.9</v>
       </c>
-      <c r="BY118">
+      <c r="BZ118">
         <v>9288.700000000001</v>
       </c>
-      <c r="BZ118">
+      <c r="CA118">
         <v>-1</v>
       </c>
-      <c r="CA118">
+      <c r="CB118">
         <v>4669</v>
       </c>
-      <c r="CB118">
+      <c r="CC118">
         <v>12694.66666666667</v>
       </c>
-      <c r="CC118">
+      <c r="CD118">
         <v>150497</v>
       </c>
     </row>
@@ -21317,27 +21673,30 @@
         <v>723.4</v>
       </c>
       <c r="BV119">
+        <v>378944</v>
+      </c>
+      <c r="BW119">
         <v>165.9666666666667</v>
       </c>
-      <c r="BW119">
+      <c r="BX119">
         <v>162.5333333333333</v>
       </c>
-      <c r="BX119">
+      <c r="BY119">
         <v>12361.8</v>
       </c>
-      <c r="BY119">
+      <c r="BZ119">
         <v>9419.9</v>
       </c>
-      <c r="BZ119">
+      <c r="CA119">
         <v>-1</v>
       </c>
-      <c r="CA119">
+      <c r="CB119">
         <v>4688.333333333333</v>
       </c>
-      <c r="CB119">
+      <c r="CC119">
         <v>12783.33333333333</v>
       </c>
-      <c r="CC119">
+      <c r="CD119">
         <v>152515.3333333333</v>
       </c>
     </row>
@@ -21496,27 +21855,30 @@
         <v>705.2000000000001</v>
       </c>
       <c r="BV120">
+        <v>380800</v>
+      </c>
+      <c r="BW120">
         <v>167.2</v>
       </c>
-      <c r="BW120">
+      <c r="BX120">
         <v>163.9</v>
       </c>
-      <c r="BX120">
+      <c r="BY120">
         <v>12491.8</v>
       </c>
-      <c r="BY120">
+      <c r="BZ120">
         <v>9551.5</v>
       </c>
-      <c r="BZ120">
+      <c r="CA120">
         <v>-1</v>
       </c>
-      <c r="CA120">
+      <c r="CB120">
         <v>4717.333333333333</v>
       </c>
-      <c r="CB120">
+      <c r="CC120">
         <v>12887.33333333333</v>
       </c>
-      <c r="CC120">
+      <c r="CD120">
         <v>155465.3333333333</v>
       </c>
     </row>
@@ -21675,27 +22037,30 @@
         <v>691.7000000000001</v>
       </c>
       <c r="BV121">
+        <v>382748</v>
+      </c>
+      <c r="BW121">
         <v>168.4333333333333</v>
       </c>
-      <c r="BW121">
+      <c r="BX121">
         <v>165.2</v>
       </c>
-      <c r="BX121">
+      <c r="BY121">
         <v>12624</v>
       </c>
-      <c r="BY121">
+      <c r="BZ121">
         <v>9704.5</v>
       </c>
-      <c r="BZ121">
+      <c r="CA121">
         <v>-1</v>
       </c>
-      <c r="CA121">
+      <c r="CB121">
         <v>4757.333333333333</v>
       </c>
-      <c r="CB121">
+      <c r="CC121">
         <v>12972.33333333333</v>
       </c>
-      <c r="CC121">
+      <c r="CD121">
         <v>163365.3333333333</v>
       </c>
     </row>
@@ -21854,27 +22219,30 @@
         <v>677.3</v>
       </c>
       <c r="BV122">
+        <v>392512</v>
+      </c>
+      <c r="BW122">
         <v>170.1</v>
       </c>
-      <c r="BW122">
+      <c r="BX122">
         <v>166.8333333333333</v>
       </c>
-      <c r="BX122">
+      <c r="BY122">
         <v>12757.5</v>
       </c>
-      <c r="BY122">
+      <c r="BZ122">
         <v>9873.9</v>
       </c>
-      <c r="BZ122">
+      <c r="CA122">
         <v>-1</v>
       </c>
-      <c r="CA122">
+      <c r="CB122">
         <v>4768</v>
       </c>
-      <c r="CB122">
+      <c r="CC122">
         <v>13050.33333333333</v>
       </c>
-      <c r="CC122">
+      <c r="CD122">
         <v>168776.3333333333</v>
       </c>
     </row>
@@ -22033,27 +22401,30 @@
         <v>659.6</v>
       </c>
       <c r="BV123">
+        <v>404664</v>
+      </c>
+      <c r="BW123">
         <v>171.4333333333333</v>
       </c>
-      <c r="BW123">
+      <c r="BX123">
         <v>168.1666666666667</v>
       </c>
-      <c r="BX123">
+      <c r="BY123">
         <v>12888.3</v>
       </c>
-      <c r="BY123">
+      <c r="BZ123">
         <v>10035.5</v>
       </c>
-      <c r="BZ123">
+      <c r="CA123">
         <v>-1</v>
       </c>
-      <c r="CA123">
+      <c r="CB123">
         <v>4779.333333333333</v>
       </c>
-      <c r="CB123">
+      <c r="CC123">
         <v>13113</v>
       </c>
-      <c r="CC123">
+      <c r="CD123">
         <v>165200.6666666667</v>
       </c>
     </row>
@@ -22212,27 +22583,30 @@
         <v>636.7000000000001</v>
       </c>
       <c r="BV124">
+        <v>403872</v>
+      </c>
+      <c r="BW124">
         <v>173</v>
       </c>
-      <c r="BW124">
+      <c r="BX124">
         <v>169.7</v>
       </c>
-      <c r="BX124">
+      <c r="BY124">
         <v>13014.4</v>
       </c>
-      <c r="BY124">
+      <c r="BZ124">
         <v>10191.4</v>
       </c>
-      <c r="BZ124">
+      <c r="CA124">
         <v>-1</v>
       </c>
-      <c r="CA124">
+      <c r="CB124">
         <v>4793.333333333333</v>
       </c>
-      <c r="CB124">
+      <c r="CC124">
         <v>13168</v>
       </c>
-      <c r="CC124">
+      <c r="CD124">
         <v>166145</v>
       </c>
     </row>
@@ -22391,27 +22765,30 @@
         <v>589.9</v>
       </c>
       <c r="BV125">
+        <v>404524</v>
+      </c>
+      <c r="BW125">
         <v>174.2333333333333</v>
       </c>
-      <c r="BW125">
+      <c r="BX125">
         <v>170.8333333333333</v>
       </c>
-      <c r="BX125">
+      <c r="BY125">
         <v>13134.8</v>
       </c>
-      <c r="BY125">
+      <c r="BZ125">
         <v>10340</v>
       </c>
-      <c r="BZ125">
+      <c r="CA125">
         <v>-1</v>
       </c>
-      <c r="CA125">
+      <c r="CB125">
         <v>4809</v>
       </c>
-      <c r="CB125">
+      <c r="CC125">
         <v>13220.66666666667</v>
       </c>
-      <c r="CC125">
+      <c r="CD125">
         <v>170616.6666666667</v>
       </c>
     </row>
@@ -22570,27 +22947,30 @@
         <v>588.6</v>
       </c>
       <c r="BV126">
+        <v>420812</v>
+      </c>
+      <c r="BW126">
         <v>175.9</v>
       </c>
-      <c r="BW126">
+      <c r="BX126">
         <v>172.4333333333333</v>
       </c>
-      <c r="BX126">
+      <c r="BY126">
         <v>13249.5</v>
       </c>
-      <c r="BY126">
+      <c r="BZ126">
         <v>10494.1</v>
       </c>
-      <c r="BZ126">
+      <c r="CA126">
         <v>1</v>
       </c>
-      <c r="CA126">
+      <c r="CB126">
         <v>4832</v>
       </c>
-      <c r="CB126">
+      <c r="CC126">
         <v>13310</v>
       </c>
-      <c r="CC126">
+      <c r="CD126">
         <v>176411.3333333333</v>
       </c>
     </row>
@@ -22749,27 +23129,30 @@
         <v>607.9</v>
       </c>
       <c r="BV127">
+        <v>422668</v>
+      </c>
+      <c r="BW127">
         <v>177.1333333333333</v>
       </c>
-      <c r="BW127">
+      <c r="BX127">
         <v>173.7333333333334</v>
       </c>
-      <c r="BX127">
+      <c r="BY127">
         <v>13358.1</v>
       </c>
-      <c r="BY127">
+      <c r="BZ127">
         <v>10644.1</v>
       </c>
-      <c r="BZ127">
+      <c r="CA127">
         <v>1</v>
       </c>
-      <c r="CA127">
+      <c r="CB127">
         <v>4877.666666666667</v>
       </c>
-      <c r="CB127">
+      <c r="CC127">
         <v>13410.66666666667</v>
       </c>
-      <c r="CC127">
+      <c r="CD127">
         <v>189275.6666666667</v>
       </c>
     </row>
@@ -22928,27 +23311,30 @@
         <v>601.2000000000001</v>
       </c>
       <c r="BV128">
+        <v>428384</v>
+      </c>
+      <c r="BW128">
         <v>177.6333333333333</v>
       </c>
-      <c r="BW128">
+      <c r="BX128">
         <v>174.1</v>
       </c>
-      <c r="BX128">
+      <c r="BY128">
         <v>13461</v>
       </c>
-      <c r="BY128">
+      <c r="BZ128">
         <v>10769.2</v>
       </c>
-      <c r="BZ128">
+      <c r="CA128">
         <v>1</v>
       </c>
-      <c r="CA128">
+      <c r="CB128">
         <v>4936.666666666667</v>
       </c>
-      <c r="CB128">
+      <c r="CC128">
         <v>13500.66666666667</v>
       </c>
-      <c r="CC128">
+      <c r="CD128">
         <v>187116</v>
       </c>
     </row>
@@ -23107,27 +23493,30 @@
         <v>561.9</v>
       </c>
       <c r="BV129">
+        <v>428472</v>
+      </c>
+      <c r="BW129">
         <v>177.5</v>
       </c>
-      <c r="BW129">
+      <c r="BX129">
         <v>173.6666666666667</v>
       </c>
-      <c r="BX129">
+      <c r="BY129">
         <v>13558.2</v>
       </c>
-      <c r="BY129">
+      <c r="BZ129">
         <v>10882.9</v>
       </c>
-      <c r="BZ129">
+      <c r="CA129">
         <v>1</v>
       </c>
-      <c r="CA129">
+      <c r="CB129">
         <v>4977.333333333333</v>
       </c>
-      <c r="CB129">
+      <c r="CC129">
         <v>13583.66666666667</v>
       </c>
-      <c r="CC129">
+      <c r="CD129">
         <v>193037.6666666667</v>
       </c>
     </row>
@@ -23286,27 +23675,30 @@
         <v>694.1</v>
       </c>
       <c r="BV130">
+        <v>442872</v>
+      </c>
+      <c r="BW130">
         <v>178.0666666666667</v>
       </c>
-      <c r="BW130">
+      <c r="BX130">
         <v>174.0333333333333</v>
       </c>
-      <c r="BX130">
+      <c r="BY130">
         <v>13650.7</v>
       </c>
-      <c r="BY130">
+      <c r="BZ130">
         <v>10993.3</v>
       </c>
-      <c r="BZ130">
+      <c r="CA130">
         <v>-1</v>
       </c>
-      <c r="CA130">
+      <c r="CB130">
         <v>5004.333333333333</v>
       </c>
-      <c r="CB130">
+      <c r="CC130">
         <v>13639</v>
       </c>
-      <c r="CC130">
+      <c r="CD130">
         <v>198023.3333333333</v>
       </c>
     </row>
@@ -23465,27 +23857,30 @@
         <v>737.7000000000001</v>
       </c>
       <c r="BV131">
+        <v>445487</v>
+      </c>
+      <c r="BW131">
         <v>179.4666666666667</v>
       </c>
-      <c r="BW131">
+      <c r="BX131">
         <v>175.5333333333333</v>
       </c>
-      <c r="BX131">
+      <c r="BY131">
         <v>13739.9</v>
       </c>
-      <c r="BY131">
+      <c r="BZ131">
         <v>11104.7</v>
       </c>
-      <c r="BZ131">
+      <c r="CA131">
         <v>-1</v>
       </c>
-      <c r="CA131">
+      <c r="CB131">
         <v>5039</v>
       </c>
-      <c r="CB131">
+      <c r="CC131">
         <v>13699.33333333333</v>
       </c>
-      <c r="CC131">
+      <c r="CD131">
         <v>194794</v>
       </c>
     </row>
@@ -23644,27 +24039,30 @@
         <v>759.1</v>
       </c>
       <c r="BV132">
+        <v>448080</v>
+      </c>
+      <c r="BW132">
         <v>180.4333333333333</v>
       </c>
-      <c r="BW132">
+      <c r="BX132">
         <v>176.5</v>
       </c>
-      <c r="BX132">
+      <c r="BY132">
         <v>13826.9</v>
       </c>
-      <c r="BY132">
+      <c r="BZ132">
         <v>11226.6</v>
       </c>
-      <c r="BZ132">
+      <c r="CA132">
         <v>-1</v>
       </c>
-      <c r="CA132">
+      <c r="CB132">
         <v>5052.666666666667</v>
       </c>
-      <c r="CB132">
+      <c r="CC132">
         <v>13744.66666666667</v>
       </c>
-      <c r="CC132">
+      <c r="CD132">
         <v>196443.6666666667</v>
       </c>
     </row>
@@ -23823,27 +24221,30 @@
         <v>828.9</v>
       </c>
       <c r="BV133">
+        <v>451196</v>
+      </c>
+      <c r="BW133">
         <v>181.5</v>
       </c>
-      <c r="BW133">
+      <c r="BX133">
         <v>177.4666666666667</v>
       </c>
-      <c r="BX133">
+      <c r="BY133">
         <v>13912.8</v>
       </c>
-      <c r="BY133">
+      <c r="BZ133">
         <v>11360.4</v>
       </c>
-      <c r="BZ133">
+      <c r="CA133">
         <v>-1</v>
       </c>
-      <c r="CA133">
+      <c r="CB133">
         <v>5020.666666666667</v>
       </c>
-      <c r="CB133">
+      <c r="CC133">
         <v>13775</v>
       </c>
-      <c r="CC133">
+      <c r="CD133">
         <v>199770.6666666667</v>
       </c>
     </row>
@@ -24002,27 +24403,30 @@
         <v>844.2000000000001</v>
       </c>
       <c r="BV134">
+        <v>458142</v>
+      </c>
+      <c r="BW134">
         <v>183.3666666666667</v>
       </c>
-      <c r="BW134">
+      <c r="BX134">
         <v>179.4666666666667</v>
       </c>
-      <c r="BX134">
+      <c r="BY134">
         <v>13998.3</v>
       </c>
-      <c r="BY134">
+      <c r="BZ134">
         <v>11482</v>
       </c>
-      <c r="BZ134">
+      <c r="CA134">
         <v>-1</v>
       </c>
-      <c r="CA134">
+      <c r="CB134">
         <v>5029.333333333333</v>
       </c>
-      <c r="CB134">
+      <c r="CC134">
         <v>13801</v>
       </c>
-      <c r="CC134">
+      <c r="CD134">
         <v>197410.6666666667</v>
       </c>
     </row>
@@ -24181,27 +24585,30 @@
         <v>872.2000000000001</v>
       </c>
       <c r="BV135">
+        <v>463083</v>
+      </c>
+      <c r="BW135">
         <v>183.0666666666667</v>
       </c>
-      <c r="BW135">
+      <c r="BX135">
         <v>178.9333333333333</v>
       </c>
-      <c r="BX135">
+      <c r="BY135">
         <v>14084.6</v>
       </c>
-      <c r="BY135">
+      <c r="BZ135">
         <v>11586.9</v>
       </c>
-      <c r="BZ135">
+      <c r="CA135">
         <v>-1</v>
       </c>
-      <c r="CA135">
+      <c r="CB135">
         <v>5007.666666666667</v>
       </c>
-      <c r="CB135">
+      <c r="CC135">
         <v>13820</v>
       </c>
-      <c r="CC135">
+      <c r="CD135">
         <v>195858</v>
       </c>
     </row>
@@ -24360,27 +24767,30 @@
         <v>919.9</v>
       </c>
       <c r="BV136">
+        <v>464765</v>
+      </c>
+      <c r="BW136">
         <v>184.4333333333333</v>
       </c>
-      <c r="BW136">
+      <c r="BX136">
         <v>180.2</v>
       </c>
-      <c r="BX136">
+      <c r="BY136">
         <v>14171.3</v>
       </c>
-      <c r="BY136">
+      <c r="BZ136">
         <v>11721.3</v>
       </c>
-      <c r="BZ136">
+      <c r="CA136">
         <v>-1</v>
       </c>
-      <c r="CA136">
+      <c r="CB136">
         <v>4978.666666666667</v>
       </c>
-      <c r="CB136">
+      <c r="CC136">
         <v>13832.33333333333</v>
       </c>
-      <c r="CC136">
+      <c r="CD136">
         <v>200686</v>
       </c>
     </row>
@@ -24539,27 +24949,30 @@
         <v>953.1</v>
       </c>
       <c r="BV137">
+        <v>468133</v>
+      </c>
+      <c r="BW137">
         <v>185.1333333333333</v>
       </c>
-      <c r="BW137">
+      <c r="BX137">
         <v>180.7333333333334</v>
       </c>
-      <c r="BX137">
+      <c r="BY137">
         <v>14259.3</v>
       </c>
-      <c r="BY137">
+      <c r="BZ137">
         <v>11863.9</v>
       </c>
-      <c r="BZ137">
+      <c r="CA137">
         <v>-1</v>
       </c>
-      <c r="CA137">
+      <c r="CB137">
         <v>4985.333333333333</v>
       </c>
-      <c r="CB137">
+      <c r="CC137">
         <v>13824.33333333333</v>
       </c>
-      <c r="CC137">
+      <c r="CD137">
         <v>199340</v>
       </c>
     </row>
@@ -24718,27 +25131,30 @@
         <v>1038.4</v>
       </c>
       <c r="BV138">
+        <v>479685</v>
+      </c>
+      <c r="BW138">
         <v>186.7</v>
       </c>
-      <c r="BW138">
+      <c r="BX138">
         <v>182.3333333333333</v>
       </c>
-      <c r="BX138">
+      <c r="BY138">
         <v>14349.4</v>
       </c>
-      <c r="BY138">
+      <c r="BZ138">
         <v>12027.7</v>
       </c>
-      <c r="BZ138">
+      <c r="CA138">
         <v>-1</v>
       </c>
-      <c r="CA138">
+      <c r="CB138">
         <v>4968.333333333333</v>
       </c>
-      <c r="CB138">
+      <c r="CC138">
         <v>13859</v>
       </c>
-      <c r="CC138">
+      <c r="CD138">
         <v>197322.3333333333</v>
       </c>
     </row>
@@ -24897,27 +25313,30 @@
         <v>1083.9</v>
       </c>
       <c r="BV139">
+        <v>484798</v>
+      </c>
+      <c r="BW139">
         <v>188.1666666666667</v>
       </c>
-      <c r="BW139">
+      <c r="BX139">
         <v>183.6666666666667</v>
       </c>
-      <c r="BX139">
+      <c r="BY139">
         <v>14441.3</v>
       </c>
-      <c r="BY139">
+      <c r="BZ139">
         <v>12203.5</v>
       </c>
-      <c r="BZ139">
+      <c r="CA139">
         <v>-1</v>
       </c>
-      <c r="CA139">
+      <c r="CB139">
         <v>4974</v>
       </c>
-      <c r="CB139">
+      <c r="CC139">
         <v>13898</v>
       </c>
-      <c r="CC139">
+      <c r="CD139">
         <v>202356.3333333333</v>
       </c>
     </row>
@@ -25076,27 +25495,30 @@
         <v>1125.2</v>
       </c>
       <c r="BV140">
+        <v>486184</v>
+      </c>
+      <c r="BW140">
         <v>189.3666666666667</v>
       </c>
-      <c r="BW140">
+      <c r="BX140">
         <v>184.8666666666667</v>
       </c>
-      <c r="BX140">
+      <c r="BY140">
         <v>14535.5</v>
       </c>
-      <c r="BY140">
+      <c r="BZ140">
         <v>12363.2</v>
       </c>
-      <c r="BZ140">
+      <c r="CA140">
         <v>-1</v>
       </c>
-      <c r="CA140">
+      <c r="CB140">
         <v>4984</v>
       </c>
-      <c r="CB140">
+      <c r="CC140">
         <v>13909.33333333333</v>
       </c>
-      <c r="CC140">
+      <c r="CD140">
         <v>202328</v>
       </c>
     </row>
@@ -25255,27 +25677,30 @@
         <v>1129.3</v>
       </c>
       <c r="BV141">
+        <v>491380</v>
+      </c>
+      <c r="BW141">
         <v>191.4</v>
       </c>
-      <c r="BW141">
+      <c r="BX141">
         <v>187.0666666666667</v>
       </c>
-      <c r="BX141">
+      <c r="BY141">
         <v>14631.1</v>
       </c>
-      <c r="BY141">
+      <c r="BZ141">
         <v>12540.5</v>
       </c>
-      <c r="BZ141">
+      <c r="CA141">
         <v>-1</v>
       </c>
-      <c r="CA141">
+      <c r="CB141">
         <v>4995.333333333333</v>
       </c>
-      <c r="CB141">
+      <c r="CC141">
         <v>13958.66666666667</v>
       </c>
-      <c r="CC141">
+      <c r="CD141">
         <v>204931</v>
       </c>
     </row>
@@ -25434,27 +25859,30 @@
         <v>1219.8</v>
       </c>
       <c r="BV142">
+        <v>506486</v>
+      </c>
+      <c r="BW142">
         <v>192.3666666666667</v>
       </c>
-      <c r="BW142">
+      <c r="BX142">
         <v>187.9333333333333</v>
       </c>
-      <c r="BX142">
+      <c r="BY142">
         <v>14725.1</v>
       </c>
-      <c r="BY142">
+      <c r="BZ142">
         <v>12721.1</v>
       </c>
-      <c r="BZ142">
+      <c r="CA142">
         <v>-1</v>
       </c>
-      <c r="CA142">
+      <c r="CB142">
         <v>5015.666666666667</v>
       </c>
-      <c r="CB142">
+      <c r="CC142">
         <v>13994.66666666667</v>
       </c>
-      <c r="CC142">
+      <c r="CD142">
         <v>207202</v>
       </c>
     </row>
@@ -25613,27 +26041,30 @@
         <v>1236.8</v>
       </c>
       <c r="BV143">
+        <v>512872</v>
+      </c>
+      <c r="BW143">
         <v>193.6666666666667</v>
       </c>
-      <c r="BW143">
+      <c r="BX143">
         <v>189.2333333333334</v>
       </c>
-      <c r="BX143">
+      <c r="BY143">
         <v>14816.5</v>
       </c>
-      <c r="BY143">
+      <c r="BZ143">
         <v>12889.7</v>
       </c>
-      <c r="BZ143">
+      <c r="CA143">
         <v>-1</v>
       </c>
-      <c r="CA143">
+      <c r="CB143">
         <v>5023.333333333333</v>
       </c>
-      <c r="CB143">
+      <c r="CC143">
         <v>14012</v>
       </c>
-      <c r="CC143">
+      <c r="CD143">
         <v>215946</v>
       </c>
     </row>
@@ -25792,27 +26223,30 @@
         <v>1244.4</v>
       </c>
       <c r="BV144">
+        <v>514043</v>
+      </c>
+      <c r="BW144">
         <v>196.6</v>
       </c>
-      <c r="BW144">
+      <c r="BX144">
         <v>192.5666666666667</v>
       </c>
-      <c r="BX144">
+      <c r="BY144">
         <v>14906.4</v>
       </c>
-      <c r="BY144">
+      <c r="BZ144">
         <v>13085.3</v>
       </c>
-      <c r="BZ144">
+      <c r="CA144">
         <v>-1</v>
       </c>
-      <c r="CA144">
+      <c r="CB144">
         <v>5039.333333333333</v>
       </c>
-      <c r="CB144">
+      <c r="CC144">
         <v>14085.33333333333</v>
       </c>
-      <c r="CC144">
+      <c r="CD144">
         <v>219407.6666666667</v>
       </c>
     </row>
@@ -25971,27 +26405,30 @@
         <v>1350.6</v>
       </c>
       <c r="BV145">
+        <v>517512</v>
+      </c>
+      <c r="BW145">
         <v>198.4333333333333</v>
       </c>
-      <c r="BW145">
+      <c r="BX145">
         <v>194.2</v>
       </c>
-      <c r="BX145">
+      <c r="BY145">
         <v>14994.3</v>
       </c>
-      <c r="BY145">
+      <c r="BZ145">
         <v>13268.4</v>
       </c>
-      <c r="BZ145">
+      <c r="CA145">
         <v>-1</v>
       </c>
-      <c r="CA145">
+      <c r="CB145">
         <v>5047.666666666667</v>
       </c>
-      <c r="CB145">
+      <c r="CC145">
         <v>14072.33333333333</v>
       </c>
-      <c r="CC145">
+      <c r="CD145">
         <v>222763.6666666667</v>
       </c>
     </row>
@@ -26150,27 +26587,30 @@
         <v>1399.2</v>
       </c>
       <c r="BV146">
+        <v>538042</v>
+      </c>
+      <c r="BW146">
         <v>199.4666666666667</v>
       </c>
-      <c r="BW146">
+      <c r="BX146">
         <v>195.1333333333334</v>
       </c>
-      <c r="BX146">
+      <c r="BY146">
         <v>15079.8</v>
       </c>
-      <c r="BY146">
+      <c r="BZ146">
         <v>13437.1</v>
       </c>
-      <c r="BZ146">
+      <c r="CA146">
         <v>-1</v>
       </c>
-      <c r="CA146">
+      <c r="CB146">
         <v>5047</v>
       </c>
-      <c r="CB146">
+      <c r="CC146">
         <v>14098</v>
       </c>
-      <c r="CC146">
+      <c r="CD146">
         <v>230117.6666666667</v>
       </c>
     </row>
@@ -26329,27 +26769,30 @@
         <v>1404.9</v>
       </c>
       <c r="BV147">
+        <v>543660</v>
+      </c>
+      <c r="BW147">
         <v>201.2666666666667</v>
       </c>
-      <c r="BW147">
+      <c r="BX147">
         <v>196.9333333333333</v>
       </c>
-      <c r="BX147">
+      <c r="BY147">
         <v>15163.2</v>
       </c>
-      <c r="BY147">
+      <c r="BZ147">
         <v>13624.5</v>
       </c>
-      <c r="BZ147">
+      <c r="CA147">
         <v>-1</v>
       </c>
-      <c r="CA147">
+      <c r="CB147">
         <v>5068.333333333333</v>
       </c>
-      <c r="CB147">
+      <c r="CC147">
         <v>14119.66666666667</v>
       </c>
-      <c r="CC147">
+      <c r="CD147">
         <v>238436</v>
       </c>
     </row>
@@ -26508,27 +26951,30 @@
         <v>1455.1</v>
       </c>
       <c r="BV148">
+        <v>546105</v>
+      </c>
+      <c r="BW148">
         <v>203.1666666666667</v>
       </c>
-      <c r="BW148">
+      <c r="BX148">
         <v>198.8</v>
       </c>
-      <c r="BX148">
+      <c r="BY148">
         <v>15243</v>
       </c>
-      <c r="BY148">
+      <c r="BZ148">
         <v>13792</v>
       </c>
-      <c r="BZ148">
+      <c r="CA148">
         <v>-1</v>
       </c>
-      <c r="CA148">
+      <c r="CB148">
         <v>5086</v>
       </c>
-      <c r="CB148">
+      <c r="CC148">
         <v>14201</v>
       </c>
-      <c r="CC148">
+      <c r="CD148">
         <v>238965</v>
       </c>
     </row>
@@ -26687,27 +27133,30 @@
         <v>1366.9</v>
       </c>
       <c r="BV149">
+        <v>548576</v>
+      </c>
+      <c r="BW149">
         <v>202.3333333333333</v>
       </c>
-      <c r="BW149">
+      <c r="BX149">
         <v>197.5666666666666</v>
       </c>
-      <c r="BX149">
+      <c r="BY149">
         <v>15319</v>
       </c>
-      <c r="BY149">
+      <c r="BZ149">
         <v>13912</v>
       </c>
-      <c r="BZ149">
+      <c r="CA149">
         <v>-1</v>
       </c>
-      <c r="CA149">
+      <c r="CB149">
         <v>5098.333333333333</v>
       </c>
-      <c r="CB149">
+      <c r="CC149">
         <v>14251.33333333333</v>
       </c>
-      <c r="CC149">
+      <c r="CD149">
         <v>242956.3333333333</v>
       </c>
     </row>
@@ -26866,27 +27315,30 @@
         <v>1257.7</v>
       </c>
       <c r="BV150">
+        <v>568277</v>
+      </c>
+      <c r="BW150">
         <v>204.317</v>
       </c>
-      <c r="BW150">
+      <c r="BX150">
         <v>199.553</v>
       </c>
-      <c r="BX150">
+      <c r="BY150">
         <v>15394.6</v>
       </c>
-      <c r="BY150">
+      <c r="BZ150">
         <v>14118.1</v>
       </c>
-      <c r="BZ150">
+      <c r="CA150">
         <v>-1</v>
       </c>
-      <c r="CA150">
+      <c r="CB150">
         <v>5106.333333333333</v>
       </c>
-      <c r="CB150">
+      <c r="CC150">
         <v>14287.33333333333</v>
       </c>
-      <c r="CC150">
+      <c r="CD150">
         <v>258254.3333333333</v>
       </c>
     </row>
@@ -27045,27 +27497,30 @@
         <v>1285.5</v>
       </c>
       <c r="BV151">
+        <v>575021</v>
+      </c>
+      <c r="BW151">
         <v>206.631</v>
       </c>
-      <c r="BW151">
+      <c r="BX151">
         <v>202.077</v>
       </c>
-      <c r="BX151">
+      <c r="BY151">
         <v>15470.2</v>
       </c>
-      <c r="BY151">
+      <c r="BZ151">
         <v>14279.2</v>
       </c>
-      <c r="BZ151">
+      <c r="CA151">
         <v>-1</v>
       </c>
-      <c r="CA151">
+      <c r="CB151">
         <v>5124.333333333333</v>
       </c>
-      <c r="CB151">
+      <c r="CC151">
         <v>14336</v>
       </c>
-      <c r="CC151">
+      <c r="CD151">
         <v>266203.6666666667</v>
       </c>
     </row>
@@ -27224,27 +27679,30 @@
         <v>1165.3</v>
       </c>
       <c r="BV152">
+        <v>578227</v>
+      </c>
+      <c r="BW152">
         <v>207.939</v>
       </c>
-      <c r="BW152">
+      <c r="BX152">
         <v>203.37</v>
       </c>
-      <c r="BX152">
+      <c r="BY152">
         <v>15546.4</v>
       </c>
-      <c r="BY152">
+      <c r="BZ152">
         <v>14423.4</v>
       </c>
-      <c r="BZ152">
+      <c r="CA152">
         <v>-1</v>
       </c>
-      <c r="CA152">
+      <c r="CB152">
         <v>5122</v>
       </c>
-      <c r="CB152">
+      <c r="CC152">
         <v>14369.33333333333</v>
       </c>
-      <c r="CC152">
+      <c r="CD152">
         <v>271640.3333333333</v>
       </c>
     </row>
@@ -27403,27 +27861,30 @@
         <v>1073.1</v>
       </c>
       <c r="BV153">
+        <v>581089</v>
+      </c>
+      <c r="BW153">
         <v>210.4896666666667</v>
       </c>
-      <c r="BW153">
+      <c r="BX153">
         <v>206.0856666666666</v>
       </c>
-      <c r="BX153">
+      <c r="BY153">
         <v>15622</v>
       </c>
-      <c r="BY153">
+      <c r="BZ153">
         <v>14551.1</v>
       </c>
-      <c r="BZ153">
+      <c r="CA153">
         <v>1</v>
       </c>
-      <c r="CA153">
+      <c r="CB153">
         <v>5136</v>
       </c>
-      <c r="CB153">
+      <c r="CC153">
         <v>14455</v>
       </c>
-      <c r="CC153">
+      <c r="CD153">
         <v>276454.6666666667</v>
       </c>
     </row>
@@ -27582,27 +28043,30 @@
         <v>988</v>
       </c>
       <c r="BV154">
+        <v>597326</v>
+      </c>
+      <c r="BW154">
         <v>212.7696666666667</v>
       </c>
-      <c r="BW154">
+      <c r="BX154">
         <v>208.516</v>
       </c>
-      <c r="BX154">
+      <c r="BY154">
         <v>15696.8</v>
       </c>
-      <c r="BY154">
+      <c r="BZ154">
         <v>14674.8</v>
       </c>
-      <c r="BZ154">
+      <c r="CA154">
         <v>1</v>
       </c>
-      <c r="CA154">
+      <c r="CB154">
         <v>5148.666666666667</v>
       </c>
-      <c r="CB154">
+      <c r="CC154">
         <v>14521.66666666667</v>
       </c>
-      <c r="CC154">
+      <c r="CD154">
         <v>278038.3333333333</v>
       </c>
     </row>
@@ -27761,27 +28225,30 @@
         <v>963.5</v>
       </c>
       <c r="BV155">
+        <v>602859</v>
+      </c>
+      <c r="BW155">
         <v>215.5376666666667</v>
       </c>
-      <c r="BW155">
+      <c r="BX155">
         <v>211.5026666666667</v>
       </c>
-      <c r="BX155">
+      <c r="BY155">
         <v>15769.3</v>
       </c>
-      <c r="BY155">
+      <c r="BZ155">
         <v>14821.6</v>
       </c>
-      <c r="BZ155">
+      <c r="CA155">
         <v>1</v>
       </c>
-      <c r="CA155">
+      <c r="CB155">
         <v>5166</v>
       </c>
-      <c r="CB155">
+      <c r="CC155">
         <v>14560.33333333333</v>
       </c>
-      <c r="CC155">
+      <c r="CD155">
         <v>283074.3333333333</v>
       </c>
     </row>
@@ -27940,27 +28407,30 @@
         <v>949.5</v>
       </c>
       <c r="BV156">
+        <v>608868</v>
+      </c>
+      <c r="BW156">
         <v>218.861</v>
       </c>
-      <c r="BW156">
+      <c r="BX156">
         <v>215.13</v>
       </c>
-      <c r="BX156">
+      <c r="BY156">
         <v>15838.1</v>
       </c>
-      <c r="BY156">
+      <c r="BZ156">
         <v>14997.2</v>
       </c>
-      <c r="BZ156">
+      <c r="CA156">
         <v>1</v>
       </c>
-      <c r="CA156">
+      <c r="CB156">
         <v>5196.333333333333</v>
       </c>
-      <c r="CB156">
+      <c r="CC156">
         <v>14594</v>
       </c>
-      <c r="CC156">
+      <c r="CD156">
         <v>287093.6666666667</v>
       </c>
     </row>
@@ -28119,27 +28589,30 @@
         <v>681.6</v>
       </c>
       <c r="BV157">
+        <v>613115</v>
+      </c>
+      <c r="BW157">
         <v>213.8486666666667</v>
       </c>
-      <c r="BW157">
+      <c r="BX157">
         <v>208.8386666666667</v>
       </c>
-      <c r="BX157">
+      <c r="BY157">
         <v>15903</v>
       </c>
-      <c r="BY157">
+      <c r="BZ157">
         <v>15105.6</v>
       </c>
-      <c r="BZ157">
+      <c r="CA157">
         <v>1</v>
       </c>
-      <c r="CA157">
+      <c r="CB157">
         <v>5189</v>
       </c>
-      <c r="CB157">
+      <c r="CC157">
         <v>14591</v>
       </c>
-      <c r="CC157">
+      <c r="CD157">
         <v>288334</v>
       </c>
     </row>
@@ -28298,27 +28771,30 @@
         <v>911.1</v>
       </c>
       <c r="BV158">
+        <v>651871</v>
+      </c>
+      <c r="BW158">
         <v>212.3776666666667</v>
       </c>
-      <c r="BW158">
+      <c r="BX158">
         <v>206.9433333333334</v>
       </c>
-      <c r="BX158">
+      <c r="BY158">
         <v>15962.6</v>
       </c>
-      <c r="BY158">
+      <c r="BZ158">
         <v>15160.7</v>
       </c>
-      <c r="BZ158">
+      <c r="CA158">
         <v>1</v>
       </c>
-      <c r="CA158">
+      <c r="CB158">
         <v>5192</v>
       </c>
-      <c r="CB158">
+      <c r="CC158">
         <v>14587</v>
       </c>
-      <c r="CC158">
+      <c r="CD158">
         <v>289591.3333333333</v>
       </c>
     </row>
@@ -28477,27 +28953,30 @@
         <v>965.2000000000001</v>
       </c>
       <c r="BV159">
+        <v>662422</v>
+      </c>
+      <c r="BW159">
         <v>213.507</v>
       </c>
-      <c r="BW159">
+      <c r="BX159">
         <v>208.3903333333334</v>
       </c>
-      <c r="BX159">
+      <c r="BY159">
         <v>16018.4</v>
       </c>
-      <c r="BY159">
+      <c r="BZ159">
         <v>15191.5</v>
       </c>
-      <c r="BZ159">
+      <c r="CA159">
         <v>1</v>
       </c>
-      <c r="CA159">
+      <c r="CB159">
         <v>5181.666666666667</v>
       </c>
-      <c r="CB159">
+      <c r="CC159">
         <v>14576.33333333333</v>
       </c>
-      <c r="CC159">
+      <c r="CD159">
         <v>292223.6666666667</v>
       </c>
     </row>
@@ -28656,27 +29135,30 @@
         <v>1087.1</v>
       </c>
       <c r="BV160">
+        <v>667932</v>
+      </c>
+      <c r="BW160">
         <v>215.344</v>
       </c>
-      <c r="BW160">
+      <c r="BX160">
         <v>210.695</v>
       </c>
-      <c r="BX160">
+      <c r="BY160">
         <v>16070.9</v>
       </c>
-      <c r="BY160">
+      <c r="BZ160">
         <v>15257.4</v>
       </c>
-      <c r="BZ160">
+      <c r="CA160">
         <v>-1</v>
       </c>
-      <c r="CA160">
+      <c r="CB160">
         <v>5145.333333333333</v>
       </c>
-      <c r="CB160">
+      <c r="CC160">
         <v>14532</v>
       </c>
-      <c r="CC160">
+      <c r="CD160">
         <v>287368</v>
       </c>
     </row>
@@ -28835,27 +29317,30 @@
         <v>1188.7</v>
       </c>
       <c r="BV161">
+        <v>675654</v>
+      </c>
+      <c r="BW161">
         <v>217.03</v>
       </c>
-      <c r="BW161">
+      <c r="BX161">
         <v>212.6326666666666</v>
       </c>
-      <c r="BX161">
+      <c r="BY161">
         <v>16122.2</v>
       </c>
-      <c r="BY161">
+      <c r="BZ161">
         <v>15357.7</v>
       </c>
-      <c r="BZ161">
+      <c r="CA161">
         <v>-1</v>
       </c>
-      <c r="CA161">
+      <c r="CB161">
         <v>5153.333333333333</v>
       </c>
-      <c r="CB161">
+      <c r="CC161">
         <v>14521</v>
       </c>
-      <c r="CC161">
+      <c r="CD161">
         <v>274301</v>
       </c>
     </row>
@@ -29014,27 +29499,30 @@
         <v>1253.4</v>
       </c>
       <c r="BV162">
+        <v>678854</v>
+      </c>
+      <c r="BW162">
         <v>217.374</v>
       </c>
-      <c r="BW162">
+      <c r="BX162">
         <v>213.237</v>
       </c>
-      <c r="BX162">
+      <c r="BY162">
         <v>16173.8</v>
       </c>
-      <c r="BY162">
+      <c r="BZ162">
         <v>15446</v>
       </c>
-      <c r="BZ162">
+      <c r="CA162">
         <v>-1</v>
       </c>
-      <c r="CA162">
+      <c r="CB162">
         <v>5144</v>
       </c>
-      <c r="CB162">
+      <c r="CC162">
         <v>14466</v>
       </c>
-      <c r="CC162">
+      <c r="CD162">
         <v>268022</v>
       </c>
     </row>
@@ -29193,27 +29681,30 @@
         <v>1255.5</v>
       </c>
       <c r="BV163">
+        <v>689251</v>
+      </c>
+      <c r="BW163">
         <v>217.2973333333333</v>
       </c>
-      <c r="BW163">
+      <c r="BX163">
         <v>213.1506666666667</v>
       </c>
-      <c r="BX163">
+      <c r="BY163">
         <v>16227.2</v>
       </c>
-      <c r="BY163">
+      <c r="BZ163">
         <v>15568.9</v>
       </c>
-      <c r="BZ163">
+      <c r="CA163">
         <v>-1</v>
       </c>
-      <c r="CA163">
+      <c r="CB163">
         <v>5136.666666666667</v>
       </c>
-      <c r="CB163">
+      <c r="CC163">
         <v>14434</v>
       </c>
-      <c r="CC163">
+      <c r="CD163">
         <v>274526.6666666667</v>
       </c>
     </row>
@@ -29372,27 +29863,30 @@
         <v>1428</v>
       </c>
       <c r="BV164">
+        <v>693594</v>
+      </c>
+      <c r="BW164">
         <v>217.9343333333333</v>
       </c>
-      <c r="BW164">
+      <c r="BX164">
         <v>213.82</v>
       </c>
-      <c r="BX164">
+      <c r="BY164">
         <v>16283.3</v>
       </c>
-      <c r="BY164">
+      <c r="BZ164">
         <v>15668.1</v>
       </c>
-      <c r="BZ164">
+      <c r="CA164">
         <v>-1</v>
       </c>
-      <c r="CA164">
+      <c r="CB164">
         <v>5129.333333333333</v>
       </c>
-      <c r="CB164">
+      <c r="CC164">
         <v>14327.66666666667</v>
       </c>
-      <c r="CC164">
+      <c r="CD164">
         <v>277232.3333333333</v>
       </c>
     </row>
@@ -29551,27 +30045,30 @@
         <v>1434.9</v>
       </c>
       <c r="BV165">
+        <v>698996</v>
+      </c>
+      <c r="BW165">
         <v>219.699</v>
       </c>
-      <c r="BW165">
+      <c r="BX165">
         <v>215.764</v>
       </c>
-      <c r="BX165">
+      <c r="BY165">
         <v>16341.6</v>
       </c>
-      <c r="BY165">
+      <c r="BZ165">
         <v>15812.7</v>
       </c>
-      <c r="BZ165">
+      <c r="CA165">
         <v>-1</v>
       </c>
-      <c r="CA165">
+      <c r="CB165">
         <v>5137</v>
       </c>
-      <c r="CB165">
+      <c r="CC165">
         <v>14279</v>
       </c>
-      <c r="CC165">
+      <c r="CD165">
         <v>269906.3333333333</v>
       </c>
     </row>
@@ -29730,27 +30227,30 @@
         <v>1273.6</v>
       </c>
       <c r="BV166">
+        <v>703143</v>
+      </c>
+      <c r="BW166">
         <v>222.0436666666667</v>
       </c>
-      <c r="BW166">
+      <c r="BX166">
         <v>218.4156666666667</v>
       </c>
-      <c r="BX166">
+      <c r="BY166">
         <v>16402.4</v>
       </c>
-      <c r="BY166">
+      <c r="BZ166">
         <v>15956.6</v>
       </c>
-      <c r="BZ166">
+      <c r="CA166">
         <v>-1</v>
       </c>
-      <c r="CA166">
+      <c r="CB166">
         <v>5113.333333333333</v>
       </c>
-      <c r="CB166">
+      <c r="CC166">
         <v>14232.66666666667</v>
       </c>
-      <c r="CC166">
+      <c r="CD166">
         <v>258077</v>
       </c>
     </row>
@@ -29909,27 +30409,30 @@
         <v>1392.8</v>
       </c>
       <c r="BV167">
+        <v>712039</v>
+      </c>
+      <c r="BW167">
         <v>224.5683333333333</v>
       </c>
-      <c r="BW167">
+      <c r="BX167">
         <v>221.2876666666667</v>
       </c>
-      <c r="BX167">
+      <c r="BY167">
         <v>16465.5</v>
       </c>
-      <c r="BY167">
+      <c r="BZ167">
         <v>16123.3</v>
       </c>
-      <c r="BZ167">
+      <c r="CA167">
         <v>-1</v>
       </c>
-      <c r="CA167">
+      <c r="CB167">
         <v>5084.333333333333</v>
       </c>
-      <c r="CB167">
+      <c r="CC167">
         <v>14207.66666666667</v>
       </c>
-      <c r="CC167">
+      <c r="CD167">
         <v>251739</v>
       </c>
     </row>
@@ -30088,27 +30591,30 @@
         <v>1393.4</v>
       </c>
       <c r="BV168">
+        <v>716021</v>
+      </c>
+      <c r="BW168">
         <v>226.0326666666667</v>
       </c>
-      <c r="BW168">
+      <c r="BX168">
         <v>222.738</v>
       </c>
-      <c r="BX168">
+      <c r="BY168">
         <v>16531</v>
       </c>
-      <c r="BY168">
+      <c r="BZ168">
         <v>16291.9</v>
       </c>
-      <c r="BZ168">
+      <c r="CA168">
         <v>-1</v>
       </c>
-      <c r="CA168">
+      <c r="CB168">
         <v>5069.666666666667</v>
       </c>
-      <c r="CB168">
+      <c r="CC168">
         <v>14094</v>
       </c>
-      <c r="CC168">
+      <c r="CD168">
         <v>253215.3333333333</v>
       </c>
     </row>
@@ -30267,27 +30773,30 @@
         <v>1529</v>
       </c>
       <c r="BV169">
+        <v>721840</v>
+      </c>
+      <c r="BW169">
         <v>227.0473333333333</v>
       </c>
-      <c r="BW169">
+      <c r="BX169">
         <v>223.7746666666667</v>
       </c>
-      <c r="BX169">
+      <c r="BY169">
         <v>16598.2</v>
       </c>
-      <c r="BY169">
+      <c r="BZ169">
         <v>16382.9</v>
       </c>
-      <c r="BZ169">
+      <c r="CA169">
         <v>-1</v>
       </c>
-      <c r="CA169">
+      <c r="CB169">
         <v>5051</v>
       </c>
-      <c r="CB169">
+      <c r="CC169">
         <v>14080.66666666667</v>
       </c>
-      <c r="CC169">
+      <c r="CD169">
         <v>258046</v>
       </c>
     </row>
@@ -30446,27 +30955,30 @@
         <v>1606.9</v>
       </c>
       <c r="BV170">
+        <v>753212</v>
+      </c>
+      <c r="BW170">
         <v>228.326</v>
       </c>
-      <c r="BW170">
+      <c r="BX170">
         <v>225.0873333333333</v>
       </c>
-      <c r="BX170">
+      <c r="BY170">
         <v>16667</v>
       </c>
-      <c r="BY170">
+      <c r="BZ170">
         <v>16553.8</v>
       </c>
-      <c r="BZ170">
+      <c r="CA170">
         <v>-1</v>
       </c>
-      <c r="CA170">
+      <c r="CB170">
         <v>5048</v>
       </c>
-      <c r="CB170">
+      <c r="CC170">
         <v>14067.66666666667</v>
       </c>
-      <c r="CC170">
+      <c r="CD170">
         <v>254528.3333333333</v>
       </c>
     </row>
@@ -30625,27 +31137,30 @@
         <v>1605.9</v>
       </c>
       <c r="BV171">
+        <v>759410</v>
+      </c>
+      <c r="BW171">
         <v>228.808</v>
       </c>
-      <c r="BW171">
+      <c r="BX171">
         <v>225.4593333333333</v>
       </c>
-      <c r="BX171">
+      <c r="BY171">
         <v>16737.8</v>
       </c>
-      <c r="BY171">
+      <c r="BZ171">
         <v>16689.8</v>
       </c>
-      <c r="BZ171">
+      <c r="CA171">
         <v>-1</v>
       </c>
-      <c r="CA171">
+      <c r="CB171">
         <v>5055.333333333333</v>
       </c>
-      <c r="CB171">
+      <c r="CC171">
         <v>14044.33333333333</v>
       </c>
-      <c r="CC171">
+      <c r="CD171">
         <v>254598.6666666667</v>
       </c>
     </row>
@@ -30804,27 +31319,30 @@
         <v>1583</v>
       </c>
       <c r="BV172">
+        <v>765124</v>
+      </c>
+      <c r="BW172">
         <v>229.841</v>
       </c>
-      <c r="BW172">
+      <c r="BX172">
         <v>226.357</v>
       </c>
-      <c r="BX172">
+      <c r="BY172">
         <v>16810.1</v>
       </c>
-      <c r="BY172">
+      <c r="BZ172">
         <v>16848</v>
       </c>
-      <c r="BZ172">
+      <c r="CA172">
         <v>-1</v>
       </c>
-      <c r="CA172">
+      <c r="CB172">
         <v>5064.666666666667</v>
       </c>
-      <c r="CB172">
+      <c r="CC172">
         <v>14034.33333333333</v>
       </c>
-      <c r="CC172">
+      <c r="CD172">
         <v>252248.6666666667</v>
       </c>
     </row>
@@ -30983,27 +31501,30 @@
         <v>1572.4</v>
       </c>
       <c r="BV173">
+        <v>770811</v>
+      </c>
+      <c r="BW173">
         <v>231.3693333333333</v>
       </c>
-      <c r="BW173">
+      <c r="BX173">
         <v>227.9716666666667</v>
       </c>
-      <c r="BX173">
+      <c r="BY173">
         <v>16883.7</v>
       </c>
-      <c r="BY173">
+      <c r="BZ173">
         <v>17008.2</v>
       </c>
-      <c r="BZ173">
+      <c r="CA173">
         <v>-1</v>
       </c>
-      <c r="CA173">
+      <c r="CB173">
         <v>5051.666666666667</v>
       </c>
-      <c r="CB173">
+      <c r="CC173">
         <v>14026.33333333333</v>
       </c>
-      <c r="CC173">
+      <c r="CD173">
         <v>246424.3333333333</v>
       </c>
     </row>
@@ -31162,27 +31683,30 @@
         <v>1596.1</v>
       </c>
       <c r="BV174">
+        <v>789992</v>
+      </c>
+      <c r="BW174">
         <v>232.2993333333334</v>
       </c>
-      <c r="BW174">
+      <c r="BX174">
         <v>228.8366666666667</v>
       </c>
-      <c r="BX174">
+      <c r="BY174">
         <v>16958.3</v>
       </c>
-      <c r="BY174">
+      <c r="BZ174">
         <v>17151.4</v>
       </c>
-      <c r="BZ174">
+      <c r="CA174">
         <v>-1</v>
       </c>
-      <c r="CA174">
+      <c r="CB174">
         <v>5042</v>
       </c>
-      <c r="CB174">
+      <c r="CC174">
         <v>14029.33333333333</v>
       </c>
-      <c r="CC174">
+      <c r="CD174">
         <v>242924.3333333333</v>
       </c>
     </row>
@@ -31341,27 +31865,30 @@
         <v>1605.3</v>
       </c>
       <c r="BV175">
+        <v>795240</v>
+      </c>
+      <c r="BW175">
         <v>232.045</v>
       </c>
-      <c r="BW175">
+      <c r="BX175">
         <v>228.4096666666667</v>
       </c>
-      <c r="BX175">
+      <c r="BY175">
         <v>17034.1</v>
       </c>
-      <c r="BY175">
+      <c r="BZ175">
         <v>17277.8</v>
       </c>
-      <c r="BZ175">
+      <c r="CA175">
         <v>-1</v>
       </c>
-      <c r="CA175">
+      <c r="CB175">
         <v>5044.666666666667</v>
       </c>
-      <c r="CB175">
+      <c r="CC175">
         <v>14033</v>
       </c>
-      <c r="CC175">
+      <c r="CD175">
         <v>245991.6666666667</v>
       </c>
     </row>
@@ -31520,27 +32047,30 @@
         <v>1602.5</v>
       </c>
       <c r="BV176">
+        <v>802336</v>
+      </c>
+      <c r="BW176">
         <v>233.3</v>
       </c>
-      <c r="BW176">
+      <c r="BX176">
         <v>229.589</v>
       </c>
-      <c r="BX176">
+      <c r="BY176">
         <v>17110.5</v>
       </c>
-      <c r="BY176">
+      <c r="BZ176">
         <v>17438.5</v>
       </c>
-      <c r="BZ176">
+      <c r="CA176">
         <v>-1</v>
       </c>
-      <c r="CA176">
+      <c r="CB176">
         <v>5040</v>
       </c>
-      <c r="CB176">
+      <c r="CC176">
         <v>14031</v>
       </c>
-      <c r="CC176">
+      <c r="CD176">
         <v>249225</v>
       </c>
     </row>
@@ -31699,27 +32229,30 @@
         <v>1643.5</v>
       </c>
       <c r="BV177">
+        <v>808608</v>
+      </c>
+      <c r="BW177">
         <v>234.1626666666667</v>
       </c>
-      <c r="BW177">
+      <c r="BX177">
         <v>230.4336666666667</v>
       </c>
-      <c r="BX177">
+      <c r="BY177">
         <v>17187.9</v>
       </c>
-      <c r="BY177">
+      <c r="BZ177">
         <v>17620.6</v>
       </c>
-      <c r="BZ177">
+      <c r="CA177">
         <v>-1</v>
       </c>
-      <c r="CA177">
+      <c r="CB177">
         <v>5055.333333333333</v>
       </c>
-      <c r="CB177">
+      <c r="CC177">
         <v>14033.66666666667</v>
       </c>
-      <c r="CC177">
+      <c r="CD177">
         <v>247543.3333333333</v>
       </c>
     </row>
@@ -31878,27 +32411,30 @@
         <v>1561.5</v>
       </c>
       <c r="BV178">
+        <v>824825</v>
+      </c>
+      <c r="BW178">
         <v>235.621</v>
       </c>
-      <c r="BW178">
+      <c r="BX178">
         <v>231.95</v>
       </c>
-      <c r="BX178">
+      <c r="BY178">
         <v>17266.3</v>
       </c>
-      <c r="BY178">
+      <c r="BZ178">
         <v>17773.5</v>
       </c>
-      <c r="BZ178">
+      <c r="CA178">
         <v>-1</v>
       </c>
-      <c r="CA178">
+      <c r="CB178">
         <v>5054.666666666667</v>
       </c>
-      <c r="CB178">
+      <c r="CC178">
         <v>14037.66666666667</v>
       </c>
-      <c r="CC178">
+      <c r="CD178">
         <v>242281</v>
       </c>
     </row>
@@ -32057,27 +32593,30 @@
         <v>1743.6</v>
       </c>
       <c r="BV179">
+        <v>831664</v>
+      </c>
+      <c r="BW179">
         <v>236.8723333333333</v>
       </c>
-      <c r="BW179">
+      <c r="BX179">
         <v>233.1013333333334</v>
       </c>
-      <c r="BX179">
+      <c r="BY179">
         <v>17345.6</v>
       </c>
-      <c r="BY179">
+      <c r="BZ179">
         <v>17954.7</v>
       </c>
-      <c r="BZ179">
+      <c r="CA179">
         <v>-1</v>
       </c>
-      <c r="CA179">
+      <c r="CB179">
         <v>5054.666666666667</v>
       </c>
-      <c r="CB179">
+      <c r="CC179">
         <v>14077</v>
       </c>
-      <c r="CC179">
+      <c r="CD179">
         <v>251080</v>
       </c>
     </row>
@@ -32236,27 +32775,30 @@
         <v>1769.4</v>
       </c>
       <c r="BV180">
+        <v>836478</v>
+      </c>
+      <c r="BW180">
         <v>237.4783333333333</v>
       </c>
-      <c r="BW180">
+      <c r="BX180">
         <v>233.4943333333333</v>
       </c>
-      <c r="BX180">
+      <c r="BY180">
         <v>17426.1</v>
       </c>
-      <c r="BY180">
+      <c r="BZ180">
         <v>18115.7</v>
       </c>
-      <c r="BZ180">
+      <c r="CA180">
         <v>-1</v>
       </c>
-      <c r="CA180">
+      <c r="CB180">
         <v>5030.666666666667</v>
       </c>
-      <c r="CB180">
+      <c r="CC180">
         <v>14120</v>
       </c>
-      <c r="CC180">
+      <c r="CD180">
         <v>258128</v>
       </c>
     </row>
@@ -32415,27 +32957,30 @@
         <v>1786.9</v>
       </c>
       <c r="BV181">
+        <v>845592</v>
+      </c>
+      <c r="BW181">
         <v>236.8883333333334</v>
       </c>
-      <c r="BW181">
+      <c r="BX181">
         <v>232.431</v>
       </c>
-      <c r="BX181">
+      <c r="BY181">
         <v>17507.2</v>
       </c>
-      <c r="BY181">
+      <c r="BZ181">
         <v>18229.1</v>
       </c>
-      <c r="BZ181">
+      <c r="CA181">
         <v>-1</v>
       </c>
-      <c r="CA181">
+      <c r="CB181">
         <v>5052.666666666667</v>
       </c>
-      <c r="CB181">
+      <c r="CC181">
         <v>14140</v>
       </c>
-      <c r="CC181">
+      <c r="CD181">
         <v>260687.6666666667</v>
       </c>
     </row>
@@ -32594,27 +33139,30 @@
         <v>1728.9</v>
       </c>
       <c r="BV182">
+        <v>861827</v>
+      </c>
+      <c r="BW182">
         <v>235.355</v>
       </c>
-      <c r="BW182">
+      <c r="BX182">
         <v>230.2366666666667</v>
       </c>
-      <c r="BX182">
+      <c r="BY182">
         <v>17588.4</v>
       </c>
-      <c r="BY182">
+      <c r="BZ182">
         <v>18297.4</v>
       </c>
-      <c r="BZ182">
+      <c r="CA182">
         <v>-1</v>
       </c>
-      <c r="CA182">
+      <c r="CB182">
         <v>5067.666666666667</v>
       </c>
-      <c r="CB182">
+      <c r="CC182">
         <v>14155</v>
       </c>
-      <c r="CC182">
+      <c r="CD182">
         <v>260300</v>
       </c>
     </row>
@@ -32773,27 +33321,30 @@
         <v>1721.5</v>
       </c>
       <c r="BV183">
+        <v>868501</v>
+      </c>
+      <c r="BW183">
         <v>236.96</v>
       </c>
-      <c r="BW183">
+      <c r="BX183">
         <v>231.9576666666667</v>
       </c>
-      <c r="BX183">
+      <c r="BY183">
         <v>17669.6</v>
       </c>
-      <c r="BY183">
+      <c r="BZ183">
         <v>18481.8</v>
       </c>
-      <c r="BZ183">
+      <c r="CA183">
         <v>-1</v>
       </c>
-      <c r="CA183">
+      <c r="CB183">
         <v>5072.333333333333</v>
       </c>
-      <c r="CB183">
+      <c r="CC183">
         <v>14181.66666666667</v>
       </c>
-      <c r="CC183">
+      <c r="CD183">
         <v>273597.3333333333</v>
       </c>
     </row>
@@ -32952,27 +33503,30 @@
         <v>1673.6</v>
       </c>
       <c r="BV184">
+        <v>873921</v>
+      </c>
+      <c r="BW184">
         <v>237.855</v>
       </c>
-      <c r="BW184">
+      <c r="BX184">
         <v>232.6933333333334</v>
       </c>
-      <c r="BX184">
+      <c r="BY184">
         <v>17750</v>
       </c>
-      <c r="BY184">
+      <c r="BZ184">
         <v>18624.4</v>
       </c>
-      <c r="BZ184">
+      <c r="CA184">
         <v>-1</v>
       </c>
-      <c r="CA184">
+      <c r="CB184">
         <v>5077.666666666667</v>
       </c>
-      <c r="CB184">
+      <c r="CC184">
         <v>14214</v>
       </c>
-      <c r="CC184">
+      <c r="CD184">
         <v>278438.6666666667</v>
       </c>
     </row>
@@ -33131,27 +33685,30 @@
         <v>1537.1</v>
       </c>
       <c r="BV185">
+        <v>882925</v>
+      </c>
+      <c r="BW185">
         <v>237.837</v>
       </c>
-      <c r="BW185">
+      <c r="BX185">
         <v>232.2803333333334</v>
       </c>
-      <c r="BX185">
+      <c r="BY185">
         <v>17829</v>
       </c>
-      <c r="BY185">
+      <c r="BZ185">
         <v>18709.3</v>
       </c>
-      <c r="BZ185">
+      <c r="CA185">
         <v>-1</v>
       </c>
-      <c r="CA185">
+      <c r="CB185">
         <v>5087.333333333333</v>
       </c>
-      <c r="CB185">
+      <c r="CC185">
         <v>14223.66666666667</v>
       </c>
-      <c r="CC185">
+      <c r="CD185">
         <v>269445</v>
       </c>
     </row>
@@ -33310,27 +33867,30 @@
         <v>1645.7</v>
       </c>
       <c r="BV186">
+        <v>886054</v>
+      </c>
+      <c r="BW186">
         <v>237.6893333333333</v>
       </c>
-      <c r="BW186">
+      <c r="BX186">
         <v>231.781</v>
       </c>
-      <c r="BX186">
+      <c r="BY186">
         <v>17906.9</v>
       </c>
-      <c r="BY186">
+      <c r="BZ186">
         <v>18778</v>
       </c>
-      <c r="BZ186">
+      <c r="CA186">
         <v>-1</v>
       </c>
-      <c r="CA186">
+      <c r="CB186">
         <v>5089</v>
       </c>
-      <c r="CB186">
+      <c r="CC186">
         <v>14277</v>
       </c>
-      <c r="CC186">
+      <c r="CD186">
         <v>278949.3333333333</v>
       </c>
     </row>
@@ -33489,27 +34049,30 @@
         <v>1600.3</v>
       </c>
       <c r="BV187">
+        <v>893200</v>
+      </c>
+      <c r="BW187">
         <v>239.5903333333333</v>
       </c>
-      <c r="BW187">
+      <c r="BX187">
         <v>233.774</v>
       </c>
-      <c r="BX187">
+      <c r="BY187">
         <v>17983.7</v>
       </c>
-      <c r="BY187">
+      <c r="BZ187">
         <v>18989.4</v>
       </c>
-      <c r="BZ187">
+      <c r="CA187">
         <v>-1</v>
       </c>
-      <c r="CA187">
+      <c r="CB187">
         <v>5098.666666666667</v>
       </c>
-      <c r="CB187">
+      <c r="CC187">
         <v>14297.66666666667</v>
       </c>
-      <c r="CC187">
+      <c r="CD187">
         <v>274095</v>
       </c>
     </row>
@@ -33668,27 +34231,30 @@
         <v>1625.4</v>
       </c>
       <c r="BV188">
+        <v>899396</v>
+      </c>
+      <c r="BW188">
         <v>240.6073333333333</v>
       </c>
-      <c r="BW188">
+      <c r="BX188">
         <v>234.5966666666667</v>
       </c>
-      <c r="BX188">
+      <c r="BY188">
         <v>18059.3</v>
       </c>
-      <c r="BY188">
+      <c r="BZ188">
         <v>19133.9</v>
       </c>
-      <c r="BZ188">
+      <c r="CA188">
         <v>-1</v>
       </c>
-      <c r="CA188">
+      <c r="CB188">
         <v>5126.666666666667</v>
       </c>
-      <c r="CB188">
+      <c r="CC188">
         <v>14369</v>
       </c>
-      <c r="CC188">
+      <c r="CD188">
         <v>271667</v>
       </c>
     </row>
@@ -33847,27 +34413,30 @@
         <v>1599.7</v>
       </c>
       <c r="BV189">
+        <v>907237</v>
+      </c>
+      <c r="BW189">
         <v>242.1346666666667</v>
       </c>
-      <c r="BW189">
+      <c r="BX189">
         <v>236.1406666666667</v>
       </c>
-      <c r="BX189">
+      <c r="BY189">
         <v>18134.2</v>
       </c>
-      <c r="BY189">
+      <c r="BZ189">
         <v>19307.3</v>
       </c>
-      <c r="BZ189">
+      <c r="CA189">
         <v>-1</v>
       </c>
-      <c r="CA189">
+      <c r="CB189">
         <v>5135.333333333333</v>
       </c>
-      <c r="CB189">
+      <c r="CC189">
         <v>14351</v>
       </c>
-      <c r="CC189">
+      <c r="CD189">
         <v>276420.3333333333</v>
       </c>
     </row>
@@ -34026,27 +34595,30 @@
         <v>1604.1</v>
       </c>
       <c r="BV190">
+        <v>916563</v>
+      </c>
+      <c r="BW190">
         <v>243.7526666666667</v>
       </c>
-      <c r="BW190">
+      <c r="BX190">
         <v>237.75</v>
       </c>
-      <c r="BX190">
+      <c r="BY190">
         <v>18209.5</v>
       </c>
-      <c r="BY190">
+      <c r="BZ190">
         <v>19485.9</v>
       </c>
-      <c r="BZ190">
+      <c r="CA190">
         <v>-1</v>
       </c>
-      <c r="CA190">
+      <c r="CB190">
         <v>5158</v>
       </c>
-      <c r="CB190">
+      <c r="CC190">
         <v>14347</v>
       </c>
-      <c r="CC190">
+      <c r="CD190">
         <v>272574.3333333333</v>
       </c>
     </row>
@@ -34205,27 +34777,30 @@
         <v>1634.8</v>
       </c>
       <c r="BV191">
+        <v>921907</v>
+      </c>
+      <c r="BW191">
         <v>244.187</v>
       </c>
-      <c r="BW191">
+      <c r="BX191">
         <v>238.0306666666667</v>
       </c>
-      <c r="BX191">
+      <c r="BY191">
         <v>18284.5</v>
       </c>
-      <c r="BY191">
+      <c r="BZ191">
         <v>19626.5</v>
       </c>
-      <c r="BZ191">
+      <c r="CA191">
         <v>-1</v>
       </c>
-      <c r="CA191">
+      <c r="CB191">
         <v>5170.333333333333</v>
       </c>
-      <c r="CB191">
+      <c r="CC191">
         <v>14363</v>
       </c>
-      <c r="CC191">
+      <c r="CD191">
         <v>274286.3333333333</v>
       </c>
     </row>
@@ -34384,27 +34959,30 @@
         <v>1639</v>
       </c>
       <c r="BV192">
+        <v>929187</v>
+      </c>
+      <c r="BW192">
         <v>245.3453333333333</v>
       </c>
-      <c r="BW192">
+      <c r="BX192">
         <v>239.2</v>
       </c>
-      <c r="BX192">
+      <c r="BY192">
         <v>18362.1</v>
       </c>
-      <c r="BY192">
+      <c r="BZ192">
         <v>19807.6</v>
       </c>
-      <c r="BZ192">
+      <c r="CA192">
         <v>-1</v>
       </c>
-      <c r="CA192">
+      <c r="CB192">
         <v>5168.333333333333</v>
       </c>
-      <c r="CB192">
+      <c r="CC192">
         <v>14401.66666666667</v>
       </c>
-      <c r="CC192">
+      <c r="CD192">
         <v>274862.6666666667</v>
       </c>
     </row>
@@ -34563,27 +35141,30 @@
         <v>1641.9</v>
       </c>
       <c r="BV193">
+        <v>936629</v>
+      </c>
+      <c r="BW193">
         <v>247.257</v>
       </c>
-      <c r="BW193">
+      <c r="BX193">
         <v>241.3036666666667</v>
       </c>
-      <c r="BX193">
+      <c r="BY193">
         <v>18441.6</v>
       </c>
-      <c r="BY193">
+      <c r="BZ193">
         <v>20027.3</v>
       </c>
-      <c r="BZ193">
+      <c r="CA193">
         <v>-1</v>
       </c>
-      <c r="CA193">
+      <c r="CB193">
         <v>5160.333333333333</v>
       </c>
-      <c r="CB193">
+      <c r="CC193">
         <v>14428.66666666667</v>
       </c>
-      <c r="CC193">
+      <c r="CD193">
         <v>280795.3333333333</v>
       </c>
     </row>
@@ -34742,27 +35323,30 @@
         <v>1701.8</v>
       </c>
       <c r="BV194">
+        <v>961074</v>
+      </c>
+      <c r="BW194">
         <v>249.1793333333334</v>
       </c>
-      <c r="BW194">
+      <c r="BX194">
         <v>243.2743333333333</v>
       </c>
-      <c r="BX194">
+      <c r="BY194">
         <v>18523.9</v>
       </c>
-      <c r="BY194">
+      <c r="BZ194">
         <v>20235</v>
       </c>
-      <c r="BZ194">
+      <c r="CA194">
         <v>-1</v>
       </c>
-      <c r="CA194">
+      <c r="CB194">
         <v>5150.333333333333</v>
       </c>
-      <c r="CB194">
+      <c r="CC194">
         <v>14442.33333333333</v>
       </c>
-      <c r="CC194">
+      <c r="CD194">
         <v>282163</v>
       </c>
     </row>
@@ -34921,27 +35505,30 @@
         <v>1742.3</v>
       </c>
       <c r="BV195">
+        <v>968110</v>
+      </c>
+      <c r="BW195">
         <v>250.7376666666667</v>
       </c>
-      <c r="BW195">
+      <c r="BX195">
         <v>244.813</v>
       </c>
-      <c r="BX195">
+      <c r="BY195">
         <v>18609.6</v>
       </c>
-      <c r="BY195">
+      <c r="BZ195">
         <v>20503.3</v>
       </c>
-      <c r="BZ195">
+      <c r="CA195">
         <v>-1</v>
       </c>
-      <c r="CA195">
+      <c r="CB195">
         <v>5173</v>
       </c>
-      <c r="CB195">
+      <c r="CC195">
         <v>14468.66666666667</v>
       </c>
-      <c r="CC195">
+      <c r="CD195">
         <v>291235.6666666667</v>
       </c>
     </row>
@@ -35100,27 +35687,30 @@
         <v>1816.9</v>
       </c>
       <c r="BV196">
+        <v>976505</v>
+      </c>
+      <c r="BW196">
         <v>251.7543333333333</v>
       </c>
-      <c r="BW196">
+      <c r="BX196">
         <v>245.793</v>
       </c>
-      <c r="BX196">
+      <c r="BY196">
         <v>18698.1</v>
       </c>
-      <c r="BY196">
+      <c r="BZ196">
         <v>20682.7</v>
       </c>
-      <c r="BZ196">
+      <c r="CA196">
         <v>-1</v>
       </c>
-      <c r="CA196">
+      <c r="CB196">
         <v>5185.333333333333</v>
       </c>
-      <c r="CB196">
+      <c r="CC196">
         <v>14494.33333333333</v>
       </c>
-      <c r="CC196">
+      <c r="CD196">
         <v>292706.6666666667</v>
       </c>
     </row>
@@ -35279,27 +35869,30 @@
         <v>1872</v>
       </c>
       <c r="BV197">
+        <v>983959</v>
+      </c>
+      <c r="BW197">
         <v>252.738</v>
       </c>
-      <c r="BW197">
+      <c r="BX197">
         <v>246.681</v>
       </c>
-      <c r="BX197">
+      <c r="BY197">
         <v>18787.9</v>
       </c>
-      <c r="BY197">
+      <c r="BZ197">
         <v>20881.1</v>
       </c>
-      <c r="BZ197">
+      <c r="CA197">
         <v>-1</v>
       </c>
-      <c r="CA197">
+      <c r="CB197">
         <v>5177</v>
       </c>
-      <c r="CB197">
+      <c r="CC197">
         <v>14510</v>
       </c>
-      <c r="CC197">
+      <c r="CD197">
         <v>285420</v>
       </c>
     </row>
@@ -35458,27 +36051,30 @@
         <v>1799.2</v>
       </c>
       <c r="BV198">
+        <v>1019419</v>
+      </c>
+      <c r="BW198">
         <v>253.1856666666667</v>
       </c>
-      <c r="BW198">
+      <c r="BX198">
         <v>246.765</v>
       </c>
-      <c r="BX198">
+      <c r="BY198">
         <v>18879</v>
       </c>
-      <c r="BY198">
+      <c r="BZ198">
         <v>21035.8</v>
       </c>
-      <c r="BZ198">
+      <c r="CA198">
         <v>-1</v>
       </c>
-      <c r="CA198">
+      <c r="CB198">
         <v>5171.333333333333</v>
       </c>
-      <c r="CB198">
+      <c r="CC198">
         <v>14527.66666666667</v>
       </c>
-      <c r="CC198">
+      <c r="CD198">
         <v>304217</v>
       </c>
     </row>
@@ -35637,27 +36233,30 @@
         <v>1858.1</v>
       </c>
       <c r="BV199">
+        <v>1026418</v>
+      </c>
+      <c r="BW199">
         <v>255.3733333333333</v>
       </c>
-      <c r="BW199">
+      <c r="BX199">
         <v>249.0076666666667</v>
       </c>
-      <c r="BX199">
+      <c r="BY199">
         <v>18971.4</v>
       </c>
-      <c r="BY199">
+      <c r="BZ199">
         <v>21274.7</v>
       </c>
-      <c r="BZ199">
+      <c r="CA199">
         <v>-1</v>
       </c>
-      <c r="CA199">
+      <c r="CB199">
         <v>5177.333333333333</v>
       </c>
-      <c r="CB199">
+      <c r="CC199">
         <v>14558.33333333333</v>
       </c>
-      <c r="CC199">
+      <c r="CD199">
         <v>321543</v>
       </c>
     </row>
@@ -35816,27 +36415,30 @@
         <v>1859.3</v>
       </c>
       <c r="BV200">
+        <v>1034208</v>
+      </c>
+      <c r="BW200">
         <v>256.1916666666667</v>
       </c>
-      <c r="BW200">
+      <c r="BX200">
         <v>249.665</v>
       </c>
-      <c r="BX200">
+      <c r="BY200">
         <v>19064.1</v>
       </c>
-      <c r="BY200">
+      <c r="BZ200">
         <v>21452.9</v>
       </c>
-      <c r="BZ200">
+      <c r="CA200">
         <v>-1</v>
       </c>
-      <c r="CA200">
+      <c r="CB200">
         <v>5218.333333333333</v>
       </c>
-      <c r="CB200">
+      <c r="CC200">
         <v>14590</v>
       </c>
-      <c r="CC200">
+      <c r="CD200">
         <v>322016</v>
       </c>
     </row>
@@ -35995,27 +36597,30 @@
         <v>1901</v>
       </c>
       <c r="BV201">
+        <v>1042927</v>
+      </c>
+      <c r="BW201">
         <v>257.8596666666667</v>
       </c>
-      <c r="BW201">
+      <c r="BX201">
         <v>251.4253333333334</v>
       </c>
-      <c r="BX201">
+      <c r="BY201">
         <v>19157.1</v>
       </c>
-      <c r="BY201">
+      <c r="BZ201">
         <v>21638</v>
       </c>
-      <c r="BZ201">
+      <c r="CA201">
         <v>1</v>
       </c>
-      <c r="CA201">
+      <c r="CB201">
         <v>5250.333333333333</v>
       </c>
-      <c r="CB201">
+      <c r="CC201">
         <v>14620.33333333333</v>
       </c>
-      <c r="CC201">
+      <c r="CD201">
         <v>324071.6666666667</v>
       </c>
     </row>
@@ -36177,27 +36782,30 @@
         <v>1690.4</v>
       </c>
       <c r="BV202">
+        <v>1067885</v>
+      </c>
+      <c r="BW202">
         <v>258.5</v>
       </c>
-      <c r="BW202">
+      <c r="BX202">
         <v>251.8853333333333</v>
       </c>
-      <c r="BX202">
+      <c r="BY202">
         <v>19250.2</v>
       </c>
-      <c r="BY202">
+      <c r="BZ202">
         <v>21832.6</v>
       </c>
-      <c r="BZ202">
+      <c r="CA202">
         <v>1</v>
       </c>
-      <c r="CA202">
+      <c r="CB202">
         <v>5276.333333333333</v>
       </c>
-      <c r="CB202">
+      <c r="CC202">
         <v>14658.33333333333</v>
       </c>
-      <c r="CC202">
+      <c r="CD202">
         <v>341494</v>
       </c>
     </row>
@@ -36416,27 +37024,30 @@
         <v>60.3</v>
       </c>
       <c r="BV203">
+        <v>1074791</v>
+      </c>
+      <c r="BW203">
         <v>256.472</v>
       </c>
-      <c r="BW203">
+      <c r="BX203">
         <v>249.576</v>
       </c>
-      <c r="BX203">
+      <c r="BY203">
         <v>19340.2</v>
       </c>
-      <c r="BY203">
+      <c r="BZ203">
         <v>21819</v>
       </c>
-      <c r="BZ203">
+      <c r="CA203">
         <v>1</v>
       </c>
-      <c r="CA203">
+      <c r="CB203">
         <v>5049.333333333333</v>
       </c>
-      <c r="CB203">
+      <c r="CC203">
         <v>13569.66666666667</v>
       </c>
-      <c r="CC203">
+      <c r="CD203">
         <v>335548.3333333333</v>
       </c>
     </row>
@@ -36658,27 +37269,30 @@
         <v>18.5</v>
       </c>
       <c r="BV204">
+        <v>1080221</v>
+      </c>
+      <c r="BW204">
         <v>259.4213333333333</v>
       </c>
-      <c r="BW204">
+      <c r="BX204">
         <v>253.0136666666666</v>
       </c>
-      <c r="BX204">
+      <c r="BY204">
         <v>19424.2</v>
       </c>
-      <c r="BY204">
+      <c r="BZ204">
         <v>22112.5</v>
       </c>
-      <c r="BZ204">
+      <c r="CA204">
         <v>-1</v>
       </c>
-      <c r="CA204">
+      <c r="CB204">
         <v>5036.333333333333</v>
       </c>
-      <c r="CB204">
+      <c r="CC204">
         <v>13736.66666666667</v>
       </c>
-      <c r="CC204">
+      <c r="CD204">
         <v>323099.3333333333</v>
       </c>
     </row>
@@ -36900,27 +37514,30 @@
         <v>0</v>
       </c>
       <c r="BV205">
+        <v>1088815</v>
+      </c>
+      <c r="BW205">
         <v>260.983</v>
       </c>
-      <c r="BW205">
+      <c r="BX205">
         <v>254.6803333333333</v>
       </c>
-      <c r="BX205">
+      <c r="BY205">
         <v>19512</v>
       </c>
-      <c r="BY205">
+      <c r="BZ205">
         <v>22315.4</v>
       </c>
-      <c r="BZ205">
+      <c r="CA205">
         <v>-1</v>
       </c>
-      <c r="CA205">
+      <c r="CB205">
         <v>4935.333333333333</v>
       </c>
-      <c r="CB205">
+      <c r="CC205">
         <v>13655.33333333333</v>
       </c>
-      <c r="CC205">
+      <c r="CD205">
         <v>328325</v>
       </c>
     </row>
@@ -37142,27 +37759,30 @@
         <v>0.3</v>
       </c>
       <c r="BV206">
+        <v>1106316</v>
+      </c>
+      <c r="BW206">
         <v>263.395</v>
       </c>
-      <c r="BW206">
+      <c r="BX206">
         <v>257.3506666666667</v>
       </c>
-      <c r="BX206">
+      <c r="BY206">
         <v>19602.5</v>
       </c>
-      <c r="BY206">
+      <c r="BZ206">
         <v>22645</v>
       </c>
-      <c r="BZ206">
+      <c r="CA206">
         <v>-1</v>
       </c>
-      <c r="CA206">
+      <c r="CB206">
         <v>4976.666666666667</v>
       </c>
-      <c r="CB206">
+      <c r="CC206">
         <v>13671.33333333333</v>
       </c>
-      <c r="CC206">
+      <c r="CD206">
         <v>322875.3333333333</v>
       </c>
     </row>
@@ -37387,27 +38007,30 @@
         <v>11.3</v>
       </c>
       <c r="BV207">
+        <v>1109664</v>
+      </c>
+      <c r="BW207">
         <v>268.788</v>
       </c>
-      <c r="BW207">
+      <c r="BX207">
         <v>263.1253333333333</v>
       </c>
-      <c r="BX207">
+      <c r="BY207">
         <v>19697.4</v>
       </c>
-      <c r="BY207">
+      <c r="BZ207">
         <v>22983.3</v>
       </c>
-      <c r="BZ207">
+      <c r="CA207">
         <v>-1</v>
       </c>
-      <c r="CA207">
+      <c r="CB207">
         <v>5023</v>
       </c>
-      <c r="CB207">
+      <c r="CC207">
         <v>13769.33333333333</v>
       </c>
-      <c r="CC207">
+      <c r="CD207">
         <v>318491.3333333333</v>
       </c>
     </row>
@@ -37632,27 +38255,30 @@
         <v>10.4</v>
       </c>
       <c r="BV208">
+        <v>1117221</v>
+      </c>
+      <c r="BW208">
         <v>273.1383333333333</v>
       </c>
-      <c r="BW208">
+      <c r="BX208">
         <v>267.8553333333334</v>
       </c>
-      <c r="BX208">
+      <c r="BY208">
         <v>19795.8</v>
       </c>
-      <c r="BY208">
+      <c r="BZ208">
         <v>23233.1</v>
       </c>
-      <c r="BZ208">
+      <c r="CA208">
         <v>-1</v>
       </c>
-      <c r="CA208">
+      <c r="CB208">
         <v>5069</v>
       </c>
-      <c r="CB208">
+      <c r="CC208">
         <v>14088.33333333333</v>
       </c>
-      <c r="CC208">
+      <c r="CD208">
         <v>321326.3333333333</v>
       </c>
     </row>

--- a/inst/extdata/national_accounts.xlsx
+++ b/inst/extdata/national_accounts.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CD208"/>
+  <dimension ref="A1:CE209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,6 +775,11 @@
           <t>cpgs</t>
         </is>
       </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>yptocm</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -37785,6 +37790,9 @@
       <c r="CD206">
         <v>322875.3333333333</v>
       </c>
+      <c r="CE206">
+        <v>34.4</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2">
@@ -38033,121 +38041,124 @@
       <c r="CD207">
         <v>318491.3333333333</v>
       </c>
+      <c r="CE207">
+        <v>34.4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2">
         <v>44469</v>
       </c>
       <c r="B208">
-        <v>23187</v>
+        <v>23202.3</v>
       </c>
       <c r="C208">
-        <v>19469.4</v>
+        <v>19478.9</v>
       </c>
       <c r="D208">
-        <v>119.237</v>
+        <v>119.259</v>
       </c>
       <c r="E208">
-        <v>15952.4</v>
+        <v>15964.9</v>
       </c>
       <c r="F208">
-        <v>13723.7</v>
+        <v>13732.4</v>
       </c>
       <c r="G208">
-        <v>116.259</v>
+        <v>116.277</v>
       </c>
       <c r="H208">
-        <v>116.58</v>
+        <v>116.643</v>
       </c>
       <c r="I208">
-        <v>123.542</v>
+        <v>123.541</v>
       </c>
       <c r="J208">
-        <v>123.296</v>
+        <v>123.291</v>
       </c>
       <c r="K208">
-        <v>124.693</v>
+        <v>124.71</v>
       </c>
       <c r="L208">
         <v>826.5</v>
       </c>
       <c r="M208">
-        <v>786.3</v>
+        <v>775</v>
       </c>
       <c r="N208">
         <v>272.3</v>
       </c>
       <c r="O208">
-        <v>4080.8</v>
+        <v>4069.6</v>
       </c>
       <c r="P208">
         <v>116.8</v>
       </c>
       <c r="Q208">
-        <v>2619.2</v>
+        <v>2623.7</v>
       </c>
       <c r="R208">
-        <v>1661.6</v>
+        <v>1654.7</v>
       </c>
       <c r="S208">
-        <v>384.5</v>
+        <v>381.2</v>
       </c>
       <c r="T208">
-        <v>4083.7</v>
+        <v>4084.9</v>
       </c>
       <c r="U208">
-        <v>1613.5</v>
+        <v>1613.2</v>
       </c>
       <c r="V208">
-        <v>116.239</v>
+        <v>116.257</v>
       </c>
       <c r="W208">
         <v>1562</v>
       </c>
       <c r="X208">
-        <v>2521.7</v>
+        <v>2522.9</v>
       </c>
       <c r="Y208">
-        <v>1339.9</v>
+        <v>1339.1</v>
       </c>
       <c r="Z208">
-        <v>2041.1</v>
+        <v>2042.1</v>
       </c>
       <c r="AA208">
-        <v>2019.3</v>
+        <v>2018.5</v>
       </c>
       <c r="AB208">
-        <v>173</v>
+        <v>172.9</v>
       </c>
       <c r="AC208">
-        <v>293.1</v>
+        <v>285.9</v>
       </c>
       <c r="AD208">
-        <v>1591.1</v>
+        <v>1590.7</v>
       </c>
       <c r="AE208">
-        <v>3136.6</v>
+        <v>3136.3</v>
       </c>
       <c r="AF208">
         <v>1057.1</v>
       </c>
       <c r="AG208">
-        <v>599.9</v>
+        <v>605.1</v>
       </c>
       <c r="AH208">
-        <v>1488.6</v>
+        <v>1481.8</v>
       </c>
       <c r="AI208">
-        <v>91.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AJ208">
         <v>22.5</v>
       </c>
       <c r="AK208">
-        <v>944.3</v>
+        <v>933.2000000000001</v>
       </c>
       <c r="AL208">
-        <v>3448</v>
+        <v>3438</v>
       </c>
       <c r="AM208">
         <v>569606</v>
@@ -38159,7 +38170,7 @@
         <v>72767</v>
       </c>
       <c r="AP208">
-        <v>554.4</v>
+        <v>554.5</v>
       </c>
       <c r="AQ208">
         <v>0.6</v>
@@ -38231,22 +38242,22 @@
         <v>100.6</v>
       </c>
       <c r="BN208">
-        <v>135.881</v>
+        <v>135.661</v>
       </c>
       <c r="BO208">
-        <v>10472.4</v>
+        <v>10469.5</v>
       </c>
       <c r="BP208">
-        <v>1854.2</v>
+        <v>1867</v>
       </c>
       <c r="BQ208">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BR208">
-        <v>2949.8</v>
+        <v>2945.2</v>
       </c>
       <c r="BS208">
-        <v>2440.4</v>
+        <v>2404.8</v>
       </c>
       <c r="BT208">
         <v>57</v>
@@ -38255,7 +38266,7 @@
         <v>10.4</v>
       </c>
       <c r="BV208">
-        <v>1117221</v>
+        <v>1117202</v>
       </c>
       <c r="BW208">
         <v>273.1383333333333</v>
@@ -38273,13 +38284,261 @@
         <v>-1</v>
       </c>
       <c r="CB208">
-        <v>5069</v>
+        <v>5072.666666666667</v>
       </c>
       <c r="CC208">
         <v>14088.33333333333</v>
       </c>
       <c r="CD208">
-        <v>321326.3333333333</v>
+        <v>321889.6666666667</v>
+      </c>
+      <c r="CE208">
+        <v>218.9333333333333</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B209">
+        <v>23992.4</v>
+      </c>
+      <c r="C209">
+        <v>19806</v>
+      </c>
+      <c r="D209">
+        <v>121.277</v>
+      </c>
+      <c r="E209">
+        <v>16347.8</v>
+      </c>
+      <c r="F209">
+        <v>13842.7</v>
+      </c>
+      <c r="G209">
+        <v>118.117</v>
+      </c>
+      <c r="H209">
+        <v>118.151</v>
+      </c>
+      <c r="I209">
+        <v>126.175</v>
+      </c>
+      <c r="J209">
+        <v>125.721</v>
+      </c>
+      <c r="K209">
+        <v>128.322</v>
+      </c>
+      <c r="L209">
+        <v>847.9</v>
+      </c>
+      <c r="M209">
+        <v>792.2000000000001</v>
+      </c>
+      <c r="N209">
+        <v>37.6</v>
+      </c>
+      <c r="O209">
+        <v>3888.3</v>
+      </c>
+      <c r="P209">
+        <v>117.5</v>
+      </c>
+      <c r="Q209">
+        <v>2715.9</v>
+      </c>
+      <c r="R209">
+        <v>1696.3</v>
+      </c>
+      <c r="S209">
+        <v>360</v>
+      </c>
+      <c r="T209">
+        <v>4128.4</v>
+      </c>
+      <c r="U209">
+        <v>1645.8</v>
+      </c>
+      <c r="V209">
+        <v>118.097</v>
+      </c>
+      <c r="W209">
+        <v>1566.1</v>
+      </c>
+      <c r="X209">
+        <v>2562.3</v>
+      </c>
+      <c r="Y209">
+        <v>1325.6</v>
+      </c>
+      <c r="Z209">
+        <v>2030.7</v>
+      </c>
+      <c r="AA209">
+        <v>2088.2</v>
+      </c>
+      <c r="AB209">
+        <v>178.7</v>
+      </c>
+      <c r="AC209">
+        <v>269.1333333333333</v>
+      </c>
+      <c r="AD209">
+        <v>1623</v>
+      </c>
+      <c r="AE209">
+        <v>2939.7</v>
+      </c>
+      <c r="AF209">
+        <v>892</v>
+      </c>
+      <c r="AG209">
+        <v>627.7000000000001</v>
+      </c>
+      <c r="AH209">
+        <v>1517.6</v>
+      </c>
+      <c r="AI209">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="AJ209">
+        <v>22.8</v>
+      </c>
+      <c r="AK209">
+        <v>948.5</v>
+      </c>
+      <c r="AL209">
+        <v>3480.1</v>
+      </c>
+      <c r="AM209">
+        <v>590802</v>
+      </c>
+      <c r="AN209">
+        <v>541835</v>
+      </c>
+      <c r="AO209">
+        <v>74371</v>
+      </c>
+      <c r="AP209">
+        <v>305.2</v>
+      </c>
+      <c r="AQ209">
+        <v>0.6</v>
+      </c>
+      <c r="AR209">
+        <v>305.8</v>
+      </c>
+      <c r="AS209">
+        <v>754.2333333333334</v>
+      </c>
+      <c r="AT209">
+        <v>14.2</v>
+      </c>
+      <c r="AU209">
+        <v>16.5</v>
+      </c>
+      <c r="AV209">
+        <v>35.6</v>
+      </c>
+      <c r="AW209">
+        <v>292.2666666666667</v>
+      </c>
+      <c r="AX209">
+        <v>28.66666666666666</v>
+      </c>
+      <c r="AY209">
+        <v>62.9</v>
+      </c>
+      <c r="AZ209">
+        <v>13.53333333333333</v>
+      </c>
+      <c r="BA209">
+        <v>7.966666666666667</v>
+      </c>
+      <c r="BB209">
+        <v>21.36666666666667</v>
+      </c>
+      <c r="BC209">
+        <v>8</v>
+      </c>
+      <c r="BD209">
+        <v>324.6</v>
+      </c>
+      <c r="BE209">
+        <v>59.06666666666666</v>
+      </c>
+      <c r="BF209">
+        <v>14.23333333333333</v>
+      </c>
+      <c r="BG209">
+        <v>87.93333333333334</v>
+      </c>
+      <c r="BH209">
+        <v>75.8</v>
+      </c>
+      <c r="BI209">
+        <v>212.4333333333333</v>
+      </c>
+      <c r="BJ209">
+        <v>388.3666666666667</v>
+      </c>
+      <c r="BK209">
+        <v>12.16666666666667</v>
+      </c>
+      <c r="BL209">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="BM209">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="BN209">
+        <v>143.268</v>
+      </c>
+      <c r="BO209">
+        <v>10716.8</v>
+      </c>
+      <c r="BP209">
+        <v>1850.7</v>
+      </c>
+      <c r="BQ209">
+        <v>749.9</v>
+      </c>
+      <c r="BR209">
+        <v>2986.9</v>
+      </c>
+      <c r="BS209">
+        <v>2282.933333333333</v>
+      </c>
+      <c r="BU209">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="BV209">
+        <v>1126929</v>
+      </c>
+      <c r="BW209">
+        <v>278.5986666666667</v>
+      </c>
+      <c r="BX209">
+        <v>273.7576666666666</v>
+      </c>
+      <c r="BY209">
+        <v>19898.3</v>
+      </c>
+      <c r="BZ209">
+        <v>23461.3</v>
+      </c>
+      <c r="CA209">
+        <v>-1</v>
+      </c>
+      <c r="CB209">
+        <v>5035.333333333333</v>
+      </c>
+      <c r="CC209">
+        <v>14007.66666666667</v>
+      </c>
+      <c r="CD209">
+        <v>321085.4444444444</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/national_accounts.xlsx
+++ b/inst/extdata/national_accounts.xlsx
@@ -38301,133 +38301,133 @@
         <v>44561</v>
       </c>
       <c r="B209">
-        <v>24008.5</v>
+        <v>24002.8</v>
       </c>
       <c r="C209">
-        <v>19810.6</v>
+        <v>19806.3</v>
       </c>
       <c r="D209">
-        <v>121.329</v>
+        <v>121.331</v>
       </c>
       <c r="E209">
-        <v>16335.5</v>
+        <v>16314.2</v>
       </c>
       <c r="F209">
-        <v>13836.7</v>
+        <v>13818.4</v>
       </c>
       <c r="G209">
-        <v>118.078</v>
+        <v>118.081</v>
       </c>
       <c r="H209">
-        <v>118.294</v>
+        <v>118.261</v>
       </c>
       <c r="I209">
-        <v>126.182</v>
+        <v>126.189</v>
       </c>
       <c r="J209">
-        <v>125.692</v>
+        <v>125.712</v>
       </c>
       <c r="K209">
-        <v>128.503</v>
+        <v>128.449</v>
       </c>
       <c r="L209">
         <v>847.9</v>
       </c>
       <c r="M209">
-        <v>781.6</v>
+        <v>782.9</v>
       </c>
       <c r="N209">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="O209">
-        <v>3877</v>
+        <v>3875.5</v>
       </c>
       <c r="P209">
         <v>117.5</v>
       </c>
       <c r="Q209">
-        <v>2744.4</v>
+        <v>2744.9</v>
       </c>
       <c r="R209">
-        <v>1694.7</v>
+        <v>1693.4</v>
       </c>
       <c r="S209">
-        <v>360</v>
+        <v>396.6</v>
       </c>
       <c r="T209">
-        <v>4134</v>
+        <v>4132.9</v>
       </c>
       <c r="U209">
-        <v>1652.8</v>
+        <v>1652.9</v>
       </c>
       <c r="V209">
-        <v>118.059</v>
+        <v>118.062</v>
       </c>
       <c r="W209">
-        <v>1566.1</v>
+        <v>1566.2</v>
       </c>
       <c r="X209">
-        <v>2567.9</v>
+        <v>2566.7</v>
       </c>
       <c r="Y209">
-        <v>1323.9</v>
+        <v>1324.3</v>
       </c>
       <c r="Z209">
-        <v>2035.1</v>
+        <v>2034</v>
       </c>
       <c r="AA209">
-        <v>2115.4</v>
+        <v>2115.8</v>
       </c>
       <c r="AB209">
-        <v>178.4</v>
+        <v>178.3</v>
       </c>
       <c r="AC209">
-        <v>269.1333333333333</v>
+        <v>281.2</v>
       </c>
       <c r="AD209">
-        <v>1630</v>
+        <v>1630.1</v>
       </c>
       <c r="AE209">
-        <v>2939.1</v>
+        <v>2936.3</v>
       </c>
       <c r="AF209">
-        <v>897.9</v>
+        <v>904.2000000000001</v>
       </c>
       <c r="AG209">
-        <v>629</v>
+        <v>629.1</v>
       </c>
       <c r="AH209">
-        <v>1516.3</v>
+        <v>1515.2</v>
       </c>
       <c r="AI209">
-        <v>90.90000000000001</v>
+        <v>115.4</v>
       </c>
       <c r="AJ209">
         <v>22.8</v>
       </c>
       <c r="AK209">
-        <v>937.9</v>
+        <v>939.2000000000001</v>
       </c>
       <c r="AL209">
-        <v>3474.5</v>
+        <v>3474.7</v>
       </c>
       <c r="AM209">
-        <v>592498</v>
+        <v>592420</v>
       </c>
       <c r="AN209">
-        <v>541892</v>
+        <v>541833</v>
       </c>
       <c r="AO209">
-        <v>73727</v>
+        <v>74768</v>
       </c>
       <c r="AP209">
-        <v>304.5</v>
+        <v>304.7</v>
       </c>
       <c r="AQ209">
         <v>0.6</v>
       </c>
       <c r="AR209">
-        <v>305.2</v>
+        <v>305.3</v>
       </c>
       <c r="AS209">
         <v>14.2</v>
@@ -38472,7 +38472,7 @@
         <v>25.8</v>
       </c>
       <c r="BG209">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="BH209">
         <v>2.4</v>
@@ -38481,7 +38481,7 @@
         <v>0</v>
       </c>
       <c r="BJ209">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="BK209">
         <v>2.4</v>
@@ -38490,25 +38490,25 @@
         <v>0</v>
       </c>
       <c r="BM209">
-        <v>90.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="BN209">
-        <v>142.573</v>
+        <v>139.85</v>
       </c>
       <c r="BO209">
-        <v>10770.5</v>
+        <v>10771.2</v>
       </c>
       <c r="BP209">
-        <v>1854.8</v>
+        <v>1858.5</v>
       </c>
       <c r="BQ209">
-        <v>747.7000000000001</v>
+        <v>743.6</v>
       </c>
       <c r="BR209">
-        <v>2986.7</v>
+        <v>2989.2</v>
       </c>
       <c r="BS209">
-        <v>2282.933333333333</v>
+        <v>2408.5</v>
       </c>
       <c r="BT209">
         <v>35.5</v>
@@ -38517,7 +38517,7 @@
         <v>5.3</v>
       </c>
       <c r="BV209">
-        <v>1126974</v>
+        <v>1126867</v>
       </c>
       <c r="BW209">
         <v>278.4133333333333</v>
@@ -38535,13 +38535,13 @@
         <v>-1</v>
       </c>
       <c r="CB209">
-        <v>5220.666666666667</v>
+        <v>5227</v>
       </c>
       <c r="CC209">
         <v>14009.33333333333</v>
       </c>
       <c r="CD209">
-        <v>324549.6666666667</v>
+        <v>325065.6666666667</v>
       </c>
       <c r="CE209">
         <v>223.1333333333333</v>
